--- a/_site/data/methods.xlsx
+++ b/_site/data/methods.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My_R\overview_megadatabase\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2946BACF-9B17-448F-AAE8-039EDBB128BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60F0FD17-9D60-4E67-AF79-47459E8A4131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D142A978-9658-4202-BF77-FF6002D5B3D1}"/>
   </bookViews>
@@ -151,9 +151,6 @@
     <t>https://doi.org/10.1186/s12874-021-01269-y</t>
   </si>
   <si>
-    <t>Definition of a systematic review used inoverviews of systematic reviews, metaepidemiological studies and textbooks</t>
-  </si>
-  <si>
     <t>https://doi.org/10.1186/s12874-019-0855-0</t>
   </si>
   <si>
@@ -218,6 +215,9 @@
   </si>
   <si>
     <t>Pollock A.</t>
+  </si>
+  <si>
+    <t>Definition of a systematic review used in overviews of systematic reviews, metaepidemiological studies and textbooks</t>
   </si>
 </sst>
 </file>
@@ -826,10 +826,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="C13" s="3">
         <v>2019</v>
@@ -838,15 +838,15 @@
         <v>36</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C14" s="3">
         <v>2012</v>
@@ -855,15 +855,15 @@
         <v>24</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>44</v>
       </c>
       <c r="C15" s="3">
         <v>2014</v>
@@ -872,15 +872,15 @@
         <v>19</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C16" s="3">
         <v>2014</v>
@@ -889,15 +889,15 @@
         <v>24</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C17" s="3">
         <v>2014</v>
@@ -906,15 +906,15 @@
         <v>24</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C18" s="3">
         <v>2016</v>
@@ -923,32 +923,32 @@
         <v>24</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C19" s="3">
         <v>2014</v>
       </c>
       <c r="D19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C20" s="3">
         <v>2021</v>
@@ -957,15 +957,15 @@
         <v>24</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C21" s="3">
         <v>2016</v>
@@ -974,7 +974,7 @@
         <v>24</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/_site/data/methods.xlsx
+++ b/_site/data/methods.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My_R\overview_megadatabase\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60F0FD17-9D60-4E67-AF79-47459E8A4131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0742064D-9EF5-4FE0-8094-5D1B937A6AC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D142A978-9658-4202-BF77-FF6002D5B3D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Φύλλο1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Φύλλο1!$A$1:$E$54</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="162">
   <si>
     <t>first author</t>
   </si>
@@ -112,9 +115,6 @@
     <t>Journal of Clinical Epidemiology</t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1016/j.jclinepi.2015.12.002</t>
-  </si>
-  <si>
     <t>Lunny C.</t>
   </si>
   <si>
@@ -160,9 +160,6 @@
     <t>Overviews of reviews often have limited rigor: a systematic review</t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1016/j.jclinepi.2012.06.015</t>
-  </si>
-  <si>
     <t>Pieper D.</t>
   </si>
   <si>
@@ -175,21 +172,12 @@
     <t>Systematic review finds overlapping reviews were not mentioned in every other overview</t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1016/j.jclinepi.2013.11.007</t>
-  </si>
-  <si>
     <t>Up-to-dateness of reviews is often neglected in overviews: a systematic review</t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1016/j.jclinepi.2014.08.008</t>
-  </si>
-  <si>
     <t>Most overviews of Cochrane reviews neglected potential biases from dual authorship</t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1016/j.jclinepi.2016.04.008</t>
-  </si>
-  <si>
     <t>Buchter R.B.</t>
   </si>
   <si>
@@ -211,13 +199,335 @@
     <t>An algorithm was developed to assign GRADE levels of evidence to comparisons within systematic reviews</t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1016/j.jclinepi.2015.08.013</t>
-  </si>
-  <si>
     <t>Pollock A.</t>
   </si>
   <si>
     <t>Definition of a systematic review used in overviews of systematic reviews, metaepidemiological studies and textbooks</t>
+  </si>
+  <si>
+    <t>Selecting and implementing overview methods: implications from five exemplar overviews</t>
+  </si>
+  <si>
+    <t>Cochrane overviews: how can we optimize their impact
+on evidence-based rehabilitation?</t>
+  </si>
+  <si>
+    <t>European Journal of Physical and Rehabilitation Medicine</t>
+  </si>
+  <si>
+    <t>What guidance is available for researchers conducting overviews of reviews of healthcare interventions? A scoping review and qualitative metasummary</t>
+  </si>
+  <si>
+    <t>Pollock M.</t>
+  </si>
+  <si>
+    <t>Evaluation of AMSTAR to assess the methodological quality of systematic reviews in overviews of reviews of healthcare interventions</t>
+  </si>
+  <si>
+    <t>A decision tool to help researchers make decisions about including systematic reviews in overviews of reviews of healthcare interventions</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1186/s13643-018-0768-8</t>
+  </si>
+  <si>
+    <t>The impact of different inclusion decisions on the comprehensiveness and complexity of overviews of reviews of healthcare interventions</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1186/s13643-018-0914-3</t>
+  </si>
+  <si>
+    <t>A critical reflection on the grading of the certainty of evidence
+in umbrella reviews</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/s10654-019-00531-4</t>
+  </si>
+  <si>
+    <t>Schlesinger S.</t>
+  </si>
+  <si>
+    <t>European Journal of Epidemiology</t>
+  </si>
+  <si>
+    <t>Umbrella reviews: A new tool to synthesizescientific evidence in surgery</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.jviscsurg.2021.10.001</t>
+  </si>
+  <si>
+    <t>Slim K.</t>
+  </si>
+  <si>
+    <t>Journal of Visceral Surgery</t>
+  </si>
+  <si>
+    <t>Methodology in conducting a systematic review of systematic reviews of healthcare interventions</t>
+  </si>
+  <si>
+    <t>Smith V.</t>
+  </si>
+  <si>
+    <t>The role of meta-analyses and umbrella reviews in assessing the harms of psychotropic medications: beyond qualitative synthesis</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1017/S204579601800032X</t>
+  </si>
+  <si>
+    <t>Epidemiology and Psychiatric Sciences</t>
+  </si>
+  <si>
+    <t>Solmi M.</t>
+  </si>
+  <si>
+    <t>The evolution of a new publication type: Steps and challenges of producing overviews of reviews</t>
+  </si>
+  <si>
+    <t>Thomson D.</t>
+  </si>
+  <si>
+    <t>Overview of reviews in child health: evidence synthesis and the knowledge base for a specific population</t>
+  </si>
+  <si>
+    <t>Evidence-Based Child Health</t>
+  </si>
+  <si>
+    <t>Summarizing systematic reviews: methodological development, conduct and reporting of an umbrella review approach</t>
+  </si>
+  <si>
+    <t>International Journal of Evidence-Based Healthcare</t>
+  </si>
+  <si>
+    <t>Aromataris E.</t>
+  </si>
+  <si>
+    <t>The benefits and challenges of conducting an overview of systematic reviews in public health: a focus on physical activity</t>
+  </si>
+  <si>
+    <t>Baker P.R.A.</t>
+  </si>
+  <si>
+    <t>Journal of Public Health</t>
+  </si>
+  <si>
+    <t>Risk of bias in overviews of reviews: a scoping review of methodological guidance and four-item checklist</t>
+  </si>
+  <si>
+    <t>Ballard M.</t>
+  </si>
+  <si>
+    <t>Mediating policy-relevant evidence at speed: are systematic reviews of systematic reviews a useful approach?</t>
+  </si>
+  <si>
+    <t>Caird J.</t>
+  </si>
+  <si>
+    <t>Evidence &amp; Policy: A Journal of Research, Debate and Practice</t>
+  </si>
+  <si>
+    <t>Mixed treatment comparison analysis provides internally coherent treatment effect estimates based on overviews of reviews and can reveal inconsistency</t>
+  </si>
+  <si>
+    <t>Caldwell D.M.</t>
+  </si>
+  <si>
+    <t>WJNR Welcomes Umbrella Reviews</t>
+  </si>
+  <si>
+    <t>Western Journal of Nursing Research</t>
+  </si>
+  <si>
+    <t>Conn V.</t>
+  </si>
+  <si>
+    <t>An evaluation of harvest plots to display results of meta-analyses in overviews of reviews: a cross-sectional study</t>
+  </si>
+  <si>
+    <t>Crick K.</t>
+  </si>
+  <si>
+    <t>Overview authors rarely defined systematic reviews that are included in their overviews</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.jclinepi.2019.01.004</t>
+  </si>
+  <si>
+    <t>Faggion Jr. C.M.</t>
+  </si>
+  <si>
+    <t>Ten simple rules for conducting umbrella reviews</t>
+  </si>
+  <si>
+    <t>Fusar-Poli P.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evidence-Based Mental Health </t>
+  </si>
+  <si>
+    <t>Database combinations to retrieve systematic reviews in overviews of reviews: a methodological study</t>
+  </si>
+  <si>
+    <t>Goossen K.</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1186/s12874-020-00983-3</t>
+  </si>
+  <si>
+    <t>Systematic reviews, overviews of reviews and comparative effectiveness reviews: a discussion of approaches to knowledge synthesis</t>
+  </si>
+  <si>
+    <t>Pooling systematic reviews of systematic reviews: a Bayesian panoramic meta-analysis</t>
+  </si>
+  <si>
+    <t>Statistics in Medicine</t>
+  </si>
+  <si>
+    <t>Hemming K.</t>
+  </si>
+  <si>
+    <t>Integration of evidence from multiple meta-analyses: a primer on umbrella reviews, treatment networks and multiple treatments meta-analyses</t>
+  </si>
+  <si>
+    <t>Ioannidis J.P.A.</t>
+  </si>
+  <si>
+    <t>Canadian Medical Association Journal</t>
+  </si>
+  <si>
+    <t>Next-generation systematic reviews: prospective meta-analysis,
+individual-level data, networks and umbrella reviews</t>
+  </si>
+  <si>
+    <t>British Journal of Sports Medicine</t>
+  </si>
+  <si>
+    <t>Development and application of an outcome-centric approach
+for conducting overviews of reviews1</t>
+  </si>
+  <si>
+    <t>Kho M.E.</t>
+  </si>
+  <si>
+    <t>Overviews of systematic reviews: great promise, greater challenge</t>
+  </si>
+  <si>
+    <t>McKenzie J.E.</t>
+  </si>
+  <si>
+    <t>Applied Physiology, Nutrition, and Metabolism</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1186/s13643-017-0582-8</t>
+  </si>
+  <si>
+    <t>http://doi.org/10.1016/j.jclinepi.2015.12.002</t>
+  </si>
+  <si>
+    <t>http://doi.org/10.1016/j.jclinepi.2012.06.015</t>
+  </si>
+  <si>
+    <t>http://doi.org/10.1016/j.jclinepi.2013.11.007</t>
+  </si>
+  <si>
+    <t>http://doi.org/10.1016/j.jclinepi.2014.08.008</t>
+  </si>
+  <si>
+    <t>http://doi.org/10.1016/j.jclinepi.2016.04.008</t>
+  </si>
+  <si>
+    <t>http://doi.org/10.1016/j.jclinepi.2015.08.013</t>
+  </si>
+  <si>
+    <t>http://doi.org/10.1186/s13643-017-0534-3</t>
+  </si>
+  <si>
+    <t>http://doi.org/10.23736/S1973-9087.19.05780-0</t>
+  </si>
+  <si>
+    <t>http://doi.org/10.1186/s13643-016-0367-5</t>
+  </si>
+  <si>
+    <t>http://doi.org/10.1186/s12874-017-0325-5</t>
+  </si>
+  <si>
+    <t>http://doi.org/10.1002/jrsm.30</t>
+  </si>
+  <si>
+    <t>http://doi.org/10.1002/ebch.1897</t>
+  </si>
+  <si>
+    <t>http://doi.org/10.1097/XEB.0000000000000055</t>
+  </si>
+  <si>
+    <t>http://doi.org/10.1093/pubmed/fdu050</t>
+  </si>
+  <si>
+    <t>http://doi.org/10.1002/jrsm.1229</t>
+  </si>
+  <si>
+    <t>http://doi.org/10.1332/174426514X13988609036850</t>
+  </si>
+  <si>
+    <t>http://doi.org/10.1016/j.jclinepi.2009.08.025</t>
+  </si>
+  <si>
+    <t>http://doi.org/10.1177/0193945913506968</t>
+  </si>
+  <si>
+    <t>http://doi.org/10.1186/s12874-015-0084-0</t>
+  </si>
+  <si>
+    <t>http://doi.org/10.1136/ebmental-2018-300014</t>
+  </si>
+  <si>
+    <t>http://doi.org/10.1002/ebch.1968</t>
+  </si>
+  <si>
+    <t>http://doi.org/10.1002/sim.4372</t>
+  </si>
+  <si>
+    <t>http://doi.org/10.1503/cmaj.081086</t>
+  </si>
+  <si>
+    <t>http://doi.org/10.1136/bjsports-2017-097621</t>
+  </si>
+  <si>
+    <t>http://doi.org/10.1139/apnm-2020-0564</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1186/1471-2288-11-15</t>
+  </si>
+  <si>
+    <t>Preferred reporting items for overviews of systematic reviews including harms checklist: a pilot tool to be used for balanced reporting of benefits and harms</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.jclinepi.2017.10.002</t>
+  </si>
+  <si>
+    <t>Bougioukas K.I.</t>
+  </si>
+  <si>
+    <t>Reporting guidelines on how to write a complete and transparent abstract for overviews of systematic reviews of health care interventions</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.jclinepi.2018.10.005</t>
+  </si>
+  <si>
+    <t>Methods for depicting overlap in overviews of systematic reviews: An introduction to static tabular and graphical displays</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.jclinepi.2020.12.004</t>
+  </si>
+  <si>
+    <t>Global mapping of overviews of systematic reviews in healthcare published between 2000 and 2020: a bibliometric analysis</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.jclinepi.2021.03.019</t>
+  </si>
+  <si>
+    <t>Preferred Reporting Items for Overviews of Reviews (PRIOR): a protocol for development of a reporting guideline for overviews of reviews of healthcare interventions</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1186/s13643-019-1252-9</t>
   </si>
 </sst>
 </file>
@@ -277,7 +587,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -290,6 +600,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
@@ -605,10 +918,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3C04B9F-2B89-4EC8-954F-BE264C2F59A5}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -638,369 +951,966 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
+      <c r="A2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>83</v>
       </c>
       <c r="C2" s="3">
-        <v>2020</v>
+        <v>2015</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>6</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
+      <c r="A3" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>86</v>
       </c>
       <c r="C3" s="3">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>10</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
+      <c r="A4" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>89</v>
       </c>
       <c r="C4" s="3">
+        <v>2017</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2018</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C6" s="3">
         <v>2019</v>
       </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="3">
-        <v>2019</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="3">
-        <v>2018</v>
-      </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>21</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
+      <c r="A7" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>156</v>
       </c>
       <c r="C7" s="3">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="D7" t="s">
         <v>24</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>25</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>26</v>
+        <v>153</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>27</v>
+        <v>158</v>
       </c>
       <c r="C8" s="3">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>28</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="C9" s="3">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="D9" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>30</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>31</v>
+        <v>91</v>
       </c>
       <c r="C10" s="3">
-        <v>2020</v>
+        <v>2015</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>93</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>32</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>33</v>
+        <v>94</v>
       </c>
       <c r="C11" s="3">
-        <v>2021</v>
+        <v>2010</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>34</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>26</v>
+        <v>98</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>35</v>
+        <v>96</v>
       </c>
       <c r="C12" s="3">
-        <v>2021</v>
+        <v>2014</v>
       </c>
       <c r="D12" t="s">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>37</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>39</v>
+        <v>100</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="C13" s="3">
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="D13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>38</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>42</v>
+        <v>103</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>40</v>
+        <v>101</v>
       </c>
       <c r="C14" s="3">
-        <v>2012</v>
+        <v>2019</v>
       </c>
       <c r="D14" t="s">
         <v>24</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>41</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>42</v>
+        <v>105</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>43</v>
+        <v>104</v>
       </c>
       <c r="C15" s="3">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="D15" t="s">
-        <v>19</v>
+        <v>106</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>44</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>45</v>
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
       </c>
       <c r="C16" s="3">
-        <v>2014</v>
+        <v>2020</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>42</v>
+        <v>108</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>47</v>
+        <v>107</v>
       </c>
       <c r="C17" s="3">
-        <v>2014</v>
+        <v>2020</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>48</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>49</v>
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
       </c>
       <c r="C18" s="3">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>52</v>
+        <v>110</v>
       </c>
       <c r="C19" s="3">
         <v>2014</v>
       </c>
       <c r="D19" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>53</v>
+        <v>145</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C20" s="3">
+        <v>2012</v>
+      </c>
+      <c r="D20" t="s">
+        <v>112</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="3">
+        <v>2019</v>
+      </c>
+      <c r="D21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="3">
+        <v>2019</v>
+      </c>
+      <c r="D22" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="3">
+        <v>2018</v>
+      </c>
+      <c r="D23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C24" s="3">
+        <v>2009</v>
+      </c>
+      <c r="D24" t="s">
+        <v>116</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C25" s="3">
+        <v>2017</v>
+      </c>
+      <c r="D25" t="s">
+        <v>118</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C26" s="3">
+        <v>2020</v>
+      </c>
+      <c r="D26" t="s">
+        <v>123</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="3">
+        <v>2016</v>
+      </c>
+      <c r="D27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="3">
+        <v>2017</v>
+      </c>
+      <c r="D28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="3">
+        <v>2018</v>
+      </c>
+      <c r="D29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="3">
+        <v>2020</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="3">
+        <v>2021</v>
+      </c>
+      <c r="D31" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="3">
+        <v>2021</v>
+      </c>
+      <c r="D32" t="s">
+        <v>35</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" s="3">
+        <v>2019</v>
+      </c>
+      <c r="D33" t="s">
+        <v>35</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C34" s="3">
+        <v>2017</v>
+      </c>
+      <c r="D34" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" s="3">
+        <v>2012</v>
+      </c>
+      <c r="D35" t="s">
+        <v>24</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" s="3">
+        <v>2014</v>
+      </c>
+      <c r="D36" t="s">
+        <v>19</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="5" t="s">
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37" s="3">
+        <v>2014</v>
+      </c>
+      <c r="D37" t="s">
+        <v>24</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C38" s="3">
+        <v>2014</v>
+      </c>
+      <c r="D38" t="s">
+        <v>24</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" s="3">
+        <v>2014</v>
+      </c>
+      <c r="D39" t="s">
+        <v>49</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C40" s="3">
+        <v>2021</v>
+      </c>
+      <c r="D40" t="s">
+        <v>24</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41" s="3">
+        <v>2016</v>
+      </c>
+      <c r="D41" t="s">
+        <v>24</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B42" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="3">
-        <v>2021</v>
-      </c>
-      <c r="D20" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20" s="1" t="s">
+      <c r="C42" s="3">
+        <v>2017</v>
+      </c>
+      <c r="D42" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B43" s="5" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
+      <c r="C43" s="3">
+        <v>2019</v>
+      </c>
+      <c r="D43" t="s">
+        <v>57</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" s="3">
+      <c r="B44" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C44" s="3">
         <v>2016</v>
       </c>
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>58</v>
-      </c>
+      <c r="D44" t="s">
+        <v>7</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C45" s="3">
+        <v>2017</v>
+      </c>
+      <c r="D45" t="s">
+        <v>35</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C46" s="3">
+        <v>2019</v>
+      </c>
+      <c r="D46" t="s">
+        <v>7</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C47" s="3">
+        <v>2019</v>
+      </c>
+      <c r="D47" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C48" s="3">
+        <v>2019</v>
+      </c>
+      <c r="D48" t="s">
+        <v>7</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C49" s="3">
+        <v>2019</v>
+      </c>
+      <c r="D49" t="s">
+        <v>68</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C50" s="3">
+        <v>2022</v>
+      </c>
+      <c r="D50" t="s">
+        <v>72</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C51" s="3">
+        <v>2011</v>
+      </c>
+      <c r="D51" t="s">
+        <v>35</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C52" s="3">
+        <v>2018</v>
+      </c>
+      <c r="D52" t="s">
+        <v>77</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C53" s="3">
+        <v>2011</v>
+      </c>
+      <c r="D53" t="s">
+        <v>19</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C54" s="3">
+        <v>2013</v>
+      </c>
+      <c r="D54" t="s">
+        <v>82</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C63" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{F6233517-0866-4B0A-B501-654979DF1645}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{CBD7CBEE-D091-4342-A7E0-41DE558F1037}"/>
-    <hyperlink ref="E4" r:id="rId3" xr:uid="{225B3A1D-B3F0-4695-9FC4-4F153794A4FC}"/>
-    <hyperlink ref="E5" r:id="rId4" xr:uid="{7A1A6A3D-3414-4BF6-BEDD-0EE0347C319E}"/>
-    <hyperlink ref="E6" r:id="rId5" xr:uid="{4CEF4617-6BD3-44D3-8DC1-60D790061756}"/>
-    <hyperlink ref="E7" r:id="rId6" xr:uid="{7D05E552-8270-4F5D-AC46-1ED37444A309}"/>
-    <hyperlink ref="E8" r:id="rId7" xr:uid="{6C173CBA-3446-4E84-9A3E-965DF6C6C088}"/>
-    <hyperlink ref="E9" r:id="rId8" xr:uid="{1846651B-6412-4AFB-AFB8-F96A2B371A6C}"/>
-    <hyperlink ref="E10" r:id="rId9" xr:uid="{C7270FA0-2830-4BB7-B110-850D8F971AEE}"/>
-    <hyperlink ref="E11" r:id="rId10" xr:uid="{D8221DFD-AF62-413A-9472-7B2D09F8AB38}"/>
-    <hyperlink ref="E12" r:id="rId11" xr:uid="{92989DC9-D56C-47D5-BFEE-71F6C0F3A548}"/>
-    <hyperlink ref="E13" r:id="rId12" xr:uid="{5B9642B1-4705-45AB-89BE-F072B333EBB6}"/>
-    <hyperlink ref="E14" r:id="rId13" xr:uid="{F05B4BA6-E510-400E-8A22-DBADEF073FBF}"/>
-    <hyperlink ref="E15" r:id="rId14" xr:uid="{3BF46FAB-1246-4475-A357-107735FE4BDF}"/>
-    <hyperlink ref="E16" r:id="rId15" xr:uid="{D048DBA0-6B3B-4476-A0C3-4EB3819321C8}"/>
-    <hyperlink ref="E17" r:id="rId16" xr:uid="{1437ABFF-76B7-4768-9BD6-04546FB41212}"/>
-    <hyperlink ref="E18" r:id="rId17" xr:uid="{DF9385FD-36DB-4A19-8CBC-22A0966BA589}"/>
-    <hyperlink ref="E19" r:id="rId18" xr:uid="{A49C63A5-4761-4004-903F-BDC70A97AEB9}"/>
-    <hyperlink ref="E20" r:id="rId19" xr:uid="{475B209A-E520-460B-B1CA-985518CA6942}"/>
-    <hyperlink ref="E21" r:id="rId20" xr:uid="{365A4CF1-32B5-4CD5-8ACD-8871125C9A40}"/>
+    <hyperlink ref="E16" r:id="rId1" xr:uid="{F6233517-0866-4B0A-B501-654979DF1645}"/>
+    <hyperlink ref="E18" r:id="rId2" xr:uid="{CBD7CBEE-D091-4342-A7E0-41DE558F1037}"/>
+    <hyperlink ref="E21" r:id="rId3" xr:uid="{225B3A1D-B3F0-4695-9FC4-4F153794A4FC}"/>
+    <hyperlink ref="E22" r:id="rId4" xr:uid="{7A1A6A3D-3414-4BF6-BEDD-0EE0347C319E}"/>
+    <hyperlink ref="E23" r:id="rId5" xr:uid="{4CEF4617-6BD3-44D3-8DC1-60D790061756}"/>
+    <hyperlink ref="E27" r:id="rId6" xr:uid="{7D05E552-8270-4F5D-AC46-1ED37444A309}"/>
+    <hyperlink ref="E28" r:id="rId7" xr:uid="{6C173CBA-3446-4E84-9A3E-965DF6C6C088}"/>
+    <hyperlink ref="E29" r:id="rId8" xr:uid="{1846651B-6412-4AFB-AFB8-F96A2B371A6C}"/>
+    <hyperlink ref="E30" r:id="rId9" xr:uid="{C7270FA0-2830-4BB7-B110-850D8F971AEE}"/>
+    <hyperlink ref="E31" r:id="rId10" xr:uid="{D8221DFD-AF62-413A-9472-7B2D09F8AB38}"/>
+    <hyperlink ref="E32" r:id="rId11" xr:uid="{92989DC9-D56C-47D5-BFEE-71F6C0F3A548}"/>
+    <hyperlink ref="E33" r:id="rId12" xr:uid="{5B9642B1-4705-45AB-89BE-F072B333EBB6}"/>
+    <hyperlink ref="E35" r:id="rId13" xr:uid="{F05B4BA6-E510-400E-8A22-DBADEF073FBF}"/>
+    <hyperlink ref="E36" r:id="rId14" xr:uid="{3BF46FAB-1246-4475-A357-107735FE4BDF}"/>
+    <hyperlink ref="E37" r:id="rId15" xr:uid="{D048DBA0-6B3B-4476-A0C3-4EB3819321C8}"/>
+    <hyperlink ref="E38" r:id="rId16" xr:uid="{1437ABFF-76B7-4768-9BD6-04546FB41212}"/>
+    <hyperlink ref="E9" r:id="rId17" xr:uid="{DF9385FD-36DB-4A19-8CBC-22A0966BA589}"/>
+    <hyperlink ref="E39" r:id="rId18" xr:uid="{A49C63A5-4761-4004-903F-BDC70A97AEB9}"/>
+    <hyperlink ref="E40" r:id="rId19" xr:uid="{475B209A-E520-460B-B1CA-985518CA6942}"/>
+    <hyperlink ref="E41" r:id="rId20" xr:uid="{365A4CF1-32B5-4CD5-8ACD-8871125C9A40}"/>
+    <hyperlink ref="E42" r:id="rId21" xr:uid="{F2B048DB-66F1-433F-824F-55CCC95C49F5}"/>
+    <hyperlink ref="E43" r:id="rId22" xr:uid="{B72A565C-741D-4F46-9AF2-3331FE245855}"/>
+    <hyperlink ref="E44" r:id="rId23" xr:uid="{81A40882-ACC5-427E-BC31-0390936D9ADA}"/>
+    <hyperlink ref="E45" r:id="rId24" xr:uid="{BAC61EA9-3ABF-4FBA-AB98-603E87B01642}"/>
+    <hyperlink ref="E46" r:id="rId25" xr:uid="{F311DB40-30CB-49FF-89EB-8929E8CC149D}"/>
+    <hyperlink ref="E47" r:id="rId26" xr:uid="{B1672B26-3311-4AB8-8DB8-10AB5E887662}"/>
+    <hyperlink ref="E49" r:id="rId27" xr:uid="{E1CC58C1-4BAD-4445-B722-3DC7F9057180}"/>
+    <hyperlink ref="E50" r:id="rId28" xr:uid="{AF7EF548-2486-4D16-93AD-8972177ECDC3}"/>
+    <hyperlink ref="E51" r:id="rId29" xr:uid="{24D15E37-D60C-432F-9CED-DCB5F84A8EA1}"/>
+    <hyperlink ref="E52" r:id="rId30" xr:uid="{E65E5986-C0ED-4D73-B262-03C37CE34824}"/>
+    <hyperlink ref="E53" r:id="rId31" xr:uid="{48A3DD7D-15A4-49DF-9BB8-0BF37E9BA8BF}"/>
+    <hyperlink ref="E54" r:id="rId32" xr:uid="{EB968D9A-2B1C-4356-8976-E3B995613790}"/>
+    <hyperlink ref="E2" r:id="rId33" xr:uid="{B8FCB838-5B1C-4D4C-B527-4AB9924EB2D3}"/>
+    <hyperlink ref="E3" r:id="rId34" xr:uid="{025C23AA-1E34-4632-B635-9FA1B738A3E9}"/>
+    <hyperlink ref="E4" r:id="rId35" xr:uid="{C7F936C0-3049-4E9A-8E0A-D27C6AB16FBC}"/>
+    <hyperlink ref="E10" r:id="rId36" xr:uid="{3BA864D8-6C95-445A-9E36-94695B2653D8}"/>
+    <hyperlink ref="E11" r:id="rId37" xr:uid="{66FE564C-E3E8-4D41-8387-922E5C4C1218}"/>
+    <hyperlink ref="E12" r:id="rId38" xr:uid="{4692811E-5658-4F6D-888F-1FA57CB69055}"/>
+    <hyperlink ref="E13" r:id="rId39" xr:uid="{77B6D308-44FF-4E92-BBFB-EF9AD6EA9A68}"/>
+    <hyperlink ref="E14" r:id="rId40" xr:uid="{7AFECFFC-8ADB-41C7-841B-216E556AAA4F}"/>
+    <hyperlink ref="E15" r:id="rId41" xr:uid="{DB25165C-39D2-4A45-B455-85A8EEDFE6B6}"/>
+    <hyperlink ref="E17" r:id="rId42" xr:uid="{458C6FF6-3543-45CE-9606-8A3082F62F0A}"/>
+    <hyperlink ref="E19" r:id="rId43" xr:uid="{94EFA63E-CE0C-4475-A396-18D53D8A6EC4}"/>
+    <hyperlink ref="E20" r:id="rId44" xr:uid="{92D4FFEE-7B65-4017-A716-809C7F8B0E04}"/>
+    <hyperlink ref="E24" r:id="rId45" xr:uid="{0B76847B-6C94-4E2D-A094-FCE72CC29EBF}"/>
+    <hyperlink ref="E25" r:id="rId46" xr:uid="{81C1C27A-8200-4CB8-8CA5-E4B85D519FDA}"/>
+    <hyperlink ref="E26" r:id="rId47" xr:uid="{B80CDD91-38DA-4375-88A0-B543FE2A3CCB}"/>
+    <hyperlink ref="E34" r:id="rId48" xr:uid="{085EF44D-1625-46A8-B320-B4D73C2793C3}"/>
+    <hyperlink ref="E5" r:id="rId49" xr:uid="{9050D2E2-A996-4813-BDAB-90A6E969B393}"/>
+    <hyperlink ref="E6" r:id="rId50" xr:uid="{3FB58120-E5D0-4688-A553-FA719EE8AF86}"/>
+    <hyperlink ref="E7" r:id="rId51" xr:uid="{27E6CD87-1D85-4CFF-82C0-B75E68882093}"/>
+    <hyperlink ref="E8" r:id="rId52" xr:uid="{5726F0E2-EBA2-49FB-B482-C266FBD309BF}"/>
+    <hyperlink ref="E48" r:id="rId53" xr:uid="{34EFA9BA-9C8C-4881-A64C-2F70C6927793}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId21"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId54"/>
 </worksheet>
 </file>
--- a/_site/data/methods.xlsx
+++ b/_site/data/methods.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My_R\overview_megadatabase\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0742064D-9EF5-4FE0-8094-5D1B937A6AC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F3702C0-F165-46BC-9928-E84BF2D7EA64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D142A978-9658-4202-BF77-FF6002D5B3D1}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Φύλλο1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Φύλλο1!$A$1:$E$54</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Φύλλο1!$A$1:$E$67</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="206">
   <si>
     <t>first author</t>
   </si>
@@ -528,13 +528,146 @@
   </si>
   <si>
     <t>https://doi.org/10.1186/s13643-019-1252-9</t>
+  </si>
+  <si>
+    <t>Robinson K.A.</t>
+  </si>
+  <si>
+    <t>Integration of existing systematic reviews into new reviews: identification of guidance needs</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1186/2046-4053-3-60</t>
+  </si>
+  <si>
+    <t>Essential elements required for conducting and structuring an overview of systematic reviews in the field of traditional and complementary medicine</t>
+  </si>
+  <si>
+    <t>Kim T.H.</t>
+  </si>
+  <si>
+    <t>European Journal of Integrative Medicine</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.eujim.2021.101605</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1186/s13643-019-1087-4</t>
+  </si>
+  <si>
+    <t>Lewis R.</t>
+  </si>
+  <si>
+    <t>Pragmatic methods for reviewing exceptionally large bodies of evidence: systematic mapping review and overview of systematic reviews using lung cancer survival as an exemplar</t>
+  </si>
+  <si>
+    <t>Future of Evidence Ecosystem Series: Evidence synthesis 2.0: when systematic, scoping, rapid, living, and overviews of reviews come together</t>
+  </si>
+  <si>
+    <t>Akl E.A.</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.jclinepi.2020.01.025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The overview of reviews: unique challenges and opportunities when research syntheses are the principal elements of new integrative scholarship </t>
+  </si>
+  <si>
+    <t>Cooper H.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1037/a0027119 </t>
+  </si>
+  <si>
+    <t>American Psychologist</t>
+  </si>
+  <si>
+    <t>Quality and transparency of overviews of systematic
+reviews</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1111/j.1756-5391.2012.01185.x</t>
+  </si>
+  <si>
+    <t>Li L.</t>
+  </si>
+  <si>
+    <t>Overviews of Reviews: Concept and Development</t>
+  </si>
+  <si>
+    <t>López-López J.A.</t>
+  </si>
+  <si>
+    <t>Psicothema</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.7334/psicothema2021.586</t>
+  </si>
+  <si>
+    <t>COMMENTARY Umbrella reviews: what they are and why we need them</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/s10654-019-00505-6</t>
+  </si>
+  <si>
+    <t>Are current scoliosis school screening recommendations evidencebased and up to date? A best evidence synthesis umbrella review</t>
+  </si>
+  <si>
+    <t>Papatheodorou S.</t>
+  </si>
+  <si>
+    <t>Plaszewski M.</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/s00586-014-3307-x</t>
+  </si>
+  <si>
+    <t>Assessment of Duplicate Evidence in Systematic Reviews of Imaging Findings of Children With COVID-19</t>
+  </si>
+  <si>
+    <t>Perez-Gaxiola G.</t>
+  </si>
+  <si>
+    <t>JAMA Network Open</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1001/jamanetworkopen.2020.32690</t>
+  </si>
+  <si>
+    <t>Best Practices for Meta-Reviews in Physical Activity and Health Research: Insights From the Physical Activity Guidelines for Americans Advisory Committee Scientific Report</t>
+  </si>
+  <si>
+    <t>Journal of Physical Activity and Health</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1123/jpah.2021-0243</t>
+  </si>
+  <si>
+    <t>A scoping review of scoping reviews: advancing the approach and enhancing the consistency</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1002/jrsm.1123</t>
+  </si>
+  <si>
+    <t>Journal of Mixed Methods Research</t>
+  </si>
+  <si>
+    <t>Pescatello L.S.</t>
+  </si>
+  <si>
+    <t>Pham M.T.</t>
+  </si>
+  <si>
+    <t>Systematic Reviews of Systematic Quantitative, Qualitative, and Mixed Studies Reviews in Healthcare Research: How to Assess the Methodological Quality of Included Reviews?</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1177/15586898211054243</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -557,6 +690,14 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="161"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -600,7 +741,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -918,11 +1059,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3C04B9F-2B89-4EC8-954F-BE264C2F59A5}">
-  <dimension ref="A1:E63"/>
+  <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -952,70 +1091,70 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>85</v>
+        <v>173</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>83</v>
+        <v>172</v>
       </c>
       <c r="C2" s="3">
-        <v>2015</v>
+        <v>2020</v>
       </c>
       <c r="D2" t="s">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>137</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C3" s="3">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C4" s="3">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>153</v>
+        <v>90</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>151</v>
+        <v>89</v>
       </c>
       <c r="C5" s="3">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1023,16 +1162,16 @@
         <v>153</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C6" s="3">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1040,16 +1179,16 @@
         <v>153</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C7" s="3">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="D7" t="s">
         <v>24</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -1057,7 +1196,7 @@
         <v>153</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C8" s="3">
         <v>2021</v>
@@ -1066,440 +1205,440 @@
         <v>24</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>46</v>
+        <v>153</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>45</v>
+        <v>158</v>
       </c>
       <c r="C9" s="3">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="D9" t="s">
         <v>24</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>129</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>92</v>
+        <v>46</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="C10" s="3">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D10" t="s">
-        <v>93</v>
+        <v>24</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C11" s="3">
-        <v>2010</v>
+        <v>2015</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>93</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C12" s="3">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="D12" t="s">
-        <v>97</v>
+        <v>24</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C13" s="3">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="D13" t="s">
-        <v>35</v>
+        <v>97</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>103</v>
+        <v>176</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>101</v>
+        <v>175</v>
       </c>
       <c r="C14" s="3">
-        <v>2019</v>
+        <v>2012</v>
       </c>
       <c r="D14" t="s">
-        <v>24</v>
+        <v>178</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>102</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C15" s="3">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="D15" t="s">
-        <v>106</v>
+        <v>35</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" t="s">
-        <v>5</v>
+      <c r="A16" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>101</v>
       </c>
       <c r="C16" s="3">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D16" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>6</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C17" s="3">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D17" t="s">
-        <v>35</v>
+        <v>106</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>109</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C18" s="3">
-        <v>2012</v>
+        <v>2020</v>
       </c>
       <c r="D18" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C19" s="3">
+        <v>2020</v>
+      </c>
+      <c r="D19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="C19" s="3">
-        <v>2014</v>
-      </c>
-      <c r="D19" t="s">
-        <v>82</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>111</v>
+      <c r="B20" t="s">
+        <v>9</v>
       </c>
       <c r="C20" s="3">
         <v>2012</v>
       </c>
       <c r="D20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C21" s="3">
+        <v>2014</v>
+      </c>
+      <c r="D21" t="s">
+        <v>82</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C22" s="3">
+        <v>2012</v>
+      </c>
+      <c r="D22" t="s">
         <v>112</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>146</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="3">
-        <v>2019</v>
-      </c>
-      <c r="D21" t="s">
-        <v>14</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="3">
-        <v>2019</v>
-      </c>
-      <c r="D22" t="s">
-        <v>19</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="3">
+        <v>2019</v>
+      </c>
+      <c r="D23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="3">
+        <v>2019</v>
+      </c>
+      <c r="D24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B25" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C25" s="3">
         <v>2018</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D25" t="s">
         <v>7</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="C24" s="3">
-        <v>2009</v>
-      </c>
-      <c r="D24" t="s">
-        <v>116</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="C25" s="3">
-        <v>2017</v>
-      </c>
-      <c r="D25" t="s">
-        <v>118</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C26" s="3">
-        <v>2020</v>
+        <v>2009</v>
       </c>
       <c r="D26" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>23</v>
+      <c r="A27" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>117</v>
       </c>
       <c r="C27" s="3">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D27" t="s">
-        <v>24</v>
+        <v>118</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>25</v>
+        <v>120</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>26</v>
+        <v>119</v>
       </c>
       <c r="C28" s="3">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="D28" t="s">
-        <v>7</v>
+        <v>123</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>27</v>
+        <v>149</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>25</v>
+        <v>166</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>28</v>
+        <v>165</v>
       </c>
       <c r="C29" s="3">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="D29" t="s">
-        <v>7</v>
+        <v>167</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>29</v>
+        <v>168</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>25</v>
+        <v>170</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>30</v>
+        <v>171</v>
       </c>
       <c r="C30" s="3">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D30" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>31</v>
+        <v>169</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>25</v>
+        <v>181</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>32</v>
+        <v>179</v>
       </c>
       <c r="C31" s="3">
-        <v>2021</v>
+        <v>2012</v>
       </c>
       <c r="D31" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>33</v>
+        <v>180</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C32" s="3">
+        <v>2012</v>
+      </c>
+      <c r="D32" t="s">
+        <v>184</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>25</v>
       </c>
-      <c r="B32" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C32" s="3">
-        <v>2021</v>
-      </c>
-      <c r="D32" t="s">
-        <v>35</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>54</v>
+      <c r="B33" t="s">
+        <v>23</v>
       </c>
       <c r="C33" s="3">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="D33" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>37</v>
+        <v>125</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>122</v>
+        <v>25</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>121</v>
+        <v>26</v>
       </c>
       <c r="C34" s="3">
         <v>2017</v>
@@ -1508,409 +1647,642 @@
         <v>7</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>124</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C35" s="3">
-        <v>2012</v>
+        <v>2018</v>
       </c>
       <c r="D35" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>126</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C36" s="3">
-        <v>2014</v>
+        <v>2020</v>
       </c>
       <c r="D36" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C37" s="3">
-        <v>2014</v>
+        <v>2021</v>
       </c>
       <c r="D37" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>127</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C38" s="3">
-        <v>2014</v>
+        <v>2021</v>
       </c>
       <c r="D38" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>128</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C39" s="3">
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="D39" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
-        <v>40</v>
+        <v>122</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>50</v>
+        <v>121</v>
       </c>
       <c r="C40" s="3">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="D40" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>51</v>
+        <v>124</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>53</v>
+        <v>189</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>52</v>
+        <v>186</v>
       </c>
       <c r="C41" s="3">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="D41" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>130</v>
+        <v>187</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>53</v>
+        <v>193</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>55</v>
+        <v>192</v>
       </c>
       <c r="C42" s="3">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="D42" t="s">
-        <v>7</v>
+        <v>194</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>131</v>
+        <v>195</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>53</v>
+        <v>202</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>56</v>
+        <v>196</v>
       </c>
       <c r="C43" s="3">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="D43" t="s">
-        <v>57</v>
+        <v>197</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>132</v>
+        <v>198</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
-        <v>59</v>
+        <v>203</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>58</v>
+        <v>199</v>
       </c>
       <c r="C44" s="3">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="D44" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>133</v>
+        <v>200</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="C45" s="3">
-        <v>2017</v>
+        <v>2012</v>
       </c>
       <c r="D45" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="C46" s="3">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="D46" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="C47" s="3">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="D47" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>64</v>
+        <v>127</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>160</v>
+        <v>44</v>
       </c>
       <c r="C48" s="3">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="D48" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>161</v>
+        <v>128</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="C49" s="3">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="D49" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="C50" s="3">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D50" t="s">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
-        <v>74</v>
+        <v>190</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C51" s="3">
-        <v>2011</v>
+        <v>188</v>
+      </c>
+      <c r="C51" s="6">
+        <v>2014</v>
       </c>
       <c r="D51" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>150</v>
+        <v>191</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="C52" s="3">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="D52" t="s">
-        <v>77</v>
+        <v>24</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>76</v>
+        <v>130</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="C53" s="3">
-        <v>2011</v>
+        <v>2017</v>
       </c>
       <c r="D53" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C54" s="3">
+        <v>2019</v>
+      </c>
+      <c r="D54" t="s">
+        <v>57</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C55" s="3">
+        <v>2016</v>
+      </c>
+      <c r="D55" t="s">
+        <v>7</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C56" s="3">
+        <v>2017</v>
+      </c>
+      <c r="D56" t="s">
+        <v>35</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C57" s="3">
+        <v>2019</v>
+      </c>
+      <c r="D57" t="s">
+        <v>7</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C58" s="3">
+        <v>2019</v>
+      </c>
+      <c r="D58" t="s">
+        <v>7</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C59" s="3">
+        <v>2019</v>
+      </c>
+      <c r="D59" t="s">
+        <v>7</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C60" s="3">
+        <v>2014</v>
+      </c>
+      <c r="D60" t="s">
+        <v>7</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C61" s="3">
+        <v>2019</v>
+      </c>
+      <c r="D61" t="s">
+        <v>68</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C62" s="3">
+        <v>2022</v>
+      </c>
+      <c r="D62" t="s">
+        <v>72</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C63" s="3">
+        <v>2011</v>
+      </c>
+      <c r="D63" t="s">
+        <v>35</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C64" s="3">
+        <v>2018</v>
+      </c>
+      <c r="D64" t="s">
+        <v>77</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B65" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C65" s="3">
+        <v>2011</v>
+      </c>
+      <c r="D65" t="s">
+        <v>19</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B66" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C54" s="3">
+      <c r="C66" s="3">
         <v>2013</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D66" t="s">
         <v>82</v>
       </c>
-      <c r="E54" s="1" t="s">
+      <c r="E66" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C63" s="6"/>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B67" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="C67" s="3">
+        <v>2021</v>
+      </c>
+      <c r="D67" t="s">
+        <v>201</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>205</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E67" xr:uid="{C3C04B9F-2B89-4EC8-954F-BE264C2F59A5}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E67">
+      <sortCondition ref="A1:A67"/>
+    </sortState>
+  </autoFilter>
   <hyperlinks>
-    <hyperlink ref="E16" r:id="rId1" xr:uid="{F6233517-0866-4B0A-B501-654979DF1645}"/>
-    <hyperlink ref="E18" r:id="rId2" xr:uid="{CBD7CBEE-D091-4342-A7E0-41DE558F1037}"/>
-    <hyperlink ref="E21" r:id="rId3" xr:uid="{225B3A1D-B3F0-4695-9FC4-4F153794A4FC}"/>
-    <hyperlink ref="E22" r:id="rId4" xr:uid="{7A1A6A3D-3414-4BF6-BEDD-0EE0347C319E}"/>
-    <hyperlink ref="E23" r:id="rId5" xr:uid="{4CEF4617-6BD3-44D3-8DC1-60D790061756}"/>
-    <hyperlink ref="E27" r:id="rId6" xr:uid="{7D05E552-8270-4F5D-AC46-1ED37444A309}"/>
-    <hyperlink ref="E28" r:id="rId7" xr:uid="{6C173CBA-3446-4E84-9A3E-965DF6C6C088}"/>
-    <hyperlink ref="E29" r:id="rId8" xr:uid="{1846651B-6412-4AFB-AFB8-F96A2B371A6C}"/>
-    <hyperlink ref="E30" r:id="rId9" xr:uid="{C7270FA0-2830-4BB7-B110-850D8F971AEE}"/>
-    <hyperlink ref="E31" r:id="rId10" xr:uid="{D8221DFD-AF62-413A-9472-7B2D09F8AB38}"/>
-    <hyperlink ref="E32" r:id="rId11" xr:uid="{92989DC9-D56C-47D5-BFEE-71F6C0F3A548}"/>
-    <hyperlink ref="E33" r:id="rId12" xr:uid="{5B9642B1-4705-45AB-89BE-F072B333EBB6}"/>
-    <hyperlink ref="E35" r:id="rId13" xr:uid="{F05B4BA6-E510-400E-8A22-DBADEF073FBF}"/>
-    <hyperlink ref="E36" r:id="rId14" xr:uid="{3BF46FAB-1246-4475-A357-107735FE4BDF}"/>
-    <hyperlink ref="E37" r:id="rId15" xr:uid="{D048DBA0-6B3B-4476-A0C3-4EB3819321C8}"/>
-    <hyperlink ref="E38" r:id="rId16" xr:uid="{1437ABFF-76B7-4768-9BD6-04546FB41212}"/>
-    <hyperlink ref="E9" r:id="rId17" xr:uid="{DF9385FD-36DB-4A19-8CBC-22A0966BA589}"/>
-    <hyperlink ref="E39" r:id="rId18" xr:uid="{A49C63A5-4761-4004-903F-BDC70A97AEB9}"/>
-    <hyperlink ref="E40" r:id="rId19" xr:uid="{475B209A-E520-460B-B1CA-985518CA6942}"/>
-    <hyperlink ref="E41" r:id="rId20" xr:uid="{365A4CF1-32B5-4CD5-8ACD-8871125C9A40}"/>
-    <hyperlink ref="E42" r:id="rId21" xr:uid="{F2B048DB-66F1-433F-824F-55CCC95C49F5}"/>
-    <hyperlink ref="E43" r:id="rId22" xr:uid="{B72A565C-741D-4F46-9AF2-3331FE245855}"/>
-    <hyperlink ref="E44" r:id="rId23" xr:uid="{81A40882-ACC5-427E-BC31-0390936D9ADA}"/>
-    <hyperlink ref="E45" r:id="rId24" xr:uid="{BAC61EA9-3ABF-4FBA-AB98-603E87B01642}"/>
-    <hyperlink ref="E46" r:id="rId25" xr:uid="{F311DB40-30CB-49FF-89EB-8929E8CC149D}"/>
-    <hyperlink ref="E47" r:id="rId26" xr:uid="{B1672B26-3311-4AB8-8DB8-10AB5E887662}"/>
-    <hyperlink ref="E49" r:id="rId27" xr:uid="{E1CC58C1-4BAD-4445-B722-3DC7F9057180}"/>
-    <hyperlink ref="E50" r:id="rId28" xr:uid="{AF7EF548-2486-4D16-93AD-8972177ECDC3}"/>
-    <hyperlink ref="E51" r:id="rId29" xr:uid="{24D15E37-D60C-432F-9CED-DCB5F84A8EA1}"/>
-    <hyperlink ref="E52" r:id="rId30" xr:uid="{E65E5986-C0ED-4D73-B262-03C37CE34824}"/>
-    <hyperlink ref="E53" r:id="rId31" xr:uid="{48A3DD7D-15A4-49DF-9BB8-0BF37E9BA8BF}"/>
-    <hyperlink ref="E54" r:id="rId32" xr:uid="{EB968D9A-2B1C-4356-8976-E3B995613790}"/>
-    <hyperlink ref="E2" r:id="rId33" xr:uid="{B8FCB838-5B1C-4D4C-B527-4AB9924EB2D3}"/>
-    <hyperlink ref="E3" r:id="rId34" xr:uid="{025C23AA-1E34-4632-B635-9FA1B738A3E9}"/>
-    <hyperlink ref="E4" r:id="rId35" xr:uid="{C7F936C0-3049-4E9A-8E0A-D27C6AB16FBC}"/>
-    <hyperlink ref="E10" r:id="rId36" xr:uid="{3BA864D8-6C95-445A-9E36-94695B2653D8}"/>
-    <hyperlink ref="E11" r:id="rId37" xr:uid="{66FE564C-E3E8-4D41-8387-922E5C4C1218}"/>
-    <hyperlink ref="E12" r:id="rId38" xr:uid="{4692811E-5658-4F6D-888F-1FA57CB69055}"/>
-    <hyperlink ref="E13" r:id="rId39" xr:uid="{77B6D308-44FF-4E92-BBFB-EF9AD6EA9A68}"/>
-    <hyperlink ref="E14" r:id="rId40" xr:uid="{7AFECFFC-8ADB-41C7-841B-216E556AAA4F}"/>
-    <hyperlink ref="E15" r:id="rId41" xr:uid="{DB25165C-39D2-4A45-B455-85A8EEDFE6B6}"/>
-    <hyperlink ref="E17" r:id="rId42" xr:uid="{458C6FF6-3543-45CE-9606-8A3082F62F0A}"/>
-    <hyperlink ref="E19" r:id="rId43" xr:uid="{94EFA63E-CE0C-4475-A396-18D53D8A6EC4}"/>
-    <hyperlink ref="E20" r:id="rId44" xr:uid="{92D4FFEE-7B65-4017-A716-809C7F8B0E04}"/>
-    <hyperlink ref="E24" r:id="rId45" xr:uid="{0B76847B-6C94-4E2D-A094-FCE72CC29EBF}"/>
-    <hyperlink ref="E25" r:id="rId46" xr:uid="{81C1C27A-8200-4CB8-8CA5-E4B85D519FDA}"/>
-    <hyperlink ref="E26" r:id="rId47" xr:uid="{B80CDD91-38DA-4375-88A0-B543FE2A3CCB}"/>
-    <hyperlink ref="E34" r:id="rId48" xr:uid="{085EF44D-1625-46A8-B320-B4D73C2793C3}"/>
-    <hyperlink ref="E5" r:id="rId49" xr:uid="{9050D2E2-A996-4813-BDAB-90A6E969B393}"/>
-    <hyperlink ref="E6" r:id="rId50" xr:uid="{3FB58120-E5D0-4688-A553-FA719EE8AF86}"/>
-    <hyperlink ref="E7" r:id="rId51" xr:uid="{27E6CD87-1D85-4CFF-82C0-B75E68882093}"/>
-    <hyperlink ref="E8" r:id="rId52" xr:uid="{5726F0E2-EBA2-49FB-B482-C266FBD309BF}"/>
-    <hyperlink ref="E48" r:id="rId53" xr:uid="{34EFA9BA-9C8C-4881-A64C-2F70C6927793}"/>
+    <hyperlink ref="E18" r:id="rId1" xr:uid="{F6233517-0866-4B0A-B501-654979DF1645}"/>
+    <hyperlink ref="E20" r:id="rId2" xr:uid="{CBD7CBEE-D091-4342-A7E0-41DE558F1037}"/>
+    <hyperlink ref="E23" r:id="rId3" xr:uid="{225B3A1D-B3F0-4695-9FC4-4F153794A4FC}"/>
+    <hyperlink ref="E24" r:id="rId4" xr:uid="{7A1A6A3D-3414-4BF6-BEDD-0EE0347C319E}"/>
+    <hyperlink ref="E25" r:id="rId5" xr:uid="{4CEF4617-6BD3-44D3-8DC1-60D790061756}"/>
+    <hyperlink ref="E33" r:id="rId6" xr:uid="{7D05E552-8270-4F5D-AC46-1ED37444A309}"/>
+    <hyperlink ref="E34" r:id="rId7" xr:uid="{6C173CBA-3446-4E84-9A3E-965DF6C6C088}"/>
+    <hyperlink ref="E35" r:id="rId8" xr:uid="{1846651B-6412-4AFB-AFB8-F96A2B371A6C}"/>
+    <hyperlink ref="E36" r:id="rId9" xr:uid="{C7270FA0-2830-4BB7-B110-850D8F971AEE}"/>
+    <hyperlink ref="E37" r:id="rId10" xr:uid="{D8221DFD-AF62-413A-9472-7B2D09F8AB38}"/>
+    <hyperlink ref="E38" r:id="rId11" xr:uid="{92989DC9-D56C-47D5-BFEE-71F6C0F3A548}"/>
+    <hyperlink ref="E39" r:id="rId12" xr:uid="{5B9642B1-4705-45AB-89BE-F072B333EBB6}"/>
+    <hyperlink ref="E45" r:id="rId13" xr:uid="{F05B4BA6-E510-400E-8A22-DBADEF073FBF}"/>
+    <hyperlink ref="E46" r:id="rId14" xr:uid="{3BF46FAB-1246-4475-A357-107735FE4BDF}"/>
+    <hyperlink ref="E47" r:id="rId15" xr:uid="{D048DBA0-6B3B-4476-A0C3-4EB3819321C8}"/>
+    <hyperlink ref="E48" r:id="rId16" xr:uid="{1437ABFF-76B7-4768-9BD6-04546FB41212}"/>
+    <hyperlink ref="E10" r:id="rId17" xr:uid="{DF9385FD-36DB-4A19-8CBC-22A0966BA589}"/>
+    <hyperlink ref="E49" r:id="rId18" xr:uid="{A49C63A5-4761-4004-903F-BDC70A97AEB9}"/>
+    <hyperlink ref="E50" r:id="rId19" xr:uid="{475B209A-E520-460B-B1CA-985518CA6942}"/>
+    <hyperlink ref="E52" r:id="rId20" xr:uid="{365A4CF1-32B5-4CD5-8ACD-8871125C9A40}"/>
+    <hyperlink ref="E53" r:id="rId21" xr:uid="{F2B048DB-66F1-433F-824F-55CCC95C49F5}"/>
+    <hyperlink ref="E54" r:id="rId22" xr:uid="{B72A565C-741D-4F46-9AF2-3331FE245855}"/>
+    <hyperlink ref="E55" r:id="rId23" xr:uid="{81A40882-ACC5-427E-BC31-0390936D9ADA}"/>
+    <hyperlink ref="E56" r:id="rId24" xr:uid="{BAC61EA9-3ABF-4FBA-AB98-603E87B01642}"/>
+    <hyperlink ref="E57" r:id="rId25" xr:uid="{F311DB40-30CB-49FF-89EB-8929E8CC149D}"/>
+    <hyperlink ref="E58" r:id="rId26" xr:uid="{B1672B26-3311-4AB8-8DB8-10AB5E887662}"/>
+    <hyperlink ref="E61" r:id="rId27" xr:uid="{E1CC58C1-4BAD-4445-B722-3DC7F9057180}"/>
+    <hyperlink ref="E62" r:id="rId28" xr:uid="{AF7EF548-2486-4D16-93AD-8972177ECDC3}"/>
+    <hyperlink ref="E63" r:id="rId29" xr:uid="{24D15E37-D60C-432F-9CED-DCB5F84A8EA1}"/>
+    <hyperlink ref="E64" r:id="rId30" xr:uid="{E65E5986-C0ED-4D73-B262-03C37CE34824}"/>
+    <hyperlink ref="E65" r:id="rId31" xr:uid="{48A3DD7D-15A4-49DF-9BB8-0BF37E9BA8BF}"/>
+    <hyperlink ref="E66" r:id="rId32" xr:uid="{EB968D9A-2B1C-4356-8976-E3B995613790}"/>
+    <hyperlink ref="E3" r:id="rId33" xr:uid="{B8FCB838-5B1C-4D4C-B527-4AB9924EB2D3}"/>
+    <hyperlink ref="E4" r:id="rId34" xr:uid="{025C23AA-1E34-4632-B635-9FA1B738A3E9}"/>
+    <hyperlink ref="E5" r:id="rId35" xr:uid="{C7F936C0-3049-4E9A-8E0A-D27C6AB16FBC}"/>
+    <hyperlink ref="E11" r:id="rId36" xr:uid="{3BA864D8-6C95-445A-9E36-94695B2653D8}"/>
+    <hyperlink ref="E12" r:id="rId37" xr:uid="{66FE564C-E3E8-4D41-8387-922E5C4C1218}"/>
+    <hyperlink ref="E13" r:id="rId38" xr:uid="{4692811E-5658-4F6D-888F-1FA57CB69055}"/>
+    <hyperlink ref="E15" r:id="rId39" xr:uid="{77B6D308-44FF-4E92-BBFB-EF9AD6EA9A68}"/>
+    <hyperlink ref="E16" r:id="rId40" xr:uid="{7AFECFFC-8ADB-41C7-841B-216E556AAA4F}"/>
+    <hyperlink ref="E17" r:id="rId41" xr:uid="{DB25165C-39D2-4A45-B455-85A8EEDFE6B6}"/>
+    <hyperlink ref="E19" r:id="rId42" xr:uid="{458C6FF6-3543-45CE-9606-8A3082F62F0A}"/>
+    <hyperlink ref="E21" r:id="rId43" xr:uid="{94EFA63E-CE0C-4475-A396-18D53D8A6EC4}"/>
+    <hyperlink ref="E22" r:id="rId44" xr:uid="{92D4FFEE-7B65-4017-A716-809C7F8B0E04}"/>
+    <hyperlink ref="E26" r:id="rId45" xr:uid="{0B76847B-6C94-4E2D-A094-FCE72CC29EBF}"/>
+    <hyperlink ref="E27" r:id="rId46" xr:uid="{81C1C27A-8200-4CB8-8CA5-E4B85D519FDA}"/>
+    <hyperlink ref="E28" r:id="rId47" xr:uid="{B80CDD91-38DA-4375-88A0-B543FE2A3CCB}"/>
+    <hyperlink ref="E40" r:id="rId48" xr:uid="{085EF44D-1625-46A8-B320-B4D73C2793C3}"/>
+    <hyperlink ref="E6" r:id="rId49" xr:uid="{9050D2E2-A996-4813-BDAB-90A6E969B393}"/>
+    <hyperlink ref="E7" r:id="rId50" xr:uid="{3FB58120-E5D0-4688-A553-FA719EE8AF86}"/>
+    <hyperlink ref="E8" r:id="rId51" xr:uid="{27E6CD87-1D85-4CFF-82C0-B75E68882093}"/>
+    <hyperlink ref="E9" r:id="rId52" xr:uid="{5726F0E2-EBA2-49FB-B482-C266FBD309BF}"/>
+    <hyperlink ref="E59" r:id="rId53" xr:uid="{34EFA9BA-9C8C-4881-A64C-2F70C6927793}"/>
+    <hyperlink ref="E60" r:id="rId54" xr:uid="{FE82914B-DA2F-43D9-856E-F8B21C1D980D}"/>
+    <hyperlink ref="E29" r:id="rId55" xr:uid="{49BBE16D-F3C9-4615-B1B4-B8FA17A26DD4}"/>
+    <hyperlink ref="E30" r:id="rId56" xr:uid="{1A356FB0-7765-46F0-BC27-98202B7BF4A6}"/>
+    <hyperlink ref="E2" r:id="rId57" xr:uid="{3BAF40B7-94EB-4B77-B83C-2E2E101DCD73}"/>
+    <hyperlink ref="E14" r:id="rId58" xr:uid="{5012CD22-B9C1-451C-B278-3127E823477E}"/>
+    <hyperlink ref="E31" r:id="rId59" xr:uid="{B44F470F-A038-4D03-B4FC-3A710C4A1E53}"/>
+    <hyperlink ref="E32" r:id="rId60" xr:uid="{1B9F5F78-B40E-4B01-BBE4-7D5D05B0494D}"/>
+    <hyperlink ref="E41" r:id="rId61" xr:uid="{C51AD600-C6A8-4CD8-A6ED-A309C6A9E5FF}"/>
+    <hyperlink ref="E51" r:id="rId62" xr:uid="{35E24552-4BD2-4643-8BC5-2933C5863306}"/>
+    <hyperlink ref="E42" r:id="rId63" xr:uid="{59C100E4-5D91-46FA-A9CF-7FC950AC6162}"/>
+    <hyperlink ref="E43" r:id="rId64" xr:uid="{27B81F4A-B5A2-4B95-B182-8E237716E03C}"/>
+    <hyperlink ref="E44" r:id="rId65" xr:uid="{BBBA124A-D9A7-49CF-9B5E-6218C904469C}"/>
+    <hyperlink ref="E67" r:id="rId66" xr:uid="{BC23E410-1E83-43B7-B83C-8F7E64BB9146}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId54"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId67"/>
 </worksheet>
 </file>
--- a/_site/data/methods.xlsx
+++ b/_site/data/methods.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My_R\overview_megadatabase\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F3702C0-F165-46BC-9928-E84BF2D7EA64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F947B772-745A-450F-8A63-8E21AADECA45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D142A978-9658-4202-BF77-FF6002D5B3D1}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="207">
   <si>
     <t>first author</t>
   </si>
@@ -661,6 +661,9 @@
   </si>
   <si>
     <t>https://doi.org/10.1177/15586898211054243</t>
+  </si>
+  <si>
+    <t>Rouleau G.</t>
   </si>
 </sst>
 </file>
@@ -1061,7 +1064,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3C04B9F-2B89-4EC8-954F-BE264C2F59A5}">
   <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B70" sqref="B70"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2195,6 +2200,9 @@
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="4" t="s">
+        <v>206</v>
+      </c>
       <c r="B67" s="5" t="s">
         <v>204</v>
       </c>

--- a/_site/data/methods.xlsx
+++ b/_site/data/methods.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My_R\overview_megadatabase\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kboug\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F947B772-745A-450F-8A63-8E21AADECA45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECBE6226-F169-4911-8E5D-FAAECFBE8812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D142A978-9658-4202-BF77-FF6002D5B3D1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D142A978-9658-4202-BF77-FF6002D5B3D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Φύλλο1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Φύλλο1!$A$1:$E$67</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Φύλλο1!$A$1:$E$68</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="210">
   <si>
     <t>first author</t>
   </si>
@@ -664,6 +664,15 @@
   </si>
   <si>
     <t>Rouleau G.</t>
+  </si>
+  <si>
+    <t>Sadoyu S.</t>
+  </si>
+  <si>
+    <t>Methodological approaches for assessing certainty of the evidence in umbrella reviews: A scoping review</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1371/journal.pone.0269009</t>
   </si>
 </sst>
 </file>
@@ -749,8 +758,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
-    <cellStyle name="Υπερ-σύνδεση" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -766,7 +775,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Θέμα του Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1062,11 +1071,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3C04B9F-2B89-4EC8-954F-BE264C2F59A5}">
-  <dimension ref="A1:E67"/>
+  <dimension ref="A1:E68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B70" sqref="B70"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2099,127 +2106,144 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
-        <v>67</v>
+        <v>206</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>65</v>
+        <v>204</v>
       </c>
       <c r="C61" s="3">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="D61" t="s">
-        <v>68</v>
+        <v>201</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>66</v>
+        <v>205</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
-        <v>71</v>
+        <v>207</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>69</v>
+        <v>208</v>
       </c>
       <c r="C62" s="3">
         <v>2022</v>
       </c>
       <c r="D62" t="s">
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>70</v>
+        <v>209</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C63" s="3">
-        <v>2011</v>
+        <v>2019</v>
       </c>
       <c r="D63" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>150</v>
+        <v>66</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C64" s="3">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="D64" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C65" s="3">
         <v>2011</v>
       </c>
       <c r="D65" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C66" s="3">
-        <v>2013</v>
+        <v>2018</v>
       </c>
       <c r="D66" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>136</v>
+        <v>76</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
-        <v>206</v>
+        <v>80</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>204</v>
+        <v>79</v>
       </c>
       <c r="C67" s="3">
-        <v>2021</v>
+        <v>2011</v>
       </c>
       <c r="D67" t="s">
-        <v>201</v>
+        <v>19</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>205</v>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C68" s="3">
+        <v>2013</v>
+      </c>
+      <c r="D68" t="s">
+        <v>82</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E67" xr:uid="{C3C04B9F-2B89-4EC8-954F-BE264C2F59A5}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E67">
-      <sortCondition ref="A1:A67"/>
+  <autoFilter ref="A1:E68" xr:uid="{C3C04B9F-2B89-4EC8-954F-BE264C2F59A5}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E68">
+      <sortCondition ref="A1:A68"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
@@ -2249,12 +2273,12 @@
     <hyperlink ref="E56" r:id="rId24" xr:uid="{BAC61EA9-3ABF-4FBA-AB98-603E87B01642}"/>
     <hyperlink ref="E57" r:id="rId25" xr:uid="{F311DB40-30CB-49FF-89EB-8929E8CC149D}"/>
     <hyperlink ref="E58" r:id="rId26" xr:uid="{B1672B26-3311-4AB8-8DB8-10AB5E887662}"/>
-    <hyperlink ref="E61" r:id="rId27" xr:uid="{E1CC58C1-4BAD-4445-B722-3DC7F9057180}"/>
-    <hyperlink ref="E62" r:id="rId28" xr:uid="{AF7EF548-2486-4D16-93AD-8972177ECDC3}"/>
-    <hyperlink ref="E63" r:id="rId29" xr:uid="{24D15E37-D60C-432F-9CED-DCB5F84A8EA1}"/>
-    <hyperlink ref="E64" r:id="rId30" xr:uid="{E65E5986-C0ED-4D73-B262-03C37CE34824}"/>
-    <hyperlink ref="E65" r:id="rId31" xr:uid="{48A3DD7D-15A4-49DF-9BB8-0BF37E9BA8BF}"/>
-    <hyperlink ref="E66" r:id="rId32" xr:uid="{EB968D9A-2B1C-4356-8976-E3B995613790}"/>
+    <hyperlink ref="E63" r:id="rId27" xr:uid="{E1CC58C1-4BAD-4445-B722-3DC7F9057180}"/>
+    <hyperlink ref="E64" r:id="rId28" xr:uid="{AF7EF548-2486-4D16-93AD-8972177ECDC3}"/>
+    <hyperlink ref="E65" r:id="rId29" xr:uid="{24D15E37-D60C-432F-9CED-DCB5F84A8EA1}"/>
+    <hyperlink ref="E66" r:id="rId30" xr:uid="{E65E5986-C0ED-4D73-B262-03C37CE34824}"/>
+    <hyperlink ref="E67" r:id="rId31" xr:uid="{48A3DD7D-15A4-49DF-9BB8-0BF37E9BA8BF}"/>
+    <hyperlink ref="E68" r:id="rId32" xr:uid="{EB968D9A-2B1C-4356-8976-E3B995613790}"/>
     <hyperlink ref="E3" r:id="rId33" xr:uid="{B8FCB838-5B1C-4D4C-B527-4AB9924EB2D3}"/>
     <hyperlink ref="E4" r:id="rId34" xr:uid="{025C23AA-1E34-4632-B635-9FA1B738A3E9}"/>
     <hyperlink ref="E5" r:id="rId35" xr:uid="{C7F936C0-3049-4E9A-8E0A-D27C6AB16FBC}"/>
@@ -2288,9 +2312,10 @@
     <hyperlink ref="E42" r:id="rId63" xr:uid="{59C100E4-5D91-46FA-A9CF-7FC950AC6162}"/>
     <hyperlink ref="E43" r:id="rId64" xr:uid="{27B81F4A-B5A2-4B95-B182-8E237716E03C}"/>
     <hyperlink ref="E44" r:id="rId65" xr:uid="{BBBA124A-D9A7-49CF-9B5E-6218C904469C}"/>
-    <hyperlink ref="E67" r:id="rId66" xr:uid="{BC23E410-1E83-43B7-B83C-8F7E64BB9146}"/>
+    <hyperlink ref="E61" r:id="rId66" xr:uid="{BC23E410-1E83-43B7-B83C-8F7E64BB9146}"/>
+    <hyperlink ref="E62" r:id="rId67" xr:uid="{F2AEE35C-42C1-4BFE-B760-AA86FE091591}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId67"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId68"/>
 </worksheet>
 </file>
--- a/_site/data/methods.xlsx
+++ b/_site/data/methods.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kboug\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My_R\overview_megadatabase\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECBE6226-F169-4911-8E5D-FAAECFBE8812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4F7B859-FBCC-4257-9B56-6AC8AAD9A709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D142A978-9658-4202-BF77-FF6002D5B3D1}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Φύλλο1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Φύλλο1!$A$1:$E$68</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Φύλλο1!$A$1:$E$71</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="219">
   <si>
     <t>first author</t>
   </si>
@@ -673,6 +673,33 @@
   </si>
   <si>
     <t>https://doi.org/10.1371/journal.pone.0269009</t>
+  </si>
+  <si>
+    <t>Data extraction methods: an analysis of internal reporting discrepancies in single manuscripts and practical advice</t>
+  </si>
+  <si>
+    <t>Puljak L.</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.jclinepi.2019.09.003</t>
+  </si>
+  <si>
+    <t>Graphical Representation of Overlap for OVErviews: GROOVE tool</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1002/jrsm.1557</t>
+  </si>
+  <si>
+    <t>Perez‐Bracchiglione J.</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1002/jrsm.1586</t>
+  </si>
+  <si>
+    <t>LETTER TO THE EDITOR-Additional considerations and response to ‘graphical representation of overlap for OVErviews (GROOVE tool)’</t>
+  </si>
+  <si>
+    <t>Thabet P.</t>
   </si>
 </sst>
 </file>
@@ -740,7 +767,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -752,9 +779,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1071,9 +1103,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3C04B9F-2B89-4EC8-954F-BE264C2F59A5}">
-  <dimension ref="A1:E68"/>
+  <dimension ref="A1:E71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="E69" sqref="E69"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1105,7 +1139,7 @@
       <c r="A2" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" t="s">
         <v>172</v>
       </c>
       <c r="C2" s="3">
@@ -1122,7 +1156,7 @@
       <c r="A3" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" t="s">
         <v>83</v>
       </c>
       <c r="C3" s="3">
@@ -1139,7 +1173,7 @@
       <c r="A4" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" t="s">
         <v>86</v>
       </c>
       <c r="C4" s="3">
@@ -1156,7 +1190,7 @@
       <c r="A5" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" t="s">
         <v>89</v>
       </c>
       <c r="C5" s="3">
@@ -1173,7 +1207,7 @@
       <c r="A6" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" t="s">
         <v>151</v>
       </c>
       <c r="C6" s="3">
@@ -1190,7 +1224,7 @@
       <c r="A7" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" t="s">
         <v>154</v>
       </c>
       <c r="C7" s="3">
@@ -1207,7 +1241,7 @@
       <c r="A8" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" t="s">
         <v>156</v>
       </c>
       <c r="C8" s="3">
@@ -1224,7 +1258,7 @@
       <c r="A9" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" t="s">
         <v>158</v>
       </c>
       <c r="C9" s="3">
@@ -1241,7 +1275,7 @@
       <c r="A10" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" t="s">
         <v>45</v>
       </c>
       <c r="C10" s="3">
@@ -1258,7 +1292,7 @@
       <c r="A11" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" t="s">
         <v>91</v>
       </c>
       <c r="C11" s="3">
@@ -1275,7 +1309,7 @@
       <c r="A12" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" t="s">
         <v>94</v>
       </c>
       <c r="C12" s="3">
@@ -1292,7 +1326,7 @@
       <c r="A13" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" t="s">
         <v>96</v>
       </c>
       <c r="C13" s="3">
@@ -1309,7 +1343,7 @@
       <c r="A14" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" t="s">
         <v>175</v>
       </c>
       <c r="C14" s="3">
@@ -1326,7 +1360,7 @@
       <c r="A15" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" t="s">
         <v>99</v>
       </c>
       <c r="C15" s="3">
@@ -1343,7 +1377,7 @@
       <c r="A16" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" t="s">
         <v>101</v>
       </c>
       <c r="C16" s="3">
@@ -1360,7 +1394,7 @@
       <c r="A17" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" t="s">
         <v>104</v>
       </c>
       <c r="C17" s="3">
@@ -1394,7 +1428,7 @@
       <c r="A19" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" t="s">
         <v>107</v>
       </c>
       <c r="C19" s="3">
@@ -1428,7 +1462,7 @@
       <c r="A21" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" t="s">
         <v>110</v>
       </c>
       <c r="C21" s="3">
@@ -1445,7 +1479,7 @@
       <c r="A22" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" t="s">
         <v>111</v>
       </c>
       <c r="C22" s="3">
@@ -1513,7 +1547,7 @@
       <c r="A26" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" t="s">
         <v>114</v>
       </c>
       <c r="C26" s="3">
@@ -1530,7 +1564,7 @@
       <c r="A27" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" t="s">
         <v>117</v>
       </c>
       <c r="C27" s="3">
@@ -1547,7 +1581,7 @@
       <c r="A28" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" t="s">
         <v>119</v>
       </c>
       <c r="C28" s="3">
@@ -1564,7 +1598,7 @@
       <c r="A29" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" t="s">
         <v>165</v>
       </c>
       <c r="C29" s="3">
@@ -1581,7 +1615,7 @@
       <c r="A30" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" t="s">
         <v>171</v>
       </c>
       <c r="C30" s="3">
@@ -1598,7 +1632,7 @@
       <c r="A31" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" t="s">
         <v>179</v>
       </c>
       <c r="C31" s="3">
@@ -1615,7 +1649,7 @@
       <c r="A32" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" t="s">
         <v>182</v>
       </c>
       <c r="C32" s="3">
@@ -1649,7 +1683,7 @@
       <c r="A34" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" t="s">
         <v>26</v>
       </c>
       <c r="C34" s="3">
@@ -1666,7 +1700,7 @@
       <c r="A35" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" t="s">
         <v>28</v>
       </c>
       <c r="C35" s="3">
@@ -1683,7 +1717,7 @@
       <c r="A36" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" t="s">
         <v>30</v>
       </c>
       <c r="C36" s="3">
@@ -1700,7 +1734,7 @@
       <c r="A37" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" t="s">
         <v>32</v>
       </c>
       <c r="C37" s="3">
@@ -1717,7 +1751,7 @@
       <c r="A38" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" t="s">
         <v>34</v>
       </c>
       <c r="C38" s="3">
@@ -1734,7 +1768,7 @@
       <c r="A39" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" t="s">
         <v>54</v>
       </c>
       <c r="C39" s="3">
@@ -1751,7 +1785,7 @@
       <c r="A40" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" t="s">
         <v>121</v>
       </c>
       <c r="C40" s="3">
@@ -1768,7 +1802,7 @@
       <c r="A41" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" t="s">
         <v>186</v>
       </c>
       <c r="C41" s="3">
@@ -1782,113 +1816,113 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>192</v>
+      <c r="A42" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>213</v>
       </c>
       <c r="C42" s="3">
-        <v>2021</v>
-      </c>
-      <c r="D42" t="s">
-        <v>194</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>195</v>
+        <v>2022</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>196</v>
+        <v>193</v>
+      </c>
+      <c r="B43" t="s">
+        <v>192</v>
       </c>
       <c r="C43" s="3">
         <v>2021</v>
       </c>
       <c r="D43" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>199</v>
+        <v>202</v>
+      </c>
+      <c r="B44" t="s">
+        <v>196</v>
       </c>
       <c r="C44" s="3">
-        <v>2014</v>
+        <v>2021</v>
       </c>
       <c r="D44" t="s">
-        <v>19</v>
+        <v>197</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>39</v>
+        <v>203</v>
+      </c>
+      <c r="B45" t="s">
+        <v>199</v>
       </c>
       <c r="C45" s="3">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="D45" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>126</v>
+        <v>200</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B46" s="5" t="s">
-        <v>41</v>
+      <c r="B46" t="s">
+        <v>39</v>
       </c>
       <c r="C46" s="3">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D46" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>42</v>
+        <v>126</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B47" s="5" t="s">
-        <v>43</v>
+      <c r="B47" t="s">
+        <v>41</v>
       </c>
       <c r="C47" s="3">
         <v>2014</v>
       </c>
       <c r="D47" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>127</v>
+        <v>42</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B48" s="5" t="s">
-        <v>44</v>
+      <c r="B48" t="s">
+        <v>43</v>
       </c>
       <c r="C48" s="3">
         <v>2014</v>
@@ -1897,168 +1931,168 @@
         <v>24</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B49" s="5" t="s">
-        <v>47</v>
+      <c r="B49" t="s">
+        <v>44</v>
       </c>
       <c r="C49" s="3">
         <v>2014</v>
       </c>
       <c r="D49" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>48</v>
+        <v>128</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B50" s="5" t="s">
-        <v>50</v>
+      <c r="B50" t="s">
+        <v>47</v>
       </c>
       <c r="C50" s="3">
-        <v>2021</v>
+        <v>2014</v>
       </c>
       <c r="D50" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="C51" s="6">
-        <v>2014</v>
+        <v>40</v>
+      </c>
+      <c r="B51" t="s">
+        <v>50</v>
+      </c>
+      <c r="C51" s="3">
+        <v>2021</v>
       </c>
       <c r="D51" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>191</v>
+        <v>51</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C52" s="3">
-        <v>2016</v>
+        <v>190</v>
+      </c>
+      <c r="B52" t="s">
+        <v>188</v>
+      </c>
+      <c r="C52" s="5">
+        <v>2014</v>
       </c>
       <c r="D52" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>130</v>
+        <v>191</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B53" s="5" t="s">
-        <v>55</v>
+      <c r="B53" t="s">
+        <v>52</v>
       </c>
       <c r="C53" s="3">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D53" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B54" s="5" t="s">
-        <v>56</v>
+      <c r="B54" t="s">
+        <v>55</v>
       </c>
       <c r="C54" s="3">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="D54" t="s">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>58</v>
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>56</v>
       </c>
       <c r="C55" s="3">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="D55" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B56" s="5" t="s">
-        <v>60</v>
+      <c r="B56" t="s">
+        <v>58</v>
       </c>
       <c r="C56" s="3">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D56" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B57" s="5" t="s">
-        <v>61</v>
+      <c r="B57" t="s">
+        <v>60</v>
       </c>
       <c r="C57" s="3">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="D57" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>62</v>
+        <v>134</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B58" s="5" t="s">
-        <v>63</v>
+      <c r="B58" t="s">
+        <v>61</v>
       </c>
       <c r="C58" s="3">
         <v>2019</v>
@@ -2067,15 +2101,15 @@
         <v>7</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B59" s="5" t="s">
-        <v>160</v>
+      <c r="B59" t="s">
+        <v>63</v>
       </c>
       <c r="C59" s="3">
         <v>2019</v>
@@ -2084,166 +2118,217 @@
         <v>7</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>161</v>
+        <v>64</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>163</v>
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>160</v>
       </c>
       <c r="C60" s="3">
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="D60" t="s">
         <v>7</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>204</v>
+        <v>211</v>
+      </c>
+      <c r="B61" t="s">
+        <v>210</v>
       </c>
       <c r="C61" s="3">
-        <v>2021</v>
-      </c>
-      <c r="D61" t="s">
-        <v>201</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>205</v>
+        <v>2020</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>208</v>
+        <v>162</v>
+      </c>
+      <c r="B62" t="s">
+        <v>163</v>
       </c>
       <c r="C62" s="3">
-        <v>2022</v>
+        <v>2014</v>
       </c>
       <c r="D62" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>209</v>
+        <v>164</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>65</v>
+        <v>206</v>
+      </c>
+      <c r="B63" t="s">
+        <v>204</v>
       </c>
       <c r="C63" s="3">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="D63" t="s">
-        <v>68</v>
+        <v>201</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>66</v>
+        <v>205</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>69</v>
+        <v>207</v>
+      </c>
+      <c r="B64" t="s">
+        <v>208</v>
       </c>
       <c r="C64" s="3">
         <v>2022</v>
       </c>
       <c r="D64" t="s">
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>70</v>
+        <v>209</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>73</v>
+        <v>67</v>
+      </c>
+      <c r="B65" t="s">
+        <v>65</v>
       </c>
       <c r="C65" s="3">
-        <v>2011</v>
+        <v>2019</v>
       </c>
       <c r="D65" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>150</v>
+        <v>66</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>75</v>
+        <v>71</v>
+      </c>
+      <c r="B66" t="s">
+        <v>69</v>
       </c>
       <c r="C66" s="3">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="D66" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>79</v>
+        <v>74</v>
+      </c>
+      <c r="B67" t="s">
+        <v>73</v>
       </c>
       <c r="C67" s="3">
         <v>2011</v>
       </c>
       <c r="D67" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B68" t="s">
+        <v>75</v>
+      </c>
+      <c r="C68" s="3">
+        <v>2018</v>
+      </c>
+      <c r="D68" t="s">
+        <v>77</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="B69" t="s">
+        <v>217</v>
+      </c>
+      <c r="C69" s="3">
+        <v>2022</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B68" s="5" t="s">
+      <c r="B70" t="s">
+        <v>79</v>
+      </c>
+      <c r="C70" s="3">
+        <v>2011</v>
+      </c>
+      <c r="D70" t="s">
+        <v>19</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B71" t="s">
         <v>81</v>
       </c>
-      <c r="C68" s="3">
+      <c r="C71" s="3">
         <v>2013</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D71" t="s">
         <v>82</v>
       </c>
-      <c r="E68" s="1" t="s">
+      <c r="E71" s="1" t="s">
         <v>136</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E68" xr:uid="{C3C04B9F-2B89-4EC8-954F-BE264C2F59A5}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E68">
-      <sortCondition ref="A1:A68"/>
+  <autoFilter ref="A1:E71" xr:uid="{C3C04B9F-2B89-4EC8-954F-BE264C2F59A5}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E71">
+      <sortCondition ref="A1:A71"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
@@ -2259,26 +2344,26 @@
     <hyperlink ref="E37" r:id="rId10" xr:uid="{D8221DFD-AF62-413A-9472-7B2D09F8AB38}"/>
     <hyperlink ref="E38" r:id="rId11" xr:uid="{92989DC9-D56C-47D5-BFEE-71F6C0F3A548}"/>
     <hyperlink ref="E39" r:id="rId12" xr:uid="{5B9642B1-4705-45AB-89BE-F072B333EBB6}"/>
-    <hyperlink ref="E45" r:id="rId13" xr:uid="{F05B4BA6-E510-400E-8A22-DBADEF073FBF}"/>
-    <hyperlink ref="E46" r:id="rId14" xr:uid="{3BF46FAB-1246-4475-A357-107735FE4BDF}"/>
-    <hyperlink ref="E47" r:id="rId15" xr:uid="{D048DBA0-6B3B-4476-A0C3-4EB3819321C8}"/>
-    <hyperlink ref="E48" r:id="rId16" xr:uid="{1437ABFF-76B7-4768-9BD6-04546FB41212}"/>
+    <hyperlink ref="E46" r:id="rId13" xr:uid="{F05B4BA6-E510-400E-8A22-DBADEF073FBF}"/>
+    <hyperlink ref="E47" r:id="rId14" xr:uid="{3BF46FAB-1246-4475-A357-107735FE4BDF}"/>
+    <hyperlink ref="E48" r:id="rId15" xr:uid="{D048DBA0-6B3B-4476-A0C3-4EB3819321C8}"/>
+    <hyperlink ref="E49" r:id="rId16" xr:uid="{1437ABFF-76B7-4768-9BD6-04546FB41212}"/>
     <hyperlink ref="E10" r:id="rId17" xr:uid="{DF9385FD-36DB-4A19-8CBC-22A0966BA589}"/>
-    <hyperlink ref="E49" r:id="rId18" xr:uid="{A49C63A5-4761-4004-903F-BDC70A97AEB9}"/>
-    <hyperlink ref="E50" r:id="rId19" xr:uid="{475B209A-E520-460B-B1CA-985518CA6942}"/>
-    <hyperlink ref="E52" r:id="rId20" xr:uid="{365A4CF1-32B5-4CD5-8ACD-8871125C9A40}"/>
-    <hyperlink ref="E53" r:id="rId21" xr:uid="{F2B048DB-66F1-433F-824F-55CCC95C49F5}"/>
-    <hyperlink ref="E54" r:id="rId22" xr:uid="{B72A565C-741D-4F46-9AF2-3331FE245855}"/>
-    <hyperlink ref="E55" r:id="rId23" xr:uid="{81A40882-ACC5-427E-BC31-0390936D9ADA}"/>
-    <hyperlink ref="E56" r:id="rId24" xr:uid="{BAC61EA9-3ABF-4FBA-AB98-603E87B01642}"/>
-    <hyperlink ref="E57" r:id="rId25" xr:uid="{F311DB40-30CB-49FF-89EB-8929E8CC149D}"/>
-    <hyperlink ref="E58" r:id="rId26" xr:uid="{B1672B26-3311-4AB8-8DB8-10AB5E887662}"/>
-    <hyperlink ref="E63" r:id="rId27" xr:uid="{E1CC58C1-4BAD-4445-B722-3DC7F9057180}"/>
-    <hyperlink ref="E64" r:id="rId28" xr:uid="{AF7EF548-2486-4D16-93AD-8972177ECDC3}"/>
-    <hyperlink ref="E65" r:id="rId29" xr:uid="{24D15E37-D60C-432F-9CED-DCB5F84A8EA1}"/>
-    <hyperlink ref="E66" r:id="rId30" xr:uid="{E65E5986-C0ED-4D73-B262-03C37CE34824}"/>
-    <hyperlink ref="E67" r:id="rId31" xr:uid="{48A3DD7D-15A4-49DF-9BB8-0BF37E9BA8BF}"/>
-    <hyperlink ref="E68" r:id="rId32" xr:uid="{EB968D9A-2B1C-4356-8976-E3B995613790}"/>
+    <hyperlink ref="E50" r:id="rId18" xr:uid="{A49C63A5-4761-4004-903F-BDC70A97AEB9}"/>
+    <hyperlink ref="E51" r:id="rId19" xr:uid="{475B209A-E520-460B-B1CA-985518CA6942}"/>
+    <hyperlink ref="E53" r:id="rId20" xr:uid="{365A4CF1-32B5-4CD5-8ACD-8871125C9A40}"/>
+    <hyperlink ref="E54" r:id="rId21" xr:uid="{F2B048DB-66F1-433F-824F-55CCC95C49F5}"/>
+    <hyperlink ref="E55" r:id="rId22" xr:uid="{B72A565C-741D-4F46-9AF2-3331FE245855}"/>
+    <hyperlink ref="E56" r:id="rId23" xr:uid="{81A40882-ACC5-427E-BC31-0390936D9ADA}"/>
+    <hyperlink ref="E57" r:id="rId24" xr:uid="{BAC61EA9-3ABF-4FBA-AB98-603E87B01642}"/>
+    <hyperlink ref="E58" r:id="rId25" xr:uid="{F311DB40-30CB-49FF-89EB-8929E8CC149D}"/>
+    <hyperlink ref="E59" r:id="rId26" xr:uid="{B1672B26-3311-4AB8-8DB8-10AB5E887662}"/>
+    <hyperlink ref="E65" r:id="rId27" xr:uid="{E1CC58C1-4BAD-4445-B722-3DC7F9057180}"/>
+    <hyperlink ref="E66" r:id="rId28" xr:uid="{AF7EF548-2486-4D16-93AD-8972177ECDC3}"/>
+    <hyperlink ref="E67" r:id="rId29" xr:uid="{24D15E37-D60C-432F-9CED-DCB5F84A8EA1}"/>
+    <hyperlink ref="E68" r:id="rId30" xr:uid="{E65E5986-C0ED-4D73-B262-03C37CE34824}"/>
+    <hyperlink ref="E70" r:id="rId31" xr:uid="{48A3DD7D-15A4-49DF-9BB8-0BF37E9BA8BF}"/>
+    <hyperlink ref="E71" r:id="rId32" xr:uid="{EB968D9A-2B1C-4356-8976-E3B995613790}"/>
     <hyperlink ref="E3" r:id="rId33" xr:uid="{B8FCB838-5B1C-4D4C-B527-4AB9924EB2D3}"/>
     <hyperlink ref="E4" r:id="rId34" xr:uid="{025C23AA-1E34-4632-B635-9FA1B738A3E9}"/>
     <hyperlink ref="E5" r:id="rId35" xr:uid="{C7F936C0-3049-4E9A-8E0A-D27C6AB16FBC}"/>
@@ -2299,8 +2384,8 @@
     <hyperlink ref="E7" r:id="rId50" xr:uid="{3FB58120-E5D0-4688-A553-FA719EE8AF86}"/>
     <hyperlink ref="E8" r:id="rId51" xr:uid="{27E6CD87-1D85-4CFF-82C0-B75E68882093}"/>
     <hyperlink ref="E9" r:id="rId52" xr:uid="{5726F0E2-EBA2-49FB-B482-C266FBD309BF}"/>
-    <hyperlink ref="E59" r:id="rId53" xr:uid="{34EFA9BA-9C8C-4881-A64C-2F70C6927793}"/>
-    <hyperlink ref="E60" r:id="rId54" xr:uid="{FE82914B-DA2F-43D9-856E-F8B21C1D980D}"/>
+    <hyperlink ref="E60" r:id="rId53" xr:uid="{34EFA9BA-9C8C-4881-A64C-2F70C6927793}"/>
+    <hyperlink ref="E62" r:id="rId54" xr:uid="{FE82914B-DA2F-43D9-856E-F8B21C1D980D}"/>
     <hyperlink ref="E29" r:id="rId55" xr:uid="{49BBE16D-F3C9-4615-B1B4-B8FA17A26DD4}"/>
     <hyperlink ref="E30" r:id="rId56" xr:uid="{1A356FB0-7765-46F0-BC27-98202B7BF4A6}"/>
     <hyperlink ref="E2" r:id="rId57" xr:uid="{3BAF40B7-94EB-4B77-B83C-2E2E101DCD73}"/>
@@ -2308,14 +2393,17 @@
     <hyperlink ref="E31" r:id="rId59" xr:uid="{B44F470F-A038-4D03-B4FC-3A710C4A1E53}"/>
     <hyperlink ref="E32" r:id="rId60" xr:uid="{1B9F5F78-B40E-4B01-BBE4-7D5D05B0494D}"/>
     <hyperlink ref="E41" r:id="rId61" xr:uid="{C51AD600-C6A8-4CD8-A6ED-A309C6A9E5FF}"/>
-    <hyperlink ref="E51" r:id="rId62" xr:uid="{35E24552-4BD2-4643-8BC5-2933C5863306}"/>
-    <hyperlink ref="E42" r:id="rId63" xr:uid="{59C100E4-5D91-46FA-A9CF-7FC950AC6162}"/>
-    <hyperlink ref="E43" r:id="rId64" xr:uid="{27B81F4A-B5A2-4B95-B182-8E237716E03C}"/>
-    <hyperlink ref="E44" r:id="rId65" xr:uid="{BBBA124A-D9A7-49CF-9B5E-6218C904469C}"/>
-    <hyperlink ref="E61" r:id="rId66" xr:uid="{BC23E410-1E83-43B7-B83C-8F7E64BB9146}"/>
-    <hyperlink ref="E62" r:id="rId67" xr:uid="{F2AEE35C-42C1-4BFE-B760-AA86FE091591}"/>
+    <hyperlink ref="E52" r:id="rId62" xr:uid="{35E24552-4BD2-4643-8BC5-2933C5863306}"/>
+    <hyperlink ref="E43" r:id="rId63" xr:uid="{59C100E4-5D91-46FA-A9CF-7FC950AC6162}"/>
+    <hyperlink ref="E44" r:id="rId64" xr:uid="{27B81F4A-B5A2-4B95-B182-8E237716E03C}"/>
+    <hyperlink ref="E45" r:id="rId65" xr:uid="{BBBA124A-D9A7-49CF-9B5E-6218C904469C}"/>
+    <hyperlink ref="E63" r:id="rId66" xr:uid="{BC23E410-1E83-43B7-B83C-8F7E64BB9146}"/>
+    <hyperlink ref="E64" r:id="rId67" xr:uid="{F2AEE35C-42C1-4BFE-B760-AA86FE091591}"/>
+    <hyperlink ref="E61" r:id="rId68" xr:uid="{CBE85328-B553-4738-90B3-7F3A5579E07D}"/>
+    <hyperlink ref="E42" r:id="rId69" xr:uid="{5319E4AF-8DD0-4C01-A448-C6A50345BF6D}"/>
+    <hyperlink ref="E69" r:id="rId70" xr:uid="{105DD274-8872-41F3-9AEE-CB0929A91BD7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId68"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId71"/>
 </worksheet>
 </file>
--- a/_site/data/methods.xlsx
+++ b/_site/data/methods.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My_R\overview_megadatabase\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4F7B859-FBCC-4257-9B56-6AC8AAD9A709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABE3BCDB-C30F-48F4-AC8F-E529F168EBB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D142A978-9658-4202-BF77-FF6002D5B3D1}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Φύλλο1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Φύλλο1!$A$1:$E$71</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Φύλλο1!$A$1:$E$74</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="228">
   <si>
     <t>first author</t>
   </si>
@@ -700,6 +700,33 @@
   </si>
   <si>
     <t>Thabet P.</t>
+  </si>
+  <si>
+    <t>A review found heterogeneous approaches and insufficient reporting in overviews on adverse events</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.jclinepi.2022.08.004</t>
+  </si>
+  <si>
+    <t>Umbrella reviews: a useful study design in need of standardisation</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1136/bmj.o1740</t>
+  </si>
+  <si>
+    <t>Shi X.</t>
+  </si>
+  <si>
+    <t>Reporting guideline for overviews of reviews of healthcare interventions: development of the PRIOR statement</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1136/bmj-2022-070849</t>
+  </si>
+  <si>
+    <t>The BMJ</t>
+  </si>
+  <si>
+    <t>Sachse T.</t>
   </si>
 </sst>
 </file>
@@ -1103,10 +1130,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3C04B9F-2B89-4EC8-954F-BE264C2F59A5}">
-  <dimension ref="A1:E71"/>
+  <dimension ref="A1:E74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="E69" sqref="E69"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1426,87 +1453,87 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C19" s="3">
+        <v>2022</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>107</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C20" s="3">
         <v>2020</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D20" t="s">
         <v>35</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>12</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C21" s="3">
         <v>2012</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D21" t="s">
         <v>11</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" t="s">
-        <v>110</v>
-      </c>
-      <c r="C21" s="3">
-        <v>2014</v>
-      </c>
-      <c r="D21" t="s">
-        <v>82</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" t="s">
+        <v>110</v>
+      </c>
+      <c r="C22" s="3">
+        <v>2014</v>
+      </c>
+      <c r="D22" t="s">
+        <v>82</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>111</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C23" s="3">
         <v>2012</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D23" t="s">
         <v>112</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>146</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>16</v>
-      </c>
-      <c r="B23" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" s="3">
-        <v>2019</v>
-      </c>
-      <c r="D23" t="s">
-        <v>14</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -1514,50 +1541,50 @@
         <v>16</v>
       </c>
       <c r="B24" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C24" s="3">
         <v>2019</v>
       </c>
       <c r="D24" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="3">
+        <v>2019</v>
+      </c>
+      <c r="D25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>22</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C26" s="3">
         <v>2018</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D26" t="s">
         <v>7</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B26" t="s">
-        <v>114</v>
-      </c>
-      <c r="C26" s="3">
-        <v>2009</v>
-      </c>
-      <c r="D26" t="s">
-        <v>116</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -1565,135 +1592,135 @@
         <v>115</v>
       </c>
       <c r="B27" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C27" s="3">
-        <v>2017</v>
+        <v>2009</v>
       </c>
       <c r="D27" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B28" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C28" s="3">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="D28" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>166</v>
+        <v>120</v>
       </c>
       <c r="B29" t="s">
-        <v>165</v>
+        <v>119</v>
       </c>
       <c r="C29" s="3">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="D29" t="s">
-        <v>167</v>
+        <v>123</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B30" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C30" s="3">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="D30" t="s">
-        <v>7</v>
+        <v>167</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="B31" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C31" s="3">
-        <v>2012</v>
+        <v>2019</v>
       </c>
       <c r="D31" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B32" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C32" s="3">
         <v>2012</v>
       </c>
       <c r="D32" t="s">
+        <v>49</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B33" t="s">
+        <v>182</v>
+      </c>
+      <c r="C33" s="3">
+        <v>2012</v>
+      </c>
+      <c r="D33" t="s">
         <v>184</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E33" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>25</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B34" t="s">
         <v>23</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C34" s="3">
         <v>2016</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D34" t="s">
         <v>24</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E34" s="1" t="s">
         <v>125</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" s="3">
-        <v>2017</v>
-      </c>
-      <c r="D34" t="s">
-        <v>7</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -1701,16 +1728,16 @@
         <v>25</v>
       </c>
       <c r="B35" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C35" s="3">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D35" t="s">
         <v>7</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -1718,16 +1745,16 @@
         <v>25</v>
       </c>
       <c r="B36" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C36" s="3">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D36" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -1735,16 +1762,16 @@
         <v>25</v>
       </c>
       <c r="B37" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C37" s="3">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D37" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -1752,152 +1779,152 @@
         <v>25</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C38" s="3">
         <v>2021</v>
       </c>
       <c r="D38" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="B39" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="C39" s="3">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="D39" t="s">
         <v>35</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
-        <v>122</v>
+        <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>121</v>
+        <v>54</v>
       </c>
       <c r="C40" s="3">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="D40" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>124</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B41" t="s">
+        <v>121</v>
+      </c>
+      <c r="C41" s="3">
+        <v>2017</v>
+      </c>
+      <c r="D41" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B42" t="s">
         <v>186</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C42" s="3">
         <v>2019</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D42" t="s">
         <v>68</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="E42" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="6" t="s">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B43" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="C42" s="3">
+      <c r="C43" s="3">
         <v>2022</v>
       </c>
-      <c r="D42" s="6" t="s">
+      <c r="D43" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E42" s="7" t="s">
+      <c r="E43" s="7" t="s">
         <v>214</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="B43" t="s">
-        <v>192</v>
-      </c>
-      <c r="C43" s="3">
-        <v>2021</v>
-      </c>
-      <c r="D43" t="s">
-        <v>194</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="B44" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C44" s="3">
         <v>2021</v>
       </c>
       <c r="D44" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B45" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C45" s="3">
-        <v>2014</v>
+        <v>2021</v>
       </c>
       <c r="D45" t="s">
-        <v>19</v>
+        <v>197</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
-        <v>40</v>
+        <v>203</v>
       </c>
       <c r="B46" t="s">
-        <v>39</v>
+        <v>199</v>
       </c>
       <c r="C46" s="3">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="D46" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>126</v>
+        <v>200</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -1905,16 +1932,16 @@
         <v>40</v>
       </c>
       <c r="B47" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C47" s="3">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D47" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>42</v>
+        <v>126</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
@@ -1922,16 +1949,16 @@
         <v>40</v>
       </c>
       <c r="B48" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C48" s="3">
         <v>2014</v>
       </c>
       <c r="D48" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>127</v>
+        <v>42</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
@@ -1939,7 +1966,7 @@
         <v>40</v>
       </c>
       <c r="B49" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C49" s="3">
         <v>2014</v>
@@ -1948,7 +1975,7 @@
         <v>24</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
@@ -1956,16 +1983,16 @@
         <v>40</v>
       </c>
       <c r="B50" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C50" s="3">
         <v>2014</v>
       </c>
       <c r="D50" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>48</v>
+        <v>128</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
@@ -1973,50 +2000,50 @@
         <v>40</v>
       </c>
       <c r="B51" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C51" s="3">
-        <v>2021</v>
+        <v>2014</v>
       </c>
       <c r="D51" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
-        <v>190</v>
+        <v>40</v>
       </c>
       <c r="B52" t="s">
-        <v>188</v>
-      </c>
-      <c r="C52" s="5">
-        <v>2014</v>
+        <v>50</v>
+      </c>
+      <c r="C52" s="3">
+        <v>2021</v>
       </c>
       <c r="D52" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>191</v>
+        <v>51</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
-        <v>53</v>
+        <v>190</v>
       </c>
       <c r="B53" t="s">
-        <v>52</v>
-      </c>
-      <c r="C53" s="3">
-        <v>2016</v>
+        <v>188</v>
+      </c>
+      <c r="C53" s="5">
+        <v>2014</v>
       </c>
       <c r="D53" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>130</v>
+        <v>191</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
@@ -2024,16 +2051,16 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C54" s="3">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D54" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
@@ -2041,33 +2068,33 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C55" s="3">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="D55" t="s">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B56" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C56" s="3">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="D56" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
@@ -2075,16 +2102,16 @@
         <v>59</v>
       </c>
       <c r="B57" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C57" s="3">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D57" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
@@ -2092,16 +2119,16 @@
         <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C58" s="3">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="D58" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>62</v>
+        <v>134</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
@@ -2109,7 +2136,7 @@
         <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C59" s="3">
         <v>2019</v>
@@ -2118,7 +2145,7 @@
         <v>7</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
@@ -2126,7 +2153,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>160</v>
+        <v>63</v>
       </c>
       <c r="C60" s="3">
         <v>2019</v>
@@ -2135,235 +2162,286 @@
         <v>7</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>161</v>
+        <v>64</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
-        <v>211</v>
+        <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>210</v>
+        <v>160</v>
       </c>
       <c r="C61" s="3">
-        <v>2020</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E61" s="7" t="s">
-        <v>212</v>
+        <v>2019</v>
+      </c>
+      <c r="D61" t="s">
+        <v>7</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
-        <v>162</v>
+        <v>211</v>
       </c>
       <c r="B62" t="s">
-        <v>163</v>
+        <v>210</v>
       </c>
       <c r="C62" s="3">
-        <v>2014</v>
-      </c>
-      <c r="D62" t="s">
-        <v>7</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>164</v>
+        <v>2020</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
-        <v>206</v>
+        <v>162</v>
       </c>
       <c r="B63" t="s">
-        <v>204</v>
+        <v>163</v>
       </c>
       <c r="C63" s="3">
-        <v>2021</v>
+        <v>2014</v>
       </c>
       <c r="D63" t="s">
-        <v>201</v>
+        <v>7</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>205</v>
+        <v>164</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B64" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C64" s="3">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D64" t="s">
-        <v>11</v>
+        <v>201</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
-        <v>67</v>
+        <v>227</v>
       </c>
       <c r="B65" t="s">
-        <v>65</v>
+        <v>219</v>
       </c>
       <c r="C65" s="3">
-        <v>2019</v>
-      </c>
-      <c r="D65" t="s">
-        <v>68</v>
+        <v>2022</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>66</v>
+        <v>220</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
-        <v>71</v>
+        <v>207</v>
       </c>
       <c r="B66" t="s">
-        <v>69</v>
+        <v>208</v>
       </c>
       <c r="C66" s="3">
         <v>2022</v>
       </c>
       <c r="D66" t="s">
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>70</v>
+        <v>209</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B67" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C67" s="3">
-        <v>2011</v>
+        <v>2019</v>
       </c>
       <c r="D67" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>150</v>
+        <v>66</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
-        <v>78</v>
+        <v>223</v>
       </c>
       <c r="B68" t="s">
-        <v>75</v>
+        <v>221</v>
       </c>
       <c r="C68" s="3">
-        <v>2018</v>
-      </c>
-      <c r="D68" t="s">
-        <v>77</v>
+        <v>2022</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>226</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>76</v>
+        <v>222</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="6" t="s">
-        <v>218</v>
+      <c r="A69" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="B69" t="s">
-        <v>217</v>
+        <v>69</v>
       </c>
       <c r="C69" s="3">
         <v>2022</v>
       </c>
-      <c r="D69" s="6" t="s">
-        <v>19</v>
+      <c r="D69" t="s">
+        <v>72</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>216</v>
+        <v>70</v>
       </c>
     </row>
     <row r="70" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B70" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C70" s="3">
         <v>2011</v>
       </c>
       <c r="D70" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B71" t="s">
+        <v>75</v>
+      </c>
+      <c r="C71" s="3">
+        <v>2018</v>
+      </c>
+      <c r="D71" t="s">
+        <v>77</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="B72" t="s">
+        <v>217</v>
+      </c>
+      <c r="C72" s="3">
+        <v>2022</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B73" t="s">
+        <v>79</v>
+      </c>
+      <c r="C73" s="3">
+        <v>2011</v>
+      </c>
+      <c r="D73" t="s">
+        <v>19</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B74" t="s">
         <v>81</v>
       </c>
-      <c r="C71" s="3">
+      <c r="C74" s="3">
         <v>2013</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D74" t="s">
         <v>82</v>
       </c>
-      <c r="E71" s="1" t="s">
+      <c r="E74" s="1" t="s">
         <v>136</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E71" xr:uid="{C3C04B9F-2B89-4EC8-954F-BE264C2F59A5}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E71">
-      <sortCondition ref="A1:A71"/>
+  <autoFilter ref="A1:E74" xr:uid="{C3C04B9F-2B89-4EC8-954F-BE264C2F59A5}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E74">
+      <sortCondition ref="A1:A74"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
     <hyperlink ref="E18" r:id="rId1" xr:uid="{F6233517-0866-4B0A-B501-654979DF1645}"/>
-    <hyperlink ref="E20" r:id="rId2" xr:uid="{CBD7CBEE-D091-4342-A7E0-41DE558F1037}"/>
-    <hyperlink ref="E23" r:id="rId3" xr:uid="{225B3A1D-B3F0-4695-9FC4-4F153794A4FC}"/>
-    <hyperlink ref="E24" r:id="rId4" xr:uid="{7A1A6A3D-3414-4BF6-BEDD-0EE0347C319E}"/>
-    <hyperlink ref="E25" r:id="rId5" xr:uid="{4CEF4617-6BD3-44D3-8DC1-60D790061756}"/>
-    <hyperlink ref="E33" r:id="rId6" xr:uid="{7D05E552-8270-4F5D-AC46-1ED37444A309}"/>
-    <hyperlink ref="E34" r:id="rId7" xr:uid="{6C173CBA-3446-4E84-9A3E-965DF6C6C088}"/>
-    <hyperlink ref="E35" r:id="rId8" xr:uid="{1846651B-6412-4AFB-AFB8-F96A2B371A6C}"/>
-    <hyperlink ref="E36" r:id="rId9" xr:uid="{C7270FA0-2830-4BB7-B110-850D8F971AEE}"/>
-    <hyperlink ref="E37" r:id="rId10" xr:uid="{D8221DFD-AF62-413A-9472-7B2D09F8AB38}"/>
-    <hyperlink ref="E38" r:id="rId11" xr:uid="{92989DC9-D56C-47D5-BFEE-71F6C0F3A548}"/>
-    <hyperlink ref="E39" r:id="rId12" xr:uid="{5B9642B1-4705-45AB-89BE-F072B333EBB6}"/>
-    <hyperlink ref="E46" r:id="rId13" xr:uid="{F05B4BA6-E510-400E-8A22-DBADEF073FBF}"/>
-    <hyperlink ref="E47" r:id="rId14" xr:uid="{3BF46FAB-1246-4475-A357-107735FE4BDF}"/>
-    <hyperlink ref="E48" r:id="rId15" xr:uid="{D048DBA0-6B3B-4476-A0C3-4EB3819321C8}"/>
-    <hyperlink ref="E49" r:id="rId16" xr:uid="{1437ABFF-76B7-4768-9BD6-04546FB41212}"/>
+    <hyperlink ref="E21" r:id="rId2" xr:uid="{CBD7CBEE-D091-4342-A7E0-41DE558F1037}"/>
+    <hyperlink ref="E24" r:id="rId3" xr:uid="{225B3A1D-B3F0-4695-9FC4-4F153794A4FC}"/>
+    <hyperlink ref="E25" r:id="rId4" xr:uid="{7A1A6A3D-3414-4BF6-BEDD-0EE0347C319E}"/>
+    <hyperlink ref="E26" r:id="rId5" xr:uid="{4CEF4617-6BD3-44D3-8DC1-60D790061756}"/>
+    <hyperlink ref="E34" r:id="rId6" xr:uid="{7D05E552-8270-4F5D-AC46-1ED37444A309}"/>
+    <hyperlink ref="E35" r:id="rId7" xr:uid="{6C173CBA-3446-4E84-9A3E-965DF6C6C088}"/>
+    <hyperlink ref="E36" r:id="rId8" xr:uid="{1846651B-6412-4AFB-AFB8-F96A2B371A6C}"/>
+    <hyperlink ref="E37" r:id="rId9" xr:uid="{C7270FA0-2830-4BB7-B110-850D8F971AEE}"/>
+    <hyperlink ref="E38" r:id="rId10" xr:uid="{D8221DFD-AF62-413A-9472-7B2D09F8AB38}"/>
+    <hyperlink ref="E39" r:id="rId11" xr:uid="{92989DC9-D56C-47D5-BFEE-71F6C0F3A548}"/>
+    <hyperlink ref="E40" r:id="rId12" xr:uid="{5B9642B1-4705-45AB-89BE-F072B333EBB6}"/>
+    <hyperlink ref="E47" r:id="rId13" xr:uid="{F05B4BA6-E510-400E-8A22-DBADEF073FBF}"/>
+    <hyperlink ref="E48" r:id="rId14" xr:uid="{3BF46FAB-1246-4475-A357-107735FE4BDF}"/>
+    <hyperlink ref="E49" r:id="rId15" xr:uid="{D048DBA0-6B3B-4476-A0C3-4EB3819321C8}"/>
+    <hyperlink ref="E50" r:id="rId16" xr:uid="{1437ABFF-76B7-4768-9BD6-04546FB41212}"/>
     <hyperlink ref="E10" r:id="rId17" xr:uid="{DF9385FD-36DB-4A19-8CBC-22A0966BA589}"/>
-    <hyperlink ref="E50" r:id="rId18" xr:uid="{A49C63A5-4761-4004-903F-BDC70A97AEB9}"/>
-    <hyperlink ref="E51" r:id="rId19" xr:uid="{475B209A-E520-460B-B1CA-985518CA6942}"/>
-    <hyperlink ref="E53" r:id="rId20" xr:uid="{365A4CF1-32B5-4CD5-8ACD-8871125C9A40}"/>
-    <hyperlink ref="E54" r:id="rId21" xr:uid="{F2B048DB-66F1-433F-824F-55CCC95C49F5}"/>
-    <hyperlink ref="E55" r:id="rId22" xr:uid="{B72A565C-741D-4F46-9AF2-3331FE245855}"/>
-    <hyperlink ref="E56" r:id="rId23" xr:uid="{81A40882-ACC5-427E-BC31-0390936D9ADA}"/>
-    <hyperlink ref="E57" r:id="rId24" xr:uid="{BAC61EA9-3ABF-4FBA-AB98-603E87B01642}"/>
-    <hyperlink ref="E58" r:id="rId25" xr:uid="{F311DB40-30CB-49FF-89EB-8929E8CC149D}"/>
-    <hyperlink ref="E59" r:id="rId26" xr:uid="{B1672B26-3311-4AB8-8DB8-10AB5E887662}"/>
-    <hyperlink ref="E65" r:id="rId27" xr:uid="{E1CC58C1-4BAD-4445-B722-3DC7F9057180}"/>
-    <hyperlink ref="E66" r:id="rId28" xr:uid="{AF7EF548-2486-4D16-93AD-8972177ECDC3}"/>
-    <hyperlink ref="E67" r:id="rId29" xr:uid="{24D15E37-D60C-432F-9CED-DCB5F84A8EA1}"/>
-    <hyperlink ref="E68" r:id="rId30" xr:uid="{E65E5986-C0ED-4D73-B262-03C37CE34824}"/>
-    <hyperlink ref="E70" r:id="rId31" xr:uid="{48A3DD7D-15A4-49DF-9BB8-0BF37E9BA8BF}"/>
-    <hyperlink ref="E71" r:id="rId32" xr:uid="{EB968D9A-2B1C-4356-8976-E3B995613790}"/>
+    <hyperlink ref="E51" r:id="rId18" xr:uid="{A49C63A5-4761-4004-903F-BDC70A97AEB9}"/>
+    <hyperlink ref="E52" r:id="rId19" xr:uid="{475B209A-E520-460B-B1CA-985518CA6942}"/>
+    <hyperlink ref="E54" r:id="rId20" xr:uid="{365A4CF1-32B5-4CD5-8ACD-8871125C9A40}"/>
+    <hyperlink ref="E55" r:id="rId21" xr:uid="{F2B048DB-66F1-433F-824F-55CCC95C49F5}"/>
+    <hyperlink ref="E56" r:id="rId22" xr:uid="{B72A565C-741D-4F46-9AF2-3331FE245855}"/>
+    <hyperlink ref="E57" r:id="rId23" xr:uid="{81A40882-ACC5-427E-BC31-0390936D9ADA}"/>
+    <hyperlink ref="E58" r:id="rId24" xr:uid="{BAC61EA9-3ABF-4FBA-AB98-603E87B01642}"/>
+    <hyperlink ref="E59" r:id="rId25" xr:uid="{F311DB40-30CB-49FF-89EB-8929E8CC149D}"/>
+    <hyperlink ref="E60" r:id="rId26" xr:uid="{B1672B26-3311-4AB8-8DB8-10AB5E887662}"/>
+    <hyperlink ref="E67" r:id="rId27" xr:uid="{E1CC58C1-4BAD-4445-B722-3DC7F9057180}"/>
+    <hyperlink ref="E69" r:id="rId28" xr:uid="{AF7EF548-2486-4D16-93AD-8972177ECDC3}"/>
+    <hyperlink ref="E70" r:id="rId29" xr:uid="{24D15E37-D60C-432F-9CED-DCB5F84A8EA1}"/>
+    <hyperlink ref="E71" r:id="rId30" xr:uid="{E65E5986-C0ED-4D73-B262-03C37CE34824}"/>
+    <hyperlink ref="E73" r:id="rId31" xr:uid="{48A3DD7D-15A4-49DF-9BB8-0BF37E9BA8BF}"/>
+    <hyperlink ref="E74" r:id="rId32" xr:uid="{EB968D9A-2B1C-4356-8976-E3B995613790}"/>
     <hyperlink ref="E3" r:id="rId33" xr:uid="{B8FCB838-5B1C-4D4C-B527-4AB9924EB2D3}"/>
     <hyperlink ref="E4" r:id="rId34" xr:uid="{025C23AA-1E34-4632-B635-9FA1B738A3E9}"/>
     <hyperlink ref="E5" r:id="rId35" xr:uid="{C7F936C0-3049-4E9A-8E0A-D27C6AB16FBC}"/>
@@ -2373,37 +2451,40 @@
     <hyperlink ref="E15" r:id="rId39" xr:uid="{77B6D308-44FF-4E92-BBFB-EF9AD6EA9A68}"/>
     <hyperlink ref="E16" r:id="rId40" xr:uid="{7AFECFFC-8ADB-41C7-841B-216E556AAA4F}"/>
     <hyperlink ref="E17" r:id="rId41" xr:uid="{DB25165C-39D2-4A45-B455-85A8EEDFE6B6}"/>
-    <hyperlink ref="E19" r:id="rId42" xr:uid="{458C6FF6-3543-45CE-9606-8A3082F62F0A}"/>
-    <hyperlink ref="E21" r:id="rId43" xr:uid="{94EFA63E-CE0C-4475-A396-18D53D8A6EC4}"/>
-    <hyperlink ref="E22" r:id="rId44" xr:uid="{92D4FFEE-7B65-4017-A716-809C7F8B0E04}"/>
-    <hyperlink ref="E26" r:id="rId45" xr:uid="{0B76847B-6C94-4E2D-A094-FCE72CC29EBF}"/>
-    <hyperlink ref="E27" r:id="rId46" xr:uid="{81C1C27A-8200-4CB8-8CA5-E4B85D519FDA}"/>
-    <hyperlink ref="E28" r:id="rId47" xr:uid="{B80CDD91-38DA-4375-88A0-B543FE2A3CCB}"/>
-    <hyperlink ref="E40" r:id="rId48" xr:uid="{085EF44D-1625-46A8-B320-B4D73C2793C3}"/>
+    <hyperlink ref="E20" r:id="rId42" xr:uid="{458C6FF6-3543-45CE-9606-8A3082F62F0A}"/>
+    <hyperlink ref="E22" r:id="rId43" xr:uid="{94EFA63E-CE0C-4475-A396-18D53D8A6EC4}"/>
+    <hyperlink ref="E23" r:id="rId44" xr:uid="{92D4FFEE-7B65-4017-A716-809C7F8B0E04}"/>
+    <hyperlink ref="E27" r:id="rId45" xr:uid="{0B76847B-6C94-4E2D-A094-FCE72CC29EBF}"/>
+    <hyperlink ref="E28" r:id="rId46" xr:uid="{81C1C27A-8200-4CB8-8CA5-E4B85D519FDA}"/>
+    <hyperlink ref="E29" r:id="rId47" xr:uid="{B80CDD91-38DA-4375-88A0-B543FE2A3CCB}"/>
+    <hyperlink ref="E41" r:id="rId48" xr:uid="{085EF44D-1625-46A8-B320-B4D73C2793C3}"/>
     <hyperlink ref="E6" r:id="rId49" xr:uid="{9050D2E2-A996-4813-BDAB-90A6E969B393}"/>
     <hyperlink ref="E7" r:id="rId50" xr:uid="{3FB58120-E5D0-4688-A553-FA719EE8AF86}"/>
     <hyperlink ref="E8" r:id="rId51" xr:uid="{27E6CD87-1D85-4CFF-82C0-B75E68882093}"/>
     <hyperlink ref="E9" r:id="rId52" xr:uid="{5726F0E2-EBA2-49FB-B482-C266FBD309BF}"/>
-    <hyperlink ref="E60" r:id="rId53" xr:uid="{34EFA9BA-9C8C-4881-A64C-2F70C6927793}"/>
-    <hyperlink ref="E62" r:id="rId54" xr:uid="{FE82914B-DA2F-43D9-856E-F8B21C1D980D}"/>
-    <hyperlink ref="E29" r:id="rId55" xr:uid="{49BBE16D-F3C9-4615-B1B4-B8FA17A26DD4}"/>
-    <hyperlink ref="E30" r:id="rId56" xr:uid="{1A356FB0-7765-46F0-BC27-98202B7BF4A6}"/>
+    <hyperlink ref="E61" r:id="rId53" xr:uid="{34EFA9BA-9C8C-4881-A64C-2F70C6927793}"/>
+    <hyperlink ref="E63" r:id="rId54" xr:uid="{FE82914B-DA2F-43D9-856E-F8B21C1D980D}"/>
+    <hyperlink ref="E30" r:id="rId55" xr:uid="{49BBE16D-F3C9-4615-B1B4-B8FA17A26DD4}"/>
+    <hyperlink ref="E31" r:id="rId56" xr:uid="{1A356FB0-7765-46F0-BC27-98202B7BF4A6}"/>
     <hyperlink ref="E2" r:id="rId57" xr:uid="{3BAF40B7-94EB-4B77-B83C-2E2E101DCD73}"/>
     <hyperlink ref="E14" r:id="rId58" xr:uid="{5012CD22-B9C1-451C-B278-3127E823477E}"/>
-    <hyperlink ref="E31" r:id="rId59" xr:uid="{B44F470F-A038-4D03-B4FC-3A710C4A1E53}"/>
-    <hyperlink ref="E32" r:id="rId60" xr:uid="{1B9F5F78-B40E-4B01-BBE4-7D5D05B0494D}"/>
-    <hyperlink ref="E41" r:id="rId61" xr:uid="{C51AD600-C6A8-4CD8-A6ED-A309C6A9E5FF}"/>
-    <hyperlink ref="E52" r:id="rId62" xr:uid="{35E24552-4BD2-4643-8BC5-2933C5863306}"/>
-    <hyperlink ref="E43" r:id="rId63" xr:uid="{59C100E4-5D91-46FA-A9CF-7FC950AC6162}"/>
-    <hyperlink ref="E44" r:id="rId64" xr:uid="{27B81F4A-B5A2-4B95-B182-8E237716E03C}"/>
-    <hyperlink ref="E45" r:id="rId65" xr:uid="{BBBA124A-D9A7-49CF-9B5E-6218C904469C}"/>
-    <hyperlink ref="E63" r:id="rId66" xr:uid="{BC23E410-1E83-43B7-B83C-8F7E64BB9146}"/>
-    <hyperlink ref="E64" r:id="rId67" xr:uid="{F2AEE35C-42C1-4BFE-B760-AA86FE091591}"/>
-    <hyperlink ref="E61" r:id="rId68" xr:uid="{CBE85328-B553-4738-90B3-7F3A5579E07D}"/>
-    <hyperlink ref="E42" r:id="rId69" xr:uid="{5319E4AF-8DD0-4C01-A448-C6A50345BF6D}"/>
-    <hyperlink ref="E69" r:id="rId70" xr:uid="{105DD274-8872-41F3-9AEE-CB0929A91BD7}"/>
+    <hyperlink ref="E32" r:id="rId59" xr:uid="{B44F470F-A038-4D03-B4FC-3A710C4A1E53}"/>
+    <hyperlink ref="E33" r:id="rId60" xr:uid="{1B9F5F78-B40E-4B01-BBE4-7D5D05B0494D}"/>
+    <hyperlink ref="E42" r:id="rId61" xr:uid="{C51AD600-C6A8-4CD8-A6ED-A309C6A9E5FF}"/>
+    <hyperlink ref="E53" r:id="rId62" xr:uid="{35E24552-4BD2-4643-8BC5-2933C5863306}"/>
+    <hyperlink ref="E44" r:id="rId63" xr:uid="{59C100E4-5D91-46FA-A9CF-7FC950AC6162}"/>
+    <hyperlink ref="E45" r:id="rId64" xr:uid="{27B81F4A-B5A2-4B95-B182-8E237716E03C}"/>
+    <hyperlink ref="E46" r:id="rId65" xr:uid="{BBBA124A-D9A7-49CF-9B5E-6218C904469C}"/>
+    <hyperlink ref="E64" r:id="rId66" xr:uid="{BC23E410-1E83-43B7-B83C-8F7E64BB9146}"/>
+    <hyperlink ref="E66" r:id="rId67" xr:uid="{F2AEE35C-42C1-4BFE-B760-AA86FE091591}"/>
+    <hyperlink ref="E62" r:id="rId68" xr:uid="{CBE85328-B553-4738-90B3-7F3A5579E07D}"/>
+    <hyperlink ref="E43" r:id="rId69" xr:uid="{5319E4AF-8DD0-4C01-A448-C6A50345BF6D}"/>
+    <hyperlink ref="E72" r:id="rId70" xr:uid="{105DD274-8872-41F3-9AEE-CB0929A91BD7}"/>
+    <hyperlink ref="E65" r:id="rId71" xr:uid="{E4C036B5-8E63-4154-81B7-386C17DE26F0}"/>
+    <hyperlink ref="E68" r:id="rId72" xr:uid="{EA050D64-47A3-4EF1-B293-1513E65F8A17}"/>
+    <hyperlink ref="E19" r:id="rId73" xr:uid="{FE69776B-DAB8-458E-A1CC-CC4D45FB990E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId71"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId74"/>
 </worksheet>
 </file>
--- a/_site/data/methods.xlsx
+++ b/_site/data/methods.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My_R\overview_megadatabase\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My_Projects\database-overviews\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABE3BCDB-C30F-48F4-AC8F-E529F168EBB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4B640AD-D97D-42BF-8F2C-96703F75A119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D142A978-9658-4202-BF77-FF6002D5B3D1}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Φύλλο1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Φύλλο1!$A$1:$E$74</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Φύλλο1!$A$1:$E$67</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="232">
   <si>
     <t>first author</t>
   </si>
@@ -705,6 +705,9 @@
     <t>A review found heterogeneous approaches and insufficient reporting in overviews on adverse events</t>
   </si>
   <si>
+    <t xml:space="preserve"> Sachse T.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1016/j.jclinepi.2022.08.004</t>
   </si>
   <si>
@@ -726,7 +729,16 @@
     <t>The BMJ</t>
   </si>
   <si>
-    <t>Sachse T.</t>
+    <t>Faulkner G.</t>
+  </si>
+  <si>
+    <t>Umbrella reviews (systematic review of reviews)</t>
+  </si>
+  <si>
+    <t>International Review of Sport and Exercise Psychology</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1080/1750984X.2021.1934888</t>
   </si>
 </sst>
 </file>
@@ -1130,10 +1142,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3C04B9F-2B89-4EC8-954F-BE264C2F59A5}">
-  <dimension ref="A1:E74"/>
+  <dimension ref="A1:E75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1453,87 +1465,87 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>8</v>
+        <v>108</v>
       </c>
       <c r="B19" t="s">
-        <v>224</v>
+        <v>107</v>
       </c>
       <c r="C19" s="3">
-        <v>2022</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>226</v>
+        <v>2020</v>
+      </c>
+      <c r="D19" t="s">
+        <v>35</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>225</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
-        <v>108</v>
+      <c r="A20" t="s">
+        <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>107</v>
+        <v>9</v>
       </c>
       <c r="C20" s="3">
-        <v>2020</v>
+        <v>2012</v>
       </c>
       <c r="D20" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>109</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="A21" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B21" t="s">
-        <v>9</v>
+        <v>110</v>
       </c>
       <c r="C21" s="3">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="D21" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>10</v>
+        <v>145</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>12</v>
+        <v>113</v>
       </c>
       <c r="B22" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C22" s="3">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D22" t="s">
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
-        <v>113</v>
+      <c r="A23" t="s">
+        <v>16</v>
       </c>
       <c r="B23" t="s">
-        <v>111</v>
+        <v>13</v>
       </c>
       <c r="C23" s="3">
-        <v>2012</v>
+        <v>2019</v>
       </c>
       <c r="D23" t="s">
-        <v>112</v>
+        <v>14</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>146</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -1541,50 +1553,50 @@
         <v>16</v>
       </c>
       <c r="B24" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C24" s="3">
         <v>2019</v>
       </c>
       <c r="D24" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C25" s="3">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D25" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>22</v>
+      <c r="A26" s="4" t="s">
+        <v>115</v>
       </c>
       <c r="B26" t="s">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="C26" s="3">
-        <v>2018</v>
+        <v>2009</v>
       </c>
       <c r="D26" t="s">
-        <v>7</v>
+        <v>116</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>21</v>
+        <v>147</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -1592,135 +1604,135 @@
         <v>115</v>
       </c>
       <c r="B27" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C27" s="3">
-        <v>2009</v>
+        <v>2017</v>
       </c>
       <c r="D27" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B28" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C28" s="3">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="D28" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>120</v>
+        <v>166</v>
       </c>
       <c r="B29" t="s">
-        <v>119</v>
+        <v>165</v>
       </c>
       <c r="C29" s="3">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="D29" t="s">
-        <v>123</v>
+        <v>167</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B30" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C30" s="3">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="D30" t="s">
-        <v>167</v>
+        <v>7</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="B31" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="C31" s="3">
-        <v>2019</v>
+        <v>2012</v>
       </c>
       <c r="D31" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B32" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C32" s="3">
         <v>2012</v>
       </c>
       <c r="D32" t="s">
-        <v>49</v>
+        <v>184</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="4" t="s">
-        <v>183</v>
+      <c r="A33" t="s">
+        <v>25</v>
       </c>
       <c r="B33" t="s">
-        <v>182</v>
+        <v>23</v>
       </c>
       <c r="C33" s="3">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="D33" t="s">
-        <v>184</v>
+        <v>24</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>185</v>
+        <v>125</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+      <c r="A34" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B34" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C34" s="3">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D34" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>125</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -1728,16 +1740,16 @@
         <v>25</v>
       </c>
       <c r="B35" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C35" s="3">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D35" t="s">
         <v>7</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -1745,16 +1757,16 @@
         <v>25</v>
       </c>
       <c r="B36" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C36" s="3">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D36" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -1762,16 +1774,16 @@
         <v>25</v>
       </c>
       <c r="B37" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C37" s="3">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D37" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -1779,143 +1791,143 @@
         <v>25</v>
       </c>
       <c r="B38" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C38" s="3">
         <v>2021</v>
       </c>
       <c r="D38" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="C39" s="3">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="D39" t="s">
         <v>35</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
-        <v>38</v>
+        <v>122</v>
       </c>
       <c r="B40" t="s">
-        <v>54</v>
+        <v>121</v>
       </c>
       <c r="C40" s="3">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="D40" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>37</v>
+        <v>124</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>122</v>
+        <v>189</v>
       </c>
       <c r="B41" t="s">
-        <v>121</v>
+        <v>186</v>
       </c>
       <c r="C41" s="3">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="D41" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>124</v>
+        <v>187</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B42" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="C42" s="3">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="D42" t="s">
-        <v>68</v>
+        <v>194</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>213</v>
+      <c r="A43" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B43" t="s">
+        <v>196</v>
       </c>
       <c r="C43" s="3">
-        <v>2022</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>214</v>
+        <v>2021</v>
+      </c>
+      <c r="D43" t="s">
+        <v>197</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="B44" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="C44" s="3">
-        <v>2021</v>
+        <v>2014</v>
       </c>
       <c r="D44" t="s">
-        <v>194</v>
+        <v>19</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
-        <v>202</v>
+        <v>40</v>
       </c>
       <c r="B45" t="s">
-        <v>196</v>
+        <v>39</v>
       </c>
       <c r="C45" s="3">
-        <v>2021</v>
+        <v>2012</v>
       </c>
       <c r="D45" t="s">
-        <v>197</v>
+        <v>24</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>198</v>
+        <v>126</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
-        <v>203</v>
+        <v>40</v>
       </c>
       <c r="B46" t="s">
-        <v>199</v>
+        <v>41</v>
       </c>
       <c r="C46" s="3">
         <v>2014</v>
@@ -1924,7 +1936,7 @@
         <v>19</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>200</v>
+        <v>42</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -1932,16 +1944,16 @@
         <v>40</v>
       </c>
       <c r="B47" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C47" s="3">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="D47" t="s">
         <v>24</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
@@ -1949,16 +1961,16 @@
         <v>40</v>
       </c>
       <c r="B48" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C48" s="3">
         <v>2014</v>
       </c>
       <c r="D48" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>42</v>
+        <v>128</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
@@ -1966,16 +1978,16 @@
         <v>40</v>
       </c>
       <c r="B49" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C49" s="3">
         <v>2014</v>
       </c>
       <c r="D49" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>127</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
@@ -1983,67 +1995,67 @@
         <v>40</v>
       </c>
       <c r="B50" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C50" s="3">
-        <v>2014</v>
+        <v>2021</v>
       </c>
       <c r="D50" t="s">
         <v>24</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>128</v>
+        <v>51</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
-        <v>40</v>
+        <v>190</v>
       </c>
       <c r="B51" t="s">
-        <v>47</v>
-      </c>
-      <c r="C51" s="3">
+        <v>188</v>
+      </c>
+      <c r="C51" s="5">
         <v>2014</v>
       </c>
       <c r="D51" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>48</v>
+        <v>191</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C52" s="3">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="D52" t="s">
         <v>24</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>51</v>
+        <v>130</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
-        <v>190</v>
+        <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>188</v>
-      </c>
-      <c r="C53" s="5">
-        <v>2014</v>
+        <v>55</v>
+      </c>
+      <c r="C53" s="3">
+        <v>2017</v>
       </c>
       <c r="D53" t="s">
-        <v>68</v>
+        <v>7</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>191</v>
+        <v>131</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
@@ -2051,50 +2063,50 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C54" s="3">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="D54" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B55" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C55" s="3">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D55" t="s">
         <v>7</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C56" s="3">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="D56" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
@@ -2102,16 +2114,16 @@
         <v>59</v>
       </c>
       <c r="B57" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C57" s="3">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="D57" t="s">
         <v>7</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>133</v>
+        <v>62</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
@@ -2119,16 +2131,16 @@
         <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C58" s="3">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="D58" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>134</v>
+        <v>64</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
@@ -2136,7 +2148,7 @@
         <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>61</v>
+        <v>160</v>
       </c>
       <c r="C59" s="3">
         <v>2019</v>
@@ -2145,303 +2157,320 @@
         <v>7</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>62</v>
+        <v>161</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
-        <v>59</v>
+        <v>162</v>
       </c>
       <c r="B60" t="s">
-        <v>63</v>
+        <v>163</v>
       </c>
       <c r="C60" s="3">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="D60" t="s">
         <v>7</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>64</v>
+        <v>164</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B61" t="s">
-        <v>160</v>
+        <v>65</v>
       </c>
       <c r="C61" s="3">
         <v>2019</v>
       </c>
       <c r="D61" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>161</v>
+        <v>66</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
-        <v>211</v>
+        <v>71</v>
       </c>
       <c r="B62" t="s">
-        <v>210</v>
+        <v>69</v>
       </c>
       <c r="C62" s="3">
-        <v>2020</v>
-      </c>
-      <c r="D62" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E62" s="7" t="s">
-        <v>212</v>
+        <v>2022</v>
+      </c>
+      <c r="D62" t="s">
+        <v>72</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
-        <v>162</v>
+        <v>74</v>
       </c>
       <c r="B63" t="s">
-        <v>163</v>
+        <v>73</v>
       </c>
       <c r="C63" s="3">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="D63" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
-        <v>206</v>
+        <v>78</v>
       </c>
       <c r="B64" t="s">
-        <v>204</v>
+        <v>75</v>
       </c>
       <c r="C64" s="3">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="D64" t="s">
-        <v>201</v>
+        <v>77</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>205</v>
+        <v>76</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
-        <v>227</v>
+        <v>80</v>
       </c>
       <c r="B65" t="s">
-        <v>219</v>
+        <v>79</v>
       </c>
       <c r="C65" s="3">
-        <v>2022</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>24</v>
+        <v>2011</v>
+      </c>
+      <c r="D65" t="s">
+        <v>19</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>220</v>
+        <v>135</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
-        <v>207</v>
+        <v>80</v>
       </c>
       <c r="B66" t="s">
-        <v>208</v>
+        <v>81</v>
       </c>
       <c r="C66" s="3">
-        <v>2022</v>
+        <v>2013</v>
       </c>
       <c r="D66" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>209</v>
+        <v>136</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
-        <v>67</v>
+        <v>206</v>
       </c>
       <c r="B67" t="s">
-        <v>65</v>
+        <v>204</v>
       </c>
       <c r="C67" s="3">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="D67" t="s">
-        <v>68</v>
+        <v>201</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>66</v>
+        <v>205</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="B68" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="C68" s="3">
         <v>2022</v>
       </c>
-      <c r="D68" s="6" t="s">
-        <v>226</v>
+      <c r="D68" t="s">
+        <v>11</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
-        <v>71</v>
+        <v>211</v>
       </c>
       <c r="B69" t="s">
-        <v>69</v>
+        <v>210</v>
       </c>
       <c r="C69" s="3">
+        <v>2020</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="C70" s="3">
         <v>2022</v>
       </c>
-      <c r="D69" t="s">
-        <v>72</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B70" t="s">
-        <v>73</v>
-      </c>
-      <c r="C70" s="3">
-        <v>2011</v>
-      </c>
-      <c r="D70" t="s">
-        <v>35</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>150</v>
+      <c r="D70" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="4" t="s">
-        <v>78</v>
+      <c r="A71" s="6" t="s">
+        <v>218</v>
       </c>
       <c r="B71" t="s">
-        <v>75</v>
+        <v>217</v>
       </c>
       <c r="C71" s="3">
-        <v>2018</v>
-      </c>
-      <c r="D71" t="s">
-        <v>77</v>
+        <v>2022</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>76</v>
+        <v>216</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="6" t="s">
-        <v>218</v>
+      <c r="A72" s="4" t="s">
+        <v>220</v>
       </c>
       <c r="B72" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C72" s="3">
         <v>2022</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
-        <v>80</v>
+        <v>224</v>
       </c>
       <c r="B73" t="s">
-        <v>79</v>
+        <v>222</v>
       </c>
       <c r="C73" s="3">
-        <v>2011</v>
-      </c>
-      <c r="D73" t="s">
-        <v>19</v>
+        <v>2022</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>227</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>135</v>
+        <v>223</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>81</v>
+        <v>225</v>
       </c>
       <c r="C74" s="3">
-        <v>2013</v>
-      </c>
-      <c r="D74" t="s">
-        <v>82</v>
+        <v>2022</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>227</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>136</v>
+        <v>226</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="B75" t="s">
+        <v>229</v>
+      </c>
+      <c r="C75" s="3">
+        <v>2022</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>231</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E74" xr:uid="{C3C04B9F-2B89-4EC8-954F-BE264C2F59A5}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E74">
-      <sortCondition ref="A1:A74"/>
+  <autoFilter ref="A1:E67" xr:uid="{C3C04B9F-2B89-4EC8-954F-BE264C2F59A5}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E67">
+      <sortCondition ref="A1:A67"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
     <hyperlink ref="E18" r:id="rId1" xr:uid="{F6233517-0866-4B0A-B501-654979DF1645}"/>
-    <hyperlink ref="E21" r:id="rId2" xr:uid="{CBD7CBEE-D091-4342-A7E0-41DE558F1037}"/>
-    <hyperlink ref="E24" r:id="rId3" xr:uid="{225B3A1D-B3F0-4695-9FC4-4F153794A4FC}"/>
-    <hyperlink ref="E25" r:id="rId4" xr:uid="{7A1A6A3D-3414-4BF6-BEDD-0EE0347C319E}"/>
-    <hyperlink ref="E26" r:id="rId5" xr:uid="{4CEF4617-6BD3-44D3-8DC1-60D790061756}"/>
-    <hyperlink ref="E34" r:id="rId6" xr:uid="{7D05E552-8270-4F5D-AC46-1ED37444A309}"/>
-    <hyperlink ref="E35" r:id="rId7" xr:uid="{6C173CBA-3446-4E84-9A3E-965DF6C6C088}"/>
-    <hyperlink ref="E36" r:id="rId8" xr:uid="{1846651B-6412-4AFB-AFB8-F96A2B371A6C}"/>
-    <hyperlink ref="E37" r:id="rId9" xr:uid="{C7270FA0-2830-4BB7-B110-850D8F971AEE}"/>
-    <hyperlink ref="E38" r:id="rId10" xr:uid="{D8221DFD-AF62-413A-9472-7B2D09F8AB38}"/>
-    <hyperlink ref="E39" r:id="rId11" xr:uid="{92989DC9-D56C-47D5-BFEE-71F6C0F3A548}"/>
-    <hyperlink ref="E40" r:id="rId12" xr:uid="{5B9642B1-4705-45AB-89BE-F072B333EBB6}"/>
-    <hyperlink ref="E47" r:id="rId13" xr:uid="{F05B4BA6-E510-400E-8A22-DBADEF073FBF}"/>
-    <hyperlink ref="E48" r:id="rId14" xr:uid="{3BF46FAB-1246-4475-A357-107735FE4BDF}"/>
-    <hyperlink ref="E49" r:id="rId15" xr:uid="{D048DBA0-6B3B-4476-A0C3-4EB3819321C8}"/>
-    <hyperlink ref="E50" r:id="rId16" xr:uid="{1437ABFF-76B7-4768-9BD6-04546FB41212}"/>
+    <hyperlink ref="E20" r:id="rId2" xr:uid="{CBD7CBEE-D091-4342-A7E0-41DE558F1037}"/>
+    <hyperlink ref="E23" r:id="rId3" xr:uid="{225B3A1D-B3F0-4695-9FC4-4F153794A4FC}"/>
+    <hyperlink ref="E24" r:id="rId4" xr:uid="{7A1A6A3D-3414-4BF6-BEDD-0EE0347C319E}"/>
+    <hyperlink ref="E25" r:id="rId5" xr:uid="{4CEF4617-6BD3-44D3-8DC1-60D790061756}"/>
+    <hyperlink ref="E33" r:id="rId6" xr:uid="{7D05E552-8270-4F5D-AC46-1ED37444A309}"/>
+    <hyperlink ref="E34" r:id="rId7" xr:uid="{6C173CBA-3446-4E84-9A3E-965DF6C6C088}"/>
+    <hyperlink ref="E35" r:id="rId8" xr:uid="{1846651B-6412-4AFB-AFB8-F96A2B371A6C}"/>
+    <hyperlink ref="E36" r:id="rId9" xr:uid="{C7270FA0-2830-4BB7-B110-850D8F971AEE}"/>
+    <hyperlink ref="E37" r:id="rId10" xr:uid="{D8221DFD-AF62-413A-9472-7B2D09F8AB38}"/>
+    <hyperlink ref="E38" r:id="rId11" xr:uid="{92989DC9-D56C-47D5-BFEE-71F6C0F3A548}"/>
+    <hyperlink ref="E39" r:id="rId12" xr:uid="{5B9642B1-4705-45AB-89BE-F072B333EBB6}"/>
+    <hyperlink ref="E45" r:id="rId13" xr:uid="{F05B4BA6-E510-400E-8A22-DBADEF073FBF}"/>
+    <hyperlink ref="E46" r:id="rId14" xr:uid="{3BF46FAB-1246-4475-A357-107735FE4BDF}"/>
+    <hyperlink ref="E47" r:id="rId15" xr:uid="{D048DBA0-6B3B-4476-A0C3-4EB3819321C8}"/>
+    <hyperlink ref="E48" r:id="rId16" xr:uid="{1437ABFF-76B7-4768-9BD6-04546FB41212}"/>
     <hyperlink ref="E10" r:id="rId17" xr:uid="{DF9385FD-36DB-4A19-8CBC-22A0966BA589}"/>
-    <hyperlink ref="E51" r:id="rId18" xr:uid="{A49C63A5-4761-4004-903F-BDC70A97AEB9}"/>
-    <hyperlink ref="E52" r:id="rId19" xr:uid="{475B209A-E520-460B-B1CA-985518CA6942}"/>
-    <hyperlink ref="E54" r:id="rId20" xr:uid="{365A4CF1-32B5-4CD5-8ACD-8871125C9A40}"/>
-    <hyperlink ref="E55" r:id="rId21" xr:uid="{F2B048DB-66F1-433F-824F-55CCC95C49F5}"/>
-    <hyperlink ref="E56" r:id="rId22" xr:uid="{B72A565C-741D-4F46-9AF2-3331FE245855}"/>
-    <hyperlink ref="E57" r:id="rId23" xr:uid="{81A40882-ACC5-427E-BC31-0390936D9ADA}"/>
-    <hyperlink ref="E58" r:id="rId24" xr:uid="{BAC61EA9-3ABF-4FBA-AB98-603E87B01642}"/>
-    <hyperlink ref="E59" r:id="rId25" xr:uid="{F311DB40-30CB-49FF-89EB-8929E8CC149D}"/>
-    <hyperlink ref="E60" r:id="rId26" xr:uid="{B1672B26-3311-4AB8-8DB8-10AB5E887662}"/>
-    <hyperlink ref="E67" r:id="rId27" xr:uid="{E1CC58C1-4BAD-4445-B722-3DC7F9057180}"/>
-    <hyperlink ref="E69" r:id="rId28" xr:uid="{AF7EF548-2486-4D16-93AD-8972177ECDC3}"/>
-    <hyperlink ref="E70" r:id="rId29" xr:uid="{24D15E37-D60C-432F-9CED-DCB5F84A8EA1}"/>
-    <hyperlink ref="E71" r:id="rId30" xr:uid="{E65E5986-C0ED-4D73-B262-03C37CE34824}"/>
-    <hyperlink ref="E73" r:id="rId31" xr:uid="{48A3DD7D-15A4-49DF-9BB8-0BF37E9BA8BF}"/>
-    <hyperlink ref="E74" r:id="rId32" xr:uid="{EB968D9A-2B1C-4356-8976-E3B995613790}"/>
+    <hyperlink ref="E49" r:id="rId18" xr:uid="{A49C63A5-4761-4004-903F-BDC70A97AEB9}"/>
+    <hyperlink ref="E50" r:id="rId19" xr:uid="{475B209A-E520-460B-B1CA-985518CA6942}"/>
+    <hyperlink ref="E52" r:id="rId20" xr:uid="{365A4CF1-32B5-4CD5-8ACD-8871125C9A40}"/>
+    <hyperlink ref="E53" r:id="rId21" xr:uid="{F2B048DB-66F1-433F-824F-55CCC95C49F5}"/>
+    <hyperlink ref="E54" r:id="rId22" xr:uid="{B72A565C-741D-4F46-9AF2-3331FE245855}"/>
+    <hyperlink ref="E55" r:id="rId23" xr:uid="{81A40882-ACC5-427E-BC31-0390936D9ADA}"/>
+    <hyperlink ref="E56" r:id="rId24" xr:uid="{BAC61EA9-3ABF-4FBA-AB98-603E87B01642}"/>
+    <hyperlink ref="E57" r:id="rId25" xr:uid="{F311DB40-30CB-49FF-89EB-8929E8CC149D}"/>
+    <hyperlink ref="E58" r:id="rId26" xr:uid="{B1672B26-3311-4AB8-8DB8-10AB5E887662}"/>
+    <hyperlink ref="E61" r:id="rId27" xr:uid="{E1CC58C1-4BAD-4445-B722-3DC7F9057180}"/>
+    <hyperlink ref="E62" r:id="rId28" xr:uid="{AF7EF548-2486-4D16-93AD-8972177ECDC3}"/>
+    <hyperlink ref="E63" r:id="rId29" xr:uid="{24D15E37-D60C-432F-9CED-DCB5F84A8EA1}"/>
+    <hyperlink ref="E64" r:id="rId30" xr:uid="{E65E5986-C0ED-4D73-B262-03C37CE34824}"/>
+    <hyperlink ref="E65" r:id="rId31" xr:uid="{48A3DD7D-15A4-49DF-9BB8-0BF37E9BA8BF}"/>
+    <hyperlink ref="E66" r:id="rId32" xr:uid="{EB968D9A-2B1C-4356-8976-E3B995613790}"/>
     <hyperlink ref="E3" r:id="rId33" xr:uid="{B8FCB838-5B1C-4D4C-B527-4AB9924EB2D3}"/>
     <hyperlink ref="E4" r:id="rId34" xr:uid="{025C23AA-1E34-4632-B635-9FA1B738A3E9}"/>
     <hyperlink ref="E5" r:id="rId35" xr:uid="{C7F936C0-3049-4E9A-8E0A-D27C6AB16FBC}"/>
@@ -2451,40 +2480,41 @@
     <hyperlink ref="E15" r:id="rId39" xr:uid="{77B6D308-44FF-4E92-BBFB-EF9AD6EA9A68}"/>
     <hyperlink ref="E16" r:id="rId40" xr:uid="{7AFECFFC-8ADB-41C7-841B-216E556AAA4F}"/>
     <hyperlink ref="E17" r:id="rId41" xr:uid="{DB25165C-39D2-4A45-B455-85A8EEDFE6B6}"/>
-    <hyperlink ref="E20" r:id="rId42" xr:uid="{458C6FF6-3543-45CE-9606-8A3082F62F0A}"/>
-    <hyperlink ref="E22" r:id="rId43" xr:uid="{94EFA63E-CE0C-4475-A396-18D53D8A6EC4}"/>
-    <hyperlink ref="E23" r:id="rId44" xr:uid="{92D4FFEE-7B65-4017-A716-809C7F8B0E04}"/>
-    <hyperlink ref="E27" r:id="rId45" xr:uid="{0B76847B-6C94-4E2D-A094-FCE72CC29EBF}"/>
-    <hyperlink ref="E28" r:id="rId46" xr:uid="{81C1C27A-8200-4CB8-8CA5-E4B85D519FDA}"/>
-    <hyperlink ref="E29" r:id="rId47" xr:uid="{B80CDD91-38DA-4375-88A0-B543FE2A3CCB}"/>
-    <hyperlink ref="E41" r:id="rId48" xr:uid="{085EF44D-1625-46A8-B320-B4D73C2793C3}"/>
+    <hyperlink ref="E19" r:id="rId42" xr:uid="{458C6FF6-3543-45CE-9606-8A3082F62F0A}"/>
+    <hyperlink ref="E21" r:id="rId43" xr:uid="{94EFA63E-CE0C-4475-A396-18D53D8A6EC4}"/>
+    <hyperlink ref="E22" r:id="rId44" xr:uid="{92D4FFEE-7B65-4017-A716-809C7F8B0E04}"/>
+    <hyperlink ref="E26" r:id="rId45" xr:uid="{0B76847B-6C94-4E2D-A094-FCE72CC29EBF}"/>
+    <hyperlink ref="E27" r:id="rId46" xr:uid="{81C1C27A-8200-4CB8-8CA5-E4B85D519FDA}"/>
+    <hyperlink ref="E28" r:id="rId47" xr:uid="{B80CDD91-38DA-4375-88A0-B543FE2A3CCB}"/>
+    <hyperlink ref="E40" r:id="rId48" xr:uid="{085EF44D-1625-46A8-B320-B4D73C2793C3}"/>
     <hyperlink ref="E6" r:id="rId49" xr:uid="{9050D2E2-A996-4813-BDAB-90A6E969B393}"/>
     <hyperlink ref="E7" r:id="rId50" xr:uid="{3FB58120-E5D0-4688-A553-FA719EE8AF86}"/>
     <hyperlink ref="E8" r:id="rId51" xr:uid="{27E6CD87-1D85-4CFF-82C0-B75E68882093}"/>
     <hyperlink ref="E9" r:id="rId52" xr:uid="{5726F0E2-EBA2-49FB-B482-C266FBD309BF}"/>
-    <hyperlink ref="E61" r:id="rId53" xr:uid="{34EFA9BA-9C8C-4881-A64C-2F70C6927793}"/>
-    <hyperlink ref="E63" r:id="rId54" xr:uid="{FE82914B-DA2F-43D9-856E-F8B21C1D980D}"/>
-    <hyperlink ref="E30" r:id="rId55" xr:uid="{49BBE16D-F3C9-4615-B1B4-B8FA17A26DD4}"/>
-    <hyperlink ref="E31" r:id="rId56" xr:uid="{1A356FB0-7765-46F0-BC27-98202B7BF4A6}"/>
+    <hyperlink ref="E59" r:id="rId53" xr:uid="{34EFA9BA-9C8C-4881-A64C-2F70C6927793}"/>
+    <hyperlink ref="E60" r:id="rId54" xr:uid="{FE82914B-DA2F-43D9-856E-F8B21C1D980D}"/>
+    <hyperlink ref="E29" r:id="rId55" xr:uid="{49BBE16D-F3C9-4615-B1B4-B8FA17A26DD4}"/>
+    <hyperlink ref="E30" r:id="rId56" xr:uid="{1A356FB0-7765-46F0-BC27-98202B7BF4A6}"/>
     <hyperlink ref="E2" r:id="rId57" xr:uid="{3BAF40B7-94EB-4B77-B83C-2E2E101DCD73}"/>
     <hyperlink ref="E14" r:id="rId58" xr:uid="{5012CD22-B9C1-451C-B278-3127E823477E}"/>
-    <hyperlink ref="E32" r:id="rId59" xr:uid="{B44F470F-A038-4D03-B4FC-3A710C4A1E53}"/>
-    <hyperlink ref="E33" r:id="rId60" xr:uid="{1B9F5F78-B40E-4B01-BBE4-7D5D05B0494D}"/>
-    <hyperlink ref="E42" r:id="rId61" xr:uid="{C51AD600-C6A8-4CD8-A6ED-A309C6A9E5FF}"/>
-    <hyperlink ref="E53" r:id="rId62" xr:uid="{35E24552-4BD2-4643-8BC5-2933C5863306}"/>
-    <hyperlink ref="E44" r:id="rId63" xr:uid="{59C100E4-5D91-46FA-A9CF-7FC950AC6162}"/>
-    <hyperlink ref="E45" r:id="rId64" xr:uid="{27B81F4A-B5A2-4B95-B182-8E237716E03C}"/>
-    <hyperlink ref="E46" r:id="rId65" xr:uid="{BBBA124A-D9A7-49CF-9B5E-6218C904469C}"/>
-    <hyperlink ref="E64" r:id="rId66" xr:uid="{BC23E410-1E83-43B7-B83C-8F7E64BB9146}"/>
-    <hyperlink ref="E66" r:id="rId67" xr:uid="{F2AEE35C-42C1-4BFE-B760-AA86FE091591}"/>
-    <hyperlink ref="E62" r:id="rId68" xr:uid="{CBE85328-B553-4738-90B3-7F3A5579E07D}"/>
-    <hyperlink ref="E43" r:id="rId69" xr:uid="{5319E4AF-8DD0-4C01-A448-C6A50345BF6D}"/>
-    <hyperlink ref="E72" r:id="rId70" xr:uid="{105DD274-8872-41F3-9AEE-CB0929A91BD7}"/>
-    <hyperlink ref="E65" r:id="rId71" xr:uid="{E4C036B5-8E63-4154-81B7-386C17DE26F0}"/>
-    <hyperlink ref="E68" r:id="rId72" xr:uid="{EA050D64-47A3-4EF1-B293-1513E65F8A17}"/>
-    <hyperlink ref="E19" r:id="rId73" xr:uid="{FE69776B-DAB8-458E-A1CC-CC4D45FB990E}"/>
+    <hyperlink ref="E31" r:id="rId59" xr:uid="{B44F470F-A038-4D03-B4FC-3A710C4A1E53}"/>
+    <hyperlink ref="E32" r:id="rId60" xr:uid="{1B9F5F78-B40E-4B01-BBE4-7D5D05B0494D}"/>
+    <hyperlink ref="E41" r:id="rId61" xr:uid="{C51AD600-C6A8-4CD8-A6ED-A309C6A9E5FF}"/>
+    <hyperlink ref="E51" r:id="rId62" xr:uid="{35E24552-4BD2-4643-8BC5-2933C5863306}"/>
+    <hyperlink ref="E42" r:id="rId63" xr:uid="{59C100E4-5D91-46FA-A9CF-7FC950AC6162}"/>
+    <hyperlink ref="E43" r:id="rId64" xr:uid="{27B81F4A-B5A2-4B95-B182-8E237716E03C}"/>
+    <hyperlink ref="E44" r:id="rId65" xr:uid="{BBBA124A-D9A7-49CF-9B5E-6218C904469C}"/>
+    <hyperlink ref="E67" r:id="rId66" xr:uid="{BC23E410-1E83-43B7-B83C-8F7E64BB9146}"/>
+    <hyperlink ref="E68" r:id="rId67" xr:uid="{F2AEE35C-42C1-4BFE-B760-AA86FE091591}"/>
+    <hyperlink ref="E69" r:id="rId68" xr:uid="{CBE85328-B553-4738-90B3-7F3A5579E07D}"/>
+    <hyperlink ref="E70" r:id="rId69" xr:uid="{5319E4AF-8DD0-4C01-A448-C6A50345BF6D}"/>
+    <hyperlink ref="E71" r:id="rId70" xr:uid="{105DD274-8872-41F3-9AEE-CB0929A91BD7}"/>
+    <hyperlink ref="E72" r:id="rId71" xr:uid="{E4C036B5-8E63-4154-81B7-386C17DE26F0}"/>
+    <hyperlink ref="E73" r:id="rId72" xr:uid="{EA050D64-47A3-4EF1-B293-1513E65F8A17}"/>
+    <hyperlink ref="E74" r:id="rId73" xr:uid="{FE69776B-DAB8-458E-A1CC-CC4D45FB990E}"/>
+    <hyperlink ref="E75" r:id="rId74" xr:uid="{B8709E17-82C3-4C15-AFCA-FDBC6C0E3742}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId74"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId75"/>
 </worksheet>
 </file>
--- a/_site/data/methods.xlsx
+++ b/_site/data/methods.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My_Projects\database-overviews\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My_R\overview_megadatabase\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4B640AD-D97D-42BF-8F2C-96703F75A119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{326BA3B9-4B00-4CC1-91FC-9CFF58C66E63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D142A978-9658-4202-BF77-FF6002D5B3D1}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Φύλλο1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Φύλλο1!$A$1:$E$67</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Φύλλο1!$A$1:$E$76</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="235">
   <si>
     <t>first author</t>
   </si>
@@ -705,9 +705,6 @@
     <t>A review found heterogeneous approaches and insufficient reporting in overviews on adverse events</t>
   </si>
   <si>
-    <t xml:space="preserve"> Sachse T.</t>
-  </si>
-  <si>
     <t>https://doi.org/10.1016/j.jclinepi.2022.08.004</t>
   </si>
   <si>
@@ -739,6 +736,18 @@
   </si>
   <si>
     <t>https://doi.org/10.1080/1750984X.2021.1934888</t>
+  </si>
+  <si>
+    <t>Kim J.S.M.</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1186/s13643-022-02071-7</t>
+  </si>
+  <si>
+    <t>LETTER-Guidance on review type selection for health technology assessments: key factors and considerations for deciding when to conduct a de novo systematic review, an update of a systematic review, or an overview of systematic reviews</t>
+  </si>
+  <si>
+    <t>Sachse T.</t>
   </si>
 </sst>
 </file>
@@ -1142,11 +1151,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3C04B9F-2B89-4EC8-954F-BE264C2F59A5}">
-  <dimension ref="A1:E75"/>
+  <dimension ref="A1:E76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="B81" sqref="B81"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1431,342 +1438,342 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B17" t="s">
+        <v>228</v>
+      </c>
+      <c r="C17" s="3">
+        <v>2022</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>104</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C18" s="3">
         <v>2018</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D18" t="s">
         <v>106</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>5</v>
-      </c>
-      <c r="C18" s="3">
-        <v>2020</v>
-      </c>
-      <c r="D18" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="B19" t="s">
-        <v>107</v>
       </c>
       <c r="C19" s="3">
         <v>2020</v>
       </c>
       <c r="D19" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>109</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>12</v>
+      <c r="A20" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>9</v>
+        <v>224</v>
       </c>
       <c r="C20" s="3">
-        <v>2012</v>
-      </c>
-      <c r="D20" t="s">
-        <v>11</v>
+        <v>2022</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>226</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>10</v>
+        <v>225</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B21" t="s">
+        <v>107</v>
+      </c>
+      <c r="C21" s="3">
+        <v>2020</v>
+      </c>
+      <c r="D21" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>12</v>
       </c>
-      <c r="B21" t="s">
-        <v>110</v>
-      </c>
-      <c r="C21" s="3">
-        <v>2014</v>
-      </c>
-      <c r="D21" t="s">
-        <v>82</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
-        <v>113</v>
-      </c>
       <c r="B22" t="s">
-        <v>111</v>
+        <v>9</v>
       </c>
       <c r="C22" s="3">
         <v>2012</v>
       </c>
       <c r="D22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" t="s">
+        <v>110</v>
+      </c>
+      <c r="C23" s="3">
+        <v>2014</v>
+      </c>
+      <c r="D23" t="s">
+        <v>82</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B24" t="s">
+        <v>111</v>
+      </c>
+      <c r="C24" s="3">
+        <v>2012</v>
+      </c>
+      <c r="D24" t="s">
         <v>112</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>146</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>16</v>
-      </c>
-      <c r="B23" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" s="3">
-        <v>2019</v>
-      </c>
-      <c r="D23" t="s">
-        <v>14</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24" s="3">
-        <v>2019</v>
-      </c>
-      <c r="D24" t="s">
-        <v>19</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="3">
+        <v>2019</v>
+      </c>
+      <c r="D25" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="3">
+        <v>2019</v>
+      </c>
+      <c r="D26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>22</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B27" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C27" s="3">
         <v>2018</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D27" t="s">
         <v>7</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B26" t="s">
-        <v>114</v>
-      </c>
-      <c r="C26" s="3">
-        <v>2009</v>
-      </c>
-      <c r="D26" t="s">
-        <v>116</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B27" t="s">
-        <v>117</v>
-      </c>
-      <c r="C27" s="3">
-        <v>2017</v>
-      </c>
-      <c r="D27" t="s">
-        <v>118</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B28" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C28" s="3">
-        <v>2020</v>
+        <v>2009</v>
       </c>
       <c r="D28" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>166</v>
+        <v>115</v>
       </c>
       <c r="B29" t="s">
-        <v>165</v>
+        <v>117</v>
       </c>
       <c r="C29" s="3">
-        <v>2022</v>
+        <v>2017</v>
       </c>
       <c r="D29" t="s">
-        <v>167</v>
+        <v>118</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>170</v>
+        <v>120</v>
       </c>
       <c r="B30" t="s">
-        <v>171</v>
+        <v>119</v>
       </c>
       <c r="C30" s="3">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D30" t="s">
-        <v>7</v>
+        <v>123</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>181</v>
+        <v>231</v>
       </c>
       <c r="B31" t="s">
-        <v>179</v>
+        <v>233</v>
       </c>
       <c r="C31" s="3">
-        <v>2012</v>
-      </c>
-      <c r="D31" t="s">
-        <v>49</v>
+        <v>2022</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>180</v>
+        <v>232</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="B32" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="C32" s="3">
-        <v>2012</v>
+        <v>2022</v>
       </c>
       <c r="D32" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>25</v>
+      <c r="A33" s="4" t="s">
+        <v>170</v>
       </c>
       <c r="B33" t="s">
-        <v>23</v>
+        <v>171</v>
       </c>
       <c r="C33" s="3">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="D33" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>125</v>
+        <v>169</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>25</v>
+        <v>181</v>
       </c>
       <c r="B34" t="s">
-        <v>26</v>
+        <v>179</v>
       </c>
       <c r="C34" s="3">
-        <v>2017</v>
+        <v>2012</v>
       </c>
       <c r="D34" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>27</v>
+        <v>180</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B35" t="s">
+        <v>182</v>
+      </c>
+      <c r="C35" s="3">
+        <v>2012</v>
+      </c>
+      <c r="D35" t="s">
+        <v>184</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>25</v>
       </c>
-      <c r="B35" t="s">
-        <v>28</v>
-      </c>
-      <c r="C35" s="3">
-        <v>2018</v>
-      </c>
-      <c r="D35" t="s">
-        <v>7</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="4" t="s">
-        <v>25</v>
-      </c>
       <c r="B36" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C36" s="3">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="D36" t="s">
         <v>24</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>31</v>
+        <v>125</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -1774,16 +1781,16 @@
         <v>25</v>
       </c>
       <c r="B37" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C37" s="3">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="D37" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -1791,186 +1798,186 @@
         <v>25</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C38" s="3">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="D38" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="B39" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="C39" s="3">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D39" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
-        <v>122</v>
+        <v>25</v>
       </c>
       <c r="B40" t="s">
-        <v>121</v>
+        <v>32</v>
       </c>
       <c r="C40" s="3">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="D40" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>124</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>189</v>
+        <v>25</v>
       </c>
       <c r="B41" t="s">
-        <v>186</v>
+        <v>34</v>
       </c>
       <c r="C41" s="3">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="D41" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>187</v>
+        <v>36</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>193</v>
+        <v>38</v>
       </c>
       <c r="B42" t="s">
-        <v>192</v>
+        <v>54</v>
       </c>
       <c r="C42" s="3">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="D42" t="s">
-        <v>194</v>
+        <v>35</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>195</v>
+        <v>37</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>202</v>
+        <v>122</v>
       </c>
       <c r="B43" t="s">
-        <v>196</v>
+        <v>121</v>
       </c>
       <c r="C43" s="3">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="D43" t="s">
-        <v>197</v>
+        <v>7</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>198</v>
+        <v>124</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="B44" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="C44" s="3">
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="D44" t="s">
+        <v>68</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="C45" s="3">
+        <v>2022</v>
+      </c>
+      <c r="D45" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E44" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B45" t="s">
-        <v>39</v>
-      </c>
-      <c r="C45" s="3">
-        <v>2012</v>
-      </c>
-      <c r="D45" t="s">
-        <v>24</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>126</v>
+      <c r="E45" s="7" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
-        <v>40</v>
+        <v>193</v>
       </c>
       <c r="B46" t="s">
-        <v>41</v>
+        <v>192</v>
       </c>
       <c r="C46" s="3">
-        <v>2014</v>
+        <v>2021</v>
       </c>
       <c r="D46" t="s">
-        <v>19</v>
+        <v>194</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>42</v>
+        <v>195</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
-        <v>40</v>
+        <v>202</v>
       </c>
       <c r="B47" t="s">
-        <v>43</v>
+        <v>196</v>
       </c>
       <c r="C47" s="3">
-        <v>2014</v>
+        <v>2021</v>
       </c>
       <c r="D47" t="s">
-        <v>24</v>
+        <v>197</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>127</v>
+        <v>198</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
-        <v>40</v>
+        <v>203</v>
       </c>
       <c r="B48" t="s">
-        <v>44</v>
+        <v>199</v>
       </c>
       <c r="C48" s="3">
         <v>2014</v>
       </c>
       <c r="D48" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>128</v>
+        <v>200</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
@@ -1978,16 +1985,16 @@
         <v>40</v>
       </c>
       <c r="B49" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C49" s="3">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D49" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>48</v>
+        <v>126</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
@@ -1995,152 +2002,152 @@
         <v>40</v>
       </c>
       <c r="B50" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C50" s="3">
-        <v>2021</v>
+        <v>2014</v>
       </c>
       <c r="D50" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
-        <v>190</v>
+        <v>40</v>
       </c>
       <c r="B51" t="s">
-        <v>188</v>
-      </c>
-      <c r="C51" s="5">
+        <v>43</v>
+      </c>
+      <c r="C51" s="3">
         <v>2014</v>
       </c>
       <c r="D51" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>191</v>
+        <v>127</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="B52" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C52" s="3">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="D52" t="s">
         <v>24</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="B53" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C53" s="3">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="D53" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>131</v>
+        <v>48</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="B54" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C54" s="3">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="D54" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>132</v>
+        <v>51</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
-        <v>59</v>
+        <v>190</v>
       </c>
       <c r="B55" t="s">
-        <v>58</v>
-      </c>
-      <c r="C55" s="3">
-        <v>2016</v>
+        <v>188</v>
+      </c>
+      <c r="C55" s="5">
+        <v>2014</v>
       </c>
       <c r="D55" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>133</v>
+        <v>191</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B56" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C56" s="3">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D56" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B57" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C57" s="3">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="D57" t="s">
         <v>7</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>62</v>
+        <v>131</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B58" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C58" s="3">
         <v>2019</v>
       </c>
       <c r="D58" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>64</v>
+        <v>132</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
@@ -2148,152 +2155,152 @@
         <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>160</v>
+        <v>58</v>
       </c>
       <c r="C59" s="3">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="D59" t="s">
         <v>7</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>161</v>
+        <v>133</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
-        <v>162</v>
+        <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>163</v>
+        <v>60</v>
       </c>
       <c r="C60" s="3">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="D60" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>164</v>
+        <v>134</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C61" s="3">
         <v>2019</v>
       </c>
       <c r="D61" t="s">
-        <v>68</v>
+        <v>7</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="B62" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C62" s="3">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="D62" t="s">
-        <v>72</v>
+        <v>7</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="B63" t="s">
-        <v>73</v>
+        <v>160</v>
       </c>
       <c r="C63" s="3">
-        <v>2011</v>
+        <v>2019</v>
       </c>
       <c r="D63" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
-        <v>78</v>
+        <v>211</v>
       </c>
       <c r="B64" t="s">
-        <v>75</v>
+        <v>210</v>
       </c>
       <c r="C64" s="3">
-        <v>2018</v>
-      </c>
-      <c r="D64" t="s">
-        <v>77</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>76</v>
+        <v>2020</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
-        <v>80</v>
+        <v>162</v>
       </c>
       <c r="B65" t="s">
-        <v>79</v>
+        <v>163</v>
       </c>
       <c r="C65" s="3">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="D65" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>135</v>
+        <v>164</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
-        <v>80</v>
+        <v>206</v>
       </c>
       <c r="B66" t="s">
-        <v>81</v>
+        <v>204</v>
       </c>
       <c r="C66" s="3">
-        <v>2013</v>
+        <v>2021</v>
       </c>
       <c r="D66" t="s">
-        <v>82</v>
+        <v>201</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>136</v>
+        <v>205</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
-        <v>206</v>
+        <v>234</v>
       </c>
       <c r="B67" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="C67" s="3">
-        <v>2021</v>
-      </c>
-      <c r="D67" t="s">
-        <v>201</v>
+        <v>2022</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
@@ -2315,162 +2322,174 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
-        <v>211</v>
+        <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>210</v>
+        <v>65</v>
       </c>
       <c r="C69" s="3">
-        <v>2020</v>
-      </c>
-      <c r="D69" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E69" s="7" t="s">
-        <v>212</v>
+        <v>2019</v>
+      </c>
+      <c r="D69" t="s">
+        <v>68</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="70" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="B70" s="6" t="s">
-        <v>213</v>
+      <c r="A70" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B70" t="s">
+        <v>221</v>
       </c>
       <c r="C70" s="3">
         <v>2022</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E70" s="7" t="s">
-        <v>214</v>
+        <v>226</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="6" t="s">
-        <v>218</v>
+      <c r="A71" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="B71" t="s">
-        <v>217</v>
+        <v>69</v>
       </c>
       <c r="C71" s="3">
         <v>2022</v>
       </c>
-      <c r="D71" s="6" t="s">
-        <v>19</v>
+      <c r="D71" t="s">
+        <v>72</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>216</v>
+        <v>70</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
-        <v>220</v>
+        <v>74</v>
       </c>
       <c r="B72" t="s">
-        <v>219</v>
+        <v>73</v>
       </c>
       <c r="C72" s="3">
-        <v>2022</v>
-      </c>
-      <c r="D72" s="6" t="s">
-        <v>24</v>
+        <v>2011</v>
+      </c>
+      <c r="D72" t="s">
+        <v>35</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>221</v>
+        <v>150</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
-        <v>224</v>
+        <v>78</v>
       </c>
       <c r="B73" t="s">
-        <v>222</v>
+        <v>75</v>
       </c>
       <c r="C73" s="3">
-        <v>2022</v>
-      </c>
-      <c r="D73" s="6" t="s">
-        <v>227</v>
+        <v>2018</v>
+      </c>
+      <c r="D73" t="s">
+        <v>77</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>223</v>
+        <v>76</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="4" t="s">
-        <v>8</v>
+      <c r="A74" s="6" t="s">
+        <v>218</v>
       </c>
       <c r="B74" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C74" s="3">
         <v>2022</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>227</v>
+        <v>19</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
-        <v>228</v>
+        <v>80</v>
       </c>
       <c r="B75" t="s">
-        <v>229</v>
+        <v>79</v>
       </c>
       <c r="C75" s="3">
-        <v>2022</v>
-      </c>
-      <c r="D75" s="6" t="s">
-        <v>230</v>
+        <v>2011</v>
+      </c>
+      <c r="D75" t="s">
+        <v>19</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>231</v>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B76" t="s">
+        <v>81</v>
+      </c>
+      <c r="C76" s="3">
+        <v>2013</v>
+      </c>
+      <c r="D76" t="s">
+        <v>82</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E67" xr:uid="{C3C04B9F-2B89-4EC8-954F-BE264C2F59A5}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E67">
-      <sortCondition ref="A1:A67"/>
-    </sortState>
-  </autoFilter>
   <hyperlinks>
-    <hyperlink ref="E18" r:id="rId1" xr:uid="{F6233517-0866-4B0A-B501-654979DF1645}"/>
-    <hyperlink ref="E20" r:id="rId2" xr:uid="{CBD7CBEE-D091-4342-A7E0-41DE558F1037}"/>
-    <hyperlink ref="E23" r:id="rId3" xr:uid="{225B3A1D-B3F0-4695-9FC4-4F153794A4FC}"/>
-    <hyperlink ref="E24" r:id="rId4" xr:uid="{7A1A6A3D-3414-4BF6-BEDD-0EE0347C319E}"/>
-    <hyperlink ref="E25" r:id="rId5" xr:uid="{4CEF4617-6BD3-44D3-8DC1-60D790061756}"/>
-    <hyperlink ref="E33" r:id="rId6" xr:uid="{7D05E552-8270-4F5D-AC46-1ED37444A309}"/>
-    <hyperlink ref="E34" r:id="rId7" xr:uid="{6C173CBA-3446-4E84-9A3E-965DF6C6C088}"/>
-    <hyperlink ref="E35" r:id="rId8" xr:uid="{1846651B-6412-4AFB-AFB8-F96A2B371A6C}"/>
-    <hyperlink ref="E36" r:id="rId9" xr:uid="{C7270FA0-2830-4BB7-B110-850D8F971AEE}"/>
-    <hyperlink ref="E37" r:id="rId10" xr:uid="{D8221DFD-AF62-413A-9472-7B2D09F8AB38}"/>
-    <hyperlink ref="E38" r:id="rId11" xr:uid="{92989DC9-D56C-47D5-BFEE-71F6C0F3A548}"/>
-    <hyperlink ref="E39" r:id="rId12" xr:uid="{5B9642B1-4705-45AB-89BE-F072B333EBB6}"/>
-    <hyperlink ref="E45" r:id="rId13" xr:uid="{F05B4BA6-E510-400E-8A22-DBADEF073FBF}"/>
-    <hyperlink ref="E46" r:id="rId14" xr:uid="{3BF46FAB-1246-4475-A357-107735FE4BDF}"/>
-    <hyperlink ref="E47" r:id="rId15" xr:uid="{D048DBA0-6B3B-4476-A0C3-4EB3819321C8}"/>
-    <hyperlink ref="E48" r:id="rId16" xr:uid="{1437ABFF-76B7-4768-9BD6-04546FB41212}"/>
+    <hyperlink ref="E19" r:id="rId1" xr:uid="{F6233517-0866-4B0A-B501-654979DF1645}"/>
+    <hyperlink ref="E22" r:id="rId2" xr:uid="{CBD7CBEE-D091-4342-A7E0-41DE558F1037}"/>
+    <hyperlink ref="E25" r:id="rId3" xr:uid="{225B3A1D-B3F0-4695-9FC4-4F153794A4FC}"/>
+    <hyperlink ref="E26" r:id="rId4" xr:uid="{7A1A6A3D-3414-4BF6-BEDD-0EE0347C319E}"/>
+    <hyperlink ref="E27" r:id="rId5" xr:uid="{4CEF4617-6BD3-44D3-8DC1-60D790061756}"/>
+    <hyperlink ref="E36" r:id="rId6" xr:uid="{7D05E552-8270-4F5D-AC46-1ED37444A309}"/>
+    <hyperlink ref="E37" r:id="rId7" xr:uid="{6C173CBA-3446-4E84-9A3E-965DF6C6C088}"/>
+    <hyperlink ref="E38" r:id="rId8" xr:uid="{1846651B-6412-4AFB-AFB8-F96A2B371A6C}"/>
+    <hyperlink ref="E39" r:id="rId9" xr:uid="{C7270FA0-2830-4BB7-B110-850D8F971AEE}"/>
+    <hyperlink ref="E40" r:id="rId10" xr:uid="{D8221DFD-AF62-413A-9472-7B2D09F8AB38}"/>
+    <hyperlink ref="E41" r:id="rId11" xr:uid="{92989DC9-D56C-47D5-BFEE-71F6C0F3A548}"/>
+    <hyperlink ref="E42" r:id="rId12" xr:uid="{5B9642B1-4705-45AB-89BE-F072B333EBB6}"/>
+    <hyperlink ref="E49" r:id="rId13" xr:uid="{F05B4BA6-E510-400E-8A22-DBADEF073FBF}"/>
+    <hyperlink ref="E50" r:id="rId14" xr:uid="{3BF46FAB-1246-4475-A357-107735FE4BDF}"/>
+    <hyperlink ref="E51" r:id="rId15" xr:uid="{D048DBA0-6B3B-4476-A0C3-4EB3819321C8}"/>
+    <hyperlink ref="E52" r:id="rId16" xr:uid="{1437ABFF-76B7-4768-9BD6-04546FB41212}"/>
     <hyperlink ref="E10" r:id="rId17" xr:uid="{DF9385FD-36DB-4A19-8CBC-22A0966BA589}"/>
-    <hyperlink ref="E49" r:id="rId18" xr:uid="{A49C63A5-4761-4004-903F-BDC70A97AEB9}"/>
-    <hyperlink ref="E50" r:id="rId19" xr:uid="{475B209A-E520-460B-B1CA-985518CA6942}"/>
-    <hyperlink ref="E52" r:id="rId20" xr:uid="{365A4CF1-32B5-4CD5-8ACD-8871125C9A40}"/>
-    <hyperlink ref="E53" r:id="rId21" xr:uid="{F2B048DB-66F1-433F-824F-55CCC95C49F5}"/>
-    <hyperlink ref="E54" r:id="rId22" xr:uid="{B72A565C-741D-4F46-9AF2-3331FE245855}"/>
-    <hyperlink ref="E55" r:id="rId23" xr:uid="{81A40882-ACC5-427E-BC31-0390936D9ADA}"/>
-    <hyperlink ref="E56" r:id="rId24" xr:uid="{BAC61EA9-3ABF-4FBA-AB98-603E87B01642}"/>
-    <hyperlink ref="E57" r:id="rId25" xr:uid="{F311DB40-30CB-49FF-89EB-8929E8CC149D}"/>
-    <hyperlink ref="E58" r:id="rId26" xr:uid="{B1672B26-3311-4AB8-8DB8-10AB5E887662}"/>
-    <hyperlink ref="E61" r:id="rId27" xr:uid="{E1CC58C1-4BAD-4445-B722-3DC7F9057180}"/>
-    <hyperlink ref="E62" r:id="rId28" xr:uid="{AF7EF548-2486-4D16-93AD-8972177ECDC3}"/>
-    <hyperlink ref="E63" r:id="rId29" xr:uid="{24D15E37-D60C-432F-9CED-DCB5F84A8EA1}"/>
-    <hyperlink ref="E64" r:id="rId30" xr:uid="{E65E5986-C0ED-4D73-B262-03C37CE34824}"/>
-    <hyperlink ref="E65" r:id="rId31" xr:uid="{48A3DD7D-15A4-49DF-9BB8-0BF37E9BA8BF}"/>
-    <hyperlink ref="E66" r:id="rId32" xr:uid="{EB968D9A-2B1C-4356-8976-E3B995613790}"/>
+    <hyperlink ref="E53" r:id="rId18" xr:uid="{A49C63A5-4761-4004-903F-BDC70A97AEB9}"/>
+    <hyperlink ref="E54" r:id="rId19" xr:uid="{475B209A-E520-460B-B1CA-985518CA6942}"/>
+    <hyperlink ref="E56" r:id="rId20" xr:uid="{365A4CF1-32B5-4CD5-8ACD-8871125C9A40}"/>
+    <hyperlink ref="E57" r:id="rId21" xr:uid="{F2B048DB-66F1-433F-824F-55CCC95C49F5}"/>
+    <hyperlink ref="E58" r:id="rId22" xr:uid="{B72A565C-741D-4F46-9AF2-3331FE245855}"/>
+    <hyperlink ref="E59" r:id="rId23" xr:uid="{81A40882-ACC5-427E-BC31-0390936D9ADA}"/>
+    <hyperlink ref="E60" r:id="rId24" xr:uid="{BAC61EA9-3ABF-4FBA-AB98-603E87B01642}"/>
+    <hyperlink ref="E61" r:id="rId25" xr:uid="{F311DB40-30CB-49FF-89EB-8929E8CC149D}"/>
+    <hyperlink ref="E62" r:id="rId26" xr:uid="{B1672B26-3311-4AB8-8DB8-10AB5E887662}"/>
+    <hyperlink ref="E69" r:id="rId27" xr:uid="{E1CC58C1-4BAD-4445-B722-3DC7F9057180}"/>
+    <hyperlink ref="E71" r:id="rId28" xr:uid="{AF7EF548-2486-4D16-93AD-8972177ECDC3}"/>
+    <hyperlink ref="E72" r:id="rId29" xr:uid="{24D15E37-D60C-432F-9CED-DCB5F84A8EA1}"/>
+    <hyperlink ref="E73" r:id="rId30" xr:uid="{E65E5986-C0ED-4D73-B262-03C37CE34824}"/>
+    <hyperlink ref="E75" r:id="rId31" xr:uid="{48A3DD7D-15A4-49DF-9BB8-0BF37E9BA8BF}"/>
+    <hyperlink ref="E76" r:id="rId32" xr:uid="{EB968D9A-2B1C-4356-8976-E3B995613790}"/>
     <hyperlink ref="E3" r:id="rId33" xr:uid="{B8FCB838-5B1C-4D4C-B527-4AB9924EB2D3}"/>
     <hyperlink ref="E4" r:id="rId34" xr:uid="{025C23AA-1E34-4632-B635-9FA1B738A3E9}"/>
     <hyperlink ref="E5" r:id="rId35" xr:uid="{C7F936C0-3049-4E9A-8E0A-D27C6AB16FBC}"/>
@@ -2479,42 +2498,43 @@
     <hyperlink ref="E13" r:id="rId38" xr:uid="{4692811E-5658-4F6D-888F-1FA57CB69055}"/>
     <hyperlink ref="E15" r:id="rId39" xr:uid="{77B6D308-44FF-4E92-BBFB-EF9AD6EA9A68}"/>
     <hyperlink ref="E16" r:id="rId40" xr:uid="{7AFECFFC-8ADB-41C7-841B-216E556AAA4F}"/>
-    <hyperlink ref="E17" r:id="rId41" xr:uid="{DB25165C-39D2-4A45-B455-85A8EEDFE6B6}"/>
-    <hyperlink ref="E19" r:id="rId42" xr:uid="{458C6FF6-3543-45CE-9606-8A3082F62F0A}"/>
-    <hyperlink ref="E21" r:id="rId43" xr:uid="{94EFA63E-CE0C-4475-A396-18D53D8A6EC4}"/>
-    <hyperlink ref="E22" r:id="rId44" xr:uid="{92D4FFEE-7B65-4017-A716-809C7F8B0E04}"/>
-    <hyperlink ref="E26" r:id="rId45" xr:uid="{0B76847B-6C94-4E2D-A094-FCE72CC29EBF}"/>
-    <hyperlink ref="E27" r:id="rId46" xr:uid="{81C1C27A-8200-4CB8-8CA5-E4B85D519FDA}"/>
-    <hyperlink ref="E28" r:id="rId47" xr:uid="{B80CDD91-38DA-4375-88A0-B543FE2A3CCB}"/>
-    <hyperlink ref="E40" r:id="rId48" xr:uid="{085EF44D-1625-46A8-B320-B4D73C2793C3}"/>
+    <hyperlink ref="E18" r:id="rId41" xr:uid="{DB25165C-39D2-4A45-B455-85A8EEDFE6B6}"/>
+    <hyperlink ref="E21" r:id="rId42" xr:uid="{458C6FF6-3543-45CE-9606-8A3082F62F0A}"/>
+    <hyperlink ref="E23" r:id="rId43" xr:uid="{94EFA63E-CE0C-4475-A396-18D53D8A6EC4}"/>
+    <hyperlink ref="E24" r:id="rId44" xr:uid="{92D4FFEE-7B65-4017-A716-809C7F8B0E04}"/>
+    <hyperlink ref="E28" r:id="rId45" xr:uid="{0B76847B-6C94-4E2D-A094-FCE72CC29EBF}"/>
+    <hyperlink ref="E29" r:id="rId46" xr:uid="{81C1C27A-8200-4CB8-8CA5-E4B85D519FDA}"/>
+    <hyperlink ref="E30" r:id="rId47" xr:uid="{B80CDD91-38DA-4375-88A0-B543FE2A3CCB}"/>
+    <hyperlink ref="E43" r:id="rId48" xr:uid="{085EF44D-1625-46A8-B320-B4D73C2793C3}"/>
     <hyperlink ref="E6" r:id="rId49" xr:uid="{9050D2E2-A996-4813-BDAB-90A6E969B393}"/>
     <hyperlink ref="E7" r:id="rId50" xr:uid="{3FB58120-E5D0-4688-A553-FA719EE8AF86}"/>
     <hyperlink ref="E8" r:id="rId51" xr:uid="{27E6CD87-1D85-4CFF-82C0-B75E68882093}"/>
     <hyperlink ref="E9" r:id="rId52" xr:uid="{5726F0E2-EBA2-49FB-B482-C266FBD309BF}"/>
-    <hyperlink ref="E59" r:id="rId53" xr:uid="{34EFA9BA-9C8C-4881-A64C-2F70C6927793}"/>
-    <hyperlink ref="E60" r:id="rId54" xr:uid="{FE82914B-DA2F-43D9-856E-F8B21C1D980D}"/>
-    <hyperlink ref="E29" r:id="rId55" xr:uid="{49BBE16D-F3C9-4615-B1B4-B8FA17A26DD4}"/>
-    <hyperlink ref="E30" r:id="rId56" xr:uid="{1A356FB0-7765-46F0-BC27-98202B7BF4A6}"/>
+    <hyperlink ref="E63" r:id="rId53" xr:uid="{34EFA9BA-9C8C-4881-A64C-2F70C6927793}"/>
+    <hyperlink ref="E65" r:id="rId54" xr:uid="{FE82914B-DA2F-43D9-856E-F8B21C1D980D}"/>
+    <hyperlink ref="E32" r:id="rId55" xr:uid="{49BBE16D-F3C9-4615-B1B4-B8FA17A26DD4}"/>
+    <hyperlink ref="E33" r:id="rId56" xr:uid="{1A356FB0-7765-46F0-BC27-98202B7BF4A6}"/>
     <hyperlink ref="E2" r:id="rId57" xr:uid="{3BAF40B7-94EB-4B77-B83C-2E2E101DCD73}"/>
     <hyperlink ref="E14" r:id="rId58" xr:uid="{5012CD22-B9C1-451C-B278-3127E823477E}"/>
-    <hyperlink ref="E31" r:id="rId59" xr:uid="{B44F470F-A038-4D03-B4FC-3A710C4A1E53}"/>
-    <hyperlink ref="E32" r:id="rId60" xr:uid="{1B9F5F78-B40E-4B01-BBE4-7D5D05B0494D}"/>
-    <hyperlink ref="E41" r:id="rId61" xr:uid="{C51AD600-C6A8-4CD8-A6ED-A309C6A9E5FF}"/>
-    <hyperlink ref="E51" r:id="rId62" xr:uid="{35E24552-4BD2-4643-8BC5-2933C5863306}"/>
-    <hyperlink ref="E42" r:id="rId63" xr:uid="{59C100E4-5D91-46FA-A9CF-7FC950AC6162}"/>
-    <hyperlink ref="E43" r:id="rId64" xr:uid="{27B81F4A-B5A2-4B95-B182-8E237716E03C}"/>
-    <hyperlink ref="E44" r:id="rId65" xr:uid="{BBBA124A-D9A7-49CF-9B5E-6218C904469C}"/>
-    <hyperlink ref="E67" r:id="rId66" xr:uid="{BC23E410-1E83-43B7-B83C-8F7E64BB9146}"/>
+    <hyperlink ref="E34" r:id="rId59" xr:uid="{B44F470F-A038-4D03-B4FC-3A710C4A1E53}"/>
+    <hyperlink ref="E35" r:id="rId60" xr:uid="{1B9F5F78-B40E-4B01-BBE4-7D5D05B0494D}"/>
+    <hyperlink ref="E44" r:id="rId61" xr:uid="{C51AD600-C6A8-4CD8-A6ED-A309C6A9E5FF}"/>
+    <hyperlink ref="E55" r:id="rId62" xr:uid="{35E24552-4BD2-4643-8BC5-2933C5863306}"/>
+    <hyperlink ref="E46" r:id="rId63" xr:uid="{59C100E4-5D91-46FA-A9CF-7FC950AC6162}"/>
+    <hyperlink ref="E47" r:id="rId64" xr:uid="{27B81F4A-B5A2-4B95-B182-8E237716E03C}"/>
+    <hyperlink ref="E48" r:id="rId65" xr:uid="{BBBA124A-D9A7-49CF-9B5E-6218C904469C}"/>
+    <hyperlink ref="E66" r:id="rId66" xr:uid="{BC23E410-1E83-43B7-B83C-8F7E64BB9146}"/>
     <hyperlink ref="E68" r:id="rId67" xr:uid="{F2AEE35C-42C1-4BFE-B760-AA86FE091591}"/>
-    <hyperlink ref="E69" r:id="rId68" xr:uid="{CBE85328-B553-4738-90B3-7F3A5579E07D}"/>
-    <hyperlink ref="E70" r:id="rId69" xr:uid="{5319E4AF-8DD0-4C01-A448-C6A50345BF6D}"/>
-    <hyperlink ref="E71" r:id="rId70" xr:uid="{105DD274-8872-41F3-9AEE-CB0929A91BD7}"/>
-    <hyperlink ref="E72" r:id="rId71" xr:uid="{E4C036B5-8E63-4154-81B7-386C17DE26F0}"/>
-    <hyperlink ref="E73" r:id="rId72" xr:uid="{EA050D64-47A3-4EF1-B293-1513E65F8A17}"/>
-    <hyperlink ref="E74" r:id="rId73" xr:uid="{FE69776B-DAB8-458E-A1CC-CC4D45FB990E}"/>
-    <hyperlink ref="E75" r:id="rId74" xr:uid="{B8709E17-82C3-4C15-AFCA-FDBC6C0E3742}"/>
+    <hyperlink ref="E64" r:id="rId68" xr:uid="{CBE85328-B553-4738-90B3-7F3A5579E07D}"/>
+    <hyperlink ref="E45" r:id="rId69" xr:uid="{5319E4AF-8DD0-4C01-A448-C6A50345BF6D}"/>
+    <hyperlink ref="E74" r:id="rId70" xr:uid="{105DD274-8872-41F3-9AEE-CB0929A91BD7}"/>
+    <hyperlink ref="E67" r:id="rId71" xr:uid="{E4C036B5-8E63-4154-81B7-386C17DE26F0}"/>
+    <hyperlink ref="E70" r:id="rId72" xr:uid="{EA050D64-47A3-4EF1-B293-1513E65F8A17}"/>
+    <hyperlink ref="E20" r:id="rId73" xr:uid="{FE69776B-DAB8-458E-A1CC-CC4D45FB990E}"/>
+    <hyperlink ref="E17" r:id="rId74" xr:uid="{B8709E17-82C3-4C15-AFCA-FDBC6C0E3742}"/>
+    <hyperlink ref="E31" r:id="rId75" xr:uid="{AD9E04E9-7330-4AEB-B1D5-0D658D10BE4C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId75"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId76"/>
 </worksheet>
 </file>
--- a/_site/data/methods.xlsx
+++ b/_site/data/methods.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My_R\overview_megadatabase\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{326BA3B9-4B00-4CC1-91FC-9CFF58C66E63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3F849C6-B4CE-4032-AA1B-4EA3F3799059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D142A978-9658-4202-BF77-FF6002D5B3D1}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Φύλλο1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Φύλλο1!$A$1:$E$76</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Φύλλο1!$A$1:$E$79</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="241">
   <si>
     <t>first author</t>
   </si>
@@ -748,6 +748,24 @@
   </si>
   <si>
     <t>Sachse T.</t>
+  </si>
+  <si>
+    <t>How can clinicians choose between conflicting and discordant systematic reviews? A replication study of the Jadad algorithm</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1186/s12874-022-01750-2</t>
+  </si>
+  <si>
+    <t>Types and associated methodologies of overviews of reviews in health care: a methodological study with published examples</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.jclinepi.2022.11.003</t>
+  </si>
+  <si>
+    <t>ccaR: A package for assessing primary study overlap across systematic reviews in overviews</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1002/jrsm.1610</t>
   </si>
 </sst>
 </file>
@@ -1151,9 +1169,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3C04B9F-2B89-4EC8-954F-BE264C2F59A5}">
-  <dimension ref="A1:E76"/>
+  <dimension ref="A1:E79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1319,495 +1337,495 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>46</v>
+        <v>153</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>237</v>
       </c>
       <c r="C10" s="3">
-        <v>2016</v>
+        <v>2022</v>
       </c>
       <c r="D10" t="s">
         <v>24</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>129</v>
+        <v>238</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>92</v>
+        <v>153</v>
       </c>
       <c r="B11" t="s">
-        <v>91</v>
+        <v>239</v>
       </c>
       <c r="C11" s="3">
-        <v>2015</v>
+        <v>2022</v>
       </c>
       <c r="D11" t="s">
-        <v>93</v>
+        <v>19</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>140</v>
+        <v>240</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="B12" t="s">
-        <v>94</v>
+        <v>45</v>
       </c>
       <c r="C12" s="3">
-        <v>2010</v>
+        <v>2016</v>
       </c>
       <c r="D12" t="s">
         <v>24</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B13" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C13" s="3">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D13" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>176</v>
+        <v>95</v>
       </c>
       <c r="B14" t="s">
-        <v>175</v>
+        <v>94</v>
       </c>
       <c r="C14" s="3">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="D14" t="s">
-        <v>178</v>
+        <v>24</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>177</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B15" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C15" s="3">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="D15" t="s">
-        <v>35</v>
+        <v>97</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>103</v>
+        <v>176</v>
       </c>
       <c r="B16" t="s">
-        <v>101</v>
+        <v>175</v>
       </c>
       <c r="C16" s="3">
-        <v>2019</v>
+        <v>2012</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>178</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>102</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>227</v>
+        <v>100</v>
       </c>
       <c r="B17" t="s">
-        <v>228</v>
+        <v>99</v>
       </c>
       <c r="C17" s="3">
-        <v>2022</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>229</v>
+        <v>2015</v>
+      </c>
+      <c r="D17" t="s">
+        <v>35</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>230</v>
+        <v>143</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B18" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C18" s="3">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D18" t="s">
-        <v>106</v>
+        <v>24</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>144</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>8</v>
+      <c r="A19" s="4" t="s">
+        <v>227</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>228</v>
       </c>
       <c r="C19" s="3">
-        <v>2020</v>
-      </c>
-      <c r="D19" t="s">
-        <v>7</v>
+        <v>2022</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>229</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>6</v>
+        <v>230</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B20" t="s">
+        <v>104</v>
+      </c>
+      <c r="C20" s="3">
+        <v>2018</v>
+      </c>
+      <c r="D20" t="s">
+        <v>106</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>8</v>
       </c>
-      <c r="B20" t="s">
-        <v>224</v>
-      </c>
-      <c r="C20" s="3">
-        <v>2022</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
-        <v>108</v>
-      </c>
       <c r="B21" t="s">
-        <v>107</v>
+        <v>5</v>
       </c>
       <c r="C21" s="3">
         <v>2020</v>
       </c>
       <c r="D21" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>109</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>12</v>
+      <c r="A22" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>9</v>
+        <v>224</v>
       </c>
       <c r="C22" s="3">
-        <v>2012</v>
-      </c>
-      <c r="D22" t="s">
-        <v>11</v>
+        <v>2022</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>226</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>10</v>
+        <v>225</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B23" t="s">
+        <v>107</v>
+      </c>
+      <c r="C23" s="3">
+        <v>2020</v>
+      </c>
+      <c r="D23" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>12</v>
       </c>
-      <c r="B23" t="s">
-        <v>110</v>
-      </c>
-      <c r="C23" s="3">
-        <v>2014</v>
-      </c>
-      <c r="D23" t="s">
-        <v>82</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
-        <v>113</v>
-      </c>
       <c r="B24" t="s">
-        <v>111</v>
+        <v>9</v>
       </c>
       <c r="C24" s="3">
         <v>2012</v>
       </c>
       <c r="D24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" t="s">
+        <v>110</v>
+      </c>
+      <c r="C25" s="3">
+        <v>2014</v>
+      </c>
+      <c r="D25" t="s">
+        <v>82</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B26" t="s">
+        <v>111</v>
+      </c>
+      <c r="C26" s="3">
+        <v>2012</v>
+      </c>
+      <c r="D26" t="s">
         <v>112</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>146</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>16</v>
-      </c>
-      <c r="B25" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" s="3">
-        <v>2019</v>
-      </c>
-      <c r="D25" t="s">
-        <v>14</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>16</v>
-      </c>
-      <c r="B26" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26" s="3">
-        <v>2019</v>
-      </c>
-      <c r="D26" t="s">
-        <v>19</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="3">
+        <v>2019</v>
+      </c>
+      <c r="D27" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="3">
+        <v>2019</v>
+      </c>
+      <c r="D28" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>22</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B29" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C29" s="3">
         <v>2018</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D29" t="s">
         <v>7</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B28" t="s">
-        <v>114</v>
-      </c>
-      <c r="C28" s="3">
-        <v>2009</v>
-      </c>
-      <c r="D28" t="s">
-        <v>116</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B29" t="s">
-        <v>117</v>
-      </c>
-      <c r="C29" s="3">
-        <v>2017</v>
-      </c>
-      <c r="D29" t="s">
-        <v>118</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B30" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C30" s="3">
-        <v>2020</v>
+        <v>2009</v>
       </c>
       <c r="D30" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>231</v>
+        <v>115</v>
       </c>
       <c r="B31" t="s">
-        <v>233</v>
+        <v>117</v>
       </c>
       <c r="C31" s="3">
-        <v>2022</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>7</v>
+        <v>2017</v>
+      </c>
+      <c r="D31" t="s">
+        <v>118</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>232</v>
+        <v>148</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>166</v>
+        <v>120</v>
       </c>
       <c r="B32" t="s">
-        <v>165</v>
+        <v>119</v>
       </c>
       <c r="C32" s="3">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="D32" t="s">
-        <v>167</v>
+        <v>123</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>170</v>
+        <v>231</v>
       </c>
       <c r="B33" t="s">
-        <v>171</v>
+        <v>233</v>
       </c>
       <c r="C33" s="3">
-        <v>2019</v>
-      </c>
-      <c r="D33" t="s">
+        <v>2022</v>
+      </c>
+      <c r="D33" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>169</v>
+        <v>232</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="B34" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="C34" s="3">
-        <v>2012</v>
+        <v>2022</v>
       </c>
       <c r="D34" t="s">
-        <v>49</v>
+        <v>167</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="B35" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="C35" s="3">
+        <v>2019</v>
+      </c>
+      <c r="D35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B36" t="s">
+        <v>179</v>
+      </c>
+      <c r="C36" s="3">
         <v>2012</v>
       </c>
-      <c r="D35" t="s">
-        <v>184</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" t="s">
-        <v>23</v>
-      </c>
-      <c r="C36" s="3">
-        <v>2016</v>
-      </c>
       <c r="D36" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>125</v>
+        <v>180</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B37" t="s">
+        <v>182</v>
+      </c>
+      <c r="C37" s="3">
+        <v>2012</v>
+      </c>
+      <c r="D37" t="s">
+        <v>184</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>25</v>
       </c>
-      <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" s="3">
-        <v>2017</v>
-      </c>
-      <c r="D37" t="s">
-        <v>7</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="4" t="s">
-        <v>25</v>
-      </c>
       <c r="B38" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C38" s="3">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="D38" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>29</v>
+        <v>125</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -1815,16 +1833,16 @@
         <v>25</v>
       </c>
       <c r="B39" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C39" s="3">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="D39" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -1832,16 +1850,16 @@
         <v>25</v>
       </c>
       <c r="B40" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C40" s="3">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="D40" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -1849,186 +1867,186 @@
         <v>25</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C41" s="3">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D41" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="B42" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="C42" s="3">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="D42" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>122</v>
+        <v>25</v>
       </c>
       <c r="B43" t="s">
-        <v>121</v>
+        <v>34</v>
       </c>
       <c r="C43" s="3">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="D43" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>124</v>
+        <v>36</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
-        <v>189</v>
+        <v>25</v>
       </c>
       <c r="B44" t="s">
-        <v>186</v>
+        <v>235</v>
       </c>
       <c r="C44" s="3">
+        <v>2022</v>
+      </c>
+      <c r="D44" t="s">
+        <v>35</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B45" t="s">
+        <v>54</v>
+      </c>
+      <c r="C45" s="3">
         <v>2019</v>
       </c>
-      <c r="D44" t="s">
-        <v>68</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="C45" s="3">
-        <v>2022</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>214</v>
+      <c r="D45" t="s">
+        <v>35</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
-        <v>193</v>
+        <v>122</v>
       </c>
       <c r="B46" t="s">
-        <v>192</v>
+        <v>121</v>
       </c>
       <c r="C46" s="3">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="D46" t="s">
-        <v>194</v>
+        <v>7</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>195</v>
+        <v>124</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="B47" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="C47" s="3">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="D47" t="s">
-        <v>197</v>
+        <v>68</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B48" t="s">
-        <v>199</v>
+      <c r="A48" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>213</v>
       </c>
       <c r="C48" s="3">
-        <v>2014</v>
-      </c>
-      <c r="D48" t="s">
+        <v>2022</v>
+      </c>
+      <c r="D48" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E48" s="1" t="s">
-        <v>200</v>
+      <c r="E48" s="7" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
-        <v>40</v>
+        <v>193</v>
       </c>
       <c r="B49" t="s">
-        <v>39</v>
+        <v>192</v>
       </c>
       <c r="C49" s="3">
-        <v>2012</v>
+        <v>2021</v>
       </c>
       <c r="D49" t="s">
-        <v>24</v>
+        <v>194</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>126</v>
+        <v>195</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
-        <v>40</v>
+        <v>202</v>
       </c>
       <c r="B50" t="s">
-        <v>41</v>
+        <v>196</v>
       </c>
       <c r="C50" s="3">
-        <v>2014</v>
+        <v>2021</v>
       </c>
       <c r="D50" t="s">
-        <v>19</v>
+        <v>197</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>42</v>
+        <v>198</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
-        <v>40</v>
+        <v>203</v>
       </c>
       <c r="B51" t="s">
-        <v>43</v>
+        <v>199</v>
       </c>
       <c r="C51" s="3">
         <v>2014</v>
       </c>
       <c r="D51" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>127</v>
+        <v>200</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
@@ -2036,16 +2054,16 @@
         <v>40</v>
       </c>
       <c r="B52" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C52" s="3">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D52" t="s">
         <v>24</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
@@ -2053,16 +2071,16 @@
         <v>40</v>
       </c>
       <c r="B53" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C53" s="3">
         <v>2014</v>
       </c>
       <c r="D53" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
@@ -2070,135 +2088,135 @@
         <v>40</v>
       </c>
       <c r="B54" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C54" s="3">
-        <v>2021</v>
+        <v>2014</v>
       </c>
       <c r="D54" t="s">
         <v>24</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>51</v>
+        <v>127</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
-        <v>190</v>
+        <v>40</v>
       </c>
       <c r="B55" t="s">
-        <v>188</v>
-      </c>
-      <c r="C55" s="5">
+        <v>44</v>
+      </c>
+      <c r="C55" s="3">
         <v>2014</v>
       </c>
       <c r="D55" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>191</v>
+        <v>128</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="B56" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C56" s="3">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="D56" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>130</v>
+        <v>48</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="B57" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C57" s="3">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="D57" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>131</v>
+        <v>51</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
-        <v>53</v>
+        <v>190</v>
       </c>
       <c r="B58" t="s">
-        <v>56</v>
-      </c>
-      <c r="C58" s="3">
-        <v>2019</v>
+        <v>188</v>
+      </c>
+      <c r="C58" s="5">
+        <v>2014</v>
       </c>
       <c r="D58" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>132</v>
+        <v>191</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B59" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C59" s="3">
         <v>2016</v>
       </c>
       <c r="D59" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B60" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C60" s="3">
         <v>2017</v>
       </c>
       <c r="D60" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B61" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C61" s="3">
         <v>2019</v>
       </c>
       <c r="D61" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>62</v>
+        <v>132</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
@@ -2206,16 +2224,16 @@
         <v>59</v>
       </c>
       <c r="B62" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C62" s="3">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="D62" t="s">
         <v>7</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>64</v>
+        <v>133</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
@@ -2223,318 +2241,372 @@
         <v>59</v>
       </c>
       <c r="B63" t="s">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="C63" s="3">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="D63" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>161</v>
+        <v>134</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
-        <v>211</v>
+        <v>59</v>
       </c>
       <c r="B64" t="s">
-        <v>210</v>
+        <v>61</v>
       </c>
       <c r="C64" s="3">
-        <v>2020</v>
-      </c>
-      <c r="D64" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E64" s="7" t="s">
-        <v>212</v>
+        <v>2019</v>
+      </c>
+      <c r="D64" t="s">
+        <v>7</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
-        <v>162</v>
+        <v>59</v>
       </c>
       <c r="B65" t="s">
-        <v>163</v>
+        <v>63</v>
       </c>
       <c r="C65" s="3">
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="D65" t="s">
         <v>7</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>164</v>
+        <v>64</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
-        <v>206</v>
+        <v>59</v>
       </c>
       <c r="B66" t="s">
-        <v>204</v>
+        <v>160</v>
       </c>
       <c r="C66" s="3">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="D66" t="s">
-        <v>201</v>
+        <v>7</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>205</v>
+        <v>161</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
-        <v>234</v>
+        <v>211</v>
       </c>
       <c r="B67" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="C67" s="3">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="D67" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E67" s="1" t="s">
-        <v>220</v>
+      <c r="E67" s="7" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
-        <v>207</v>
+        <v>162</v>
       </c>
       <c r="B68" t="s">
-        <v>208</v>
+        <v>163</v>
       </c>
       <c r="C68" s="3">
-        <v>2022</v>
+        <v>2014</v>
       </c>
       <c r="D68" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>209</v>
+        <v>164</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
-        <v>67</v>
+        <v>206</v>
       </c>
       <c r="B69" t="s">
-        <v>65</v>
+        <v>204</v>
       </c>
       <c r="C69" s="3">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="D69" t="s">
-        <v>68</v>
+        <v>201</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>66</v>
+        <v>205</v>
       </c>
     </row>
     <row r="70" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="B70" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C70" s="3">
         <v>2022</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>226</v>
+        <v>24</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
-        <v>71</v>
+        <v>207</v>
       </c>
       <c r="B71" t="s">
-        <v>69</v>
+        <v>208</v>
       </c>
       <c r="C71" s="3">
         <v>2022</v>
       </c>
       <c r="D71" t="s">
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>70</v>
+        <v>209</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B72" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C72" s="3">
-        <v>2011</v>
+        <v>2019</v>
       </c>
       <c r="D72" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>150</v>
+        <v>66</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
-        <v>78</v>
+        <v>223</v>
       </c>
       <c r="B73" t="s">
-        <v>75</v>
+        <v>221</v>
       </c>
       <c r="C73" s="3">
-        <v>2018</v>
-      </c>
-      <c r="D73" t="s">
-        <v>77</v>
+        <v>2022</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>226</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>76</v>
+        <v>222</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="6" t="s">
-        <v>218</v>
+      <c r="A74" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="B74" t="s">
-        <v>217</v>
+        <v>69</v>
       </c>
       <c r="C74" s="3">
         <v>2022</v>
       </c>
-      <c r="D74" s="6" t="s">
-        <v>19</v>
+      <c r="D74" t="s">
+        <v>72</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>216</v>
+        <v>70</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C75" s="3">
         <v>2011</v>
       </c>
       <c r="D75" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B76" t="s">
+        <v>75</v>
+      </c>
+      <c r="C76" s="3">
+        <v>2018</v>
+      </c>
+      <c r="D76" t="s">
+        <v>77</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="B77" t="s">
+        <v>217</v>
+      </c>
+      <c r="C77" s="3">
+        <v>2022</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B78" t="s">
+        <v>79</v>
+      </c>
+      <c r="C78" s="3">
+        <v>2011</v>
+      </c>
+      <c r="D78" t="s">
+        <v>19</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B79" t="s">
         <v>81</v>
       </c>
-      <c r="C76" s="3">
+      <c r="C79" s="3">
         <v>2013</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D79" t="s">
         <v>82</v>
       </c>
-      <c r="E76" s="1" t="s">
+      <c r="E79" s="1" t="s">
         <v>136</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E19" r:id="rId1" xr:uid="{F6233517-0866-4B0A-B501-654979DF1645}"/>
-    <hyperlink ref="E22" r:id="rId2" xr:uid="{CBD7CBEE-D091-4342-A7E0-41DE558F1037}"/>
-    <hyperlink ref="E25" r:id="rId3" xr:uid="{225B3A1D-B3F0-4695-9FC4-4F153794A4FC}"/>
-    <hyperlink ref="E26" r:id="rId4" xr:uid="{7A1A6A3D-3414-4BF6-BEDD-0EE0347C319E}"/>
-    <hyperlink ref="E27" r:id="rId5" xr:uid="{4CEF4617-6BD3-44D3-8DC1-60D790061756}"/>
-    <hyperlink ref="E36" r:id="rId6" xr:uid="{7D05E552-8270-4F5D-AC46-1ED37444A309}"/>
-    <hyperlink ref="E37" r:id="rId7" xr:uid="{6C173CBA-3446-4E84-9A3E-965DF6C6C088}"/>
-    <hyperlink ref="E38" r:id="rId8" xr:uid="{1846651B-6412-4AFB-AFB8-F96A2B371A6C}"/>
-    <hyperlink ref="E39" r:id="rId9" xr:uid="{C7270FA0-2830-4BB7-B110-850D8F971AEE}"/>
-    <hyperlink ref="E40" r:id="rId10" xr:uid="{D8221DFD-AF62-413A-9472-7B2D09F8AB38}"/>
-    <hyperlink ref="E41" r:id="rId11" xr:uid="{92989DC9-D56C-47D5-BFEE-71F6C0F3A548}"/>
-    <hyperlink ref="E42" r:id="rId12" xr:uid="{5B9642B1-4705-45AB-89BE-F072B333EBB6}"/>
-    <hyperlink ref="E49" r:id="rId13" xr:uid="{F05B4BA6-E510-400E-8A22-DBADEF073FBF}"/>
-    <hyperlink ref="E50" r:id="rId14" xr:uid="{3BF46FAB-1246-4475-A357-107735FE4BDF}"/>
-    <hyperlink ref="E51" r:id="rId15" xr:uid="{D048DBA0-6B3B-4476-A0C3-4EB3819321C8}"/>
-    <hyperlink ref="E52" r:id="rId16" xr:uid="{1437ABFF-76B7-4768-9BD6-04546FB41212}"/>
-    <hyperlink ref="E10" r:id="rId17" xr:uid="{DF9385FD-36DB-4A19-8CBC-22A0966BA589}"/>
-    <hyperlink ref="E53" r:id="rId18" xr:uid="{A49C63A5-4761-4004-903F-BDC70A97AEB9}"/>
-    <hyperlink ref="E54" r:id="rId19" xr:uid="{475B209A-E520-460B-B1CA-985518CA6942}"/>
-    <hyperlink ref="E56" r:id="rId20" xr:uid="{365A4CF1-32B5-4CD5-8ACD-8871125C9A40}"/>
-    <hyperlink ref="E57" r:id="rId21" xr:uid="{F2B048DB-66F1-433F-824F-55CCC95C49F5}"/>
-    <hyperlink ref="E58" r:id="rId22" xr:uid="{B72A565C-741D-4F46-9AF2-3331FE245855}"/>
-    <hyperlink ref="E59" r:id="rId23" xr:uid="{81A40882-ACC5-427E-BC31-0390936D9ADA}"/>
-    <hyperlink ref="E60" r:id="rId24" xr:uid="{BAC61EA9-3ABF-4FBA-AB98-603E87B01642}"/>
-    <hyperlink ref="E61" r:id="rId25" xr:uid="{F311DB40-30CB-49FF-89EB-8929E8CC149D}"/>
-    <hyperlink ref="E62" r:id="rId26" xr:uid="{B1672B26-3311-4AB8-8DB8-10AB5E887662}"/>
-    <hyperlink ref="E69" r:id="rId27" xr:uid="{E1CC58C1-4BAD-4445-B722-3DC7F9057180}"/>
-    <hyperlink ref="E71" r:id="rId28" xr:uid="{AF7EF548-2486-4D16-93AD-8972177ECDC3}"/>
-    <hyperlink ref="E72" r:id="rId29" xr:uid="{24D15E37-D60C-432F-9CED-DCB5F84A8EA1}"/>
-    <hyperlink ref="E73" r:id="rId30" xr:uid="{E65E5986-C0ED-4D73-B262-03C37CE34824}"/>
-    <hyperlink ref="E75" r:id="rId31" xr:uid="{48A3DD7D-15A4-49DF-9BB8-0BF37E9BA8BF}"/>
-    <hyperlink ref="E76" r:id="rId32" xr:uid="{EB968D9A-2B1C-4356-8976-E3B995613790}"/>
+    <hyperlink ref="E21" r:id="rId1" xr:uid="{F6233517-0866-4B0A-B501-654979DF1645}"/>
+    <hyperlink ref="E24" r:id="rId2" xr:uid="{CBD7CBEE-D091-4342-A7E0-41DE558F1037}"/>
+    <hyperlink ref="E27" r:id="rId3" xr:uid="{225B3A1D-B3F0-4695-9FC4-4F153794A4FC}"/>
+    <hyperlink ref="E28" r:id="rId4" xr:uid="{7A1A6A3D-3414-4BF6-BEDD-0EE0347C319E}"/>
+    <hyperlink ref="E29" r:id="rId5" xr:uid="{4CEF4617-6BD3-44D3-8DC1-60D790061756}"/>
+    <hyperlink ref="E38" r:id="rId6" xr:uid="{7D05E552-8270-4F5D-AC46-1ED37444A309}"/>
+    <hyperlink ref="E39" r:id="rId7" xr:uid="{6C173CBA-3446-4E84-9A3E-965DF6C6C088}"/>
+    <hyperlink ref="E40" r:id="rId8" xr:uid="{1846651B-6412-4AFB-AFB8-F96A2B371A6C}"/>
+    <hyperlink ref="E41" r:id="rId9" xr:uid="{C7270FA0-2830-4BB7-B110-850D8F971AEE}"/>
+    <hyperlink ref="E42" r:id="rId10" xr:uid="{D8221DFD-AF62-413A-9472-7B2D09F8AB38}"/>
+    <hyperlink ref="E43" r:id="rId11" xr:uid="{92989DC9-D56C-47D5-BFEE-71F6C0F3A548}"/>
+    <hyperlink ref="E45" r:id="rId12" xr:uid="{5B9642B1-4705-45AB-89BE-F072B333EBB6}"/>
+    <hyperlink ref="E52" r:id="rId13" xr:uid="{F05B4BA6-E510-400E-8A22-DBADEF073FBF}"/>
+    <hyperlink ref="E53" r:id="rId14" xr:uid="{3BF46FAB-1246-4475-A357-107735FE4BDF}"/>
+    <hyperlink ref="E54" r:id="rId15" xr:uid="{D048DBA0-6B3B-4476-A0C3-4EB3819321C8}"/>
+    <hyperlink ref="E55" r:id="rId16" xr:uid="{1437ABFF-76B7-4768-9BD6-04546FB41212}"/>
+    <hyperlink ref="E12" r:id="rId17" xr:uid="{DF9385FD-36DB-4A19-8CBC-22A0966BA589}"/>
+    <hyperlink ref="E56" r:id="rId18" xr:uid="{A49C63A5-4761-4004-903F-BDC70A97AEB9}"/>
+    <hyperlink ref="E57" r:id="rId19" xr:uid="{475B209A-E520-460B-B1CA-985518CA6942}"/>
+    <hyperlink ref="E59" r:id="rId20" xr:uid="{365A4CF1-32B5-4CD5-8ACD-8871125C9A40}"/>
+    <hyperlink ref="E60" r:id="rId21" xr:uid="{F2B048DB-66F1-433F-824F-55CCC95C49F5}"/>
+    <hyperlink ref="E61" r:id="rId22" xr:uid="{B72A565C-741D-4F46-9AF2-3331FE245855}"/>
+    <hyperlink ref="E62" r:id="rId23" xr:uid="{81A40882-ACC5-427E-BC31-0390936D9ADA}"/>
+    <hyperlink ref="E63" r:id="rId24" xr:uid="{BAC61EA9-3ABF-4FBA-AB98-603E87B01642}"/>
+    <hyperlink ref="E64" r:id="rId25" xr:uid="{F311DB40-30CB-49FF-89EB-8929E8CC149D}"/>
+    <hyperlink ref="E65" r:id="rId26" xr:uid="{B1672B26-3311-4AB8-8DB8-10AB5E887662}"/>
+    <hyperlink ref="E72" r:id="rId27" xr:uid="{E1CC58C1-4BAD-4445-B722-3DC7F9057180}"/>
+    <hyperlink ref="E74" r:id="rId28" xr:uid="{AF7EF548-2486-4D16-93AD-8972177ECDC3}"/>
+    <hyperlink ref="E75" r:id="rId29" xr:uid="{24D15E37-D60C-432F-9CED-DCB5F84A8EA1}"/>
+    <hyperlink ref="E76" r:id="rId30" xr:uid="{E65E5986-C0ED-4D73-B262-03C37CE34824}"/>
+    <hyperlink ref="E78" r:id="rId31" xr:uid="{48A3DD7D-15A4-49DF-9BB8-0BF37E9BA8BF}"/>
+    <hyperlink ref="E79" r:id="rId32" xr:uid="{EB968D9A-2B1C-4356-8976-E3B995613790}"/>
     <hyperlink ref="E3" r:id="rId33" xr:uid="{B8FCB838-5B1C-4D4C-B527-4AB9924EB2D3}"/>
     <hyperlink ref="E4" r:id="rId34" xr:uid="{025C23AA-1E34-4632-B635-9FA1B738A3E9}"/>
     <hyperlink ref="E5" r:id="rId35" xr:uid="{C7F936C0-3049-4E9A-8E0A-D27C6AB16FBC}"/>
-    <hyperlink ref="E11" r:id="rId36" xr:uid="{3BA864D8-6C95-445A-9E36-94695B2653D8}"/>
-    <hyperlink ref="E12" r:id="rId37" xr:uid="{66FE564C-E3E8-4D41-8387-922E5C4C1218}"/>
-    <hyperlink ref="E13" r:id="rId38" xr:uid="{4692811E-5658-4F6D-888F-1FA57CB69055}"/>
-    <hyperlink ref="E15" r:id="rId39" xr:uid="{77B6D308-44FF-4E92-BBFB-EF9AD6EA9A68}"/>
-    <hyperlink ref="E16" r:id="rId40" xr:uid="{7AFECFFC-8ADB-41C7-841B-216E556AAA4F}"/>
-    <hyperlink ref="E18" r:id="rId41" xr:uid="{DB25165C-39D2-4A45-B455-85A8EEDFE6B6}"/>
-    <hyperlink ref="E21" r:id="rId42" xr:uid="{458C6FF6-3543-45CE-9606-8A3082F62F0A}"/>
-    <hyperlink ref="E23" r:id="rId43" xr:uid="{94EFA63E-CE0C-4475-A396-18D53D8A6EC4}"/>
-    <hyperlink ref="E24" r:id="rId44" xr:uid="{92D4FFEE-7B65-4017-A716-809C7F8B0E04}"/>
-    <hyperlink ref="E28" r:id="rId45" xr:uid="{0B76847B-6C94-4E2D-A094-FCE72CC29EBF}"/>
-    <hyperlink ref="E29" r:id="rId46" xr:uid="{81C1C27A-8200-4CB8-8CA5-E4B85D519FDA}"/>
-    <hyperlink ref="E30" r:id="rId47" xr:uid="{B80CDD91-38DA-4375-88A0-B543FE2A3CCB}"/>
-    <hyperlink ref="E43" r:id="rId48" xr:uid="{085EF44D-1625-46A8-B320-B4D73C2793C3}"/>
+    <hyperlink ref="E13" r:id="rId36" xr:uid="{3BA864D8-6C95-445A-9E36-94695B2653D8}"/>
+    <hyperlink ref="E14" r:id="rId37" xr:uid="{66FE564C-E3E8-4D41-8387-922E5C4C1218}"/>
+    <hyperlink ref="E15" r:id="rId38" xr:uid="{4692811E-5658-4F6D-888F-1FA57CB69055}"/>
+    <hyperlink ref="E17" r:id="rId39" xr:uid="{77B6D308-44FF-4E92-BBFB-EF9AD6EA9A68}"/>
+    <hyperlink ref="E18" r:id="rId40" xr:uid="{7AFECFFC-8ADB-41C7-841B-216E556AAA4F}"/>
+    <hyperlink ref="E20" r:id="rId41" xr:uid="{DB25165C-39D2-4A45-B455-85A8EEDFE6B6}"/>
+    <hyperlink ref="E23" r:id="rId42" xr:uid="{458C6FF6-3543-45CE-9606-8A3082F62F0A}"/>
+    <hyperlink ref="E25" r:id="rId43" xr:uid="{94EFA63E-CE0C-4475-A396-18D53D8A6EC4}"/>
+    <hyperlink ref="E26" r:id="rId44" xr:uid="{92D4FFEE-7B65-4017-A716-809C7F8B0E04}"/>
+    <hyperlink ref="E30" r:id="rId45" xr:uid="{0B76847B-6C94-4E2D-A094-FCE72CC29EBF}"/>
+    <hyperlink ref="E31" r:id="rId46" xr:uid="{81C1C27A-8200-4CB8-8CA5-E4B85D519FDA}"/>
+    <hyperlink ref="E32" r:id="rId47" xr:uid="{B80CDD91-38DA-4375-88A0-B543FE2A3CCB}"/>
+    <hyperlink ref="E46" r:id="rId48" xr:uid="{085EF44D-1625-46A8-B320-B4D73C2793C3}"/>
     <hyperlink ref="E6" r:id="rId49" xr:uid="{9050D2E2-A996-4813-BDAB-90A6E969B393}"/>
     <hyperlink ref="E7" r:id="rId50" xr:uid="{3FB58120-E5D0-4688-A553-FA719EE8AF86}"/>
     <hyperlink ref="E8" r:id="rId51" xr:uid="{27E6CD87-1D85-4CFF-82C0-B75E68882093}"/>
     <hyperlink ref="E9" r:id="rId52" xr:uid="{5726F0E2-EBA2-49FB-B482-C266FBD309BF}"/>
-    <hyperlink ref="E63" r:id="rId53" xr:uid="{34EFA9BA-9C8C-4881-A64C-2F70C6927793}"/>
-    <hyperlink ref="E65" r:id="rId54" xr:uid="{FE82914B-DA2F-43D9-856E-F8B21C1D980D}"/>
-    <hyperlink ref="E32" r:id="rId55" xr:uid="{49BBE16D-F3C9-4615-B1B4-B8FA17A26DD4}"/>
-    <hyperlink ref="E33" r:id="rId56" xr:uid="{1A356FB0-7765-46F0-BC27-98202B7BF4A6}"/>
+    <hyperlink ref="E66" r:id="rId53" xr:uid="{34EFA9BA-9C8C-4881-A64C-2F70C6927793}"/>
+    <hyperlink ref="E68" r:id="rId54" xr:uid="{FE82914B-DA2F-43D9-856E-F8B21C1D980D}"/>
+    <hyperlink ref="E34" r:id="rId55" xr:uid="{49BBE16D-F3C9-4615-B1B4-B8FA17A26DD4}"/>
+    <hyperlink ref="E35" r:id="rId56" xr:uid="{1A356FB0-7765-46F0-BC27-98202B7BF4A6}"/>
     <hyperlink ref="E2" r:id="rId57" xr:uid="{3BAF40B7-94EB-4B77-B83C-2E2E101DCD73}"/>
-    <hyperlink ref="E14" r:id="rId58" xr:uid="{5012CD22-B9C1-451C-B278-3127E823477E}"/>
-    <hyperlink ref="E34" r:id="rId59" xr:uid="{B44F470F-A038-4D03-B4FC-3A710C4A1E53}"/>
-    <hyperlink ref="E35" r:id="rId60" xr:uid="{1B9F5F78-B40E-4B01-BBE4-7D5D05B0494D}"/>
-    <hyperlink ref="E44" r:id="rId61" xr:uid="{C51AD600-C6A8-4CD8-A6ED-A309C6A9E5FF}"/>
-    <hyperlink ref="E55" r:id="rId62" xr:uid="{35E24552-4BD2-4643-8BC5-2933C5863306}"/>
-    <hyperlink ref="E46" r:id="rId63" xr:uid="{59C100E4-5D91-46FA-A9CF-7FC950AC6162}"/>
-    <hyperlink ref="E47" r:id="rId64" xr:uid="{27B81F4A-B5A2-4B95-B182-8E237716E03C}"/>
-    <hyperlink ref="E48" r:id="rId65" xr:uid="{BBBA124A-D9A7-49CF-9B5E-6218C904469C}"/>
-    <hyperlink ref="E66" r:id="rId66" xr:uid="{BC23E410-1E83-43B7-B83C-8F7E64BB9146}"/>
-    <hyperlink ref="E68" r:id="rId67" xr:uid="{F2AEE35C-42C1-4BFE-B760-AA86FE091591}"/>
-    <hyperlink ref="E64" r:id="rId68" xr:uid="{CBE85328-B553-4738-90B3-7F3A5579E07D}"/>
-    <hyperlink ref="E45" r:id="rId69" xr:uid="{5319E4AF-8DD0-4C01-A448-C6A50345BF6D}"/>
-    <hyperlink ref="E74" r:id="rId70" xr:uid="{105DD274-8872-41F3-9AEE-CB0929A91BD7}"/>
-    <hyperlink ref="E67" r:id="rId71" xr:uid="{E4C036B5-8E63-4154-81B7-386C17DE26F0}"/>
-    <hyperlink ref="E70" r:id="rId72" xr:uid="{EA050D64-47A3-4EF1-B293-1513E65F8A17}"/>
-    <hyperlink ref="E20" r:id="rId73" xr:uid="{FE69776B-DAB8-458E-A1CC-CC4D45FB990E}"/>
-    <hyperlink ref="E17" r:id="rId74" xr:uid="{B8709E17-82C3-4C15-AFCA-FDBC6C0E3742}"/>
-    <hyperlink ref="E31" r:id="rId75" xr:uid="{AD9E04E9-7330-4AEB-B1D5-0D658D10BE4C}"/>
+    <hyperlink ref="E16" r:id="rId58" xr:uid="{5012CD22-B9C1-451C-B278-3127E823477E}"/>
+    <hyperlink ref="E36" r:id="rId59" xr:uid="{B44F470F-A038-4D03-B4FC-3A710C4A1E53}"/>
+    <hyperlink ref="E37" r:id="rId60" xr:uid="{1B9F5F78-B40E-4B01-BBE4-7D5D05B0494D}"/>
+    <hyperlink ref="E47" r:id="rId61" xr:uid="{C51AD600-C6A8-4CD8-A6ED-A309C6A9E5FF}"/>
+    <hyperlink ref="E58" r:id="rId62" xr:uid="{35E24552-4BD2-4643-8BC5-2933C5863306}"/>
+    <hyperlink ref="E49" r:id="rId63" xr:uid="{59C100E4-5D91-46FA-A9CF-7FC950AC6162}"/>
+    <hyperlink ref="E50" r:id="rId64" xr:uid="{27B81F4A-B5A2-4B95-B182-8E237716E03C}"/>
+    <hyperlink ref="E51" r:id="rId65" xr:uid="{BBBA124A-D9A7-49CF-9B5E-6218C904469C}"/>
+    <hyperlink ref="E69" r:id="rId66" xr:uid="{BC23E410-1E83-43B7-B83C-8F7E64BB9146}"/>
+    <hyperlink ref="E71" r:id="rId67" xr:uid="{F2AEE35C-42C1-4BFE-B760-AA86FE091591}"/>
+    <hyperlink ref="E67" r:id="rId68" xr:uid="{CBE85328-B553-4738-90B3-7F3A5579E07D}"/>
+    <hyperlink ref="E48" r:id="rId69" xr:uid="{5319E4AF-8DD0-4C01-A448-C6A50345BF6D}"/>
+    <hyperlink ref="E77" r:id="rId70" xr:uid="{105DD274-8872-41F3-9AEE-CB0929A91BD7}"/>
+    <hyperlink ref="E70" r:id="rId71" xr:uid="{E4C036B5-8E63-4154-81B7-386C17DE26F0}"/>
+    <hyperlink ref="E73" r:id="rId72" xr:uid="{EA050D64-47A3-4EF1-B293-1513E65F8A17}"/>
+    <hyperlink ref="E22" r:id="rId73" xr:uid="{FE69776B-DAB8-458E-A1CC-CC4D45FB990E}"/>
+    <hyperlink ref="E19" r:id="rId74" xr:uid="{B8709E17-82C3-4C15-AFCA-FDBC6C0E3742}"/>
+    <hyperlink ref="E33" r:id="rId75" xr:uid="{AD9E04E9-7330-4AEB-B1D5-0D658D10BE4C}"/>
+    <hyperlink ref="E44" r:id="rId76" xr:uid="{2D09DA48-0CC3-4E7B-88DF-4906ADFE3995}"/>
+    <hyperlink ref="E10" r:id="rId77" xr:uid="{B5D6E16B-F7EF-4C36-9A76-398183A004C2}"/>
+    <hyperlink ref="E11" r:id="rId78" xr:uid="{8507CF97-BF71-48EE-BF72-FBA48E58E257}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId76"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId79"/>
 </worksheet>
 </file>
--- a/_site/data/methods.xlsx
+++ b/_site/data/methods.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My_R\overview_megadatabase\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3F849C6-B4CE-4032-AA1B-4EA3F3799059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A0861B0-D894-4CA2-8879-507DE9614DDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D142A978-9658-4202-BF77-FF6002D5B3D1}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Φύλλο1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Φύλλο1!$A$1:$E$79</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Φύλλο1!$A$1:$E$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="252">
   <si>
     <t>first author</t>
   </si>
@@ -766,6 +766,39 @@
   </si>
   <si>
     <t>https://doi.org/10.1002/jrsm.1610</t>
+  </si>
+  <si>
+    <t>Conducting umbrella reviews</t>
+  </si>
+  <si>
+    <t>Belbasis B.</t>
+  </si>
+  <si>
+    <t>http://doi.org/10.1136/bmjmed-2021-000071</t>
+  </si>
+  <si>
+    <t>BMJ Medicine</t>
+  </si>
+  <si>
+    <t>The Systematic Review Toolbox: keeping up to date with tools to support evidence synthesis</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1186/s13643-022-02122-z</t>
+  </si>
+  <si>
+    <t>Johnson E.E.</t>
+  </si>
+  <si>
+    <t>Introduction to Umbrella Reviews as a Useful Evidence-Based Practice</t>
+  </si>
+  <si>
+    <t>Choi G.J.</t>
+  </si>
+  <si>
+    <t>Journal of Lipid and Atherosclerosis</t>
+  </si>
+  <si>
+    <t>https://www.e-jla.org/pdf/10.12997/jla.2023.12.e1</t>
   </si>
 </sst>
 </file>
@@ -1169,9 +1202,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3C04B9F-2B89-4EC8-954F-BE264C2F59A5}">
-  <dimension ref="A1:E79"/>
+  <dimension ref="A1:E82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1269,19 +1304,19 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>153</v>
+        <v>242</v>
       </c>
       <c r="B6" t="s">
-        <v>151</v>
+        <v>241</v>
       </c>
       <c r="C6" s="3">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>244</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>152</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1289,16 +1324,16 @@
         <v>153</v>
       </c>
       <c r="B7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C7" s="3">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D7" t="s">
         <v>24</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -1306,16 +1341,16 @@
         <v>153</v>
       </c>
       <c r="B8" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C8" s="3">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="D8" t="s">
         <v>24</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -1323,7 +1358,7 @@
         <v>153</v>
       </c>
       <c r="B9" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C9" s="3">
         <v>2021</v>
@@ -1332,7 +1367,7 @@
         <v>24</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -1340,16 +1375,16 @@
         <v>153</v>
       </c>
       <c r="B10" t="s">
-        <v>237</v>
+        <v>158</v>
       </c>
       <c r="C10" s="3">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D10" t="s">
         <v>24</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>238</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -1357,526 +1392,526 @@
         <v>153</v>
       </c>
       <c r="B11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C11" s="3">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>46</v>
+        <v>153</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>239</v>
       </c>
       <c r="C12" s="3">
-        <v>2016</v>
+        <v>2022</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>129</v>
+        <v>240</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>92</v>
+        <v>46</v>
       </c>
       <c r="B13" t="s">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="C13" s="3">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D13" t="s">
-        <v>93</v>
+        <v>24</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B14" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C14" s="3">
-        <v>2010</v>
+        <v>2015</v>
       </c>
       <c r="D14" t="s">
-        <v>24</v>
+        <v>93</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B15" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C15" s="3">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="D15" t="s">
-        <v>97</v>
+        <v>24</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>176</v>
+        <v>249</v>
       </c>
       <c r="B16" t="s">
-        <v>175</v>
+        <v>248</v>
       </c>
       <c r="C16" s="3">
-        <v>2012</v>
+        <v>2023</v>
       </c>
       <c r="D16" t="s">
-        <v>178</v>
+        <v>250</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>177</v>
+        <v>251</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B17" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C17" s="3">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="D17" t="s">
-        <v>35</v>
+        <v>97</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>103</v>
+        <v>176</v>
       </c>
       <c r="B18" t="s">
-        <v>101</v>
+        <v>175</v>
       </c>
       <c r="C18" s="3">
-        <v>2019</v>
+        <v>2012</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>178</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>102</v>
+        <v>177</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>227</v>
+        <v>100</v>
       </c>
       <c r="B19" t="s">
-        <v>228</v>
+        <v>99</v>
       </c>
       <c r="C19" s="3">
-        <v>2022</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>229</v>
+        <v>2015</v>
+      </c>
+      <c r="D19" t="s">
+        <v>35</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>230</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B20" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C20" s="3">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D20" t="s">
-        <v>106</v>
+        <v>24</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>144</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>8</v>
+      <c r="A21" s="4" t="s">
+        <v>227</v>
       </c>
       <c r="B21" t="s">
-        <v>5</v>
+        <v>228</v>
       </c>
       <c r="C21" s="3">
-        <v>2020</v>
-      </c>
-      <c r="D21" t="s">
-        <v>7</v>
+        <v>2022</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>229</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>6</v>
+        <v>230</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B22" t="s">
+        <v>104</v>
+      </c>
+      <c r="C22" s="3">
+        <v>2018</v>
+      </c>
+      <c r="D22" t="s">
+        <v>106</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>8</v>
       </c>
-      <c r="B22" t="s">
-        <v>224</v>
-      </c>
-      <c r="C22" s="3">
-        <v>2022</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
-        <v>108</v>
-      </c>
       <c r="B23" t="s">
-        <v>107</v>
+        <v>5</v>
       </c>
       <c r="C23" s="3">
         <v>2020</v>
       </c>
       <c r="D23" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>109</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>12</v>
+      <c r="A24" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="B24" t="s">
-        <v>9</v>
+        <v>224</v>
       </c>
       <c r="C24" s="3">
-        <v>2012</v>
-      </c>
-      <c r="D24" t="s">
-        <v>11</v>
+        <v>2022</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>226</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>10</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B25" t="s">
+        <v>107</v>
+      </c>
+      <c r="C25" s="3">
+        <v>2020</v>
+      </c>
+      <c r="D25" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>12</v>
       </c>
-      <c r="B25" t="s">
-        <v>110</v>
-      </c>
-      <c r="C25" s="3">
-        <v>2014</v>
-      </c>
-      <c r="D25" t="s">
-        <v>82</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
-        <v>113</v>
-      </c>
       <c r="B26" t="s">
-        <v>111</v>
+        <v>9</v>
       </c>
       <c r="C26" s="3">
         <v>2012</v>
       </c>
       <c r="D26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" t="s">
+        <v>110</v>
+      </c>
+      <c r="C27" s="3">
+        <v>2014</v>
+      </c>
+      <c r="D27" t="s">
+        <v>82</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B28" t="s">
+        <v>111</v>
+      </c>
+      <c r="C28" s="3">
+        <v>2012</v>
+      </c>
+      <c r="D28" t="s">
         <v>112</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>146</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>16</v>
-      </c>
-      <c r="B27" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27" s="3">
-        <v>2019</v>
-      </c>
-      <c r="D27" t="s">
-        <v>14</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>16</v>
-      </c>
-      <c r="B28" t="s">
-        <v>17</v>
-      </c>
-      <c r="C28" s="3">
-        <v>2019</v>
-      </c>
-      <c r="D28" t="s">
-        <v>19</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="3">
+        <v>2019</v>
+      </c>
+      <c r="D29" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="3">
+        <v>2019</v>
+      </c>
+      <c r="D30" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>22</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B31" t="s">
         <v>20</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C31" s="3">
         <v>2018</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D31" t="s">
         <v>7</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B30" t="s">
-        <v>114</v>
-      </c>
-      <c r="C30" s="3">
-        <v>2009</v>
-      </c>
-      <c r="D30" t="s">
-        <v>116</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B31" t="s">
-        <v>117</v>
-      </c>
-      <c r="C31" s="3">
-        <v>2017</v>
-      </c>
-      <c r="D31" t="s">
-        <v>118</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B32" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C32" s="3">
-        <v>2020</v>
+        <v>2009</v>
       </c>
       <c r="D32" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>231</v>
+        <v>115</v>
       </c>
       <c r="B33" t="s">
-        <v>233</v>
+        <v>117</v>
       </c>
       <c r="C33" s="3">
-        <v>2022</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>7</v>
+        <v>2017</v>
+      </c>
+      <c r="D33" t="s">
+        <v>118</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>232</v>
+        <v>148</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>166</v>
+        <v>247</v>
       </c>
       <c r="B34" t="s">
-        <v>165</v>
+        <v>245</v>
       </c>
       <c r="C34" s="3">
         <v>2022</v>
       </c>
       <c r="D34" t="s">
-        <v>167</v>
+        <v>7</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>168</v>
+        <v>246</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>170</v>
+        <v>120</v>
       </c>
       <c r="B35" t="s">
-        <v>171</v>
+        <v>119</v>
       </c>
       <c r="C35" s="3">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D35" t="s">
-        <v>7</v>
+        <v>123</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>181</v>
+        <v>231</v>
       </c>
       <c r="B36" t="s">
-        <v>179</v>
+        <v>233</v>
       </c>
       <c r="C36" s="3">
-        <v>2012</v>
-      </c>
-      <c r="D36" t="s">
-        <v>49</v>
+        <v>2022</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>180</v>
+        <v>232</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="B37" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="C37" s="3">
-        <v>2012</v>
+        <v>2022</v>
       </c>
       <c r="D37" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>25</v>
+      <c r="A38" s="4" t="s">
+        <v>170</v>
       </c>
       <c r="B38" t="s">
-        <v>23</v>
+        <v>171</v>
       </c>
       <c r="C38" s="3">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="D38" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>125</v>
+        <v>169</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>25</v>
+        <v>181</v>
       </c>
       <c r="B39" t="s">
-        <v>26</v>
+        <v>179</v>
       </c>
       <c r="C39" s="3">
-        <v>2017</v>
+        <v>2012</v>
       </c>
       <c r="D39" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>27</v>
+        <v>180</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B40" t="s">
+        <v>182</v>
+      </c>
+      <c r="C40" s="3">
+        <v>2012</v>
+      </c>
+      <c r="D40" t="s">
+        <v>184</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>25</v>
       </c>
-      <c r="B40" t="s">
-        <v>28</v>
-      </c>
-      <c r="C40" s="3">
-        <v>2018</v>
-      </c>
-      <c r="D40" t="s">
-        <v>7</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="4" t="s">
-        <v>25</v>
-      </c>
       <c r="B41" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C41" s="3">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="D41" t="s">
         <v>24</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>31</v>
+        <v>125</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
@@ -1884,16 +1919,16 @@
         <v>25</v>
       </c>
       <c r="B42" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C42" s="3">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="D42" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
@@ -1901,16 +1936,16 @@
         <v>25</v>
       </c>
       <c r="B43" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C43" s="3">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="D43" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
@@ -1918,186 +1953,186 @@
         <v>25</v>
       </c>
       <c r="B44" t="s">
-        <v>235</v>
+        <v>30</v>
       </c>
       <c r="C44" s="3">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="D44" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>236</v>
+        <v>31</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="B45" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="C45" s="3">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="D45" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
-        <v>122</v>
+        <v>25</v>
       </c>
       <c r="B46" t="s">
-        <v>121</v>
+        <v>34</v>
       </c>
       <c r="C46" s="3">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="D46" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>124</v>
+        <v>36</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
-        <v>189</v>
+        <v>25</v>
       </c>
       <c r="B47" t="s">
-        <v>186</v>
+        <v>235</v>
       </c>
       <c r="C47" s="3">
+        <v>2022</v>
+      </c>
+      <c r="D47" t="s">
+        <v>35</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B48" t="s">
+        <v>54</v>
+      </c>
+      <c r="C48" s="3">
         <v>2019</v>
       </c>
-      <c r="D47" t="s">
-        <v>68</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="C48" s="3">
-        <v>2022</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E48" s="7" t="s">
-        <v>214</v>
+      <c r="D48" t="s">
+        <v>35</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
-        <v>193</v>
+        <v>122</v>
       </c>
       <c r="B49" t="s">
-        <v>192</v>
+        <v>121</v>
       </c>
       <c r="C49" s="3">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="D49" t="s">
-        <v>194</v>
+        <v>7</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>195</v>
+        <v>124</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="B50" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="C50" s="3">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="D50" t="s">
-        <v>197</v>
+        <v>68</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B51" t="s">
-        <v>199</v>
+      <c r="A51" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>213</v>
       </c>
       <c r="C51" s="3">
-        <v>2014</v>
-      </c>
-      <c r="D51" t="s">
+        <v>2022</v>
+      </c>
+      <c r="D51" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E51" s="1" t="s">
-        <v>200</v>
+      <c r="E51" s="7" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
-        <v>40</v>
+        <v>193</v>
       </c>
       <c r="B52" t="s">
-        <v>39</v>
+        <v>192</v>
       </c>
       <c r="C52" s="3">
-        <v>2012</v>
+        <v>2021</v>
       </c>
       <c r="D52" t="s">
-        <v>24</v>
+        <v>194</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>126</v>
+        <v>195</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
-        <v>40</v>
+        <v>202</v>
       </c>
       <c r="B53" t="s">
-        <v>41</v>
+        <v>196</v>
       </c>
       <c r="C53" s="3">
-        <v>2014</v>
+        <v>2021</v>
       </c>
       <c r="D53" t="s">
-        <v>19</v>
+        <v>197</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>42</v>
+        <v>198</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
-        <v>40</v>
+        <v>203</v>
       </c>
       <c r="B54" t="s">
-        <v>43</v>
+        <v>199</v>
       </c>
       <c r="C54" s="3">
         <v>2014</v>
       </c>
       <c r="D54" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>127</v>
+        <v>200</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
@@ -2105,16 +2140,16 @@
         <v>40</v>
       </c>
       <c r="B55" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C55" s="3">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D55" t="s">
         <v>24</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
@@ -2122,16 +2157,16 @@
         <v>40</v>
       </c>
       <c r="B56" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C56" s="3">
         <v>2014</v>
       </c>
       <c r="D56" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
@@ -2139,135 +2174,135 @@
         <v>40</v>
       </c>
       <c r="B57" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C57" s="3">
-        <v>2021</v>
+        <v>2014</v>
       </c>
       <c r="D57" t="s">
         <v>24</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>51</v>
+        <v>127</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
-        <v>190</v>
+        <v>40</v>
       </c>
       <c r="B58" t="s">
-        <v>188</v>
-      </c>
-      <c r="C58" s="5">
+        <v>44</v>
+      </c>
+      <c r="C58" s="3">
         <v>2014</v>
       </c>
       <c r="D58" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>191</v>
+        <v>128</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="B59" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C59" s="3">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="D59" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>130</v>
+        <v>48</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="B60" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C60" s="3">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="D60" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>131</v>
+        <v>51</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
-        <v>53</v>
+        <v>190</v>
       </c>
       <c r="B61" t="s">
-        <v>56</v>
-      </c>
-      <c r="C61" s="3">
-        <v>2019</v>
+        <v>188</v>
+      </c>
+      <c r="C61" s="5">
+        <v>2014</v>
       </c>
       <c r="D61" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>132</v>
+        <v>191</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B62" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C62" s="3">
         <v>2016</v>
       </c>
       <c r="D62" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B63" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C63" s="3">
         <v>2017</v>
       </c>
       <c r="D63" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B64" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C64" s="3">
         <v>2019</v>
       </c>
       <c r="D64" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>62</v>
+        <v>132</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
@@ -2275,16 +2310,16 @@
         <v>59</v>
       </c>
       <c r="B65" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C65" s="3">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="D65" t="s">
         <v>7</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>64</v>
+        <v>133</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
@@ -2292,321 +2327,375 @@
         <v>59</v>
       </c>
       <c r="B66" t="s">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="C66" s="3">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="D66" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>161</v>
+        <v>134</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
-        <v>211</v>
+        <v>59</v>
       </c>
       <c r="B67" t="s">
-        <v>210</v>
+        <v>61</v>
       </c>
       <c r="C67" s="3">
-        <v>2020</v>
-      </c>
-      <c r="D67" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E67" s="7" t="s">
-        <v>212</v>
+        <v>2019</v>
+      </c>
+      <c r="D67" t="s">
+        <v>7</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
-        <v>162</v>
+        <v>59</v>
       </c>
       <c r="B68" t="s">
-        <v>163</v>
+        <v>63</v>
       </c>
       <c r="C68" s="3">
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="D68" t="s">
         <v>7</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>164</v>
+        <v>64</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
-        <v>206</v>
+        <v>59</v>
       </c>
       <c r="B69" t="s">
-        <v>204</v>
+        <v>160</v>
       </c>
       <c r="C69" s="3">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="D69" t="s">
-        <v>201</v>
+        <v>7</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>205</v>
+        <v>161</v>
       </c>
     </row>
     <row r="70" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
-        <v>234</v>
+        <v>211</v>
       </c>
       <c r="B70" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="C70" s="3">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="D70" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E70" s="1" t="s">
-        <v>220</v>
+      <c r="E70" s="7" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
-        <v>207</v>
+        <v>162</v>
       </c>
       <c r="B71" t="s">
-        <v>208</v>
+        <v>163</v>
       </c>
       <c r="C71" s="3">
-        <v>2022</v>
+        <v>2014</v>
       </c>
       <c r="D71" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>209</v>
+        <v>164</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
-        <v>67</v>
+        <v>206</v>
       </c>
       <c r="B72" t="s">
-        <v>65</v>
+        <v>204</v>
       </c>
       <c r="C72" s="3">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="D72" t="s">
-        <v>68</v>
+        <v>201</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>66</v>
+        <v>205</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="B73" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C73" s="3">
         <v>2022</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>226</v>
+        <v>24</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
-        <v>71</v>
+        <v>207</v>
       </c>
       <c r="B74" t="s">
-        <v>69</v>
+        <v>208</v>
       </c>
       <c r="C74" s="3">
         <v>2022</v>
       </c>
       <c r="D74" t="s">
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>70</v>
+        <v>209</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B75" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C75" s="3">
-        <v>2011</v>
+        <v>2019</v>
       </c>
       <c r="D75" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>150</v>
+        <v>66</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
-        <v>78</v>
+        <v>223</v>
       </c>
       <c r="B76" t="s">
-        <v>75</v>
+        <v>221</v>
       </c>
       <c r="C76" s="3">
-        <v>2018</v>
-      </c>
-      <c r="D76" t="s">
-        <v>77</v>
+        <v>2022</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>226</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>76</v>
+        <v>222</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="6" t="s">
-        <v>218</v>
+      <c r="A77" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="B77" t="s">
-        <v>217</v>
+        <v>69</v>
       </c>
       <c r="C77" s="3">
         <v>2022</v>
       </c>
-      <c r="D77" s="6" t="s">
-        <v>19</v>
+      <c r="D77" t="s">
+        <v>72</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>216</v>
+        <v>70</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B78" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C78" s="3">
         <v>2011</v>
       </c>
       <c r="D78" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>75</v>
+      </c>
+      <c r="C79" s="3">
+        <v>2018</v>
+      </c>
+      <c r="D79" t="s">
+        <v>77</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="B80" t="s">
+        <v>217</v>
+      </c>
+      <c r="C80" s="3">
+        <v>2022</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B81" t="s">
+        <v>79</v>
+      </c>
+      <c r="C81" s="3">
+        <v>2011</v>
+      </c>
+      <c r="D81" t="s">
+        <v>19</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
         <v>81</v>
       </c>
-      <c r="C79" s="3">
+      <c r="C82" s="3">
         <v>2013</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D82" t="s">
         <v>82</v>
       </c>
-      <c r="E79" s="1" t="s">
+      <c r="E82" s="1" t="s">
         <v>136</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E21" r:id="rId1" xr:uid="{F6233517-0866-4B0A-B501-654979DF1645}"/>
-    <hyperlink ref="E24" r:id="rId2" xr:uid="{CBD7CBEE-D091-4342-A7E0-41DE558F1037}"/>
-    <hyperlink ref="E27" r:id="rId3" xr:uid="{225B3A1D-B3F0-4695-9FC4-4F153794A4FC}"/>
-    <hyperlink ref="E28" r:id="rId4" xr:uid="{7A1A6A3D-3414-4BF6-BEDD-0EE0347C319E}"/>
-    <hyperlink ref="E29" r:id="rId5" xr:uid="{4CEF4617-6BD3-44D3-8DC1-60D790061756}"/>
-    <hyperlink ref="E38" r:id="rId6" xr:uid="{7D05E552-8270-4F5D-AC46-1ED37444A309}"/>
-    <hyperlink ref="E39" r:id="rId7" xr:uid="{6C173CBA-3446-4E84-9A3E-965DF6C6C088}"/>
-    <hyperlink ref="E40" r:id="rId8" xr:uid="{1846651B-6412-4AFB-AFB8-F96A2B371A6C}"/>
-    <hyperlink ref="E41" r:id="rId9" xr:uid="{C7270FA0-2830-4BB7-B110-850D8F971AEE}"/>
-    <hyperlink ref="E42" r:id="rId10" xr:uid="{D8221DFD-AF62-413A-9472-7B2D09F8AB38}"/>
-    <hyperlink ref="E43" r:id="rId11" xr:uid="{92989DC9-D56C-47D5-BFEE-71F6C0F3A548}"/>
-    <hyperlink ref="E45" r:id="rId12" xr:uid="{5B9642B1-4705-45AB-89BE-F072B333EBB6}"/>
-    <hyperlink ref="E52" r:id="rId13" xr:uid="{F05B4BA6-E510-400E-8A22-DBADEF073FBF}"/>
-    <hyperlink ref="E53" r:id="rId14" xr:uid="{3BF46FAB-1246-4475-A357-107735FE4BDF}"/>
-    <hyperlink ref="E54" r:id="rId15" xr:uid="{D048DBA0-6B3B-4476-A0C3-4EB3819321C8}"/>
-    <hyperlink ref="E55" r:id="rId16" xr:uid="{1437ABFF-76B7-4768-9BD6-04546FB41212}"/>
-    <hyperlink ref="E12" r:id="rId17" xr:uid="{DF9385FD-36DB-4A19-8CBC-22A0966BA589}"/>
-    <hyperlink ref="E56" r:id="rId18" xr:uid="{A49C63A5-4761-4004-903F-BDC70A97AEB9}"/>
-    <hyperlink ref="E57" r:id="rId19" xr:uid="{475B209A-E520-460B-B1CA-985518CA6942}"/>
-    <hyperlink ref="E59" r:id="rId20" xr:uid="{365A4CF1-32B5-4CD5-8ACD-8871125C9A40}"/>
-    <hyperlink ref="E60" r:id="rId21" xr:uid="{F2B048DB-66F1-433F-824F-55CCC95C49F5}"/>
-    <hyperlink ref="E61" r:id="rId22" xr:uid="{B72A565C-741D-4F46-9AF2-3331FE245855}"/>
-    <hyperlink ref="E62" r:id="rId23" xr:uid="{81A40882-ACC5-427E-BC31-0390936D9ADA}"/>
-    <hyperlink ref="E63" r:id="rId24" xr:uid="{BAC61EA9-3ABF-4FBA-AB98-603E87B01642}"/>
-    <hyperlink ref="E64" r:id="rId25" xr:uid="{F311DB40-30CB-49FF-89EB-8929E8CC149D}"/>
-    <hyperlink ref="E65" r:id="rId26" xr:uid="{B1672B26-3311-4AB8-8DB8-10AB5E887662}"/>
-    <hyperlink ref="E72" r:id="rId27" xr:uid="{E1CC58C1-4BAD-4445-B722-3DC7F9057180}"/>
-    <hyperlink ref="E74" r:id="rId28" xr:uid="{AF7EF548-2486-4D16-93AD-8972177ECDC3}"/>
-    <hyperlink ref="E75" r:id="rId29" xr:uid="{24D15E37-D60C-432F-9CED-DCB5F84A8EA1}"/>
-    <hyperlink ref="E76" r:id="rId30" xr:uid="{E65E5986-C0ED-4D73-B262-03C37CE34824}"/>
-    <hyperlink ref="E78" r:id="rId31" xr:uid="{48A3DD7D-15A4-49DF-9BB8-0BF37E9BA8BF}"/>
-    <hyperlink ref="E79" r:id="rId32" xr:uid="{EB968D9A-2B1C-4356-8976-E3B995613790}"/>
+    <hyperlink ref="E23" r:id="rId1" xr:uid="{F6233517-0866-4B0A-B501-654979DF1645}"/>
+    <hyperlink ref="E26" r:id="rId2" xr:uid="{CBD7CBEE-D091-4342-A7E0-41DE558F1037}"/>
+    <hyperlink ref="E29" r:id="rId3" xr:uid="{225B3A1D-B3F0-4695-9FC4-4F153794A4FC}"/>
+    <hyperlink ref="E30" r:id="rId4" xr:uid="{7A1A6A3D-3414-4BF6-BEDD-0EE0347C319E}"/>
+    <hyperlink ref="E31" r:id="rId5" xr:uid="{4CEF4617-6BD3-44D3-8DC1-60D790061756}"/>
+    <hyperlink ref="E41" r:id="rId6" xr:uid="{7D05E552-8270-4F5D-AC46-1ED37444A309}"/>
+    <hyperlink ref="E42" r:id="rId7" xr:uid="{6C173CBA-3446-4E84-9A3E-965DF6C6C088}"/>
+    <hyperlink ref="E43" r:id="rId8" xr:uid="{1846651B-6412-4AFB-AFB8-F96A2B371A6C}"/>
+    <hyperlink ref="E44" r:id="rId9" xr:uid="{C7270FA0-2830-4BB7-B110-850D8F971AEE}"/>
+    <hyperlink ref="E45" r:id="rId10" xr:uid="{D8221DFD-AF62-413A-9472-7B2D09F8AB38}"/>
+    <hyperlink ref="E46" r:id="rId11" xr:uid="{92989DC9-D56C-47D5-BFEE-71F6C0F3A548}"/>
+    <hyperlink ref="E48" r:id="rId12" xr:uid="{5B9642B1-4705-45AB-89BE-F072B333EBB6}"/>
+    <hyperlink ref="E55" r:id="rId13" xr:uid="{F05B4BA6-E510-400E-8A22-DBADEF073FBF}"/>
+    <hyperlink ref="E56" r:id="rId14" xr:uid="{3BF46FAB-1246-4475-A357-107735FE4BDF}"/>
+    <hyperlink ref="E57" r:id="rId15" xr:uid="{D048DBA0-6B3B-4476-A0C3-4EB3819321C8}"/>
+    <hyperlink ref="E58" r:id="rId16" xr:uid="{1437ABFF-76B7-4768-9BD6-04546FB41212}"/>
+    <hyperlink ref="E13" r:id="rId17" xr:uid="{DF9385FD-36DB-4A19-8CBC-22A0966BA589}"/>
+    <hyperlink ref="E59" r:id="rId18" xr:uid="{A49C63A5-4761-4004-903F-BDC70A97AEB9}"/>
+    <hyperlink ref="E60" r:id="rId19" xr:uid="{475B209A-E520-460B-B1CA-985518CA6942}"/>
+    <hyperlink ref="E62" r:id="rId20" xr:uid="{365A4CF1-32B5-4CD5-8ACD-8871125C9A40}"/>
+    <hyperlink ref="E63" r:id="rId21" xr:uid="{F2B048DB-66F1-433F-824F-55CCC95C49F5}"/>
+    <hyperlink ref="E64" r:id="rId22" xr:uid="{B72A565C-741D-4F46-9AF2-3331FE245855}"/>
+    <hyperlink ref="E65" r:id="rId23" xr:uid="{81A40882-ACC5-427E-BC31-0390936D9ADA}"/>
+    <hyperlink ref="E66" r:id="rId24" xr:uid="{BAC61EA9-3ABF-4FBA-AB98-603E87B01642}"/>
+    <hyperlink ref="E67" r:id="rId25" xr:uid="{F311DB40-30CB-49FF-89EB-8929E8CC149D}"/>
+    <hyperlink ref="E68" r:id="rId26" xr:uid="{B1672B26-3311-4AB8-8DB8-10AB5E887662}"/>
+    <hyperlink ref="E75" r:id="rId27" xr:uid="{E1CC58C1-4BAD-4445-B722-3DC7F9057180}"/>
+    <hyperlink ref="E77" r:id="rId28" xr:uid="{AF7EF548-2486-4D16-93AD-8972177ECDC3}"/>
+    <hyperlink ref="E78" r:id="rId29" xr:uid="{24D15E37-D60C-432F-9CED-DCB5F84A8EA1}"/>
+    <hyperlink ref="E79" r:id="rId30" xr:uid="{E65E5986-C0ED-4D73-B262-03C37CE34824}"/>
+    <hyperlink ref="E81" r:id="rId31" xr:uid="{48A3DD7D-15A4-49DF-9BB8-0BF37E9BA8BF}"/>
+    <hyperlink ref="E82" r:id="rId32" xr:uid="{EB968D9A-2B1C-4356-8976-E3B995613790}"/>
     <hyperlink ref="E3" r:id="rId33" xr:uid="{B8FCB838-5B1C-4D4C-B527-4AB9924EB2D3}"/>
     <hyperlink ref="E4" r:id="rId34" xr:uid="{025C23AA-1E34-4632-B635-9FA1B738A3E9}"/>
     <hyperlink ref="E5" r:id="rId35" xr:uid="{C7F936C0-3049-4E9A-8E0A-D27C6AB16FBC}"/>
-    <hyperlink ref="E13" r:id="rId36" xr:uid="{3BA864D8-6C95-445A-9E36-94695B2653D8}"/>
-    <hyperlink ref="E14" r:id="rId37" xr:uid="{66FE564C-E3E8-4D41-8387-922E5C4C1218}"/>
-    <hyperlink ref="E15" r:id="rId38" xr:uid="{4692811E-5658-4F6D-888F-1FA57CB69055}"/>
-    <hyperlink ref="E17" r:id="rId39" xr:uid="{77B6D308-44FF-4E92-BBFB-EF9AD6EA9A68}"/>
-    <hyperlink ref="E18" r:id="rId40" xr:uid="{7AFECFFC-8ADB-41C7-841B-216E556AAA4F}"/>
-    <hyperlink ref="E20" r:id="rId41" xr:uid="{DB25165C-39D2-4A45-B455-85A8EEDFE6B6}"/>
-    <hyperlink ref="E23" r:id="rId42" xr:uid="{458C6FF6-3543-45CE-9606-8A3082F62F0A}"/>
-    <hyperlink ref="E25" r:id="rId43" xr:uid="{94EFA63E-CE0C-4475-A396-18D53D8A6EC4}"/>
-    <hyperlink ref="E26" r:id="rId44" xr:uid="{92D4FFEE-7B65-4017-A716-809C7F8B0E04}"/>
-    <hyperlink ref="E30" r:id="rId45" xr:uid="{0B76847B-6C94-4E2D-A094-FCE72CC29EBF}"/>
-    <hyperlink ref="E31" r:id="rId46" xr:uid="{81C1C27A-8200-4CB8-8CA5-E4B85D519FDA}"/>
-    <hyperlink ref="E32" r:id="rId47" xr:uid="{B80CDD91-38DA-4375-88A0-B543FE2A3CCB}"/>
-    <hyperlink ref="E46" r:id="rId48" xr:uid="{085EF44D-1625-46A8-B320-B4D73C2793C3}"/>
-    <hyperlink ref="E6" r:id="rId49" xr:uid="{9050D2E2-A996-4813-BDAB-90A6E969B393}"/>
-    <hyperlink ref="E7" r:id="rId50" xr:uid="{3FB58120-E5D0-4688-A553-FA719EE8AF86}"/>
-    <hyperlink ref="E8" r:id="rId51" xr:uid="{27E6CD87-1D85-4CFF-82C0-B75E68882093}"/>
-    <hyperlink ref="E9" r:id="rId52" xr:uid="{5726F0E2-EBA2-49FB-B482-C266FBD309BF}"/>
-    <hyperlink ref="E66" r:id="rId53" xr:uid="{34EFA9BA-9C8C-4881-A64C-2F70C6927793}"/>
-    <hyperlink ref="E68" r:id="rId54" xr:uid="{FE82914B-DA2F-43D9-856E-F8B21C1D980D}"/>
-    <hyperlink ref="E34" r:id="rId55" xr:uid="{49BBE16D-F3C9-4615-B1B4-B8FA17A26DD4}"/>
-    <hyperlink ref="E35" r:id="rId56" xr:uid="{1A356FB0-7765-46F0-BC27-98202B7BF4A6}"/>
+    <hyperlink ref="E14" r:id="rId36" xr:uid="{3BA864D8-6C95-445A-9E36-94695B2653D8}"/>
+    <hyperlink ref="E15" r:id="rId37" xr:uid="{66FE564C-E3E8-4D41-8387-922E5C4C1218}"/>
+    <hyperlink ref="E17" r:id="rId38" xr:uid="{4692811E-5658-4F6D-888F-1FA57CB69055}"/>
+    <hyperlink ref="E19" r:id="rId39" xr:uid="{77B6D308-44FF-4E92-BBFB-EF9AD6EA9A68}"/>
+    <hyperlink ref="E20" r:id="rId40" xr:uid="{7AFECFFC-8ADB-41C7-841B-216E556AAA4F}"/>
+    <hyperlink ref="E22" r:id="rId41" xr:uid="{DB25165C-39D2-4A45-B455-85A8EEDFE6B6}"/>
+    <hyperlink ref="E25" r:id="rId42" xr:uid="{458C6FF6-3543-45CE-9606-8A3082F62F0A}"/>
+    <hyperlink ref="E27" r:id="rId43" xr:uid="{94EFA63E-CE0C-4475-A396-18D53D8A6EC4}"/>
+    <hyperlink ref="E28" r:id="rId44" xr:uid="{92D4FFEE-7B65-4017-A716-809C7F8B0E04}"/>
+    <hyperlink ref="E32" r:id="rId45" xr:uid="{0B76847B-6C94-4E2D-A094-FCE72CC29EBF}"/>
+    <hyperlink ref="E33" r:id="rId46" xr:uid="{81C1C27A-8200-4CB8-8CA5-E4B85D519FDA}"/>
+    <hyperlink ref="E35" r:id="rId47" xr:uid="{B80CDD91-38DA-4375-88A0-B543FE2A3CCB}"/>
+    <hyperlink ref="E49" r:id="rId48" xr:uid="{085EF44D-1625-46A8-B320-B4D73C2793C3}"/>
+    <hyperlink ref="E7" r:id="rId49" xr:uid="{9050D2E2-A996-4813-BDAB-90A6E969B393}"/>
+    <hyperlink ref="E8" r:id="rId50" xr:uid="{3FB58120-E5D0-4688-A553-FA719EE8AF86}"/>
+    <hyperlink ref="E9" r:id="rId51" xr:uid="{27E6CD87-1D85-4CFF-82C0-B75E68882093}"/>
+    <hyperlink ref="E10" r:id="rId52" xr:uid="{5726F0E2-EBA2-49FB-B482-C266FBD309BF}"/>
+    <hyperlink ref="E69" r:id="rId53" xr:uid="{34EFA9BA-9C8C-4881-A64C-2F70C6927793}"/>
+    <hyperlink ref="E71" r:id="rId54" xr:uid="{FE82914B-DA2F-43D9-856E-F8B21C1D980D}"/>
+    <hyperlink ref="E37" r:id="rId55" xr:uid="{49BBE16D-F3C9-4615-B1B4-B8FA17A26DD4}"/>
+    <hyperlink ref="E38" r:id="rId56" xr:uid="{1A356FB0-7765-46F0-BC27-98202B7BF4A6}"/>
     <hyperlink ref="E2" r:id="rId57" xr:uid="{3BAF40B7-94EB-4B77-B83C-2E2E101DCD73}"/>
-    <hyperlink ref="E16" r:id="rId58" xr:uid="{5012CD22-B9C1-451C-B278-3127E823477E}"/>
-    <hyperlink ref="E36" r:id="rId59" xr:uid="{B44F470F-A038-4D03-B4FC-3A710C4A1E53}"/>
-    <hyperlink ref="E37" r:id="rId60" xr:uid="{1B9F5F78-B40E-4B01-BBE4-7D5D05B0494D}"/>
-    <hyperlink ref="E47" r:id="rId61" xr:uid="{C51AD600-C6A8-4CD8-A6ED-A309C6A9E5FF}"/>
-    <hyperlink ref="E58" r:id="rId62" xr:uid="{35E24552-4BD2-4643-8BC5-2933C5863306}"/>
-    <hyperlink ref="E49" r:id="rId63" xr:uid="{59C100E4-5D91-46FA-A9CF-7FC950AC6162}"/>
-    <hyperlink ref="E50" r:id="rId64" xr:uid="{27B81F4A-B5A2-4B95-B182-8E237716E03C}"/>
-    <hyperlink ref="E51" r:id="rId65" xr:uid="{BBBA124A-D9A7-49CF-9B5E-6218C904469C}"/>
-    <hyperlink ref="E69" r:id="rId66" xr:uid="{BC23E410-1E83-43B7-B83C-8F7E64BB9146}"/>
-    <hyperlink ref="E71" r:id="rId67" xr:uid="{F2AEE35C-42C1-4BFE-B760-AA86FE091591}"/>
-    <hyperlink ref="E67" r:id="rId68" xr:uid="{CBE85328-B553-4738-90B3-7F3A5579E07D}"/>
-    <hyperlink ref="E48" r:id="rId69" xr:uid="{5319E4AF-8DD0-4C01-A448-C6A50345BF6D}"/>
-    <hyperlink ref="E77" r:id="rId70" xr:uid="{105DD274-8872-41F3-9AEE-CB0929A91BD7}"/>
-    <hyperlink ref="E70" r:id="rId71" xr:uid="{E4C036B5-8E63-4154-81B7-386C17DE26F0}"/>
-    <hyperlink ref="E73" r:id="rId72" xr:uid="{EA050D64-47A3-4EF1-B293-1513E65F8A17}"/>
-    <hyperlink ref="E22" r:id="rId73" xr:uid="{FE69776B-DAB8-458E-A1CC-CC4D45FB990E}"/>
-    <hyperlink ref="E19" r:id="rId74" xr:uid="{B8709E17-82C3-4C15-AFCA-FDBC6C0E3742}"/>
-    <hyperlink ref="E33" r:id="rId75" xr:uid="{AD9E04E9-7330-4AEB-B1D5-0D658D10BE4C}"/>
-    <hyperlink ref="E44" r:id="rId76" xr:uid="{2D09DA48-0CC3-4E7B-88DF-4906ADFE3995}"/>
-    <hyperlink ref="E10" r:id="rId77" xr:uid="{B5D6E16B-F7EF-4C36-9A76-398183A004C2}"/>
-    <hyperlink ref="E11" r:id="rId78" xr:uid="{8507CF97-BF71-48EE-BF72-FBA48E58E257}"/>
+    <hyperlink ref="E18" r:id="rId58" xr:uid="{5012CD22-B9C1-451C-B278-3127E823477E}"/>
+    <hyperlink ref="E39" r:id="rId59" xr:uid="{B44F470F-A038-4D03-B4FC-3A710C4A1E53}"/>
+    <hyperlink ref="E40" r:id="rId60" xr:uid="{1B9F5F78-B40E-4B01-BBE4-7D5D05B0494D}"/>
+    <hyperlink ref="E50" r:id="rId61" xr:uid="{C51AD600-C6A8-4CD8-A6ED-A309C6A9E5FF}"/>
+    <hyperlink ref="E61" r:id="rId62" xr:uid="{35E24552-4BD2-4643-8BC5-2933C5863306}"/>
+    <hyperlink ref="E52" r:id="rId63" xr:uid="{59C100E4-5D91-46FA-A9CF-7FC950AC6162}"/>
+    <hyperlink ref="E53" r:id="rId64" xr:uid="{27B81F4A-B5A2-4B95-B182-8E237716E03C}"/>
+    <hyperlink ref="E54" r:id="rId65" xr:uid="{BBBA124A-D9A7-49CF-9B5E-6218C904469C}"/>
+    <hyperlink ref="E72" r:id="rId66" xr:uid="{BC23E410-1E83-43B7-B83C-8F7E64BB9146}"/>
+    <hyperlink ref="E74" r:id="rId67" xr:uid="{F2AEE35C-42C1-4BFE-B760-AA86FE091591}"/>
+    <hyperlink ref="E70" r:id="rId68" xr:uid="{CBE85328-B553-4738-90B3-7F3A5579E07D}"/>
+    <hyperlink ref="E51" r:id="rId69" xr:uid="{5319E4AF-8DD0-4C01-A448-C6A50345BF6D}"/>
+    <hyperlink ref="E80" r:id="rId70" xr:uid="{105DD274-8872-41F3-9AEE-CB0929A91BD7}"/>
+    <hyperlink ref="E73" r:id="rId71" xr:uid="{E4C036B5-8E63-4154-81B7-386C17DE26F0}"/>
+    <hyperlink ref="E76" r:id="rId72" xr:uid="{EA050D64-47A3-4EF1-B293-1513E65F8A17}"/>
+    <hyperlink ref="E24" r:id="rId73" xr:uid="{FE69776B-DAB8-458E-A1CC-CC4D45FB990E}"/>
+    <hyperlink ref="E21" r:id="rId74" xr:uid="{B8709E17-82C3-4C15-AFCA-FDBC6C0E3742}"/>
+    <hyperlink ref="E36" r:id="rId75" xr:uid="{AD9E04E9-7330-4AEB-B1D5-0D658D10BE4C}"/>
+    <hyperlink ref="E47" r:id="rId76" xr:uid="{2D09DA48-0CC3-4E7B-88DF-4906ADFE3995}"/>
+    <hyperlink ref="E11" r:id="rId77" xr:uid="{B5D6E16B-F7EF-4C36-9A76-398183A004C2}"/>
+    <hyperlink ref="E12" r:id="rId78" xr:uid="{8507CF97-BF71-48EE-BF72-FBA48E58E257}"/>
+    <hyperlink ref="E6" r:id="rId79" xr:uid="{2AD287B9-A515-4B7A-9193-19E3FF1CE180}"/>
+    <hyperlink ref="E34" r:id="rId80" xr:uid="{BFE39045-5577-49A9-89A1-E0DB4996C6DA}"/>
+    <hyperlink ref="E16" r:id="rId81" xr:uid="{2CE98761-AD59-4695-BE00-67D2A022A16D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId79"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId82"/>
 </worksheet>
 </file>
--- a/_site/data/methods.xlsx
+++ b/_site/data/methods.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My_R\overview_megadatabase\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A0861B0-D894-4CA2-8879-507DE9614DDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B0D679-BA31-4AE8-85E9-9E07EC2C787C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D142A978-9658-4202-BF77-FF6002D5B3D1}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="254">
   <si>
     <t>first author</t>
   </si>
@@ -799,6 +799,12 @@
   </si>
   <si>
     <t>https://www.e-jla.org/pdf/10.12997/jla.2023.12.e1</t>
+  </si>
+  <si>
+    <t>LETTER TO THE EDITOR-Response to: ‘Additional considerations and response to Graphical Representation of Overlap for OVErviews (GROOVE tool)”</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1002/jrsm.1588</t>
   </si>
 </sst>
 </file>
@@ -1202,10 +1208,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3C04B9F-2B89-4EC8-954F-BE264C2F59A5}">
-  <dimension ref="A1:E82"/>
+  <dimension ref="A1:E83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="E90" sqref="E90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2609,6 +2615,23 @@
       </c>
       <c r="E82" s="1" t="s">
         <v>136</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B83" t="s">
+        <v>252</v>
+      </c>
+      <c r="C83" s="3">
+        <v>2022</v>
+      </c>
+      <c r="D83" t="s">
+        <v>19</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -2694,8 +2717,9 @@
     <hyperlink ref="E6" r:id="rId79" xr:uid="{2AD287B9-A515-4B7A-9193-19E3FF1CE180}"/>
     <hyperlink ref="E34" r:id="rId80" xr:uid="{BFE39045-5577-49A9-89A1-E0DB4996C6DA}"/>
     <hyperlink ref="E16" r:id="rId81" xr:uid="{2CE98761-AD59-4695-BE00-67D2A022A16D}"/>
+    <hyperlink ref="E83" r:id="rId82" xr:uid="{8B63BAC3-AAA6-455E-AE1C-8772DBB5A56E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId82"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId83"/>
 </worksheet>
 </file>
--- a/_site/data/methods.xlsx
+++ b/_site/data/methods.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My_R\overview_megadatabase\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B0D679-BA31-4AE8-85E9-9E07EC2C787C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BD1AF5A-33BA-461B-834B-7E418B004EE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D142A978-9658-4202-BF77-FF6002D5B3D1}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Φύλλο1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Φύλλο1!$A$1:$E$82</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Φύλλο1!$A$1:$E$84</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="258">
   <si>
     <t>first author</t>
   </si>
@@ -805,6 +805,18 @@
   </si>
   <si>
     <t>https://doi.org/10.1002/jrsm.1588</t>
+  </si>
+  <si>
+    <t>metaumbrella: the first comprehensive suite to perform data analysis in umbrella reviews with stratification of the evidence</t>
+  </si>
+  <si>
+    <t>BMJ Mental Health</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1136/bmjment-2022-300534</t>
+  </si>
+  <si>
+    <t>Gosling C.J.</t>
   </si>
 </sst>
 </file>
@@ -1208,10 +1220,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3C04B9F-2B89-4EC8-954F-BE264C2F59A5}">
-  <dimension ref="A1:E83"/>
+  <dimension ref="A1:E84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="E90" sqref="E90"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="D89" sqref="D89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1649,71 +1661,71 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+      <c r="A26" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="B26" t="s">
+        <v>254</v>
+      </c>
+      <c r="C26" s="3">
+        <v>2023</v>
+      </c>
+      <c r="D26" t="s">
+        <v>255</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>12</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C27" s="3">
         <v>2012</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D27" t="s">
         <v>11</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B27" t="s">
-        <v>110</v>
-      </c>
-      <c r="C27" s="3">
-        <v>2014</v>
-      </c>
-      <c r="D27" t="s">
-        <v>82</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" t="s">
+        <v>110</v>
+      </c>
+      <c r="C28" s="3">
+        <v>2014</v>
+      </c>
+      <c r="D28" t="s">
+        <v>82</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B29" t="s">
         <v>111</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C29" s="3">
         <v>2012</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D29" t="s">
         <v>112</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>146</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>16</v>
-      </c>
-      <c r="B29" t="s">
-        <v>13</v>
-      </c>
-      <c r="C29" s="3">
-        <v>2019</v>
-      </c>
-      <c r="D29" t="s">
-        <v>14</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -1721,50 +1733,50 @@
         <v>16</v>
       </c>
       <c r="B30" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C30" s="3">
         <v>2019</v>
       </c>
       <c r="D30" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" s="3">
+        <v>2019</v>
+      </c>
+      <c r="D31" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>22</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B32" t="s">
         <v>20</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C32" s="3">
         <v>2018</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D32" t="s">
         <v>7</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E32" s="1" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B32" t="s">
-        <v>114</v>
-      </c>
-      <c r="C32" s="3">
-        <v>2009</v>
-      </c>
-      <c r="D32" t="s">
-        <v>116</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -1772,169 +1784,169 @@
         <v>115</v>
       </c>
       <c r="B33" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C33" s="3">
-        <v>2017</v>
+        <v>2009</v>
       </c>
       <c r="D33" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>247</v>
+        <v>115</v>
       </c>
       <c r="B34" t="s">
-        <v>245</v>
+        <v>117</v>
       </c>
       <c r="C34" s="3">
-        <v>2022</v>
+        <v>2017</v>
       </c>
       <c r="D34" t="s">
-        <v>7</v>
+        <v>118</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>246</v>
+        <v>148</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>120</v>
+        <v>247</v>
       </c>
       <c r="B35" t="s">
-        <v>119</v>
+        <v>245</v>
       </c>
       <c r="C35" s="3">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="D35" t="s">
-        <v>123</v>
+        <v>7</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>149</v>
+        <v>246</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>231</v>
+        <v>120</v>
       </c>
       <c r="B36" t="s">
-        <v>233</v>
+        <v>119</v>
       </c>
       <c r="C36" s="3">
-        <v>2022</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>7</v>
+        <v>2020</v>
+      </c>
+      <c r="D36" t="s">
+        <v>123</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>232</v>
+        <v>149</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>166</v>
+        <v>231</v>
       </c>
       <c r="B37" t="s">
-        <v>165</v>
+        <v>233</v>
       </c>
       <c r="C37" s="3">
         <v>2022</v>
       </c>
-      <c r="D37" t="s">
-        <v>167</v>
+      <c r="D37" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>168</v>
+        <v>232</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B38" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C38" s="3">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="D38" t="s">
-        <v>7</v>
+        <v>167</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="B39" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C39" s="3">
-        <v>2012</v>
+        <v>2019</v>
       </c>
       <c r="D39" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B40" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C40" s="3">
         <v>2012</v>
       </c>
       <c r="D40" t="s">
+        <v>49</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B41" t="s">
+        <v>182</v>
+      </c>
+      <c r="C41" s="3">
+        <v>2012</v>
+      </c>
+      <c r="D41" t="s">
         <v>184</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="E41" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
         <v>25</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B42" t="s">
         <v>23</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C42" s="3">
         <v>2016</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D42" t="s">
         <v>24</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="E42" s="1" t="s">
         <v>125</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B42" t="s">
-        <v>26</v>
-      </c>
-      <c r="C42" s="3">
-        <v>2017</v>
-      </c>
-      <c r="D42" t="s">
-        <v>7</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
@@ -1942,16 +1954,16 @@
         <v>25</v>
       </c>
       <c r="B43" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C43" s="3">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D43" t="s">
         <v>7</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
@@ -1959,16 +1971,16 @@
         <v>25</v>
       </c>
       <c r="B44" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C44" s="3">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D44" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -1976,16 +1988,16 @@
         <v>25</v>
       </c>
       <c r="B45" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C45" s="3">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D45" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
@@ -1993,16 +2005,16 @@
         <v>25</v>
       </c>
       <c r="B46" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C46" s="3">
         <v>2021</v>
       </c>
       <c r="D46" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -2010,160 +2022,160 @@
         <v>25</v>
       </c>
       <c r="B47" t="s">
-        <v>235</v>
+        <v>34</v>
       </c>
       <c r="C47" s="3">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D47" t="s">
         <v>35</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>236</v>
+        <v>36</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="B48" t="s">
-        <v>54</v>
+        <v>235</v>
       </c>
       <c r="C48" s="3">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="D48" t="s">
         <v>35</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>37</v>
+        <v>236</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
-        <v>122</v>
+        <v>38</v>
       </c>
       <c r="B49" t="s">
-        <v>121</v>
+        <v>54</v>
       </c>
       <c r="C49" s="3">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="D49" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>124</v>
+        <v>37</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B50" t="s">
+        <v>121</v>
+      </c>
+      <c r="C50" s="3">
+        <v>2017</v>
+      </c>
+      <c r="D50" t="s">
+        <v>7</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B51" t="s">
         <v>186</v>
       </c>
-      <c r="C50" s="3">
+      <c r="C51" s="3">
         <v>2019</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D51" t="s">
         <v>68</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="E51" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="6" t="s">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="B52" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="C51" s="3">
+      <c r="C52" s="3">
         <v>2022</v>
       </c>
-      <c r="D51" s="6" t="s">
+      <c r="D52" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E51" s="7" t="s">
+      <c r="E52" s="7" t="s">
         <v>214</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="B52" t="s">
-        <v>192</v>
-      </c>
-      <c r="C52" s="3">
-        <v>2021</v>
-      </c>
-      <c r="D52" t="s">
-        <v>194</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="B53" t="s">
-        <v>196</v>
+        <v>252</v>
       </c>
       <c r="C53" s="3">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D53" t="s">
-        <v>197</v>
+        <v>19</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>198</v>
+        <v>253</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="B54" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="C54" s="3">
-        <v>2014</v>
+        <v>2021</v>
       </c>
       <c r="D54" t="s">
-        <v>19</v>
+        <v>194</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
-        <v>40</v>
+        <v>202</v>
       </c>
       <c r="B55" t="s">
-        <v>39</v>
+        <v>196</v>
       </c>
       <c r="C55" s="3">
-        <v>2012</v>
+        <v>2021</v>
       </c>
       <c r="D55" t="s">
-        <v>24</v>
+        <v>197</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>126</v>
+        <v>198</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
-        <v>40</v>
+        <v>203</v>
       </c>
       <c r="B56" t="s">
-        <v>41</v>
+        <v>199</v>
       </c>
       <c r="C56" s="3">
         <v>2014</v>
@@ -2172,7 +2184,7 @@
         <v>19</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>42</v>
+        <v>200</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
@@ -2180,16 +2192,16 @@
         <v>40</v>
       </c>
       <c r="B57" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C57" s="3">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D57" t="s">
         <v>24</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
@@ -2197,16 +2209,16 @@
         <v>40</v>
       </c>
       <c r="B58" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C58" s="3">
         <v>2014</v>
       </c>
       <c r="D58" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>128</v>
+        <v>42</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
@@ -2214,16 +2226,16 @@
         <v>40</v>
       </c>
       <c r="B59" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C59" s="3">
         <v>2014</v>
       </c>
       <c r="D59" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>48</v>
+        <v>127</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
@@ -2231,67 +2243,67 @@
         <v>40</v>
       </c>
       <c r="B60" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C60" s="3">
-        <v>2021</v>
+        <v>2014</v>
       </c>
       <c r="D60" t="s">
         <v>24</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>51</v>
+        <v>128</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
-        <v>190</v>
+        <v>40</v>
       </c>
       <c r="B61" t="s">
-        <v>188</v>
-      </c>
-      <c r="C61" s="5">
+        <v>47</v>
+      </c>
+      <c r="C61" s="3">
         <v>2014</v>
       </c>
       <c r="D61" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>191</v>
+        <v>48</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="B62" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C62" s="3">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="D62" t="s">
         <v>24</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>130</v>
+        <v>51</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
-        <v>53</v>
+        <v>190</v>
       </c>
       <c r="B63" t="s">
-        <v>55</v>
-      </c>
-      <c r="C63" s="3">
-        <v>2017</v>
+        <v>188</v>
+      </c>
+      <c r="C63" s="5">
+        <v>2014</v>
       </c>
       <c r="D63" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>131</v>
+        <v>191</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
@@ -2299,50 +2311,50 @@
         <v>53</v>
       </c>
       <c r="B64" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C64" s="3">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="D64" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B65" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C65" s="3">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D65" t="s">
         <v>7</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B66" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C66" s="3">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="D66" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
@@ -2350,16 +2362,16 @@
         <v>59</v>
       </c>
       <c r="B67" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C67" s="3">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="D67" t="s">
         <v>7</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>62</v>
+        <v>133</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
@@ -2367,16 +2379,16 @@
         <v>59</v>
       </c>
       <c r="B68" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C68" s="3">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="D68" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>64</v>
+        <v>134</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
@@ -2384,7 +2396,7 @@
         <v>59</v>
       </c>
       <c r="B69" t="s">
-        <v>160</v>
+        <v>61</v>
       </c>
       <c r="C69" s="3">
         <v>2019</v>
@@ -2393,281 +2405,298 @@
         <v>7</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>161</v>
+        <v>62</v>
       </c>
     </row>
     <row r="70" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
-        <v>211</v>
+        <v>59</v>
       </c>
       <c r="B70" t="s">
-        <v>210</v>
+        <v>63</v>
       </c>
       <c r="C70" s="3">
-        <v>2020</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E70" s="7" t="s">
-        <v>212</v>
+        <v>2019</v>
+      </c>
+      <c r="D70" t="s">
+        <v>7</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
-        <v>162</v>
+        <v>59</v>
       </c>
       <c r="B71" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C71" s="3">
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="D71" t="s">
         <v>7</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="B72" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="C72" s="3">
-        <v>2021</v>
-      </c>
-      <c r="D72" t="s">
-        <v>201</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>205</v>
+        <v>2020</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
-        <v>234</v>
+        <v>162</v>
       </c>
       <c r="B73" t="s">
-        <v>219</v>
+        <v>163</v>
       </c>
       <c r="C73" s="3">
-        <v>2022</v>
-      </c>
-      <c r="D73" s="6" t="s">
-        <v>24</v>
+        <v>2014</v>
+      </c>
+      <c r="D73" t="s">
+        <v>7</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>220</v>
+        <v>164</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B74" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C74" s="3">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D74" t="s">
-        <v>11</v>
+        <v>201</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
-        <v>67</v>
+        <v>234</v>
       </c>
       <c r="B75" t="s">
-        <v>65</v>
+        <v>219</v>
       </c>
       <c r="C75" s="3">
-        <v>2019</v>
-      </c>
-      <c r="D75" t="s">
-        <v>68</v>
+        <v>2022</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>66</v>
+        <v>220</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="B76" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="C76" s="3">
         <v>2022</v>
       </c>
-      <c r="D76" s="6" t="s">
-        <v>226</v>
+      <c r="D76" t="s">
+        <v>11</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B77" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C77" s="3">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="D77" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
-        <v>74</v>
+        <v>223</v>
       </c>
       <c r="B78" t="s">
-        <v>73</v>
+        <v>221</v>
       </c>
       <c r="C78" s="3">
-        <v>2011</v>
-      </c>
-      <c r="D78" t="s">
-        <v>35</v>
+        <v>2022</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>226</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>150</v>
+        <v>222</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B79" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C79" s="3">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="D79" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" s="6" t="s">
-        <v>218</v>
+      <c r="A80" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="B80" t="s">
-        <v>217</v>
+        <v>73</v>
       </c>
       <c r="C80" s="3">
-        <v>2022</v>
-      </c>
-      <c r="D80" s="6" t="s">
-        <v>19</v>
+        <v>2011</v>
+      </c>
+      <c r="D80" t="s">
+        <v>35</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>216</v>
+        <v>150</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B81" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C81" s="3">
-        <v>2011</v>
+        <v>2018</v>
       </c>
       <c r="D81" t="s">
+        <v>77</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="B82" t="s">
+        <v>217</v>
+      </c>
+      <c r="C82" s="3">
+        <v>2022</v>
+      </c>
+      <c r="D82" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E81" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B82" t="s">
-        <v>81</v>
-      </c>
-      <c r="C82" s="3">
-        <v>2013</v>
-      </c>
-      <c r="D82" t="s">
-        <v>82</v>
-      </c>
       <c r="E82" s="1" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
-        <v>215</v>
+        <v>80</v>
       </c>
       <c r="B83" t="s">
-        <v>252</v>
+        <v>79</v>
       </c>
       <c r="C83" s="3">
-        <v>2022</v>
+        <v>2011</v>
       </c>
       <c r="D83" t="s">
         <v>19</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>253</v>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B84" t="s">
+        <v>81</v>
+      </c>
+      <c r="C84" s="3">
+        <v>2013</v>
+      </c>
+      <c r="D84" t="s">
+        <v>82</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E23" r:id="rId1" xr:uid="{F6233517-0866-4B0A-B501-654979DF1645}"/>
-    <hyperlink ref="E26" r:id="rId2" xr:uid="{CBD7CBEE-D091-4342-A7E0-41DE558F1037}"/>
-    <hyperlink ref="E29" r:id="rId3" xr:uid="{225B3A1D-B3F0-4695-9FC4-4F153794A4FC}"/>
-    <hyperlink ref="E30" r:id="rId4" xr:uid="{7A1A6A3D-3414-4BF6-BEDD-0EE0347C319E}"/>
-    <hyperlink ref="E31" r:id="rId5" xr:uid="{4CEF4617-6BD3-44D3-8DC1-60D790061756}"/>
-    <hyperlink ref="E41" r:id="rId6" xr:uid="{7D05E552-8270-4F5D-AC46-1ED37444A309}"/>
-    <hyperlink ref="E42" r:id="rId7" xr:uid="{6C173CBA-3446-4E84-9A3E-965DF6C6C088}"/>
-    <hyperlink ref="E43" r:id="rId8" xr:uid="{1846651B-6412-4AFB-AFB8-F96A2B371A6C}"/>
-    <hyperlink ref="E44" r:id="rId9" xr:uid="{C7270FA0-2830-4BB7-B110-850D8F971AEE}"/>
-    <hyperlink ref="E45" r:id="rId10" xr:uid="{D8221DFD-AF62-413A-9472-7B2D09F8AB38}"/>
-    <hyperlink ref="E46" r:id="rId11" xr:uid="{92989DC9-D56C-47D5-BFEE-71F6C0F3A548}"/>
-    <hyperlink ref="E48" r:id="rId12" xr:uid="{5B9642B1-4705-45AB-89BE-F072B333EBB6}"/>
-    <hyperlink ref="E55" r:id="rId13" xr:uid="{F05B4BA6-E510-400E-8A22-DBADEF073FBF}"/>
-    <hyperlink ref="E56" r:id="rId14" xr:uid="{3BF46FAB-1246-4475-A357-107735FE4BDF}"/>
-    <hyperlink ref="E57" r:id="rId15" xr:uid="{D048DBA0-6B3B-4476-A0C3-4EB3819321C8}"/>
-    <hyperlink ref="E58" r:id="rId16" xr:uid="{1437ABFF-76B7-4768-9BD6-04546FB41212}"/>
+    <hyperlink ref="E27" r:id="rId2" xr:uid="{CBD7CBEE-D091-4342-A7E0-41DE558F1037}"/>
+    <hyperlink ref="E30" r:id="rId3" xr:uid="{225B3A1D-B3F0-4695-9FC4-4F153794A4FC}"/>
+    <hyperlink ref="E31" r:id="rId4" xr:uid="{7A1A6A3D-3414-4BF6-BEDD-0EE0347C319E}"/>
+    <hyperlink ref="E32" r:id="rId5" xr:uid="{4CEF4617-6BD3-44D3-8DC1-60D790061756}"/>
+    <hyperlink ref="E42" r:id="rId6" xr:uid="{7D05E552-8270-4F5D-AC46-1ED37444A309}"/>
+    <hyperlink ref="E43" r:id="rId7" xr:uid="{6C173CBA-3446-4E84-9A3E-965DF6C6C088}"/>
+    <hyperlink ref="E44" r:id="rId8" xr:uid="{1846651B-6412-4AFB-AFB8-F96A2B371A6C}"/>
+    <hyperlink ref="E45" r:id="rId9" xr:uid="{C7270FA0-2830-4BB7-B110-850D8F971AEE}"/>
+    <hyperlink ref="E46" r:id="rId10" xr:uid="{D8221DFD-AF62-413A-9472-7B2D09F8AB38}"/>
+    <hyperlink ref="E47" r:id="rId11" xr:uid="{92989DC9-D56C-47D5-BFEE-71F6C0F3A548}"/>
+    <hyperlink ref="E49" r:id="rId12" xr:uid="{5B9642B1-4705-45AB-89BE-F072B333EBB6}"/>
+    <hyperlink ref="E57" r:id="rId13" xr:uid="{F05B4BA6-E510-400E-8A22-DBADEF073FBF}"/>
+    <hyperlink ref="E58" r:id="rId14" xr:uid="{3BF46FAB-1246-4475-A357-107735FE4BDF}"/>
+    <hyperlink ref="E59" r:id="rId15" xr:uid="{D048DBA0-6B3B-4476-A0C3-4EB3819321C8}"/>
+    <hyperlink ref="E60" r:id="rId16" xr:uid="{1437ABFF-76B7-4768-9BD6-04546FB41212}"/>
     <hyperlink ref="E13" r:id="rId17" xr:uid="{DF9385FD-36DB-4A19-8CBC-22A0966BA589}"/>
-    <hyperlink ref="E59" r:id="rId18" xr:uid="{A49C63A5-4761-4004-903F-BDC70A97AEB9}"/>
-    <hyperlink ref="E60" r:id="rId19" xr:uid="{475B209A-E520-460B-B1CA-985518CA6942}"/>
-    <hyperlink ref="E62" r:id="rId20" xr:uid="{365A4CF1-32B5-4CD5-8ACD-8871125C9A40}"/>
-    <hyperlink ref="E63" r:id="rId21" xr:uid="{F2B048DB-66F1-433F-824F-55CCC95C49F5}"/>
-    <hyperlink ref="E64" r:id="rId22" xr:uid="{B72A565C-741D-4F46-9AF2-3331FE245855}"/>
-    <hyperlink ref="E65" r:id="rId23" xr:uid="{81A40882-ACC5-427E-BC31-0390936D9ADA}"/>
-    <hyperlink ref="E66" r:id="rId24" xr:uid="{BAC61EA9-3ABF-4FBA-AB98-603E87B01642}"/>
-    <hyperlink ref="E67" r:id="rId25" xr:uid="{F311DB40-30CB-49FF-89EB-8929E8CC149D}"/>
-    <hyperlink ref="E68" r:id="rId26" xr:uid="{B1672B26-3311-4AB8-8DB8-10AB5E887662}"/>
-    <hyperlink ref="E75" r:id="rId27" xr:uid="{E1CC58C1-4BAD-4445-B722-3DC7F9057180}"/>
-    <hyperlink ref="E77" r:id="rId28" xr:uid="{AF7EF548-2486-4D16-93AD-8972177ECDC3}"/>
-    <hyperlink ref="E78" r:id="rId29" xr:uid="{24D15E37-D60C-432F-9CED-DCB5F84A8EA1}"/>
-    <hyperlink ref="E79" r:id="rId30" xr:uid="{E65E5986-C0ED-4D73-B262-03C37CE34824}"/>
-    <hyperlink ref="E81" r:id="rId31" xr:uid="{48A3DD7D-15A4-49DF-9BB8-0BF37E9BA8BF}"/>
-    <hyperlink ref="E82" r:id="rId32" xr:uid="{EB968D9A-2B1C-4356-8976-E3B995613790}"/>
+    <hyperlink ref="E61" r:id="rId18" xr:uid="{A49C63A5-4761-4004-903F-BDC70A97AEB9}"/>
+    <hyperlink ref="E62" r:id="rId19" xr:uid="{475B209A-E520-460B-B1CA-985518CA6942}"/>
+    <hyperlink ref="E64" r:id="rId20" xr:uid="{365A4CF1-32B5-4CD5-8ACD-8871125C9A40}"/>
+    <hyperlink ref="E65" r:id="rId21" xr:uid="{F2B048DB-66F1-433F-824F-55CCC95C49F5}"/>
+    <hyperlink ref="E66" r:id="rId22" xr:uid="{B72A565C-741D-4F46-9AF2-3331FE245855}"/>
+    <hyperlink ref="E67" r:id="rId23" xr:uid="{81A40882-ACC5-427E-BC31-0390936D9ADA}"/>
+    <hyperlink ref="E68" r:id="rId24" xr:uid="{BAC61EA9-3ABF-4FBA-AB98-603E87B01642}"/>
+    <hyperlink ref="E69" r:id="rId25" xr:uid="{F311DB40-30CB-49FF-89EB-8929E8CC149D}"/>
+    <hyperlink ref="E70" r:id="rId26" xr:uid="{B1672B26-3311-4AB8-8DB8-10AB5E887662}"/>
+    <hyperlink ref="E77" r:id="rId27" xr:uid="{E1CC58C1-4BAD-4445-B722-3DC7F9057180}"/>
+    <hyperlink ref="E79" r:id="rId28" xr:uid="{AF7EF548-2486-4D16-93AD-8972177ECDC3}"/>
+    <hyperlink ref="E80" r:id="rId29" xr:uid="{24D15E37-D60C-432F-9CED-DCB5F84A8EA1}"/>
+    <hyperlink ref="E81" r:id="rId30" xr:uid="{E65E5986-C0ED-4D73-B262-03C37CE34824}"/>
+    <hyperlink ref="E83" r:id="rId31" xr:uid="{48A3DD7D-15A4-49DF-9BB8-0BF37E9BA8BF}"/>
+    <hyperlink ref="E84" r:id="rId32" xr:uid="{EB968D9A-2B1C-4356-8976-E3B995613790}"/>
     <hyperlink ref="E3" r:id="rId33" xr:uid="{B8FCB838-5B1C-4D4C-B527-4AB9924EB2D3}"/>
     <hyperlink ref="E4" r:id="rId34" xr:uid="{025C23AA-1E34-4632-B635-9FA1B738A3E9}"/>
     <hyperlink ref="E5" r:id="rId35" xr:uid="{C7F936C0-3049-4E9A-8E0A-D27C6AB16FBC}"/>
@@ -2678,48 +2707,49 @@
     <hyperlink ref="E20" r:id="rId40" xr:uid="{7AFECFFC-8ADB-41C7-841B-216E556AAA4F}"/>
     <hyperlink ref="E22" r:id="rId41" xr:uid="{DB25165C-39D2-4A45-B455-85A8EEDFE6B6}"/>
     <hyperlink ref="E25" r:id="rId42" xr:uid="{458C6FF6-3543-45CE-9606-8A3082F62F0A}"/>
-    <hyperlink ref="E27" r:id="rId43" xr:uid="{94EFA63E-CE0C-4475-A396-18D53D8A6EC4}"/>
-    <hyperlink ref="E28" r:id="rId44" xr:uid="{92D4FFEE-7B65-4017-A716-809C7F8B0E04}"/>
-    <hyperlink ref="E32" r:id="rId45" xr:uid="{0B76847B-6C94-4E2D-A094-FCE72CC29EBF}"/>
-    <hyperlink ref="E33" r:id="rId46" xr:uid="{81C1C27A-8200-4CB8-8CA5-E4B85D519FDA}"/>
-    <hyperlink ref="E35" r:id="rId47" xr:uid="{B80CDD91-38DA-4375-88A0-B543FE2A3CCB}"/>
-    <hyperlink ref="E49" r:id="rId48" xr:uid="{085EF44D-1625-46A8-B320-B4D73C2793C3}"/>
+    <hyperlink ref="E28" r:id="rId43" xr:uid="{94EFA63E-CE0C-4475-A396-18D53D8A6EC4}"/>
+    <hyperlink ref="E29" r:id="rId44" xr:uid="{92D4FFEE-7B65-4017-A716-809C7F8B0E04}"/>
+    <hyperlink ref="E33" r:id="rId45" xr:uid="{0B76847B-6C94-4E2D-A094-FCE72CC29EBF}"/>
+    <hyperlink ref="E34" r:id="rId46" xr:uid="{81C1C27A-8200-4CB8-8CA5-E4B85D519FDA}"/>
+    <hyperlink ref="E36" r:id="rId47" xr:uid="{B80CDD91-38DA-4375-88A0-B543FE2A3CCB}"/>
+    <hyperlink ref="E50" r:id="rId48" xr:uid="{085EF44D-1625-46A8-B320-B4D73C2793C3}"/>
     <hyperlink ref="E7" r:id="rId49" xr:uid="{9050D2E2-A996-4813-BDAB-90A6E969B393}"/>
     <hyperlink ref="E8" r:id="rId50" xr:uid="{3FB58120-E5D0-4688-A553-FA719EE8AF86}"/>
     <hyperlink ref="E9" r:id="rId51" xr:uid="{27E6CD87-1D85-4CFF-82C0-B75E68882093}"/>
     <hyperlink ref="E10" r:id="rId52" xr:uid="{5726F0E2-EBA2-49FB-B482-C266FBD309BF}"/>
-    <hyperlink ref="E69" r:id="rId53" xr:uid="{34EFA9BA-9C8C-4881-A64C-2F70C6927793}"/>
-    <hyperlink ref="E71" r:id="rId54" xr:uid="{FE82914B-DA2F-43D9-856E-F8B21C1D980D}"/>
-    <hyperlink ref="E37" r:id="rId55" xr:uid="{49BBE16D-F3C9-4615-B1B4-B8FA17A26DD4}"/>
-    <hyperlink ref="E38" r:id="rId56" xr:uid="{1A356FB0-7765-46F0-BC27-98202B7BF4A6}"/>
+    <hyperlink ref="E71" r:id="rId53" xr:uid="{34EFA9BA-9C8C-4881-A64C-2F70C6927793}"/>
+    <hyperlink ref="E73" r:id="rId54" xr:uid="{FE82914B-DA2F-43D9-856E-F8B21C1D980D}"/>
+    <hyperlink ref="E38" r:id="rId55" xr:uid="{49BBE16D-F3C9-4615-B1B4-B8FA17A26DD4}"/>
+    <hyperlink ref="E39" r:id="rId56" xr:uid="{1A356FB0-7765-46F0-BC27-98202B7BF4A6}"/>
     <hyperlink ref="E2" r:id="rId57" xr:uid="{3BAF40B7-94EB-4B77-B83C-2E2E101DCD73}"/>
     <hyperlink ref="E18" r:id="rId58" xr:uid="{5012CD22-B9C1-451C-B278-3127E823477E}"/>
-    <hyperlink ref="E39" r:id="rId59" xr:uid="{B44F470F-A038-4D03-B4FC-3A710C4A1E53}"/>
-    <hyperlink ref="E40" r:id="rId60" xr:uid="{1B9F5F78-B40E-4B01-BBE4-7D5D05B0494D}"/>
-    <hyperlink ref="E50" r:id="rId61" xr:uid="{C51AD600-C6A8-4CD8-A6ED-A309C6A9E5FF}"/>
-    <hyperlink ref="E61" r:id="rId62" xr:uid="{35E24552-4BD2-4643-8BC5-2933C5863306}"/>
-    <hyperlink ref="E52" r:id="rId63" xr:uid="{59C100E4-5D91-46FA-A9CF-7FC950AC6162}"/>
-    <hyperlink ref="E53" r:id="rId64" xr:uid="{27B81F4A-B5A2-4B95-B182-8E237716E03C}"/>
-    <hyperlink ref="E54" r:id="rId65" xr:uid="{BBBA124A-D9A7-49CF-9B5E-6218C904469C}"/>
-    <hyperlink ref="E72" r:id="rId66" xr:uid="{BC23E410-1E83-43B7-B83C-8F7E64BB9146}"/>
-    <hyperlink ref="E74" r:id="rId67" xr:uid="{F2AEE35C-42C1-4BFE-B760-AA86FE091591}"/>
-    <hyperlink ref="E70" r:id="rId68" xr:uid="{CBE85328-B553-4738-90B3-7F3A5579E07D}"/>
-    <hyperlink ref="E51" r:id="rId69" xr:uid="{5319E4AF-8DD0-4C01-A448-C6A50345BF6D}"/>
-    <hyperlink ref="E80" r:id="rId70" xr:uid="{105DD274-8872-41F3-9AEE-CB0929A91BD7}"/>
-    <hyperlink ref="E73" r:id="rId71" xr:uid="{E4C036B5-8E63-4154-81B7-386C17DE26F0}"/>
-    <hyperlink ref="E76" r:id="rId72" xr:uid="{EA050D64-47A3-4EF1-B293-1513E65F8A17}"/>
+    <hyperlink ref="E40" r:id="rId59" xr:uid="{B44F470F-A038-4D03-B4FC-3A710C4A1E53}"/>
+    <hyperlink ref="E41" r:id="rId60" xr:uid="{1B9F5F78-B40E-4B01-BBE4-7D5D05B0494D}"/>
+    <hyperlink ref="E51" r:id="rId61" xr:uid="{C51AD600-C6A8-4CD8-A6ED-A309C6A9E5FF}"/>
+    <hyperlink ref="E63" r:id="rId62" xr:uid="{35E24552-4BD2-4643-8BC5-2933C5863306}"/>
+    <hyperlink ref="E54" r:id="rId63" xr:uid="{59C100E4-5D91-46FA-A9CF-7FC950AC6162}"/>
+    <hyperlink ref="E55" r:id="rId64" xr:uid="{27B81F4A-B5A2-4B95-B182-8E237716E03C}"/>
+    <hyperlink ref="E56" r:id="rId65" xr:uid="{BBBA124A-D9A7-49CF-9B5E-6218C904469C}"/>
+    <hyperlink ref="E74" r:id="rId66" xr:uid="{BC23E410-1E83-43B7-B83C-8F7E64BB9146}"/>
+    <hyperlink ref="E76" r:id="rId67" xr:uid="{F2AEE35C-42C1-4BFE-B760-AA86FE091591}"/>
+    <hyperlink ref="E72" r:id="rId68" xr:uid="{CBE85328-B553-4738-90B3-7F3A5579E07D}"/>
+    <hyperlink ref="E52" r:id="rId69" xr:uid="{5319E4AF-8DD0-4C01-A448-C6A50345BF6D}"/>
+    <hyperlink ref="E82" r:id="rId70" xr:uid="{105DD274-8872-41F3-9AEE-CB0929A91BD7}"/>
+    <hyperlink ref="E75" r:id="rId71" xr:uid="{E4C036B5-8E63-4154-81B7-386C17DE26F0}"/>
+    <hyperlink ref="E78" r:id="rId72" xr:uid="{EA050D64-47A3-4EF1-B293-1513E65F8A17}"/>
     <hyperlink ref="E24" r:id="rId73" xr:uid="{FE69776B-DAB8-458E-A1CC-CC4D45FB990E}"/>
     <hyperlink ref="E21" r:id="rId74" xr:uid="{B8709E17-82C3-4C15-AFCA-FDBC6C0E3742}"/>
-    <hyperlink ref="E36" r:id="rId75" xr:uid="{AD9E04E9-7330-4AEB-B1D5-0D658D10BE4C}"/>
-    <hyperlink ref="E47" r:id="rId76" xr:uid="{2D09DA48-0CC3-4E7B-88DF-4906ADFE3995}"/>
+    <hyperlink ref="E37" r:id="rId75" xr:uid="{AD9E04E9-7330-4AEB-B1D5-0D658D10BE4C}"/>
+    <hyperlink ref="E48" r:id="rId76" xr:uid="{2D09DA48-0CC3-4E7B-88DF-4906ADFE3995}"/>
     <hyperlink ref="E11" r:id="rId77" xr:uid="{B5D6E16B-F7EF-4C36-9A76-398183A004C2}"/>
     <hyperlink ref="E12" r:id="rId78" xr:uid="{8507CF97-BF71-48EE-BF72-FBA48E58E257}"/>
     <hyperlink ref="E6" r:id="rId79" xr:uid="{2AD287B9-A515-4B7A-9193-19E3FF1CE180}"/>
-    <hyperlink ref="E34" r:id="rId80" xr:uid="{BFE39045-5577-49A9-89A1-E0DB4996C6DA}"/>
+    <hyperlink ref="E35" r:id="rId80" xr:uid="{BFE39045-5577-49A9-89A1-E0DB4996C6DA}"/>
     <hyperlink ref="E16" r:id="rId81" xr:uid="{2CE98761-AD59-4695-BE00-67D2A022A16D}"/>
-    <hyperlink ref="E83" r:id="rId82" xr:uid="{8B63BAC3-AAA6-455E-AE1C-8772DBB5A56E}"/>
+    <hyperlink ref="E53" r:id="rId82" xr:uid="{8B63BAC3-AAA6-455E-AE1C-8772DBB5A56E}"/>
+    <hyperlink ref="E26" r:id="rId83" xr:uid="{78C7F296-E3FD-48D3-BBE4-CD1D8A0AED49}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId83"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId84"/>
 </worksheet>
 </file>
--- a/_site/data/methods.xlsx
+++ b/_site/data/methods.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My_R\overview_megadatabase\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BD1AF5A-33BA-461B-834B-7E418B004EE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4441A146-294D-41A5-8882-03AA79C0F66C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D142A978-9658-4202-BF77-FF6002D5B3D1}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Φύλλο1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Φύλλο1!$A$1:$E$84</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Φύλλο1!$A$1:$E$86</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="266">
   <si>
     <t>first author</t>
   </si>
@@ -798,9 +798,6 @@
     <t>Journal of Lipid and Atherosclerosis</t>
   </si>
   <si>
-    <t>https://www.e-jla.org/pdf/10.12997/jla.2023.12.e1</t>
-  </si>
-  <si>
     <t>LETTER TO THE EDITOR-Response to: ‘Additional considerations and response to Graphical Representation of Overlap for OVErviews (GROOVE tool)”</t>
   </si>
   <si>
@@ -817,6 +814,33 @@
   </si>
   <si>
     <t>Gosling C.J.</t>
+  </si>
+  <si>
+    <t>Use of existing systematic reviews for the development of evidence based vaccination recommendations: Guidance from the SYSVAC expert panel</t>
+  </si>
+  <si>
+    <t>Pilic A.</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.vaccine.2023.02.027</t>
+  </si>
+  <si>
+    <t>Vaccine</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.12997/jla.2023.12.1.3</t>
+  </si>
+  <si>
+    <t>EDITORIAL COMMENTARY-Viewpoints on the PRIOR statement-a reporting guideline for overviews of reviews</t>
+  </si>
+  <si>
+    <t>Yang N.</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.21037/atm-22-5724</t>
+  </si>
+  <si>
+    <t>Annals of Translational Medicine</t>
   </si>
 </sst>
 </file>
@@ -884,7 +908,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -905,6 +929,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1220,10 +1245,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3C04B9F-2B89-4EC8-954F-BE264C2F59A5}">
-  <dimension ref="A1:E84"/>
+  <dimension ref="A1:E86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="D89" sqref="D89"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="B87" sqref="B87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1232,7 +1257,7 @@
     <col min="2" max="2" width="53.6640625" customWidth="1"/>
     <col min="3" max="3" width="29.88671875" style="3" customWidth="1"/>
     <col min="4" max="4" width="38.44140625" customWidth="1"/>
-    <col min="5" max="5" width="42" customWidth="1"/>
+    <col min="5" max="5" width="47.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -1504,7 +1529,7 @@
         <v>250</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -1662,19 +1687,19 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B26" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C26" s="3">
         <v>2023</v>
       </c>
       <c r="D26" t="s">
+        <v>254</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>255</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -2124,7 +2149,7 @@
         <v>215</v>
       </c>
       <c r="B53" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C53" s="3">
         <v>2022</v>
@@ -2133,7 +2158,7 @@
         <v>19</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
@@ -2291,36 +2316,36 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
-        <v>190</v>
+        <v>258</v>
       </c>
       <c r="B63" t="s">
-        <v>188</v>
-      </c>
-      <c r="C63" s="5">
-        <v>2014</v>
+        <v>257</v>
+      </c>
+      <c r="C63" s="3">
+        <v>2023</v>
       </c>
       <c r="D63" t="s">
-        <v>68</v>
+        <v>260</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>191</v>
+        <v>259</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
-        <v>53</v>
+        <v>190</v>
       </c>
       <c r="B64" t="s">
-        <v>52</v>
-      </c>
-      <c r="C64" s="3">
-        <v>2016</v>
+        <v>188</v>
+      </c>
+      <c r="C64" s="5">
+        <v>2014</v>
       </c>
       <c r="D64" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>130</v>
+        <v>191</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
@@ -2328,16 +2353,16 @@
         <v>53</v>
       </c>
       <c r="B65" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C65" s="3">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D65" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
@@ -2345,33 +2370,33 @@
         <v>53</v>
       </c>
       <c r="B66" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C66" s="3">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="D66" t="s">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B67" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C67" s="3">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="D67" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
@@ -2379,16 +2404,16 @@
         <v>59</v>
       </c>
       <c r="B68" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C68" s="3">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D68" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
@@ -2396,16 +2421,16 @@
         <v>59</v>
       </c>
       <c r="B69" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C69" s="3">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="D69" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>62</v>
+        <v>134</v>
       </c>
     </row>
     <row r="70" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -2413,7 +2438,7 @@
         <v>59</v>
       </c>
       <c r="B70" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C70" s="3">
         <v>2019</v>
@@ -2422,7 +2447,7 @@
         <v>7</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
@@ -2430,7 +2455,7 @@
         <v>59</v>
       </c>
       <c r="B71" t="s">
-        <v>160</v>
+        <v>63</v>
       </c>
       <c r="C71" s="3">
         <v>2019</v>
@@ -2439,211 +2464,211 @@
         <v>7</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>161</v>
+        <v>64</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
-        <v>211</v>
+        <v>59</v>
       </c>
       <c r="B72" t="s">
-        <v>210</v>
+        <v>160</v>
       </c>
       <c r="C72" s="3">
-        <v>2020</v>
-      </c>
-      <c r="D72" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E72" s="7" t="s">
-        <v>212</v>
+        <v>2019</v>
+      </c>
+      <c r="D72" t="s">
+        <v>7</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
-        <v>162</v>
+        <v>211</v>
       </c>
       <c r="B73" t="s">
-        <v>163</v>
+        <v>210</v>
       </c>
       <c r="C73" s="3">
-        <v>2014</v>
-      </c>
-      <c r="D73" t="s">
-        <v>7</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>164</v>
+        <v>2020</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
-        <v>206</v>
+        <v>162</v>
       </c>
       <c r="B74" t="s">
-        <v>204</v>
+        <v>163</v>
       </c>
       <c r="C74" s="3">
-        <v>2021</v>
+        <v>2014</v>
       </c>
       <c r="D74" t="s">
-        <v>201</v>
+        <v>7</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>205</v>
+        <v>164</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
-        <v>234</v>
+        <v>206</v>
       </c>
       <c r="B75" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="C75" s="3">
-        <v>2022</v>
-      </c>
-      <c r="D75" s="6" t="s">
-        <v>24</v>
+        <v>2021</v>
+      </c>
+      <c r="D75" t="s">
+        <v>201</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
-        <v>207</v>
+        <v>234</v>
       </c>
       <c r="B76" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="C76" s="3">
         <v>2022</v>
       </c>
-      <c r="D76" t="s">
-        <v>11</v>
+      <c r="D76" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
-        <v>67</v>
+        <v>207</v>
       </c>
       <c r="B77" t="s">
-        <v>65</v>
+        <v>208</v>
       </c>
       <c r="C77" s="3">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="D77" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>66</v>
+        <v>209</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
-        <v>223</v>
+        <v>67</v>
       </c>
       <c r="B78" t="s">
-        <v>221</v>
+        <v>65</v>
       </c>
       <c r="C78" s="3">
-        <v>2022</v>
-      </c>
-      <c r="D78" s="6" t="s">
-        <v>226</v>
+        <v>2019</v>
+      </c>
+      <c r="D78" t="s">
+        <v>68</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>222</v>
+        <v>66</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
-        <v>71</v>
+        <v>223</v>
       </c>
       <c r="B79" t="s">
-        <v>69</v>
+        <v>221</v>
       </c>
       <c r="C79" s="3">
         <v>2022</v>
       </c>
-      <c r="D79" t="s">
-        <v>72</v>
+      <c r="D79" s="6" t="s">
+        <v>226</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>70</v>
+        <v>222</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B80" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C80" s="3">
-        <v>2011</v>
+        <v>2022</v>
       </c>
       <c r="D80" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>150</v>
+        <v>70</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B81" t="s">
+        <v>73</v>
+      </c>
+      <c r="C81" s="3">
+        <v>2011</v>
+      </c>
+      <c r="D81" t="s">
+        <v>35</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B82" t="s">
         <v>75</v>
       </c>
-      <c r="C81" s="3">
+      <c r="C82" s="3">
         <v>2018</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D82" t="s">
         <v>77</v>
       </c>
-      <c r="E81" s="1" t="s">
+      <c r="E82" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="6" t="s">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B83" t="s">
         <v>217</v>
       </c>
-      <c r="C82" s="3">
+      <c r="C83" s="3">
         <v>2022</v>
       </c>
-      <c r="D82" s="6" t="s">
+      <c r="D83" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E82" s="1" t="s">
+      <c r="E83" s="1" t="s">
         <v>216</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B83" t="s">
-        <v>79</v>
-      </c>
-      <c r="C83" s="3">
-        <v>2011</v>
-      </c>
-      <c r="D83" t="s">
-        <v>19</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
@@ -2651,16 +2676,50 @@
         <v>80</v>
       </c>
       <c r="B84" t="s">
+        <v>79</v>
+      </c>
+      <c r="C84" s="3">
+        <v>2011</v>
+      </c>
+      <c r="D84" t="s">
+        <v>19</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B85" t="s">
         <v>81</v>
       </c>
-      <c r="C84" s="3">
+      <c r="C85" s="3">
         <v>2013</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D85" t="s">
         <v>82</v>
       </c>
-      <c r="E84" s="1" t="s">
+      <c r="E85" s="1" t="s">
         <v>136</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="C86" s="3">
+        <v>2022</v>
+      </c>
+      <c r="D86" t="s">
+        <v>265</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -2684,19 +2743,19 @@
     <hyperlink ref="E13" r:id="rId17" xr:uid="{DF9385FD-36DB-4A19-8CBC-22A0966BA589}"/>
     <hyperlink ref="E61" r:id="rId18" xr:uid="{A49C63A5-4761-4004-903F-BDC70A97AEB9}"/>
     <hyperlink ref="E62" r:id="rId19" xr:uid="{475B209A-E520-460B-B1CA-985518CA6942}"/>
-    <hyperlink ref="E64" r:id="rId20" xr:uid="{365A4CF1-32B5-4CD5-8ACD-8871125C9A40}"/>
-    <hyperlink ref="E65" r:id="rId21" xr:uid="{F2B048DB-66F1-433F-824F-55CCC95C49F5}"/>
-    <hyperlink ref="E66" r:id="rId22" xr:uid="{B72A565C-741D-4F46-9AF2-3331FE245855}"/>
-    <hyperlink ref="E67" r:id="rId23" xr:uid="{81A40882-ACC5-427E-BC31-0390936D9ADA}"/>
-    <hyperlink ref="E68" r:id="rId24" xr:uid="{BAC61EA9-3ABF-4FBA-AB98-603E87B01642}"/>
-    <hyperlink ref="E69" r:id="rId25" xr:uid="{F311DB40-30CB-49FF-89EB-8929E8CC149D}"/>
-    <hyperlink ref="E70" r:id="rId26" xr:uid="{B1672B26-3311-4AB8-8DB8-10AB5E887662}"/>
-    <hyperlink ref="E77" r:id="rId27" xr:uid="{E1CC58C1-4BAD-4445-B722-3DC7F9057180}"/>
-    <hyperlink ref="E79" r:id="rId28" xr:uid="{AF7EF548-2486-4D16-93AD-8972177ECDC3}"/>
-    <hyperlink ref="E80" r:id="rId29" xr:uid="{24D15E37-D60C-432F-9CED-DCB5F84A8EA1}"/>
-    <hyperlink ref="E81" r:id="rId30" xr:uid="{E65E5986-C0ED-4D73-B262-03C37CE34824}"/>
-    <hyperlink ref="E83" r:id="rId31" xr:uid="{48A3DD7D-15A4-49DF-9BB8-0BF37E9BA8BF}"/>
-    <hyperlink ref="E84" r:id="rId32" xr:uid="{EB968D9A-2B1C-4356-8976-E3B995613790}"/>
+    <hyperlink ref="E65" r:id="rId20" xr:uid="{365A4CF1-32B5-4CD5-8ACD-8871125C9A40}"/>
+    <hyperlink ref="E66" r:id="rId21" xr:uid="{F2B048DB-66F1-433F-824F-55CCC95C49F5}"/>
+    <hyperlink ref="E67" r:id="rId22" xr:uid="{B72A565C-741D-4F46-9AF2-3331FE245855}"/>
+    <hyperlink ref="E68" r:id="rId23" xr:uid="{81A40882-ACC5-427E-BC31-0390936D9ADA}"/>
+    <hyperlink ref="E69" r:id="rId24" xr:uid="{BAC61EA9-3ABF-4FBA-AB98-603E87B01642}"/>
+    <hyperlink ref="E70" r:id="rId25" xr:uid="{F311DB40-30CB-49FF-89EB-8929E8CC149D}"/>
+    <hyperlink ref="E71" r:id="rId26" xr:uid="{B1672B26-3311-4AB8-8DB8-10AB5E887662}"/>
+    <hyperlink ref="E78" r:id="rId27" xr:uid="{E1CC58C1-4BAD-4445-B722-3DC7F9057180}"/>
+    <hyperlink ref="E80" r:id="rId28" xr:uid="{AF7EF548-2486-4D16-93AD-8972177ECDC3}"/>
+    <hyperlink ref="E81" r:id="rId29" xr:uid="{24D15E37-D60C-432F-9CED-DCB5F84A8EA1}"/>
+    <hyperlink ref="E82" r:id="rId30" xr:uid="{E65E5986-C0ED-4D73-B262-03C37CE34824}"/>
+    <hyperlink ref="E84" r:id="rId31" xr:uid="{48A3DD7D-15A4-49DF-9BB8-0BF37E9BA8BF}"/>
+    <hyperlink ref="E85" r:id="rId32" xr:uid="{EB968D9A-2B1C-4356-8976-E3B995613790}"/>
     <hyperlink ref="E3" r:id="rId33" xr:uid="{B8FCB838-5B1C-4D4C-B527-4AB9924EB2D3}"/>
     <hyperlink ref="E4" r:id="rId34" xr:uid="{025C23AA-1E34-4632-B635-9FA1B738A3E9}"/>
     <hyperlink ref="E5" r:id="rId35" xr:uid="{C7F936C0-3049-4E9A-8E0A-D27C6AB16FBC}"/>
@@ -2717,8 +2776,8 @@
     <hyperlink ref="E8" r:id="rId50" xr:uid="{3FB58120-E5D0-4688-A553-FA719EE8AF86}"/>
     <hyperlink ref="E9" r:id="rId51" xr:uid="{27E6CD87-1D85-4CFF-82C0-B75E68882093}"/>
     <hyperlink ref="E10" r:id="rId52" xr:uid="{5726F0E2-EBA2-49FB-B482-C266FBD309BF}"/>
-    <hyperlink ref="E71" r:id="rId53" xr:uid="{34EFA9BA-9C8C-4881-A64C-2F70C6927793}"/>
-    <hyperlink ref="E73" r:id="rId54" xr:uid="{FE82914B-DA2F-43D9-856E-F8B21C1D980D}"/>
+    <hyperlink ref="E72" r:id="rId53" xr:uid="{34EFA9BA-9C8C-4881-A64C-2F70C6927793}"/>
+    <hyperlink ref="E74" r:id="rId54" xr:uid="{FE82914B-DA2F-43D9-856E-F8B21C1D980D}"/>
     <hyperlink ref="E38" r:id="rId55" xr:uid="{49BBE16D-F3C9-4615-B1B4-B8FA17A26DD4}"/>
     <hyperlink ref="E39" r:id="rId56" xr:uid="{1A356FB0-7765-46F0-BC27-98202B7BF4A6}"/>
     <hyperlink ref="E2" r:id="rId57" xr:uid="{3BAF40B7-94EB-4B77-B83C-2E2E101DCD73}"/>
@@ -2726,17 +2785,17 @@
     <hyperlink ref="E40" r:id="rId59" xr:uid="{B44F470F-A038-4D03-B4FC-3A710C4A1E53}"/>
     <hyperlink ref="E41" r:id="rId60" xr:uid="{1B9F5F78-B40E-4B01-BBE4-7D5D05B0494D}"/>
     <hyperlink ref="E51" r:id="rId61" xr:uid="{C51AD600-C6A8-4CD8-A6ED-A309C6A9E5FF}"/>
-    <hyperlink ref="E63" r:id="rId62" xr:uid="{35E24552-4BD2-4643-8BC5-2933C5863306}"/>
+    <hyperlink ref="E64" r:id="rId62" xr:uid="{35E24552-4BD2-4643-8BC5-2933C5863306}"/>
     <hyperlink ref="E54" r:id="rId63" xr:uid="{59C100E4-5D91-46FA-A9CF-7FC950AC6162}"/>
     <hyperlink ref="E55" r:id="rId64" xr:uid="{27B81F4A-B5A2-4B95-B182-8E237716E03C}"/>
     <hyperlink ref="E56" r:id="rId65" xr:uid="{BBBA124A-D9A7-49CF-9B5E-6218C904469C}"/>
-    <hyperlink ref="E74" r:id="rId66" xr:uid="{BC23E410-1E83-43B7-B83C-8F7E64BB9146}"/>
-    <hyperlink ref="E76" r:id="rId67" xr:uid="{F2AEE35C-42C1-4BFE-B760-AA86FE091591}"/>
-    <hyperlink ref="E72" r:id="rId68" xr:uid="{CBE85328-B553-4738-90B3-7F3A5579E07D}"/>
+    <hyperlink ref="E75" r:id="rId66" xr:uid="{BC23E410-1E83-43B7-B83C-8F7E64BB9146}"/>
+    <hyperlink ref="E77" r:id="rId67" xr:uid="{F2AEE35C-42C1-4BFE-B760-AA86FE091591}"/>
+    <hyperlink ref="E73" r:id="rId68" xr:uid="{CBE85328-B553-4738-90B3-7F3A5579E07D}"/>
     <hyperlink ref="E52" r:id="rId69" xr:uid="{5319E4AF-8DD0-4C01-A448-C6A50345BF6D}"/>
-    <hyperlink ref="E82" r:id="rId70" xr:uid="{105DD274-8872-41F3-9AEE-CB0929A91BD7}"/>
-    <hyperlink ref="E75" r:id="rId71" xr:uid="{E4C036B5-8E63-4154-81B7-386C17DE26F0}"/>
-    <hyperlink ref="E78" r:id="rId72" xr:uid="{EA050D64-47A3-4EF1-B293-1513E65F8A17}"/>
+    <hyperlink ref="E83" r:id="rId70" xr:uid="{105DD274-8872-41F3-9AEE-CB0929A91BD7}"/>
+    <hyperlink ref="E76" r:id="rId71" xr:uid="{E4C036B5-8E63-4154-81B7-386C17DE26F0}"/>
+    <hyperlink ref="E79" r:id="rId72" xr:uid="{EA050D64-47A3-4EF1-B293-1513E65F8A17}"/>
     <hyperlink ref="E24" r:id="rId73" xr:uid="{FE69776B-DAB8-458E-A1CC-CC4D45FB990E}"/>
     <hyperlink ref="E21" r:id="rId74" xr:uid="{B8709E17-82C3-4C15-AFCA-FDBC6C0E3742}"/>
     <hyperlink ref="E37" r:id="rId75" xr:uid="{AD9E04E9-7330-4AEB-B1D5-0D658D10BE4C}"/>
@@ -2745,11 +2804,13 @@
     <hyperlink ref="E12" r:id="rId78" xr:uid="{8507CF97-BF71-48EE-BF72-FBA48E58E257}"/>
     <hyperlink ref="E6" r:id="rId79" xr:uid="{2AD287B9-A515-4B7A-9193-19E3FF1CE180}"/>
     <hyperlink ref="E35" r:id="rId80" xr:uid="{BFE39045-5577-49A9-89A1-E0DB4996C6DA}"/>
-    <hyperlink ref="E16" r:id="rId81" xr:uid="{2CE98761-AD59-4695-BE00-67D2A022A16D}"/>
-    <hyperlink ref="E53" r:id="rId82" xr:uid="{8B63BAC3-AAA6-455E-AE1C-8772DBB5A56E}"/>
-    <hyperlink ref="E26" r:id="rId83" xr:uid="{78C7F296-E3FD-48D3-BBE4-CD1D8A0AED49}"/>
+    <hyperlink ref="E53" r:id="rId81" xr:uid="{8B63BAC3-AAA6-455E-AE1C-8772DBB5A56E}"/>
+    <hyperlink ref="E26" r:id="rId82" xr:uid="{78C7F296-E3FD-48D3-BBE4-CD1D8A0AED49}"/>
+    <hyperlink ref="E63" r:id="rId83" xr:uid="{2C17C395-6C02-4456-85EF-9EAE2FEB6129}"/>
+    <hyperlink ref="E16" r:id="rId84" xr:uid="{2CE98761-AD59-4695-BE00-67D2A022A16D}"/>
+    <hyperlink ref="E86" r:id="rId85" xr:uid="{0EA24F29-464E-438F-8449-57D70968DEB4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId84"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId86"/>
 </worksheet>
 </file>
--- a/_site/data/methods.xlsx
+++ b/_site/data/methods.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My_R\overview_megadatabase\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4441A146-294D-41A5-8882-03AA79C0F66C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D94B3B6-C380-4B62-8298-C9210DFCE187}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D142A978-9658-4202-BF77-FF6002D5B3D1}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Φύλλο1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Φύλλο1!$A$1:$E$86</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Φύλλο1!$A$1:$E$88</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="270">
   <si>
     <t>first author</t>
   </si>
@@ -841,6 +841,18 @@
   </si>
   <si>
     <t>Annals of Translational Medicine</t>
+  </si>
+  <si>
+    <t>Quality ratings of reviews in overviews: a comparison of reviews with and without dual (co-)authorship</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1186/s13643-018-0722-9</t>
+  </si>
+  <si>
+    <t>LETTER TO THE EDITOR-Should authors of overviews of systematic reviews invite the authors of the systematic reviews they analysed to attempt to replicate or validate their methodological analysis?</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.jclinepi.2023.03.021</t>
   </si>
 </sst>
 </file>
@@ -908,7 +920,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -929,7 +941,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1245,11 +1256,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3C04B9F-2B89-4EC8-954F-BE264C2F59A5}">
-  <dimension ref="A1:E86"/>
+  <dimension ref="A1:E88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="B87" sqref="B87"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1602,172 +1611,172 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>227</v>
+        <v>103</v>
       </c>
       <c r="B21" t="s">
-        <v>228</v>
+        <v>268</v>
       </c>
       <c r="C21" s="3">
-        <v>2022</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>229</v>
+        <v>2023</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>230</v>
+        <v>269</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B22" t="s">
+        <v>228</v>
+      </c>
+      <c r="C22" s="3">
+        <v>2022</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>104</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C23" s="3">
         <v>2018</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D23" t="s">
         <v>106</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>8</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C24" s="3">
         <v>2020</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D24" t="s">
         <v>7</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24" t="s">
-        <v>224</v>
-      </c>
-      <c r="C24" s="3">
-        <v>2022</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>108</v>
+        <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>107</v>
+        <v>224</v>
       </c>
       <c r="C25" s="3">
-        <v>2020</v>
-      </c>
-      <c r="D25" t="s">
-        <v>35</v>
+        <v>2022</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>226</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>109</v>
+        <v>225</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B26" t="s">
+        <v>107</v>
+      </c>
+      <c r="C26" s="3">
+        <v>2020</v>
+      </c>
+      <c r="D26" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" t="s">
         <v>253</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C27" s="3">
         <v>2023</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D27" t="s">
         <v>254</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>12</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C28" s="3">
         <v>2012</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D28" t="s">
         <v>11</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B28" t="s">
-        <v>110</v>
-      </c>
-      <c r="C28" s="3">
-        <v>2014</v>
-      </c>
-      <c r="D28" t="s">
-        <v>82</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" t="s">
+        <v>110</v>
+      </c>
+      <c r="C29" s="3">
+        <v>2014</v>
+      </c>
+      <c r="D29" t="s">
+        <v>82</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B30" t="s">
         <v>111</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C30" s="3">
         <v>2012</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D30" t="s">
         <v>112</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>146</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>16</v>
-      </c>
-      <c r="B30" t="s">
-        <v>13</v>
-      </c>
-      <c r="C30" s="3">
-        <v>2019</v>
-      </c>
-      <c r="D30" t="s">
-        <v>14</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -1775,50 +1784,50 @@
         <v>16</v>
       </c>
       <c r="B31" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C31" s="3">
         <v>2019</v>
       </c>
       <c r="D31" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="3">
+        <v>2019</v>
+      </c>
+      <c r="D32" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>22</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B33" t="s">
         <v>20</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C33" s="3">
         <v>2018</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D33" t="s">
         <v>7</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E33" s="1" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B33" t="s">
-        <v>114</v>
-      </c>
-      <c r="C33" s="3">
-        <v>2009</v>
-      </c>
-      <c r="D33" t="s">
-        <v>116</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -1826,169 +1835,169 @@
         <v>115</v>
       </c>
       <c r="B34" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C34" s="3">
-        <v>2017</v>
+        <v>2009</v>
       </c>
       <c r="D34" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>247</v>
+        <v>115</v>
       </c>
       <c r="B35" t="s">
-        <v>245</v>
+        <v>117</v>
       </c>
       <c r="C35" s="3">
-        <v>2022</v>
+        <v>2017</v>
       </c>
       <c r="D35" t="s">
-        <v>7</v>
+        <v>118</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>246</v>
+        <v>148</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>120</v>
+        <v>247</v>
       </c>
       <c r="B36" t="s">
-        <v>119</v>
+        <v>245</v>
       </c>
       <c r="C36" s="3">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="D36" t="s">
-        <v>123</v>
+        <v>7</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>149</v>
+        <v>246</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>231</v>
+        <v>120</v>
       </c>
       <c r="B37" t="s">
-        <v>233</v>
+        <v>119</v>
       </c>
       <c r="C37" s="3">
-        <v>2022</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>7</v>
+        <v>2020</v>
+      </c>
+      <c r="D37" t="s">
+        <v>123</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>232</v>
+        <v>149</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>166</v>
+        <v>231</v>
       </c>
       <c r="B38" t="s">
-        <v>165</v>
+        <v>233</v>
       </c>
       <c r="C38" s="3">
         <v>2022</v>
       </c>
-      <c r="D38" t="s">
-        <v>167</v>
+      <c r="D38" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>168</v>
+        <v>232</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B39" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C39" s="3">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="D39" t="s">
-        <v>7</v>
+        <v>167</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="B40" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C40" s="3">
-        <v>2012</v>
+        <v>2019</v>
       </c>
       <c r="D40" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B41" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C41" s="3">
         <v>2012</v>
       </c>
       <c r="D41" t="s">
+        <v>49</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B42" t="s">
+        <v>182</v>
+      </c>
+      <c r="C42" s="3">
+        <v>2012</v>
+      </c>
+      <c r="D42" t="s">
         <v>184</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="E42" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
         <v>25</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B43" t="s">
         <v>23</v>
       </c>
-      <c r="C42" s="3">
+      <c r="C43" s="3">
         <v>2016</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D43" t="s">
         <v>24</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="E43" s="1" t="s">
         <v>125</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B43" t="s">
-        <v>26</v>
-      </c>
-      <c r="C43" s="3">
-        <v>2017</v>
-      </c>
-      <c r="D43" t="s">
-        <v>7</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
@@ -1996,16 +2005,16 @@
         <v>25</v>
       </c>
       <c r="B44" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C44" s="3">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D44" t="s">
         <v>7</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -2013,16 +2022,16 @@
         <v>25</v>
       </c>
       <c r="B45" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C45" s="3">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D45" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
@@ -2030,16 +2039,16 @@
         <v>25</v>
       </c>
       <c r="B46" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C46" s="3">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D46" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -2047,16 +2056,16 @@
         <v>25</v>
       </c>
       <c r="B47" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C47" s="3">
         <v>2021</v>
       </c>
       <c r="D47" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
@@ -2064,169 +2073,169 @@
         <v>25</v>
       </c>
       <c r="B48" t="s">
-        <v>235</v>
+        <v>34</v>
       </c>
       <c r="C48" s="3">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D48" t="s">
         <v>35</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>236</v>
+        <v>36</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="B49" t="s">
-        <v>54</v>
+        <v>235</v>
       </c>
       <c r="C49" s="3">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="D49" t="s">
         <v>35</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>37</v>
+        <v>236</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
-        <v>122</v>
+        <v>38</v>
       </c>
       <c r="B50" t="s">
-        <v>121</v>
+        <v>54</v>
       </c>
       <c r="C50" s="3">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="D50" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>124</v>
+        <v>37</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B51" t="s">
+        <v>121</v>
+      </c>
+      <c r="C51" s="3">
+        <v>2017</v>
+      </c>
+      <c r="D51" t="s">
+        <v>7</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B52" t="s">
         <v>186</v>
       </c>
-      <c r="C51" s="3">
+      <c r="C52" s="3">
         <v>2019</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D52" t="s">
         <v>68</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="E52" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="6" t="s">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B53" s="6" t="s">
         <v>213</v>
-      </c>
-      <c r="C52" s="3">
-        <v>2022</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E52" s="7" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="B53" t="s">
-        <v>251</v>
       </c>
       <c r="C53" s="3">
         <v>2022</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E53" s="1" t="s">
-        <v>252</v>
+      <c r="E53" s="7" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="B54" t="s">
-        <v>192</v>
+        <v>251</v>
       </c>
       <c r="C54" s="3">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D54" t="s">
-        <v>194</v>
+        <v>19</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>195</v>
+        <v>252</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="B55" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C55" s="3">
         <v>2021</v>
       </c>
       <c r="D55" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B56" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C56" s="3">
-        <v>2014</v>
+        <v>2021</v>
       </c>
       <c r="D56" t="s">
-        <v>19</v>
+        <v>197</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
-        <v>40</v>
+        <v>203</v>
       </c>
       <c r="B57" t="s">
-        <v>39</v>
+        <v>199</v>
       </c>
       <c r="C57" s="3">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="D57" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>126</v>
+        <v>200</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
@@ -2234,16 +2243,16 @@
         <v>40</v>
       </c>
       <c r="B58" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C58" s="3">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D58" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>42</v>
+        <v>126</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
@@ -2251,16 +2260,16 @@
         <v>40</v>
       </c>
       <c r="B59" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C59" s="3">
         <v>2014</v>
       </c>
       <c r="D59" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>127</v>
+        <v>42</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
@@ -2268,7 +2277,7 @@
         <v>40</v>
       </c>
       <c r="B60" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C60" s="3">
         <v>2014</v>
@@ -2277,7 +2286,7 @@
         <v>24</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
@@ -2285,16 +2294,16 @@
         <v>40</v>
       </c>
       <c r="B61" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C61" s="3">
         <v>2014</v>
       </c>
       <c r="D61" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>48</v>
+        <v>128</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
@@ -2302,84 +2311,84 @@
         <v>40</v>
       </c>
       <c r="B62" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C62" s="3">
-        <v>2021</v>
+        <v>2014</v>
       </c>
       <c r="D62" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
-        <v>258</v>
+        <v>40</v>
       </c>
       <c r="B63" t="s">
-        <v>257</v>
+        <v>50</v>
       </c>
       <c r="C63" s="3">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="D63" t="s">
-        <v>260</v>
+        <v>24</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>259</v>
+        <v>51</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
-        <v>190</v>
+        <v>40</v>
       </c>
       <c r="B64" t="s">
-        <v>188</v>
-      </c>
-      <c r="C64" s="5">
-        <v>2014</v>
+        <v>266</v>
+      </c>
+      <c r="C64" s="3">
+        <v>2018</v>
       </c>
       <c r="D64" t="s">
-        <v>68</v>
+        <v>7</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>191</v>
+        <v>267</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
-        <v>53</v>
+        <v>258</v>
       </c>
       <c r="B65" t="s">
-        <v>52</v>
+        <v>257</v>
       </c>
       <c r="C65" s="3">
-        <v>2016</v>
+        <v>2023</v>
       </c>
       <c r="D65" t="s">
-        <v>24</v>
+        <v>260</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>130</v>
+        <v>259</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
-        <v>53</v>
+        <v>190</v>
       </c>
       <c r="B66" t="s">
-        <v>55</v>
-      </c>
-      <c r="C66" s="3">
-        <v>2017</v>
+        <v>188</v>
+      </c>
+      <c r="C66" s="5">
+        <v>2014</v>
       </c>
       <c r="D66" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>131</v>
+        <v>191</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
@@ -2387,50 +2396,50 @@
         <v>53</v>
       </c>
       <c r="B67" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C67" s="3">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="D67" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B68" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C68" s="3">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D68" t="s">
         <v>7</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B69" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C69" s="3">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="D69" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="70" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -2438,16 +2447,16 @@
         <v>59</v>
       </c>
       <c r="B70" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C70" s="3">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="D70" t="s">
         <v>7</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>62</v>
+        <v>133</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
@@ -2455,16 +2464,16 @@
         <v>59</v>
       </c>
       <c r="B71" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C71" s="3">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="D71" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>64</v>
+        <v>134</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
@@ -2472,7 +2481,7 @@
         <v>59</v>
       </c>
       <c r="B72" t="s">
-        <v>160</v>
+        <v>61</v>
       </c>
       <c r="C72" s="3">
         <v>2019</v>
@@ -2481,281 +2490,315 @@
         <v>7</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>161</v>
+        <v>62</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
-        <v>211</v>
+        <v>59</v>
       </c>
       <c r="B73" t="s">
-        <v>210</v>
+        <v>63</v>
       </c>
       <c r="C73" s="3">
-        <v>2020</v>
-      </c>
-      <c r="D73" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E73" s="7" t="s">
-        <v>212</v>
+        <v>2019</v>
+      </c>
+      <c r="D73" t="s">
+        <v>7</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
-        <v>162</v>
+        <v>59</v>
       </c>
       <c r="B74" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C74" s="3">
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="D74" t="s">
         <v>7</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="B75" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="C75" s="3">
-        <v>2021</v>
-      </c>
-      <c r="D75" t="s">
-        <v>201</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>205</v>
+        <v>2020</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
-        <v>234</v>
+        <v>162</v>
       </c>
       <c r="B76" t="s">
-        <v>219</v>
+        <v>163</v>
       </c>
       <c r="C76" s="3">
-        <v>2022</v>
-      </c>
-      <c r="D76" s="6" t="s">
-        <v>24</v>
+        <v>2014</v>
+      </c>
+      <c r="D76" t="s">
+        <v>7</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>220</v>
+        <v>164</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B77" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C77" s="3">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D77" t="s">
-        <v>11</v>
+        <v>201</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
-        <v>67</v>
+        <v>234</v>
       </c>
       <c r="B78" t="s">
-        <v>65</v>
+        <v>219</v>
       </c>
       <c r="C78" s="3">
-        <v>2019</v>
-      </c>
-      <c r="D78" t="s">
-        <v>68</v>
+        <v>2022</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>66</v>
+        <v>220</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="B79" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="C79" s="3">
         <v>2022</v>
       </c>
-      <c r="D79" s="6" t="s">
-        <v>226</v>
+      <c r="D79" t="s">
+        <v>11</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B80" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C80" s="3">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="D80" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
-        <v>74</v>
+        <v>223</v>
       </c>
       <c r="B81" t="s">
-        <v>73</v>
+        <v>221</v>
       </c>
       <c r="C81" s="3">
-        <v>2011</v>
-      </c>
-      <c r="D81" t="s">
-        <v>35</v>
+        <v>2022</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>226</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>150</v>
+        <v>222</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B82" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C82" s="3">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="D82" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="6" t="s">
-        <v>218</v>
+      <c r="A83" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="B83" t="s">
-        <v>217</v>
+        <v>73</v>
       </c>
       <c r="C83" s="3">
-        <v>2022</v>
-      </c>
-      <c r="D83" s="6" t="s">
-        <v>19</v>
+        <v>2011</v>
+      </c>
+      <c r="D83" t="s">
+        <v>35</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>216</v>
+        <v>150</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B84" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C84" s="3">
-        <v>2011</v>
+        <v>2018</v>
       </c>
       <c r="D84" t="s">
+        <v>77</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="B85" t="s">
+        <v>217</v>
+      </c>
+      <c r="C85" s="3">
+        <v>2022</v>
+      </c>
+      <c r="D85" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E84" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A85" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B85" t="s">
-        <v>81</v>
-      </c>
-      <c r="C85" s="3">
-        <v>2013</v>
-      </c>
-      <c r="D85" t="s">
-        <v>82</v>
-      </c>
       <c r="E85" s="1" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B86" t="s">
+        <v>79</v>
+      </c>
+      <c r="C86" s="3">
+        <v>2011</v>
+      </c>
+      <c r="D86" t="s">
+        <v>19</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B87" t="s">
+        <v>81</v>
+      </c>
+      <c r="C87" s="3">
+        <v>2013</v>
+      </c>
+      <c r="D87" t="s">
+        <v>82</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="B86" s="8" t="s">
+      <c r="B88" t="s">
         <v>262</v>
       </c>
-      <c r="C86" s="3">
+      <c r="C88" s="3">
         <v>2022</v>
       </c>
-      <c r="D86" t="s">
+      <c r="D88" t="s">
         <v>265</v>
       </c>
-      <c r="E86" s="1" t="s">
+      <c r="E88" s="1" t="s">
         <v>264</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E23" r:id="rId1" xr:uid="{F6233517-0866-4B0A-B501-654979DF1645}"/>
-    <hyperlink ref="E27" r:id="rId2" xr:uid="{CBD7CBEE-D091-4342-A7E0-41DE558F1037}"/>
-    <hyperlink ref="E30" r:id="rId3" xr:uid="{225B3A1D-B3F0-4695-9FC4-4F153794A4FC}"/>
-    <hyperlink ref="E31" r:id="rId4" xr:uid="{7A1A6A3D-3414-4BF6-BEDD-0EE0347C319E}"/>
-    <hyperlink ref="E32" r:id="rId5" xr:uid="{4CEF4617-6BD3-44D3-8DC1-60D790061756}"/>
-    <hyperlink ref="E42" r:id="rId6" xr:uid="{7D05E552-8270-4F5D-AC46-1ED37444A309}"/>
-    <hyperlink ref="E43" r:id="rId7" xr:uid="{6C173CBA-3446-4E84-9A3E-965DF6C6C088}"/>
-    <hyperlink ref="E44" r:id="rId8" xr:uid="{1846651B-6412-4AFB-AFB8-F96A2B371A6C}"/>
-    <hyperlink ref="E45" r:id="rId9" xr:uid="{C7270FA0-2830-4BB7-B110-850D8F971AEE}"/>
-    <hyperlink ref="E46" r:id="rId10" xr:uid="{D8221DFD-AF62-413A-9472-7B2D09F8AB38}"/>
-    <hyperlink ref="E47" r:id="rId11" xr:uid="{92989DC9-D56C-47D5-BFEE-71F6C0F3A548}"/>
-    <hyperlink ref="E49" r:id="rId12" xr:uid="{5B9642B1-4705-45AB-89BE-F072B333EBB6}"/>
-    <hyperlink ref="E57" r:id="rId13" xr:uid="{F05B4BA6-E510-400E-8A22-DBADEF073FBF}"/>
-    <hyperlink ref="E58" r:id="rId14" xr:uid="{3BF46FAB-1246-4475-A357-107735FE4BDF}"/>
-    <hyperlink ref="E59" r:id="rId15" xr:uid="{D048DBA0-6B3B-4476-A0C3-4EB3819321C8}"/>
-    <hyperlink ref="E60" r:id="rId16" xr:uid="{1437ABFF-76B7-4768-9BD6-04546FB41212}"/>
+    <hyperlink ref="E24" r:id="rId1" xr:uid="{F6233517-0866-4B0A-B501-654979DF1645}"/>
+    <hyperlink ref="E28" r:id="rId2" xr:uid="{CBD7CBEE-D091-4342-A7E0-41DE558F1037}"/>
+    <hyperlink ref="E31" r:id="rId3" xr:uid="{225B3A1D-B3F0-4695-9FC4-4F153794A4FC}"/>
+    <hyperlink ref="E32" r:id="rId4" xr:uid="{7A1A6A3D-3414-4BF6-BEDD-0EE0347C319E}"/>
+    <hyperlink ref="E33" r:id="rId5" xr:uid="{4CEF4617-6BD3-44D3-8DC1-60D790061756}"/>
+    <hyperlink ref="E43" r:id="rId6" xr:uid="{7D05E552-8270-4F5D-AC46-1ED37444A309}"/>
+    <hyperlink ref="E44" r:id="rId7" xr:uid="{6C173CBA-3446-4E84-9A3E-965DF6C6C088}"/>
+    <hyperlink ref="E45" r:id="rId8" xr:uid="{1846651B-6412-4AFB-AFB8-F96A2B371A6C}"/>
+    <hyperlink ref="E46" r:id="rId9" xr:uid="{C7270FA0-2830-4BB7-B110-850D8F971AEE}"/>
+    <hyperlink ref="E47" r:id="rId10" xr:uid="{D8221DFD-AF62-413A-9472-7B2D09F8AB38}"/>
+    <hyperlink ref="E48" r:id="rId11" xr:uid="{92989DC9-D56C-47D5-BFEE-71F6C0F3A548}"/>
+    <hyperlink ref="E50" r:id="rId12" xr:uid="{5B9642B1-4705-45AB-89BE-F072B333EBB6}"/>
+    <hyperlink ref="E58" r:id="rId13" xr:uid="{F05B4BA6-E510-400E-8A22-DBADEF073FBF}"/>
+    <hyperlink ref="E59" r:id="rId14" xr:uid="{3BF46FAB-1246-4475-A357-107735FE4BDF}"/>
+    <hyperlink ref="E60" r:id="rId15" xr:uid="{D048DBA0-6B3B-4476-A0C3-4EB3819321C8}"/>
+    <hyperlink ref="E61" r:id="rId16" xr:uid="{1437ABFF-76B7-4768-9BD6-04546FB41212}"/>
     <hyperlink ref="E13" r:id="rId17" xr:uid="{DF9385FD-36DB-4A19-8CBC-22A0966BA589}"/>
-    <hyperlink ref="E61" r:id="rId18" xr:uid="{A49C63A5-4761-4004-903F-BDC70A97AEB9}"/>
-    <hyperlink ref="E62" r:id="rId19" xr:uid="{475B209A-E520-460B-B1CA-985518CA6942}"/>
-    <hyperlink ref="E65" r:id="rId20" xr:uid="{365A4CF1-32B5-4CD5-8ACD-8871125C9A40}"/>
-    <hyperlink ref="E66" r:id="rId21" xr:uid="{F2B048DB-66F1-433F-824F-55CCC95C49F5}"/>
-    <hyperlink ref="E67" r:id="rId22" xr:uid="{B72A565C-741D-4F46-9AF2-3331FE245855}"/>
-    <hyperlink ref="E68" r:id="rId23" xr:uid="{81A40882-ACC5-427E-BC31-0390936D9ADA}"/>
-    <hyperlink ref="E69" r:id="rId24" xr:uid="{BAC61EA9-3ABF-4FBA-AB98-603E87B01642}"/>
-    <hyperlink ref="E70" r:id="rId25" xr:uid="{F311DB40-30CB-49FF-89EB-8929E8CC149D}"/>
-    <hyperlink ref="E71" r:id="rId26" xr:uid="{B1672B26-3311-4AB8-8DB8-10AB5E887662}"/>
-    <hyperlink ref="E78" r:id="rId27" xr:uid="{E1CC58C1-4BAD-4445-B722-3DC7F9057180}"/>
-    <hyperlink ref="E80" r:id="rId28" xr:uid="{AF7EF548-2486-4D16-93AD-8972177ECDC3}"/>
-    <hyperlink ref="E81" r:id="rId29" xr:uid="{24D15E37-D60C-432F-9CED-DCB5F84A8EA1}"/>
-    <hyperlink ref="E82" r:id="rId30" xr:uid="{E65E5986-C0ED-4D73-B262-03C37CE34824}"/>
-    <hyperlink ref="E84" r:id="rId31" xr:uid="{48A3DD7D-15A4-49DF-9BB8-0BF37E9BA8BF}"/>
-    <hyperlink ref="E85" r:id="rId32" xr:uid="{EB968D9A-2B1C-4356-8976-E3B995613790}"/>
+    <hyperlink ref="E62" r:id="rId18" xr:uid="{A49C63A5-4761-4004-903F-BDC70A97AEB9}"/>
+    <hyperlink ref="E63" r:id="rId19" xr:uid="{475B209A-E520-460B-B1CA-985518CA6942}"/>
+    <hyperlink ref="E67" r:id="rId20" xr:uid="{365A4CF1-32B5-4CD5-8ACD-8871125C9A40}"/>
+    <hyperlink ref="E68" r:id="rId21" xr:uid="{F2B048DB-66F1-433F-824F-55CCC95C49F5}"/>
+    <hyperlink ref="E69" r:id="rId22" xr:uid="{B72A565C-741D-4F46-9AF2-3331FE245855}"/>
+    <hyperlink ref="E70" r:id="rId23" xr:uid="{81A40882-ACC5-427E-BC31-0390936D9ADA}"/>
+    <hyperlink ref="E71" r:id="rId24" xr:uid="{BAC61EA9-3ABF-4FBA-AB98-603E87B01642}"/>
+    <hyperlink ref="E72" r:id="rId25" xr:uid="{F311DB40-30CB-49FF-89EB-8929E8CC149D}"/>
+    <hyperlink ref="E73" r:id="rId26" xr:uid="{B1672B26-3311-4AB8-8DB8-10AB5E887662}"/>
+    <hyperlink ref="E80" r:id="rId27" xr:uid="{E1CC58C1-4BAD-4445-B722-3DC7F9057180}"/>
+    <hyperlink ref="E82" r:id="rId28" xr:uid="{AF7EF548-2486-4D16-93AD-8972177ECDC3}"/>
+    <hyperlink ref="E83" r:id="rId29" xr:uid="{24D15E37-D60C-432F-9CED-DCB5F84A8EA1}"/>
+    <hyperlink ref="E84" r:id="rId30" xr:uid="{E65E5986-C0ED-4D73-B262-03C37CE34824}"/>
+    <hyperlink ref="E86" r:id="rId31" xr:uid="{48A3DD7D-15A4-49DF-9BB8-0BF37E9BA8BF}"/>
+    <hyperlink ref="E87" r:id="rId32" xr:uid="{EB968D9A-2B1C-4356-8976-E3B995613790}"/>
     <hyperlink ref="E3" r:id="rId33" xr:uid="{B8FCB838-5B1C-4D4C-B527-4AB9924EB2D3}"/>
     <hyperlink ref="E4" r:id="rId34" xr:uid="{025C23AA-1E34-4632-B635-9FA1B738A3E9}"/>
     <hyperlink ref="E5" r:id="rId35" xr:uid="{C7F936C0-3049-4E9A-8E0A-D27C6AB16FBC}"/>
@@ -2764,53 +2807,55 @@
     <hyperlink ref="E17" r:id="rId38" xr:uid="{4692811E-5658-4F6D-888F-1FA57CB69055}"/>
     <hyperlink ref="E19" r:id="rId39" xr:uid="{77B6D308-44FF-4E92-BBFB-EF9AD6EA9A68}"/>
     <hyperlink ref="E20" r:id="rId40" xr:uid="{7AFECFFC-8ADB-41C7-841B-216E556AAA4F}"/>
-    <hyperlink ref="E22" r:id="rId41" xr:uid="{DB25165C-39D2-4A45-B455-85A8EEDFE6B6}"/>
-    <hyperlink ref="E25" r:id="rId42" xr:uid="{458C6FF6-3543-45CE-9606-8A3082F62F0A}"/>
-    <hyperlink ref="E28" r:id="rId43" xr:uid="{94EFA63E-CE0C-4475-A396-18D53D8A6EC4}"/>
-    <hyperlink ref="E29" r:id="rId44" xr:uid="{92D4FFEE-7B65-4017-A716-809C7F8B0E04}"/>
-    <hyperlink ref="E33" r:id="rId45" xr:uid="{0B76847B-6C94-4E2D-A094-FCE72CC29EBF}"/>
-    <hyperlink ref="E34" r:id="rId46" xr:uid="{81C1C27A-8200-4CB8-8CA5-E4B85D519FDA}"/>
-    <hyperlink ref="E36" r:id="rId47" xr:uid="{B80CDD91-38DA-4375-88A0-B543FE2A3CCB}"/>
-    <hyperlink ref="E50" r:id="rId48" xr:uid="{085EF44D-1625-46A8-B320-B4D73C2793C3}"/>
+    <hyperlink ref="E23" r:id="rId41" xr:uid="{DB25165C-39D2-4A45-B455-85A8EEDFE6B6}"/>
+    <hyperlink ref="E26" r:id="rId42" xr:uid="{458C6FF6-3543-45CE-9606-8A3082F62F0A}"/>
+    <hyperlink ref="E29" r:id="rId43" xr:uid="{94EFA63E-CE0C-4475-A396-18D53D8A6EC4}"/>
+    <hyperlink ref="E30" r:id="rId44" xr:uid="{92D4FFEE-7B65-4017-A716-809C7F8B0E04}"/>
+    <hyperlink ref="E34" r:id="rId45" xr:uid="{0B76847B-6C94-4E2D-A094-FCE72CC29EBF}"/>
+    <hyperlink ref="E35" r:id="rId46" xr:uid="{81C1C27A-8200-4CB8-8CA5-E4B85D519FDA}"/>
+    <hyperlink ref="E37" r:id="rId47" xr:uid="{B80CDD91-38DA-4375-88A0-B543FE2A3CCB}"/>
+    <hyperlink ref="E51" r:id="rId48" xr:uid="{085EF44D-1625-46A8-B320-B4D73C2793C3}"/>
     <hyperlink ref="E7" r:id="rId49" xr:uid="{9050D2E2-A996-4813-BDAB-90A6E969B393}"/>
     <hyperlink ref="E8" r:id="rId50" xr:uid="{3FB58120-E5D0-4688-A553-FA719EE8AF86}"/>
     <hyperlink ref="E9" r:id="rId51" xr:uid="{27E6CD87-1D85-4CFF-82C0-B75E68882093}"/>
     <hyperlink ref="E10" r:id="rId52" xr:uid="{5726F0E2-EBA2-49FB-B482-C266FBD309BF}"/>
-    <hyperlink ref="E72" r:id="rId53" xr:uid="{34EFA9BA-9C8C-4881-A64C-2F70C6927793}"/>
-    <hyperlink ref="E74" r:id="rId54" xr:uid="{FE82914B-DA2F-43D9-856E-F8B21C1D980D}"/>
-    <hyperlink ref="E38" r:id="rId55" xr:uid="{49BBE16D-F3C9-4615-B1B4-B8FA17A26DD4}"/>
-    <hyperlink ref="E39" r:id="rId56" xr:uid="{1A356FB0-7765-46F0-BC27-98202B7BF4A6}"/>
+    <hyperlink ref="E74" r:id="rId53" xr:uid="{34EFA9BA-9C8C-4881-A64C-2F70C6927793}"/>
+    <hyperlink ref="E76" r:id="rId54" xr:uid="{FE82914B-DA2F-43D9-856E-F8B21C1D980D}"/>
+    <hyperlink ref="E39" r:id="rId55" xr:uid="{49BBE16D-F3C9-4615-B1B4-B8FA17A26DD4}"/>
+    <hyperlink ref="E40" r:id="rId56" xr:uid="{1A356FB0-7765-46F0-BC27-98202B7BF4A6}"/>
     <hyperlink ref="E2" r:id="rId57" xr:uid="{3BAF40B7-94EB-4B77-B83C-2E2E101DCD73}"/>
     <hyperlink ref="E18" r:id="rId58" xr:uid="{5012CD22-B9C1-451C-B278-3127E823477E}"/>
-    <hyperlink ref="E40" r:id="rId59" xr:uid="{B44F470F-A038-4D03-B4FC-3A710C4A1E53}"/>
-    <hyperlink ref="E41" r:id="rId60" xr:uid="{1B9F5F78-B40E-4B01-BBE4-7D5D05B0494D}"/>
-    <hyperlink ref="E51" r:id="rId61" xr:uid="{C51AD600-C6A8-4CD8-A6ED-A309C6A9E5FF}"/>
-    <hyperlink ref="E64" r:id="rId62" xr:uid="{35E24552-4BD2-4643-8BC5-2933C5863306}"/>
-    <hyperlink ref="E54" r:id="rId63" xr:uid="{59C100E4-5D91-46FA-A9CF-7FC950AC6162}"/>
-    <hyperlink ref="E55" r:id="rId64" xr:uid="{27B81F4A-B5A2-4B95-B182-8E237716E03C}"/>
-    <hyperlink ref="E56" r:id="rId65" xr:uid="{BBBA124A-D9A7-49CF-9B5E-6218C904469C}"/>
-    <hyperlink ref="E75" r:id="rId66" xr:uid="{BC23E410-1E83-43B7-B83C-8F7E64BB9146}"/>
-    <hyperlink ref="E77" r:id="rId67" xr:uid="{F2AEE35C-42C1-4BFE-B760-AA86FE091591}"/>
-    <hyperlink ref="E73" r:id="rId68" xr:uid="{CBE85328-B553-4738-90B3-7F3A5579E07D}"/>
-    <hyperlink ref="E52" r:id="rId69" xr:uid="{5319E4AF-8DD0-4C01-A448-C6A50345BF6D}"/>
-    <hyperlink ref="E83" r:id="rId70" xr:uid="{105DD274-8872-41F3-9AEE-CB0929A91BD7}"/>
-    <hyperlink ref="E76" r:id="rId71" xr:uid="{E4C036B5-8E63-4154-81B7-386C17DE26F0}"/>
-    <hyperlink ref="E79" r:id="rId72" xr:uid="{EA050D64-47A3-4EF1-B293-1513E65F8A17}"/>
-    <hyperlink ref="E24" r:id="rId73" xr:uid="{FE69776B-DAB8-458E-A1CC-CC4D45FB990E}"/>
-    <hyperlink ref="E21" r:id="rId74" xr:uid="{B8709E17-82C3-4C15-AFCA-FDBC6C0E3742}"/>
-    <hyperlink ref="E37" r:id="rId75" xr:uid="{AD9E04E9-7330-4AEB-B1D5-0D658D10BE4C}"/>
-    <hyperlink ref="E48" r:id="rId76" xr:uid="{2D09DA48-0CC3-4E7B-88DF-4906ADFE3995}"/>
+    <hyperlink ref="E41" r:id="rId59" xr:uid="{B44F470F-A038-4D03-B4FC-3A710C4A1E53}"/>
+    <hyperlink ref="E42" r:id="rId60" xr:uid="{1B9F5F78-B40E-4B01-BBE4-7D5D05B0494D}"/>
+    <hyperlink ref="E52" r:id="rId61" xr:uid="{C51AD600-C6A8-4CD8-A6ED-A309C6A9E5FF}"/>
+    <hyperlink ref="E66" r:id="rId62" xr:uid="{35E24552-4BD2-4643-8BC5-2933C5863306}"/>
+    <hyperlink ref="E55" r:id="rId63" xr:uid="{59C100E4-5D91-46FA-A9CF-7FC950AC6162}"/>
+    <hyperlink ref="E56" r:id="rId64" xr:uid="{27B81F4A-B5A2-4B95-B182-8E237716E03C}"/>
+    <hyperlink ref="E57" r:id="rId65" xr:uid="{BBBA124A-D9A7-49CF-9B5E-6218C904469C}"/>
+    <hyperlink ref="E77" r:id="rId66" xr:uid="{BC23E410-1E83-43B7-B83C-8F7E64BB9146}"/>
+    <hyperlink ref="E79" r:id="rId67" xr:uid="{F2AEE35C-42C1-4BFE-B760-AA86FE091591}"/>
+    <hyperlink ref="E75" r:id="rId68" xr:uid="{CBE85328-B553-4738-90B3-7F3A5579E07D}"/>
+    <hyperlink ref="E53" r:id="rId69" xr:uid="{5319E4AF-8DD0-4C01-A448-C6A50345BF6D}"/>
+    <hyperlink ref="E85" r:id="rId70" xr:uid="{105DD274-8872-41F3-9AEE-CB0929A91BD7}"/>
+    <hyperlink ref="E78" r:id="rId71" xr:uid="{E4C036B5-8E63-4154-81B7-386C17DE26F0}"/>
+    <hyperlink ref="E81" r:id="rId72" xr:uid="{EA050D64-47A3-4EF1-B293-1513E65F8A17}"/>
+    <hyperlink ref="E25" r:id="rId73" xr:uid="{FE69776B-DAB8-458E-A1CC-CC4D45FB990E}"/>
+    <hyperlink ref="E22" r:id="rId74" xr:uid="{B8709E17-82C3-4C15-AFCA-FDBC6C0E3742}"/>
+    <hyperlink ref="E38" r:id="rId75" xr:uid="{AD9E04E9-7330-4AEB-B1D5-0D658D10BE4C}"/>
+    <hyperlink ref="E49" r:id="rId76" xr:uid="{2D09DA48-0CC3-4E7B-88DF-4906ADFE3995}"/>
     <hyperlink ref="E11" r:id="rId77" xr:uid="{B5D6E16B-F7EF-4C36-9A76-398183A004C2}"/>
     <hyperlink ref="E12" r:id="rId78" xr:uid="{8507CF97-BF71-48EE-BF72-FBA48E58E257}"/>
     <hyperlink ref="E6" r:id="rId79" xr:uid="{2AD287B9-A515-4B7A-9193-19E3FF1CE180}"/>
-    <hyperlink ref="E35" r:id="rId80" xr:uid="{BFE39045-5577-49A9-89A1-E0DB4996C6DA}"/>
-    <hyperlink ref="E53" r:id="rId81" xr:uid="{8B63BAC3-AAA6-455E-AE1C-8772DBB5A56E}"/>
-    <hyperlink ref="E26" r:id="rId82" xr:uid="{78C7F296-E3FD-48D3-BBE4-CD1D8A0AED49}"/>
-    <hyperlink ref="E63" r:id="rId83" xr:uid="{2C17C395-6C02-4456-85EF-9EAE2FEB6129}"/>
+    <hyperlink ref="E36" r:id="rId80" xr:uid="{BFE39045-5577-49A9-89A1-E0DB4996C6DA}"/>
+    <hyperlink ref="E54" r:id="rId81" xr:uid="{8B63BAC3-AAA6-455E-AE1C-8772DBB5A56E}"/>
+    <hyperlink ref="E27" r:id="rId82" xr:uid="{78C7F296-E3FD-48D3-BBE4-CD1D8A0AED49}"/>
+    <hyperlink ref="E65" r:id="rId83" xr:uid="{2C17C395-6C02-4456-85EF-9EAE2FEB6129}"/>
     <hyperlink ref="E16" r:id="rId84" xr:uid="{2CE98761-AD59-4695-BE00-67D2A022A16D}"/>
-    <hyperlink ref="E86" r:id="rId85" xr:uid="{0EA24F29-464E-438F-8449-57D70968DEB4}"/>
+    <hyperlink ref="E88" r:id="rId85" xr:uid="{0EA24F29-464E-438F-8449-57D70968DEB4}"/>
+    <hyperlink ref="E64" r:id="rId86" xr:uid="{7CA4D10A-241E-4304-AA2F-B33937FF70DE}"/>
+    <hyperlink ref="E21" r:id="rId87" xr:uid="{ADE8BB04-288B-41A9-945F-A11F2B5E5D98}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId86"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId88"/>
 </worksheet>
 </file>
--- a/_site/data/methods.xlsx
+++ b/_site/data/methods.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My_R\overview_megadatabase\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D94B3B6-C380-4B62-8298-C9210DFCE187}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCA75209-89DC-4E9A-B3BD-0A0ACB5B2064}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D142A978-9658-4202-BF77-FF6002D5B3D1}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Φύλλο1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Φύλλο1!$A$1:$E$88</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Φύλλο1!$A$1:$E$91</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="279">
   <si>
     <t>first author</t>
   </si>
@@ -853,6 +853,33 @@
   </si>
   <si>
     <t>https://doi.org/10.1016/j.jclinepi.2023.03.021</t>
+  </si>
+  <si>
+    <t>A methodological review finds mismatch between overall and pairwise overlap analysis in a sample of overviews</t>
+  </si>
+  <si>
+    <t>Bracchiglione J.</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.jclinepi.2023.05.006</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3344/kjp.2022.35.2.127</t>
+  </si>
+  <si>
+    <t>EDITORIAL-The umbrella review: a useful strategy in the rain of evidence</t>
+  </si>
+  <si>
+    <t>The Korean Journal of Pain</t>
+  </si>
+  <si>
+    <t>Overviews of reviews in the cardiovascular field underreported critical methodological and transparency characteristics: a methodological study based on the PRIOR statement</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.jclinepi.2023.05.018</t>
+  </si>
+  <si>
+    <t>Pamporis K.</t>
   </si>
 </sst>
 </file>
@@ -1256,9 +1283,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3C04B9F-2B89-4EC8-954F-BE264C2F59A5}">
-  <dimension ref="A1:E88"/>
+  <dimension ref="A1:E91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="E91" sqref="E91"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1475,563 +1504,563 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>46</v>
+        <v>271</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>270</v>
       </c>
       <c r="C13" s="3">
-        <v>2016</v>
+        <v>2023</v>
       </c>
       <c r="D13" t="s">
         <v>24</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>129</v>
+        <v>272</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>92</v>
+        <v>46</v>
       </c>
       <c r="B14" t="s">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="C14" s="3">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D14" t="s">
-        <v>93</v>
+        <v>24</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B15" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C15" s="3">
-        <v>2010</v>
+        <v>2015</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>93</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>249</v>
+        <v>95</v>
       </c>
       <c r="B16" t="s">
-        <v>248</v>
+        <v>94</v>
       </c>
       <c r="C16" s="3">
-        <v>2023</v>
+        <v>2010</v>
       </c>
       <c r="D16" t="s">
-        <v>250</v>
+        <v>24</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>261</v>
+        <v>141</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>98</v>
+        <v>249</v>
       </c>
       <c r="B17" t="s">
-        <v>96</v>
+        <v>248</v>
       </c>
       <c r="C17" s="3">
-        <v>2014</v>
+        <v>2023</v>
       </c>
       <c r="D17" t="s">
-        <v>97</v>
+        <v>250</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>142</v>
+        <v>261</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>176</v>
+        <v>249</v>
       </c>
       <c r="B18" t="s">
-        <v>175</v>
+        <v>274</v>
       </c>
       <c r="C18" s="3">
-        <v>2012</v>
+        <v>2023</v>
       </c>
       <c r="D18" t="s">
-        <v>178</v>
+        <v>275</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>177</v>
+        <v>273</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B19" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C19" s="3">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="D19" t="s">
-        <v>35</v>
+        <v>97</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>103</v>
+        <v>176</v>
       </c>
       <c r="B20" t="s">
-        <v>101</v>
+        <v>175</v>
       </c>
       <c r="C20" s="3">
-        <v>2019</v>
+        <v>2012</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>178</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>102</v>
+        <v>177</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B21" t="s">
-        <v>268</v>
+        <v>99</v>
       </c>
       <c r="C21" s="3">
-        <v>2023</v>
+        <v>2015</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>269</v>
+        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>227</v>
+        <v>103</v>
       </c>
       <c r="B22" t="s">
-        <v>228</v>
+        <v>101</v>
       </c>
       <c r="C22" s="3">
-        <v>2022</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>229</v>
+        <v>2019</v>
+      </c>
+      <c r="D22" t="s">
+        <v>24</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>230</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B23" t="s">
-        <v>104</v>
+        <v>268</v>
       </c>
       <c r="C23" s="3">
-        <v>2018</v>
+        <v>2023</v>
       </c>
       <c r="D23" t="s">
-        <v>106</v>
+        <v>24</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>144</v>
+        <v>269</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>8</v>
+      <c r="A24" s="4" t="s">
+        <v>227</v>
       </c>
       <c r="B24" t="s">
-        <v>5</v>
+        <v>228</v>
       </c>
       <c r="C24" s="3">
-        <v>2020</v>
-      </c>
-      <c r="D24" t="s">
-        <v>7</v>
+        <v>2022</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>229</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>6</v>
+        <v>230</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B25" t="s">
+        <v>104</v>
+      </c>
+      <c r="C25" s="3">
+        <v>2018</v>
+      </c>
+      <c r="D25" t="s">
+        <v>106</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>8</v>
       </c>
-      <c r="B25" t="s">
-        <v>224</v>
-      </c>
-      <c r="C25" s="3">
-        <v>2022</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
-        <v>108</v>
-      </c>
       <c r="B26" t="s">
-        <v>107</v>
+        <v>5</v>
       </c>
       <c r="C26" s="3">
         <v>2020</v>
       </c>
       <c r="D26" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>109</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>256</v>
+        <v>8</v>
       </c>
       <c r="B27" t="s">
-        <v>253</v>
+        <v>224</v>
       </c>
       <c r="C27" s="3">
-        <v>2023</v>
-      </c>
-      <c r="D27" t="s">
-        <v>254</v>
+        <v>2022</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>226</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>255</v>
+        <v>225</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>12</v>
+      <c r="A28" s="4" t="s">
+        <v>108</v>
       </c>
       <c r="B28" t="s">
-        <v>9</v>
+        <v>107</v>
       </c>
       <c r="C28" s="3">
-        <v>2012</v>
+        <v>2020</v>
       </c>
       <c r="D28" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="B29" t="s">
+        <v>253</v>
+      </c>
+      <c r="C29" s="3">
+        <v>2023</v>
+      </c>
+      <c r="D29" t="s">
+        <v>254</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>12</v>
       </c>
-      <c r="B29" t="s">
-        <v>110</v>
-      </c>
-      <c r="C29" s="3">
-        <v>2014</v>
-      </c>
-      <c r="D29" t="s">
-        <v>82</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
-        <v>113</v>
-      </c>
       <c r="B30" t="s">
-        <v>111</v>
+        <v>9</v>
       </c>
       <c r="C30" s="3">
         <v>2012</v>
       </c>
       <c r="D30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" t="s">
+        <v>110</v>
+      </c>
+      <c r="C31" s="3">
+        <v>2014</v>
+      </c>
+      <c r="D31" t="s">
+        <v>82</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B32" t="s">
+        <v>111</v>
+      </c>
+      <c r="C32" s="3">
+        <v>2012</v>
+      </c>
+      <c r="D32" t="s">
         <v>112</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E32" s="1" t="s">
         <v>146</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>16</v>
-      </c>
-      <c r="B31" t="s">
-        <v>13</v>
-      </c>
-      <c r="C31" s="3">
-        <v>2019</v>
-      </c>
-      <c r="D31" t="s">
-        <v>14</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>16</v>
-      </c>
-      <c r="B32" t="s">
-        <v>17</v>
-      </c>
-      <c r="C32" s="3">
-        <v>2019</v>
-      </c>
-      <c r="D32" t="s">
-        <v>19</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="3">
+        <v>2019</v>
+      </c>
+      <c r="D33" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" s="3">
+        <v>2019</v>
+      </c>
+      <c r="D34" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>22</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B35" t="s">
         <v>20</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C35" s="3">
         <v>2018</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D35" t="s">
         <v>7</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E35" s="1" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B34" t="s">
-        <v>114</v>
-      </c>
-      <c r="C34" s="3">
-        <v>2009</v>
-      </c>
-      <c r="D34" t="s">
-        <v>116</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B35" t="s">
-        <v>117</v>
-      </c>
-      <c r="C35" s="3">
-        <v>2017</v>
-      </c>
-      <c r="D35" t="s">
-        <v>118</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>247</v>
+        <v>115</v>
       </c>
       <c r="B36" t="s">
-        <v>245</v>
+        <v>114</v>
       </c>
       <c r="C36" s="3">
-        <v>2022</v>
+        <v>2009</v>
       </c>
       <c r="D36" t="s">
-        <v>7</v>
+        <v>116</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>246</v>
+        <v>147</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B37" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C37" s="3">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="D37" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>231</v>
+        <v>247</v>
       </c>
       <c r="B38" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="C38" s="3">
         <v>2022</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="D38" t="s">
         <v>7</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>166</v>
+        <v>120</v>
       </c>
       <c r="B39" t="s">
-        <v>165</v>
+        <v>119</v>
       </c>
       <c r="C39" s="3">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="D39" t="s">
-        <v>167</v>
+        <v>123</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
-        <v>170</v>
+        <v>231</v>
       </c>
       <c r="B40" t="s">
-        <v>171</v>
+        <v>233</v>
       </c>
       <c r="C40" s="3">
-        <v>2019</v>
-      </c>
-      <c r="D40" t="s">
+        <v>2022</v>
+      </c>
+      <c r="D40" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>169</v>
+        <v>232</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="B41" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="C41" s="3">
-        <v>2012</v>
+        <v>2022</v>
       </c>
       <c r="D41" t="s">
-        <v>49</v>
+        <v>167</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="B42" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="C42" s="3">
+        <v>2019</v>
+      </c>
+      <c r="D42" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B43" t="s">
+        <v>179</v>
+      </c>
+      <c r="C43" s="3">
         <v>2012</v>
       </c>
-      <c r="D42" t="s">
-        <v>184</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>25</v>
-      </c>
-      <c r="B43" t="s">
-        <v>23</v>
-      </c>
-      <c r="C43" s="3">
-        <v>2016</v>
-      </c>
       <c r="D43" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>125</v>
+        <v>180</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B44" t="s">
+        <v>182</v>
+      </c>
+      <c r="C44" s="3">
+        <v>2012</v>
+      </c>
+      <c r="D44" t="s">
+        <v>184</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
         <v>25</v>
       </c>
-      <c r="B44" t="s">
-        <v>26</v>
-      </c>
-      <c r="C44" s="3">
-        <v>2017</v>
-      </c>
-      <c r="D44" t="s">
-        <v>7</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="4" t="s">
-        <v>25</v>
-      </c>
       <c r="B45" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C45" s="3">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="D45" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>29</v>
+        <v>125</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
@@ -2039,16 +2068,16 @@
         <v>25</v>
       </c>
       <c r="B46" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C46" s="3">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="D46" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -2056,16 +2085,16 @@
         <v>25</v>
       </c>
       <c r="B47" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C47" s="3">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="D47" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
@@ -2073,16 +2102,16 @@
         <v>25</v>
       </c>
       <c r="B48" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C48" s="3">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D48" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
@@ -2090,203 +2119,203 @@
         <v>25</v>
       </c>
       <c r="B49" t="s">
-        <v>235</v>
+        <v>32</v>
       </c>
       <c r="C49" s="3">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D49" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>236</v>
+        <v>33</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="B50" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="C50" s="3">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="D50" t="s">
         <v>35</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
-        <v>122</v>
+        <v>25</v>
       </c>
       <c r="B51" t="s">
-        <v>121</v>
+        <v>235</v>
       </c>
       <c r="C51" s="3">
-        <v>2017</v>
+        <v>2022</v>
       </c>
       <c r="D51" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>124</v>
+        <v>236</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
-        <v>189</v>
+        <v>38</v>
       </c>
       <c r="B52" t="s">
-        <v>186</v>
+        <v>54</v>
       </c>
       <c r="C52" s="3">
         <v>2019</v>
       </c>
       <c r="D52" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>187</v>
+        <v>37</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>213</v>
+      <c r="A53" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B53" t="s">
+        <v>121</v>
       </c>
       <c r="C53" s="3">
-        <v>2022</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E53" s="7" t="s">
-        <v>214</v>
+        <v>2017</v>
+      </c>
+      <c r="D53" t="s">
+        <v>7</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
-        <v>215</v>
+        <v>278</v>
       </c>
       <c r="B54" t="s">
-        <v>251</v>
+        <v>276</v>
       </c>
       <c r="C54" s="3">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D54" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>252</v>
+        <v>277</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B55" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C55" s="3">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="D55" t="s">
-        <v>194</v>
+        <v>68</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="B56" t="s">
-        <v>196</v>
+      <c r="A56" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>213</v>
       </c>
       <c r="C56" s="3">
-        <v>2021</v>
-      </c>
-      <c r="D56" t="s">
-        <v>197</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>198</v>
+        <v>2022</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="B57" t="s">
-        <v>199</v>
+        <v>251</v>
       </c>
       <c r="C57" s="3">
-        <v>2014</v>
+        <v>2022</v>
       </c>
       <c r="D57" t="s">
         <v>19</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>200</v>
+        <v>252</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
-        <v>40</v>
+        <v>193</v>
       </c>
       <c r="B58" t="s">
-        <v>39</v>
+        <v>192</v>
       </c>
       <c r="C58" s="3">
-        <v>2012</v>
+        <v>2021</v>
       </c>
       <c r="D58" t="s">
-        <v>24</v>
+        <v>194</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>126</v>
+        <v>195</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
-        <v>40</v>
+        <v>202</v>
       </c>
       <c r="B59" t="s">
-        <v>41</v>
+        <v>196</v>
       </c>
       <c r="C59" s="3">
-        <v>2014</v>
+        <v>2021</v>
       </c>
       <c r="D59" t="s">
-        <v>19</v>
+        <v>197</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>42</v>
+        <v>198</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
-        <v>40</v>
+        <v>203</v>
       </c>
       <c r="B60" t="s">
-        <v>43</v>
+        <v>199</v>
       </c>
       <c r="C60" s="3">
         <v>2014</v>
       </c>
       <c r="D60" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>127</v>
+        <v>200</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
@@ -2294,16 +2323,16 @@
         <v>40</v>
       </c>
       <c r="B61" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C61" s="3">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D61" t="s">
         <v>24</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
@@ -2311,16 +2340,16 @@
         <v>40</v>
       </c>
       <c r="B62" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C62" s="3">
         <v>2014</v>
       </c>
       <c r="D62" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
@@ -2328,16 +2357,16 @@
         <v>40</v>
       </c>
       <c r="B63" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C63" s="3">
-        <v>2021</v>
+        <v>2014</v>
       </c>
       <c r="D63" t="s">
         <v>24</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>51</v>
+        <v>127</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
@@ -2345,152 +2374,152 @@
         <v>40</v>
       </c>
       <c r="B64" t="s">
-        <v>266</v>
+        <v>44</v>
       </c>
       <c r="C64" s="3">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="D64" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>267</v>
+        <v>128</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
-        <v>258</v>
+        <v>40</v>
       </c>
       <c r="B65" t="s">
-        <v>257</v>
+        <v>47</v>
       </c>
       <c r="C65" s="3">
-        <v>2023</v>
+        <v>2014</v>
       </c>
       <c r="D65" t="s">
-        <v>260</v>
+        <v>49</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>259</v>
+        <v>48</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
-        <v>190</v>
+        <v>40</v>
       </c>
       <c r="B66" t="s">
-        <v>188</v>
-      </c>
-      <c r="C66" s="5">
-        <v>2014</v>
+        <v>50</v>
+      </c>
+      <c r="C66" s="3">
+        <v>2021</v>
       </c>
       <c r="D66" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>191</v>
+        <v>51</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="B67" t="s">
-        <v>52</v>
+        <v>266</v>
       </c>
       <c r="C67" s="3">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="D67" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>130</v>
+        <v>267</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
-        <v>53</v>
+        <v>258</v>
       </c>
       <c r="B68" t="s">
-        <v>55</v>
+        <v>257</v>
       </c>
       <c r="C68" s="3">
-        <v>2017</v>
+        <v>2023</v>
       </c>
       <c r="D68" t="s">
-        <v>7</v>
+        <v>260</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>131</v>
+        <v>259</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
-        <v>53</v>
+        <v>190</v>
       </c>
       <c r="B69" t="s">
-        <v>56</v>
-      </c>
-      <c r="C69" s="3">
-        <v>2019</v>
+        <v>188</v>
+      </c>
+      <c r="C69" s="5">
+        <v>2014</v>
       </c>
       <c r="D69" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>132</v>
+        <v>191</v>
       </c>
     </row>
     <row r="70" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B70" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C70" s="3">
         <v>2016</v>
       </c>
       <c r="D70" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B71" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C71" s="3">
         <v>2017</v>
       </c>
       <c r="D71" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B72" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C72" s="3">
         <v>2019</v>
       </c>
       <c r="D72" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>62</v>
+        <v>132</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
@@ -2498,16 +2527,16 @@
         <v>59</v>
       </c>
       <c r="B73" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C73" s="3">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="D73" t="s">
         <v>7</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>64</v>
+        <v>133</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
@@ -2515,347 +2544,406 @@
         <v>59</v>
       </c>
       <c r="B74" t="s">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="C74" s="3">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="D74" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>161</v>
+        <v>134</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
-        <v>211</v>
+        <v>59</v>
       </c>
       <c r="B75" t="s">
-        <v>210</v>
+        <v>61</v>
       </c>
       <c r="C75" s="3">
-        <v>2020</v>
-      </c>
-      <c r="D75" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E75" s="7" t="s">
-        <v>212</v>
+        <v>2019</v>
+      </c>
+      <c r="D75" t="s">
+        <v>7</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
-        <v>162</v>
+        <v>59</v>
       </c>
       <c r="B76" t="s">
-        <v>163</v>
+        <v>63</v>
       </c>
       <c r="C76" s="3">
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="D76" t="s">
         <v>7</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>164</v>
+        <v>64</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
-        <v>206</v>
+        <v>59</v>
       </c>
       <c r="B77" t="s">
-        <v>204</v>
+        <v>160</v>
       </c>
       <c r="C77" s="3">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="D77" t="s">
-        <v>201</v>
+        <v>7</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>205</v>
+        <v>161</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
-        <v>234</v>
+        <v>211</v>
       </c>
       <c r="B78" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="C78" s="3">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="D78" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E78" s="1" t="s">
-        <v>220</v>
+      <c r="E78" s="7" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
-        <v>207</v>
+        <v>162</v>
       </c>
       <c r="B79" t="s">
-        <v>208</v>
+        <v>163</v>
       </c>
       <c r="C79" s="3">
-        <v>2022</v>
+        <v>2014</v>
       </c>
       <c r="D79" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>209</v>
+        <v>164</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
-        <v>67</v>
+        <v>206</v>
       </c>
       <c r="B80" t="s">
-        <v>65</v>
+        <v>204</v>
       </c>
       <c r="C80" s="3">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="D80" t="s">
-        <v>68</v>
+        <v>201</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>66</v>
+        <v>205</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="B81" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C81" s="3">
         <v>2022</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>226</v>
+        <v>24</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
-        <v>71</v>
+        <v>207</v>
       </c>
       <c r="B82" t="s">
-        <v>69</v>
+        <v>208</v>
       </c>
       <c r="C82" s="3">
         <v>2022</v>
       </c>
       <c r="D82" t="s">
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>70</v>
+        <v>209</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B83" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C83" s="3">
-        <v>2011</v>
+        <v>2019</v>
       </c>
       <c r="D83" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>150</v>
+        <v>66</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
-        <v>78</v>
+        <v>223</v>
       </c>
       <c r="B84" t="s">
-        <v>75</v>
+        <v>221</v>
       </c>
       <c r="C84" s="3">
-        <v>2018</v>
-      </c>
-      <c r="D84" t="s">
-        <v>77</v>
+        <v>2022</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>226</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>76</v>
+        <v>222</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A85" s="6" t="s">
-        <v>218</v>
+      <c r="A85" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="B85" t="s">
-        <v>217</v>
+        <v>69</v>
       </c>
       <c r="C85" s="3">
         <v>2022</v>
       </c>
-      <c r="D85" s="6" t="s">
-        <v>19</v>
+      <c r="D85" t="s">
+        <v>72</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>216</v>
+        <v>70</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B86" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C86" s="3">
         <v>2011</v>
       </c>
       <c r="D86" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B87" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C87" s="3">
-        <v>2013</v>
+        <v>2018</v>
       </c>
       <c r="D87" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>136</v>
+        <v>76</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A88" s="4" t="s">
-        <v>263</v>
+      <c r="A88" s="6" t="s">
+        <v>218</v>
       </c>
       <c r="B88" t="s">
-        <v>262</v>
+        <v>217</v>
       </c>
       <c r="C88" s="3">
         <v>2022</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D88" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B89" t="s">
+        <v>79</v>
+      </c>
+      <c r="C89" s="3">
+        <v>2011</v>
+      </c>
+      <c r="D89" t="s">
+        <v>19</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B90" t="s">
+        <v>81</v>
+      </c>
+      <c r="C90" s="3">
+        <v>2013</v>
+      </c>
+      <c r="D90" t="s">
+        <v>82</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="B91" t="s">
+        <v>262</v>
+      </c>
+      <c r="C91" s="3">
+        <v>2022</v>
+      </c>
+      <c r="D91" t="s">
         <v>265</v>
       </c>
-      <c r="E88" s="1" t="s">
+      <c r="E91" s="1" t="s">
         <v>264</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E91" xr:uid="{C3C04B9F-2B89-4EC8-954F-BE264C2F59A5}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E91">
+      <sortCondition ref="A1:A91"/>
+    </sortState>
+  </autoFilter>
   <hyperlinks>
-    <hyperlink ref="E24" r:id="rId1" xr:uid="{F6233517-0866-4B0A-B501-654979DF1645}"/>
-    <hyperlink ref="E28" r:id="rId2" xr:uid="{CBD7CBEE-D091-4342-A7E0-41DE558F1037}"/>
-    <hyperlink ref="E31" r:id="rId3" xr:uid="{225B3A1D-B3F0-4695-9FC4-4F153794A4FC}"/>
-    <hyperlink ref="E32" r:id="rId4" xr:uid="{7A1A6A3D-3414-4BF6-BEDD-0EE0347C319E}"/>
-    <hyperlink ref="E33" r:id="rId5" xr:uid="{4CEF4617-6BD3-44D3-8DC1-60D790061756}"/>
-    <hyperlink ref="E43" r:id="rId6" xr:uid="{7D05E552-8270-4F5D-AC46-1ED37444A309}"/>
-    <hyperlink ref="E44" r:id="rId7" xr:uid="{6C173CBA-3446-4E84-9A3E-965DF6C6C088}"/>
-    <hyperlink ref="E45" r:id="rId8" xr:uid="{1846651B-6412-4AFB-AFB8-F96A2B371A6C}"/>
-    <hyperlink ref="E46" r:id="rId9" xr:uid="{C7270FA0-2830-4BB7-B110-850D8F971AEE}"/>
-    <hyperlink ref="E47" r:id="rId10" xr:uid="{D8221DFD-AF62-413A-9472-7B2D09F8AB38}"/>
-    <hyperlink ref="E48" r:id="rId11" xr:uid="{92989DC9-D56C-47D5-BFEE-71F6C0F3A548}"/>
-    <hyperlink ref="E50" r:id="rId12" xr:uid="{5B9642B1-4705-45AB-89BE-F072B333EBB6}"/>
-    <hyperlink ref="E58" r:id="rId13" xr:uid="{F05B4BA6-E510-400E-8A22-DBADEF073FBF}"/>
-    <hyperlink ref="E59" r:id="rId14" xr:uid="{3BF46FAB-1246-4475-A357-107735FE4BDF}"/>
-    <hyperlink ref="E60" r:id="rId15" xr:uid="{D048DBA0-6B3B-4476-A0C3-4EB3819321C8}"/>
-    <hyperlink ref="E61" r:id="rId16" xr:uid="{1437ABFF-76B7-4768-9BD6-04546FB41212}"/>
-    <hyperlink ref="E13" r:id="rId17" xr:uid="{DF9385FD-36DB-4A19-8CBC-22A0966BA589}"/>
-    <hyperlink ref="E62" r:id="rId18" xr:uid="{A49C63A5-4761-4004-903F-BDC70A97AEB9}"/>
-    <hyperlink ref="E63" r:id="rId19" xr:uid="{475B209A-E520-460B-B1CA-985518CA6942}"/>
-    <hyperlink ref="E67" r:id="rId20" xr:uid="{365A4CF1-32B5-4CD5-8ACD-8871125C9A40}"/>
-    <hyperlink ref="E68" r:id="rId21" xr:uid="{F2B048DB-66F1-433F-824F-55CCC95C49F5}"/>
-    <hyperlink ref="E69" r:id="rId22" xr:uid="{B72A565C-741D-4F46-9AF2-3331FE245855}"/>
-    <hyperlink ref="E70" r:id="rId23" xr:uid="{81A40882-ACC5-427E-BC31-0390936D9ADA}"/>
-    <hyperlink ref="E71" r:id="rId24" xr:uid="{BAC61EA9-3ABF-4FBA-AB98-603E87B01642}"/>
-    <hyperlink ref="E72" r:id="rId25" xr:uid="{F311DB40-30CB-49FF-89EB-8929E8CC149D}"/>
-    <hyperlink ref="E73" r:id="rId26" xr:uid="{B1672B26-3311-4AB8-8DB8-10AB5E887662}"/>
-    <hyperlink ref="E80" r:id="rId27" xr:uid="{E1CC58C1-4BAD-4445-B722-3DC7F9057180}"/>
-    <hyperlink ref="E82" r:id="rId28" xr:uid="{AF7EF548-2486-4D16-93AD-8972177ECDC3}"/>
-    <hyperlink ref="E83" r:id="rId29" xr:uid="{24D15E37-D60C-432F-9CED-DCB5F84A8EA1}"/>
-    <hyperlink ref="E84" r:id="rId30" xr:uid="{E65E5986-C0ED-4D73-B262-03C37CE34824}"/>
-    <hyperlink ref="E86" r:id="rId31" xr:uid="{48A3DD7D-15A4-49DF-9BB8-0BF37E9BA8BF}"/>
-    <hyperlink ref="E87" r:id="rId32" xr:uid="{EB968D9A-2B1C-4356-8976-E3B995613790}"/>
+    <hyperlink ref="E26" r:id="rId1" xr:uid="{F6233517-0866-4B0A-B501-654979DF1645}"/>
+    <hyperlink ref="E30" r:id="rId2" xr:uid="{CBD7CBEE-D091-4342-A7E0-41DE558F1037}"/>
+    <hyperlink ref="E33" r:id="rId3" xr:uid="{225B3A1D-B3F0-4695-9FC4-4F153794A4FC}"/>
+    <hyperlink ref="E34" r:id="rId4" xr:uid="{7A1A6A3D-3414-4BF6-BEDD-0EE0347C319E}"/>
+    <hyperlink ref="E35" r:id="rId5" xr:uid="{4CEF4617-6BD3-44D3-8DC1-60D790061756}"/>
+    <hyperlink ref="E45" r:id="rId6" xr:uid="{7D05E552-8270-4F5D-AC46-1ED37444A309}"/>
+    <hyperlink ref="E46" r:id="rId7" xr:uid="{6C173CBA-3446-4E84-9A3E-965DF6C6C088}"/>
+    <hyperlink ref="E47" r:id="rId8" xr:uid="{1846651B-6412-4AFB-AFB8-F96A2B371A6C}"/>
+    <hyperlink ref="E48" r:id="rId9" xr:uid="{C7270FA0-2830-4BB7-B110-850D8F971AEE}"/>
+    <hyperlink ref="E49" r:id="rId10" xr:uid="{D8221DFD-AF62-413A-9472-7B2D09F8AB38}"/>
+    <hyperlink ref="E50" r:id="rId11" xr:uid="{92989DC9-D56C-47D5-BFEE-71F6C0F3A548}"/>
+    <hyperlink ref="E52" r:id="rId12" xr:uid="{5B9642B1-4705-45AB-89BE-F072B333EBB6}"/>
+    <hyperlink ref="E61" r:id="rId13" xr:uid="{F05B4BA6-E510-400E-8A22-DBADEF073FBF}"/>
+    <hyperlink ref="E62" r:id="rId14" xr:uid="{3BF46FAB-1246-4475-A357-107735FE4BDF}"/>
+    <hyperlink ref="E63" r:id="rId15" xr:uid="{D048DBA0-6B3B-4476-A0C3-4EB3819321C8}"/>
+    <hyperlink ref="E64" r:id="rId16" xr:uid="{1437ABFF-76B7-4768-9BD6-04546FB41212}"/>
+    <hyperlink ref="E14" r:id="rId17" xr:uid="{DF9385FD-36DB-4A19-8CBC-22A0966BA589}"/>
+    <hyperlink ref="E65" r:id="rId18" xr:uid="{A49C63A5-4761-4004-903F-BDC70A97AEB9}"/>
+    <hyperlink ref="E66" r:id="rId19" xr:uid="{475B209A-E520-460B-B1CA-985518CA6942}"/>
+    <hyperlink ref="E70" r:id="rId20" xr:uid="{365A4CF1-32B5-4CD5-8ACD-8871125C9A40}"/>
+    <hyperlink ref="E71" r:id="rId21" xr:uid="{F2B048DB-66F1-433F-824F-55CCC95C49F5}"/>
+    <hyperlink ref="E72" r:id="rId22" xr:uid="{B72A565C-741D-4F46-9AF2-3331FE245855}"/>
+    <hyperlink ref="E73" r:id="rId23" xr:uid="{81A40882-ACC5-427E-BC31-0390936D9ADA}"/>
+    <hyperlink ref="E74" r:id="rId24" xr:uid="{BAC61EA9-3ABF-4FBA-AB98-603E87B01642}"/>
+    <hyperlink ref="E75" r:id="rId25" xr:uid="{F311DB40-30CB-49FF-89EB-8929E8CC149D}"/>
+    <hyperlink ref="E76" r:id="rId26" xr:uid="{B1672B26-3311-4AB8-8DB8-10AB5E887662}"/>
+    <hyperlink ref="E83" r:id="rId27" xr:uid="{E1CC58C1-4BAD-4445-B722-3DC7F9057180}"/>
+    <hyperlink ref="E85" r:id="rId28" xr:uid="{AF7EF548-2486-4D16-93AD-8972177ECDC3}"/>
+    <hyperlink ref="E86" r:id="rId29" xr:uid="{24D15E37-D60C-432F-9CED-DCB5F84A8EA1}"/>
+    <hyperlink ref="E87" r:id="rId30" xr:uid="{E65E5986-C0ED-4D73-B262-03C37CE34824}"/>
+    <hyperlink ref="E89" r:id="rId31" xr:uid="{48A3DD7D-15A4-49DF-9BB8-0BF37E9BA8BF}"/>
+    <hyperlink ref="E90" r:id="rId32" xr:uid="{EB968D9A-2B1C-4356-8976-E3B995613790}"/>
     <hyperlink ref="E3" r:id="rId33" xr:uid="{B8FCB838-5B1C-4D4C-B527-4AB9924EB2D3}"/>
     <hyperlink ref="E4" r:id="rId34" xr:uid="{025C23AA-1E34-4632-B635-9FA1B738A3E9}"/>
     <hyperlink ref="E5" r:id="rId35" xr:uid="{C7F936C0-3049-4E9A-8E0A-D27C6AB16FBC}"/>
-    <hyperlink ref="E14" r:id="rId36" xr:uid="{3BA864D8-6C95-445A-9E36-94695B2653D8}"/>
-    <hyperlink ref="E15" r:id="rId37" xr:uid="{66FE564C-E3E8-4D41-8387-922E5C4C1218}"/>
-    <hyperlink ref="E17" r:id="rId38" xr:uid="{4692811E-5658-4F6D-888F-1FA57CB69055}"/>
-    <hyperlink ref="E19" r:id="rId39" xr:uid="{77B6D308-44FF-4E92-BBFB-EF9AD6EA9A68}"/>
-    <hyperlink ref="E20" r:id="rId40" xr:uid="{7AFECFFC-8ADB-41C7-841B-216E556AAA4F}"/>
-    <hyperlink ref="E23" r:id="rId41" xr:uid="{DB25165C-39D2-4A45-B455-85A8EEDFE6B6}"/>
-    <hyperlink ref="E26" r:id="rId42" xr:uid="{458C6FF6-3543-45CE-9606-8A3082F62F0A}"/>
-    <hyperlink ref="E29" r:id="rId43" xr:uid="{94EFA63E-CE0C-4475-A396-18D53D8A6EC4}"/>
-    <hyperlink ref="E30" r:id="rId44" xr:uid="{92D4FFEE-7B65-4017-A716-809C7F8B0E04}"/>
-    <hyperlink ref="E34" r:id="rId45" xr:uid="{0B76847B-6C94-4E2D-A094-FCE72CC29EBF}"/>
-    <hyperlink ref="E35" r:id="rId46" xr:uid="{81C1C27A-8200-4CB8-8CA5-E4B85D519FDA}"/>
-    <hyperlink ref="E37" r:id="rId47" xr:uid="{B80CDD91-38DA-4375-88A0-B543FE2A3CCB}"/>
-    <hyperlink ref="E51" r:id="rId48" xr:uid="{085EF44D-1625-46A8-B320-B4D73C2793C3}"/>
+    <hyperlink ref="E15" r:id="rId36" xr:uid="{3BA864D8-6C95-445A-9E36-94695B2653D8}"/>
+    <hyperlink ref="E16" r:id="rId37" xr:uid="{66FE564C-E3E8-4D41-8387-922E5C4C1218}"/>
+    <hyperlink ref="E19" r:id="rId38" xr:uid="{4692811E-5658-4F6D-888F-1FA57CB69055}"/>
+    <hyperlink ref="E21" r:id="rId39" xr:uid="{77B6D308-44FF-4E92-BBFB-EF9AD6EA9A68}"/>
+    <hyperlink ref="E22" r:id="rId40" xr:uid="{7AFECFFC-8ADB-41C7-841B-216E556AAA4F}"/>
+    <hyperlink ref="E25" r:id="rId41" xr:uid="{DB25165C-39D2-4A45-B455-85A8EEDFE6B6}"/>
+    <hyperlink ref="E28" r:id="rId42" xr:uid="{458C6FF6-3543-45CE-9606-8A3082F62F0A}"/>
+    <hyperlink ref="E31" r:id="rId43" xr:uid="{94EFA63E-CE0C-4475-A396-18D53D8A6EC4}"/>
+    <hyperlink ref="E32" r:id="rId44" xr:uid="{92D4FFEE-7B65-4017-A716-809C7F8B0E04}"/>
+    <hyperlink ref="E36" r:id="rId45" xr:uid="{0B76847B-6C94-4E2D-A094-FCE72CC29EBF}"/>
+    <hyperlink ref="E37" r:id="rId46" xr:uid="{81C1C27A-8200-4CB8-8CA5-E4B85D519FDA}"/>
+    <hyperlink ref="E39" r:id="rId47" xr:uid="{B80CDD91-38DA-4375-88A0-B543FE2A3CCB}"/>
+    <hyperlink ref="E53" r:id="rId48" xr:uid="{085EF44D-1625-46A8-B320-B4D73C2793C3}"/>
     <hyperlink ref="E7" r:id="rId49" xr:uid="{9050D2E2-A996-4813-BDAB-90A6E969B393}"/>
     <hyperlink ref="E8" r:id="rId50" xr:uid="{3FB58120-E5D0-4688-A553-FA719EE8AF86}"/>
     <hyperlink ref="E9" r:id="rId51" xr:uid="{27E6CD87-1D85-4CFF-82C0-B75E68882093}"/>
     <hyperlink ref="E10" r:id="rId52" xr:uid="{5726F0E2-EBA2-49FB-B482-C266FBD309BF}"/>
-    <hyperlink ref="E74" r:id="rId53" xr:uid="{34EFA9BA-9C8C-4881-A64C-2F70C6927793}"/>
-    <hyperlink ref="E76" r:id="rId54" xr:uid="{FE82914B-DA2F-43D9-856E-F8B21C1D980D}"/>
-    <hyperlink ref="E39" r:id="rId55" xr:uid="{49BBE16D-F3C9-4615-B1B4-B8FA17A26DD4}"/>
-    <hyperlink ref="E40" r:id="rId56" xr:uid="{1A356FB0-7765-46F0-BC27-98202B7BF4A6}"/>
+    <hyperlink ref="E77" r:id="rId53" xr:uid="{34EFA9BA-9C8C-4881-A64C-2F70C6927793}"/>
+    <hyperlink ref="E79" r:id="rId54" xr:uid="{FE82914B-DA2F-43D9-856E-F8B21C1D980D}"/>
+    <hyperlink ref="E41" r:id="rId55" xr:uid="{49BBE16D-F3C9-4615-B1B4-B8FA17A26DD4}"/>
+    <hyperlink ref="E42" r:id="rId56" xr:uid="{1A356FB0-7765-46F0-BC27-98202B7BF4A6}"/>
     <hyperlink ref="E2" r:id="rId57" xr:uid="{3BAF40B7-94EB-4B77-B83C-2E2E101DCD73}"/>
-    <hyperlink ref="E18" r:id="rId58" xr:uid="{5012CD22-B9C1-451C-B278-3127E823477E}"/>
-    <hyperlink ref="E41" r:id="rId59" xr:uid="{B44F470F-A038-4D03-B4FC-3A710C4A1E53}"/>
-    <hyperlink ref="E42" r:id="rId60" xr:uid="{1B9F5F78-B40E-4B01-BBE4-7D5D05B0494D}"/>
-    <hyperlink ref="E52" r:id="rId61" xr:uid="{C51AD600-C6A8-4CD8-A6ED-A309C6A9E5FF}"/>
-    <hyperlink ref="E66" r:id="rId62" xr:uid="{35E24552-4BD2-4643-8BC5-2933C5863306}"/>
-    <hyperlink ref="E55" r:id="rId63" xr:uid="{59C100E4-5D91-46FA-A9CF-7FC950AC6162}"/>
-    <hyperlink ref="E56" r:id="rId64" xr:uid="{27B81F4A-B5A2-4B95-B182-8E237716E03C}"/>
-    <hyperlink ref="E57" r:id="rId65" xr:uid="{BBBA124A-D9A7-49CF-9B5E-6218C904469C}"/>
-    <hyperlink ref="E77" r:id="rId66" xr:uid="{BC23E410-1E83-43B7-B83C-8F7E64BB9146}"/>
-    <hyperlink ref="E79" r:id="rId67" xr:uid="{F2AEE35C-42C1-4BFE-B760-AA86FE091591}"/>
-    <hyperlink ref="E75" r:id="rId68" xr:uid="{CBE85328-B553-4738-90B3-7F3A5579E07D}"/>
-    <hyperlink ref="E53" r:id="rId69" xr:uid="{5319E4AF-8DD0-4C01-A448-C6A50345BF6D}"/>
-    <hyperlink ref="E85" r:id="rId70" xr:uid="{105DD274-8872-41F3-9AEE-CB0929A91BD7}"/>
-    <hyperlink ref="E78" r:id="rId71" xr:uid="{E4C036B5-8E63-4154-81B7-386C17DE26F0}"/>
-    <hyperlink ref="E81" r:id="rId72" xr:uid="{EA050D64-47A3-4EF1-B293-1513E65F8A17}"/>
-    <hyperlink ref="E25" r:id="rId73" xr:uid="{FE69776B-DAB8-458E-A1CC-CC4D45FB990E}"/>
-    <hyperlink ref="E22" r:id="rId74" xr:uid="{B8709E17-82C3-4C15-AFCA-FDBC6C0E3742}"/>
-    <hyperlink ref="E38" r:id="rId75" xr:uid="{AD9E04E9-7330-4AEB-B1D5-0D658D10BE4C}"/>
-    <hyperlink ref="E49" r:id="rId76" xr:uid="{2D09DA48-0CC3-4E7B-88DF-4906ADFE3995}"/>
+    <hyperlink ref="E20" r:id="rId58" xr:uid="{5012CD22-B9C1-451C-B278-3127E823477E}"/>
+    <hyperlink ref="E43" r:id="rId59" xr:uid="{B44F470F-A038-4D03-B4FC-3A710C4A1E53}"/>
+    <hyperlink ref="E44" r:id="rId60" xr:uid="{1B9F5F78-B40E-4B01-BBE4-7D5D05B0494D}"/>
+    <hyperlink ref="E55" r:id="rId61" xr:uid="{C51AD600-C6A8-4CD8-A6ED-A309C6A9E5FF}"/>
+    <hyperlink ref="E69" r:id="rId62" xr:uid="{35E24552-4BD2-4643-8BC5-2933C5863306}"/>
+    <hyperlink ref="E58" r:id="rId63" xr:uid="{59C100E4-5D91-46FA-A9CF-7FC950AC6162}"/>
+    <hyperlink ref="E59" r:id="rId64" xr:uid="{27B81F4A-B5A2-4B95-B182-8E237716E03C}"/>
+    <hyperlink ref="E60" r:id="rId65" xr:uid="{BBBA124A-D9A7-49CF-9B5E-6218C904469C}"/>
+    <hyperlink ref="E80" r:id="rId66" xr:uid="{BC23E410-1E83-43B7-B83C-8F7E64BB9146}"/>
+    <hyperlink ref="E82" r:id="rId67" xr:uid="{F2AEE35C-42C1-4BFE-B760-AA86FE091591}"/>
+    <hyperlink ref="E78" r:id="rId68" xr:uid="{CBE85328-B553-4738-90B3-7F3A5579E07D}"/>
+    <hyperlink ref="E56" r:id="rId69" xr:uid="{5319E4AF-8DD0-4C01-A448-C6A50345BF6D}"/>
+    <hyperlink ref="E88" r:id="rId70" xr:uid="{105DD274-8872-41F3-9AEE-CB0929A91BD7}"/>
+    <hyperlink ref="E81" r:id="rId71" xr:uid="{E4C036B5-8E63-4154-81B7-386C17DE26F0}"/>
+    <hyperlink ref="E84" r:id="rId72" xr:uid="{EA050D64-47A3-4EF1-B293-1513E65F8A17}"/>
+    <hyperlink ref="E27" r:id="rId73" xr:uid="{FE69776B-DAB8-458E-A1CC-CC4D45FB990E}"/>
+    <hyperlink ref="E24" r:id="rId74" xr:uid="{B8709E17-82C3-4C15-AFCA-FDBC6C0E3742}"/>
+    <hyperlink ref="E40" r:id="rId75" xr:uid="{AD9E04E9-7330-4AEB-B1D5-0D658D10BE4C}"/>
+    <hyperlink ref="E51" r:id="rId76" xr:uid="{2D09DA48-0CC3-4E7B-88DF-4906ADFE3995}"/>
     <hyperlink ref="E11" r:id="rId77" xr:uid="{B5D6E16B-F7EF-4C36-9A76-398183A004C2}"/>
     <hyperlink ref="E12" r:id="rId78" xr:uid="{8507CF97-BF71-48EE-BF72-FBA48E58E257}"/>
     <hyperlink ref="E6" r:id="rId79" xr:uid="{2AD287B9-A515-4B7A-9193-19E3FF1CE180}"/>
-    <hyperlink ref="E36" r:id="rId80" xr:uid="{BFE39045-5577-49A9-89A1-E0DB4996C6DA}"/>
-    <hyperlink ref="E54" r:id="rId81" xr:uid="{8B63BAC3-AAA6-455E-AE1C-8772DBB5A56E}"/>
-    <hyperlink ref="E27" r:id="rId82" xr:uid="{78C7F296-E3FD-48D3-BBE4-CD1D8A0AED49}"/>
-    <hyperlink ref="E65" r:id="rId83" xr:uid="{2C17C395-6C02-4456-85EF-9EAE2FEB6129}"/>
-    <hyperlink ref="E16" r:id="rId84" xr:uid="{2CE98761-AD59-4695-BE00-67D2A022A16D}"/>
-    <hyperlink ref="E88" r:id="rId85" xr:uid="{0EA24F29-464E-438F-8449-57D70968DEB4}"/>
-    <hyperlink ref="E64" r:id="rId86" xr:uid="{7CA4D10A-241E-4304-AA2F-B33937FF70DE}"/>
-    <hyperlink ref="E21" r:id="rId87" xr:uid="{ADE8BB04-288B-41A9-945F-A11F2B5E5D98}"/>
+    <hyperlink ref="E38" r:id="rId80" xr:uid="{BFE39045-5577-49A9-89A1-E0DB4996C6DA}"/>
+    <hyperlink ref="E57" r:id="rId81" xr:uid="{8B63BAC3-AAA6-455E-AE1C-8772DBB5A56E}"/>
+    <hyperlink ref="E29" r:id="rId82" xr:uid="{78C7F296-E3FD-48D3-BBE4-CD1D8A0AED49}"/>
+    <hyperlink ref="E68" r:id="rId83" xr:uid="{2C17C395-6C02-4456-85EF-9EAE2FEB6129}"/>
+    <hyperlink ref="E17" r:id="rId84" xr:uid="{2CE98761-AD59-4695-BE00-67D2A022A16D}"/>
+    <hyperlink ref="E91" r:id="rId85" xr:uid="{0EA24F29-464E-438F-8449-57D70968DEB4}"/>
+    <hyperlink ref="E67" r:id="rId86" xr:uid="{7CA4D10A-241E-4304-AA2F-B33937FF70DE}"/>
+    <hyperlink ref="E23" r:id="rId87" xr:uid="{ADE8BB04-288B-41A9-945F-A11F2B5E5D98}"/>
+    <hyperlink ref="E13" r:id="rId88" xr:uid="{5ADC9042-7177-45C9-A970-573DFE329214}"/>
+    <hyperlink ref="E18" r:id="rId89" xr:uid="{4ED008F2-0E13-470C-A6A9-E49EFFD50876}"/>
+    <hyperlink ref="E54" r:id="rId90" xr:uid="{A2CEA0A1-A124-499F-9172-F119EB66ACD1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId88"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId91"/>
 </worksheet>
 </file>
--- a/_site/data/methods.xlsx
+++ b/_site/data/methods.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My_R\overview_megadatabase\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCA75209-89DC-4E9A-B3BD-0A0ACB5B2064}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28DD84E2-E12D-4B9A-A274-9B26C666AA85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D142A978-9658-4202-BF77-FF6002D5B3D1}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="282">
   <si>
     <t>first author</t>
   </si>
@@ -880,6 +880,15 @@
   </si>
   <si>
     <t>Pamporis K.</t>
+  </si>
+  <si>
+    <t>Estimating pairwise overlap in umbrella reviews: Considerations for using the corrected covered area (CCA) index methodology</t>
+  </si>
+  <si>
+    <t>Kirvalidze Μ.</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1002/jrsm.1658</t>
   </si>
 </sst>
 </file>
@@ -947,7 +956,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -968,6 +977,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1283,11 +1293,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3C04B9F-2B89-4EC8-954F-BE264C2F59A5}">
-  <dimension ref="A1:E91"/>
+  <dimension ref="A1:E92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="E91" sqref="E91"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1997,87 +2005,87 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="B42" t="s">
-        <v>171</v>
+        <v>280</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>279</v>
       </c>
       <c r="C42" s="3">
-        <v>2019</v>
-      </c>
-      <c r="D42" t="s">
-        <v>7</v>
+        <v>2023</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>169</v>
+        <v>281</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="B43" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C43" s="3">
-        <v>2012</v>
+        <v>2019</v>
       </c>
       <c r="D43" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B44" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C44" s="3">
         <v>2012</v>
       </c>
       <c r="D44" t="s">
+        <v>49</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B45" t="s">
+        <v>182</v>
+      </c>
+      <c r="C45" s="3">
+        <v>2012</v>
+      </c>
+      <c r="D45" t="s">
         <v>184</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="E45" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
         <v>25</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B46" t="s">
         <v>23</v>
       </c>
-      <c r="C45" s="3">
+      <c r="C46" s="3">
         <v>2016</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D46" t="s">
         <v>24</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="E46" s="1" t="s">
         <v>125</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B46" t="s">
-        <v>26</v>
-      </c>
-      <c r="C46" s="3">
-        <v>2017</v>
-      </c>
-      <c r="D46" t="s">
-        <v>7</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -2085,16 +2093,16 @@
         <v>25</v>
       </c>
       <c r="B47" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C47" s="3">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D47" t="s">
         <v>7</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
@@ -2102,16 +2110,16 @@
         <v>25</v>
       </c>
       <c r="B48" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C48" s="3">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D48" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
@@ -2119,16 +2127,16 @@
         <v>25</v>
       </c>
       <c r="B49" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C49" s="3">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D49" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
@@ -2136,16 +2144,16 @@
         <v>25</v>
       </c>
       <c r="B50" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C50" s="3">
         <v>2021</v>
       </c>
       <c r="D50" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
@@ -2153,186 +2161,186 @@
         <v>25</v>
       </c>
       <c r="B51" t="s">
-        <v>235</v>
+        <v>34</v>
       </c>
       <c r="C51" s="3">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D51" t="s">
         <v>35</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>236</v>
+        <v>36</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="B52" t="s">
-        <v>54</v>
+        <v>235</v>
       </c>
       <c r="C52" s="3">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="D52" t="s">
         <v>35</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>37</v>
+        <v>236</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
-        <v>122</v>
+        <v>38</v>
       </c>
       <c r="B53" t="s">
-        <v>121</v>
+        <v>54</v>
       </c>
       <c r="C53" s="3">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="D53" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>124</v>
+        <v>37</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
-        <v>278</v>
+        <v>122</v>
       </c>
       <c r="B54" t="s">
-        <v>276</v>
+        <v>121</v>
       </c>
       <c r="C54" s="3">
-        <v>2023</v>
+        <v>2017</v>
       </c>
       <c r="D54" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>277</v>
+        <v>124</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="B55" t="s">
+        <v>276</v>
+      </c>
+      <c r="C55" s="3">
+        <v>2023</v>
+      </c>
+      <c r="D55" t="s">
+        <v>24</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B56" t="s">
         <v>186</v>
       </c>
-      <c r="C55" s="3">
+      <c r="C56" s="3">
         <v>2019</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D56" t="s">
         <v>68</v>
       </c>
-      <c r="E55" s="1" t="s">
+      <c r="E56" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="6" t="s">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="B56" s="6" t="s">
+      <c r="B57" s="6" t="s">
         <v>213</v>
-      </c>
-      <c r="C56" s="3">
-        <v>2022</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E56" s="7" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="B57" t="s">
-        <v>251</v>
       </c>
       <c r="C57" s="3">
         <v>2022</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E57" s="1" t="s">
-        <v>252</v>
+      <c r="E57" s="7" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="B58" t="s">
-        <v>192</v>
+        <v>251</v>
       </c>
       <c r="C58" s="3">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D58" t="s">
-        <v>194</v>
+        <v>19</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>195</v>
+        <v>252</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="B59" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C59" s="3">
         <v>2021</v>
       </c>
       <c r="D59" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B60" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C60" s="3">
-        <v>2014</v>
+        <v>2021</v>
       </c>
       <c r="D60" t="s">
-        <v>19</v>
+        <v>197</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
-        <v>40</v>
+        <v>203</v>
       </c>
       <c r="B61" t="s">
-        <v>39</v>
+        <v>199</v>
       </c>
       <c r="C61" s="3">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="D61" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>126</v>
+        <v>200</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
@@ -2340,16 +2348,16 @@
         <v>40</v>
       </c>
       <c r="B62" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C62" s="3">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D62" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>42</v>
+        <v>126</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
@@ -2357,16 +2365,16 @@
         <v>40</v>
       </c>
       <c r="B63" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C63" s="3">
         <v>2014</v>
       </c>
       <c r="D63" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>127</v>
+        <v>42</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
@@ -2374,7 +2382,7 @@
         <v>40</v>
       </c>
       <c r="B64" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C64" s="3">
         <v>2014</v>
@@ -2383,7 +2391,7 @@
         <v>24</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
@@ -2391,16 +2399,16 @@
         <v>40</v>
       </c>
       <c r="B65" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C65" s="3">
         <v>2014</v>
       </c>
       <c r="D65" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>48</v>
+        <v>128</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
@@ -2408,16 +2416,16 @@
         <v>40</v>
       </c>
       <c r="B66" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C66" s="3">
-        <v>2021</v>
+        <v>2014</v>
       </c>
       <c r="D66" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
@@ -2425,67 +2433,67 @@
         <v>40</v>
       </c>
       <c r="B67" t="s">
-        <v>266</v>
+        <v>50</v>
       </c>
       <c r="C67" s="3">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="D67" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>267</v>
+        <v>51</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
-        <v>258</v>
+        <v>40</v>
       </c>
       <c r="B68" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="C68" s="3">
-        <v>2023</v>
+        <v>2018</v>
       </c>
       <c r="D68" t="s">
-        <v>260</v>
+        <v>7</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
-        <v>190</v>
+        <v>258</v>
       </c>
       <c r="B69" t="s">
-        <v>188</v>
-      </c>
-      <c r="C69" s="5">
-        <v>2014</v>
+        <v>257</v>
+      </c>
+      <c r="C69" s="3">
+        <v>2023</v>
       </c>
       <c r="D69" t="s">
-        <v>68</v>
+        <v>260</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>191</v>
+        <v>259</v>
       </c>
     </row>
     <row r="70" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
-        <v>53</v>
+        <v>190</v>
       </c>
       <c r="B70" t="s">
-        <v>52</v>
-      </c>
-      <c r="C70" s="3">
-        <v>2016</v>
+        <v>188</v>
+      </c>
+      <c r="C70" s="5">
+        <v>2014</v>
       </c>
       <c r="D70" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>130</v>
+        <v>191</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
@@ -2493,16 +2501,16 @@
         <v>53</v>
       </c>
       <c r="B71" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C71" s="3">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D71" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
@@ -2510,33 +2518,33 @@
         <v>53</v>
       </c>
       <c r="B72" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C72" s="3">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="D72" t="s">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B73" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C73" s="3">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="D73" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
@@ -2544,16 +2552,16 @@
         <v>59</v>
       </c>
       <c r="B74" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C74" s="3">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D74" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
@@ -2561,16 +2569,16 @@
         <v>59</v>
       </c>
       <c r="B75" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C75" s="3">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="D75" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>62</v>
+        <v>134</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
@@ -2578,7 +2586,7 @@
         <v>59</v>
       </c>
       <c r="B76" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C76" s="3">
         <v>2019</v>
@@ -2587,7 +2595,7 @@
         <v>7</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
@@ -2595,7 +2603,7 @@
         <v>59</v>
       </c>
       <c r="B77" t="s">
-        <v>160</v>
+        <v>63</v>
       </c>
       <c r="C77" s="3">
         <v>2019</v>
@@ -2604,211 +2612,211 @@
         <v>7</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>161</v>
+        <v>64</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
-        <v>211</v>
+        <v>59</v>
       </c>
       <c r="B78" t="s">
-        <v>210</v>
+        <v>160</v>
       </c>
       <c r="C78" s="3">
-        <v>2020</v>
-      </c>
-      <c r="D78" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E78" s="7" t="s">
-        <v>212</v>
+        <v>2019</v>
+      </c>
+      <c r="D78" t="s">
+        <v>7</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
-        <v>162</v>
+        <v>211</v>
       </c>
       <c r="B79" t="s">
-        <v>163</v>
+        <v>210</v>
       </c>
       <c r="C79" s="3">
-        <v>2014</v>
-      </c>
-      <c r="D79" t="s">
-        <v>7</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>164</v>
+        <v>2020</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
-        <v>206</v>
+        <v>162</v>
       </c>
       <c r="B80" t="s">
-        <v>204</v>
+        <v>163</v>
       </c>
       <c r="C80" s="3">
-        <v>2021</v>
+        <v>2014</v>
       </c>
       <c r="D80" t="s">
-        <v>201</v>
+        <v>7</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>205</v>
+        <v>164</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
-        <v>234</v>
+        <v>206</v>
       </c>
       <c r="B81" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="C81" s="3">
-        <v>2022</v>
-      </c>
-      <c r="D81" s="6" t="s">
-        <v>24</v>
+        <v>2021</v>
+      </c>
+      <c r="D81" t="s">
+        <v>201</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
-        <v>207</v>
+        <v>234</v>
       </c>
       <c r="B82" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="C82" s="3">
         <v>2022</v>
       </c>
-      <c r="D82" t="s">
-        <v>11</v>
+      <c r="D82" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
-        <v>67</v>
+        <v>207</v>
       </c>
       <c r="B83" t="s">
-        <v>65</v>
+        <v>208</v>
       </c>
       <c r="C83" s="3">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="D83" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>66</v>
+        <v>209</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
-        <v>223</v>
+        <v>67</v>
       </c>
       <c r="B84" t="s">
-        <v>221</v>
+        <v>65</v>
       </c>
       <c r="C84" s="3">
-        <v>2022</v>
-      </c>
-      <c r="D84" s="6" t="s">
-        <v>226</v>
+        <v>2019</v>
+      </c>
+      <c r="D84" t="s">
+        <v>68</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>222</v>
+        <v>66</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
-        <v>71</v>
+        <v>223</v>
       </c>
       <c r="B85" t="s">
-        <v>69</v>
+        <v>221</v>
       </c>
       <c r="C85" s="3">
         <v>2022</v>
       </c>
-      <c r="D85" t="s">
-        <v>72</v>
+      <c r="D85" s="6" t="s">
+        <v>226</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>70</v>
+        <v>222</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B86" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C86" s="3">
-        <v>2011</v>
+        <v>2022</v>
       </c>
       <c r="D86" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>150</v>
+        <v>70</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B87" t="s">
+        <v>73</v>
+      </c>
+      <c r="C87" s="3">
+        <v>2011</v>
+      </c>
+      <c r="D87" t="s">
+        <v>35</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B88" t="s">
         <v>75</v>
       </c>
-      <c r="C87" s="3">
+      <c r="C88" s="3">
         <v>2018</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D88" t="s">
         <v>77</v>
       </c>
-      <c r="E87" s="1" t="s">
+      <c r="E88" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A88" s="6" t="s">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B89" t="s">
         <v>217</v>
       </c>
-      <c r="C88" s="3">
+      <c r="C89" s="3">
         <v>2022</v>
       </c>
-      <c r="D88" s="6" t="s">
+      <c r="D89" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E88" s="1" t="s">
+      <c r="E89" s="1" t="s">
         <v>216</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A89" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B89" t="s">
-        <v>79</v>
-      </c>
-      <c r="C89" s="3">
-        <v>2011</v>
-      </c>
-      <c r="D89" t="s">
-        <v>19</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
@@ -2816,74 +2824,86 @@
         <v>80</v>
       </c>
       <c r="B90" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C90" s="3">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="D90" t="s">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B91" t="s">
+        <v>81</v>
+      </c>
+      <c r="C91" s="3">
+        <v>2013</v>
+      </c>
+      <c r="D91" t="s">
+        <v>82</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B92" t="s">
         <v>262</v>
       </c>
-      <c r="C91" s="3">
+      <c r="C92" s="3">
         <v>2022</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D92" t="s">
         <v>265</v>
       </c>
-      <c r="E91" s="1" t="s">
+      <c r="E92" s="1" t="s">
         <v>264</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E91" xr:uid="{C3C04B9F-2B89-4EC8-954F-BE264C2F59A5}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E91">
-      <sortCondition ref="A1:A91"/>
-    </sortState>
-  </autoFilter>
   <hyperlinks>
     <hyperlink ref="E26" r:id="rId1" xr:uid="{F6233517-0866-4B0A-B501-654979DF1645}"/>
     <hyperlink ref="E30" r:id="rId2" xr:uid="{CBD7CBEE-D091-4342-A7E0-41DE558F1037}"/>
     <hyperlink ref="E33" r:id="rId3" xr:uid="{225B3A1D-B3F0-4695-9FC4-4F153794A4FC}"/>
     <hyperlink ref="E34" r:id="rId4" xr:uid="{7A1A6A3D-3414-4BF6-BEDD-0EE0347C319E}"/>
     <hyperlink ref="E35" r:id="rId5" xr:uid="{4CEF4617-6BD3-44D3-8DC1-60D790061756}"/>
-    <hyperlink ref="E45" r:id="rId6" xr:uid="{7D05E552-8270-4F5D-AC46-1ED37444A309}"/>
-    <hyperlink ref="E46" r:id="rId7" xr:uid="{6C173CBA-3446-4E84-9A3E-965DF6C6C088}"/>
-    <hyperlink ref="E47" r:id="rId8" xr:uid="{1846651B-6412-4AFB-AFB8-F96A2B371A6C}"/>
-    <hyperlink ref="E48" r:id="rId9" xr:uid="{C7270FA0-2830-4BB7-B110-850D8F971AEE}"/>
-    <hyperlink ref="E49" r:id="rId10" xr:uid="{D8221DFD-AF62-413A-9472-7B2D09F8AB38}"/>
-    <hyperlink ref="E50" r:id="rId11" xr:uid="{92989DC9-D56C-47D5-BFEE-71F6C0F3A548}"/>
-    <hyperlink ref="E52" r:id="rId12" xr:uid="{5B9642B1-4705-45AB-89BE-F072B333EBB6}"/>
-    <hyperlink ref="E61" r:id="rId13" xr:uid="{F05B4BA6-E510-400E-8A22-DBADEF073FBF}"/>
-    <hyperlink ref="E62" r:id="rId14" xr:uid="{3BF46FAB-1246-4475-A357-107735FE4BDF}"/>
-    <hyperlink ref="E63" r:id="rId15" xr:uid="{D048DBA0-6B3B-4476-A0C3-4EB3819321C8}"/>
-    <hyperlink ref="E64" r:id="rId16" xr:uid="{1437ABFF-76B7-4768-9BD6-04546FB41212}"/>
+    <hyperlink ref="E46" r:id="rId6" xr:uid="{7D05E552-8270-4F5D-AC46-1ED37444A309}"/>
+    <hyperlink ref="E47" r:id="rId7" xr:uid="{6C173CBA-3446-4E84-9A3E-965DF6C6C088}"/>
+    <hyperlink ref="E48" r:id="rId8" xr:uid="{1846651B-6412-4AFB-AFB8-F96A2B371A6C}"/>
+    <hyperlink ref="E49" r:id="rId9" xr:uid="{C7270FA0-2830-4BB7-B110-850D8F971AEE}"/>
+    <hyperlink ref="E50" r:id="rId10" xr:uid="{D8221DFD-AF62-413A-9472-7B2D09F8AB38}"/>
+    <hyperlink ref="E51" r:id="rId11" xr:uid="{92989DC9-D56C-47D5-BFEE-71F6C0F3A548}"/>
+    <hyperlink ref="E53" r:id="rId12" xr:uid="{5B9642B1-4705-45AB-89BE-F072B333EBB6}"/>
+    <hyperlink ref="E62" r:id="rId13" xr:uid="{F05B4BA6-E510-400E-8A22-DBADEF073FBF}"/>
+    <hyperlink ref="E63" r:id="rId14" xr:uid="{3BF46FAB-1246-4475-A357-107735FE4BDF}"/>
+    <hyperlink ref="E64" r:id="rId15" xr:uid="{D048DBA0-6B3B-4476-A0C3-4EB3819321C8}"/>
+    <hyperlink ref="E65" r:id="rId16" xr:uid="{1437ABFF-76B7-4768-9BD6-04546FB41212}"/>
     <hyperlink ref="E14" r:id="rId17" xr:uid="{DF9385FD-36DB-4A19-8CBC-22A0966BA589}"/>
-    <hyperlink ref="E65" r:id="rId18" xr:uid="{A49C63A5-4761-4004-903F-BDC70A97AEB9}"/>
-    <hyperlink ref="E66" r:id="rId19" xr:uid="{475B209A-E520-460B-B1CA-985518CA6942}"/>
-    <hyperlink ref="E70" r:id="rId20" xr:uid="{365A4CF1-32B5-4CD5-8ACD-8871125C9A40}"/>
-    <hyperlink ref="E71" r:id="rId21" xr:uid="{F2B048DB-66F1-433F-824F-55CCC95C49F5}"/>
-    <hyperlink ref="E72" r:id="rId22" xr:uid="{B72A565C-741D-4F46-9AF2-3331FE245855}"/>
-    <hyperlink ref="E73" r:id="rId23" xr:uid="{81A40882-ACC5-427E-BC31-0390936D9ADA}"/>
-    <hyperlink ref="E74" r:id="rId24" xr:uid="{BAC61EA9-3ABF-4FBA-AB98-603E87B01642}"/>
-    <hyperlink ref="E75" r:id="rId25" xr:uid="{F311DB40-30CB-49FF-89EB-8929E8CC149D}"/>
-    <hyperlink ref="E76" r:id="rId26" xr:uid="{B1672B26-3311-4AB8-8DB8-10AB5E887662}"/>
-    <hyperlink ref="E83" r:id="rId27" xr:uid="{E1CC58C1-4BAD-4445-B722-3DC7F9057180}"/>
-    <hyperlink ref="E85" r:id="rId28" xr:uid="{AF7EF548-2486-4D16-93AD-8972177ECDC3}"/>
-    <hyperlink ref="E86" r:id="rId29" xr:uid="{24D15E37-D60C-432F-9CED-DCB5F84A8EA1}"/>
-    <hyperlink ref="E87" r:id="rId30" xr:uid="{E65E5986-C0ED-4D73-B262-03C37CE34824}"/>
-    <hyperlink ref="E89" r:id="rId31" xr:uid="{48A3DD7D-15A4-49DF-9BB8-0BF37E9BA8BF}"/>
-    <hyperlink ref="E90" r:id="rId32" xr:uid="{EB968D9A-2B1C-4356-8976-E3B995613790}"/>
+    <hyperlink ref="E66" r:id="rId18" xr:uid="{A49C63A5-4761-4004-903F-BDC70A97AEB9}"/>
+    <hyperlink ref="E67" r:id="rId19" xr:uid="{475B209A-E520-460B-B1CA-985518CA6942}"/>
+    <hyperlink ref="E71" r:id="rId20" xr:uid="{365A4CF1-32B5-4CD5-8ACD-8871125C9A40}"/>
+    <hyperlink ref="E72" r:id="rId21" xr:uid="{F2B048DB-66F1-433F-824F-55CCC95C49F5}"/>
+    <hyperlink ref="E73" r:id="rId22" xr:uid="{B72A565C-741D-4F46-9AF2-3331FE245855}"/>
+    <hyperlink ref="E74" r:id="rId23" xr:uid="{81A40882-ACC5-427E-BC31-0390936D9ADA}"/>
+    <hyperlink ref="E75" r:id="rId24" xr:uid="{BAC61EA9-3ABF-4FBA-AB98-603E87B01642}"/>
+    <hyperlink ref="E76" r:id="rId25" xr:uid="{F311DB40-30CB-49FF-89EB-8929E8CC149D}"/>
+    <hyperlink ref="E77" r:id="rId26" xr:uid="{B1672B26-3311-4AB8-8DB8-10AB5E887662}"/>
+    <hyperlink ref="E84" r:id="rId27" xr:uid="{E1CC58C1-4BAD-4445-B722-3DC7F9057180}"/>
+    <hyperlink ref="E86" r:id="rId28" xr:uid="{AF7EF548-2486-4D16-93AD-8972177ECDC3}"/>
+    <hyperlink ref="E87" r:id="rId29" xr:uid="{24D15E37-D60C-432F-9CED-DCB5F84A8EA1}"/>
+    <hyperlink ref="E88" r:id="rId30" xr:uid="{E65E5986-C0ED-4D73-B262-03C37CE34824}"/>
+    <hyperlink ref="E90" r:id="rId31" xr:uid="{48A3DD7D-15A4-49DF-9BB8-0BF37E9BA8BF}"/>
+    <hyperlink ref="E91" r:id="rId32" xr:uid="{EB968D9A-2B1C-4356-8976-E3B995613790}"/>
     <hyperlink ref="E3" r:id="rId33" xr:uid="{B8FCB838-5B1C-4D4C-B527-4AB9924EB2D3}"/>
     <hyperlink ref="E4" r:id="rId34" xr:uid="{025C23AA-1E34-4632-B635-9FA1B738A3E9}"/>
     <hyperlink ref="E5" r:id="rId35" xr:uid="{C7F936C0-3049-4E9A-8E0A-D27C6AB16FBC}"/>
@@ -2899,51 +2919,52 @@
     <hyperlink ref="E36" r:id="rId45" xr:uid="{0B76847B-6C94-4E2D-A094-FCE72CC29EBF}"/>
     <hyperlink ref="E37" r:id="rId46" xr:uid="{81C1C27A-8200-4CB8-8CA5-E4B85D519FDA}"/>
     <hyperlink ref="E39" r:id="rId47" xr:uid="{B80CDD91-38DA-4375-88A0-B543FE2A3CCB}"/>
-    <hyperlink ref="E53" r:id="rId48" xr:uid="{085EF44D-1625-46A8-B320-B4D73C2793C3}"/>
+    <hyperlink ref="E54" r:id="rId48" xr:uid="{085EF44D-1625-46A8-B320-B4D73C2793C3}"/>
     <hyperlink ref="E7" r:id="rId49" xr:uid="{9050D2E2-A996-4813-BDAB-90A6E969B393}"/>
     <hyperlink ref="E8" r:id="rId50" xr:uid="{3FB58120-E5D0-4688-A553-FA719EE8AF86}"/>
     <hyperlink ref="E9" r:id="rId51" xr:uid="{27E6CD87-1D85-4CFF-82C0-B75E68882093}"/>
     <hyperlink ref="E10" r:id="rId52" xr:uid="{5726F0E2-EBA2-49FB-B482-C266FBD309BF}"/>
-    <hyperlink ref="E77" r:id="rId53" xr:uid="{34EFA9BA-9C8C-4881-A64C-2F70C6927793}"/>
-    <hyperlink ref="E79" r:id="rId54" xr:uid="{FE82914B-DA2F-43D9-856E-F8B21C1D980D}"/>
+    <hyperlink ref="E78" r:id="rId53" xr:uid="{34EFA9BA-9C8C-4881-A64C-2F70C6927793}"/>
+    <hyperlink ref="E80" r:id="rId54" xr:uid="{FE82914B-DA2F-43D9-856E-F8B21C1D980D}"/>
     <hyperlink ref="E41" r:id="rId55" xr:uid="{49BBE16D-F3C9-4615-B1B4-B8FA17A26DD4}"/>
-    <hyperlink ref="E42" r:id="rId56" xr:uid="{1A356FB0-7765-46F0-BC27-98202B7BF4A6}"/>
+    <hyperlink ref="E43" r:id="rId56" xr:uid="{1A356FB0-7765-46F0-BC27-98202B7BF4A6}"/>
     <hyperlink ref="E2" r:id="rId57" xr:uid="{3BAF40B7-94EB-4B77-B83C-2E2E101DCD73}"/>
     <hyperlink ref="E20" r:id="rId58" xr:uid="{5012CD22-B9C1-451C-B278-3127E823477E}"/>
-    <hyperlink ref="E43" r:id="rId59" xr:uid="{B44F470F-A038-4D03-B4FC-3A710C4A1E53}"/>
-    <hyperlink ref="E44" r:id="rId60" xr:uid="{1B9F5F78-B40E-4B01-BBE4-7D5D05B0494D}"/>
-    <hyperlink ref="E55" r:id="rId61" xr:uid="{C51AD600-C6A8-4CD8-A6ED-A309C6A9E5FF}"/>
-    <hyperlink ref="E69" r:id="rId62" xr:uid="{35E24552-4BD2-4643-8BC5-2933C5863306}"/>
-    <hyperlink ref="E58" r:id="rId63" xr:uid="{59C100E4-5D91-46FA-A9CF-7FC950AC6162}"/>
-    <hyperlink ref="E59" r:id="rId64" xr:uid="{27B81F4A-B5A2-4B95-B182-8E237716E03C}"/>
-    <hyperlink ref="E60" r:id="rId65" xr:uid="{BBBA124A-D9A7-49CF-9B5E-6218C904469C}"/>
-    <hyperlink ref="E80" r:id="rId66" xr:uid="{BC23E410-1E83-43B7-B83C-8F7E64BB9146}"/>
-    <hyperlink ref="E82" r:id="rId67" xr:uid="{F2AEE35C-42C1-4BFE-B760-AA86FE091591}"/>
-    <hyperlink ref="E78" r:id="rId68" xr:uid="{CBE85328-B553-4738-90B3-7F3A5579E07D}"/>
-    <hyperlink ref="E56" r:id="rId69" xr:uid="{5319E4AF-8DD0-4C01-A448-C6A50345BF6D}"/>
-    <hyperlink ref="E88" r:id="rId70" xr:uid="{105DD274-8872-41F3-9AEE-CB0929A91BD7}"/>
-    <hyperlink ref="E81" r:id="rId71" xr:uid="{E4C036B5-8E63-4154-81B7-386C17DE26F0}"/>
-    <hyperlink ref="E84" r:id="rId72" xr:uid="{EA050D64-47A3-4EF1-B293-1513E65F8A17}"/>
+    <hyperlink ref="E44" r:id="rId59" xr:uid="{B44F470F-A038-4D03-B4FC-3A710C4A1E53}"/>
+    <hyperlink ref="E45" r:id="rId60" xr:uid="{1B9F5F78-B40E-4B01-BBE4-7D5D05B0494D}"/>
+    <hyperlink ref="E56" r:id="rId61" xr:uid="{C51AD600-C6A8-4CD8-A6ED-A309C6A9E5FF}"/>
+    <hyperlink ref="E70" r:id="rId62" xr:uid="{35E24552-4BD2-4643-8BC5-2933C5863306}"/>
+    <hyperlink ref="E59" r:id="rId63" xr:uid="{59C100E4-5D91-46FA-A9CF-7FC950AC6162}"/>
+    <hyperlink ref="E60" r:id="rId64" xr:uid="{27B81F4A-B5A2-4B95-B182-8E237716E03C}"/>
+    <hyperlink ref="E61" r:id="rId65" xr:uid="{BBBA124A-D9A7-49CF-9B5E-6218C904469C}"/>
+    <hyperlink ref="E81" r:id="rId66" xr:uid="{BC23E410-1E83-43B7-B83C-8F7E64BB9146}"/>
+    <hyperlink ref="E83" r:id="rId67" xr:uid="{F2AEE35C-42C1-4BFE-B760-AA86FE091591}"/>
+    <hyperlink ref="E79" r:id="rId68" xr:uid="{CBE85328-B553-4738-90B3-7F3A5579E07D}"/>
+    <hyperlink ref="E57" r:id="rId69" xr:uid="{5319E4AF-8DD0-4C01-A448-C6A50345BF6D}"/>
+    <hyperlink ref="E89" r:id="rId70" xr:uid="{105DD274-8872-41F3-9AEE-CB0929A91BD7}"/>
+    <hyperlink ref="E82" r:id="rId71" xr:uid="{E4C036B5-8E63-4154-81B7-386C17DE26F0}"/>
+    <hyperlink ref="E85" r:id="rId72" xr:uid="{EA050D64-47A3-4EF1-B293-1513E65F8A17}"/>
     <hyperlink ref="E27" r:id="rId73" xr:uid="{FE69776B-DAB8-458E-A1CC-CC4D45FB990E}"/>
     <hyperlink ref="E24" r:id="rId74" xr:uid="{B8709E17-82C3-4C15-AFCA-FDBC6C0E3742}"/>
     <hyperlink ref="E40" r:id="rId75" xr:uid="{AD9E04E9-7330-4AEB-B1D5-0D658D10BE4C}"/>
-    <hyperlink ref="E51" r:id="rId76" xr:uid="{2D09DA48-0CC3-4E7B-88DF-4906ADFE3995}"/>
+    <hyperlink ref="E52" r:id="rId76" xr:uid="{2D09DA48-0CC3-4E7B-88DF-4906ADFE3995}"/>
     <hyperlink ref="E11" r:id="rId77" xr:uid="{B5D6E16B-F7EF-4C36-9A76-398183A004C2}"/>
     <hyperlink ref="E12" r:id="rId78" xr:uid="{8507CF97-BF71-48EE-BF72-FBA48E58E257}"/>
     <hyperlink ref="E6" r:id="rId79" xr:uid="{2AD287B9-A515-4B7A-9193-19E3FF1CE180}"/>
     <hyperlink ref="E38" r:id="rId80" xr:uid="{BFE39045-5577-49A9-89A1-E0DB4996C6DA}"/>
-    <hyperlink ref="E57" r:id="rId81" xr:uid="{8B63BAC3-AAA6-455E-AE1C-8772DBB5A56E}"/>
+    <hyperlink ref="E58" r:id="rId81" xr:uid="{8B63BAC3-AAA6-455E-AE1C-8772DBB5A56E}"/>
     <hyperlink ref="E29" r:id="rId82" xr:uid="{78C7F296-E3FD-48D3-BBE4-CD1D8A0AED49}"/>
-    <hyperlink ref="E68" r:id="rId83" xr:uid="{2C17C395-6C02-4456-85EF-9EAE2FEB6129}"/>
+    <hyperlink ref="E69" r:id="rId83" xr:uid="{2C17C395-6C02-4456-85EF-9EAE2FEB6129}"/>
     <hyperlink ref="E17" r:id="rId84" xr:uid="{2CE98761-AD59-4695-BE00-67D2A022A16D}"/>
-    <hyperlink ref="E91" r:id="rId85" xr:uid="{0EA24F29-464E-438F-8449-57D70968DEB4}"/>
-    <hyperlink ref="E67" r:id="rId86" xr:uid="{7CA4D10A-241E-4304-AA2F-B33937FF70DE}"/>
+    <hyperlink ref="E92" r:id="rId85" xr:uid="{0EA24F29-464E-438F-8449-57D70968DEB4}"/>
+    <hyperlink ref="E68" r:id="rId86" xr:uid="{7CA4D10A-241E-4304-AA2F-B33937FF70DE}"/>
     <hyperlink ref="E23" r:id="rId87" xr:uid="{ADE8BB04-288B-41A9-945F-A11F2B5E5D98}"/>
     <hyperlink ref="E13" r:id="rId88" xr:uid="{5ADC9042-7177-45C9-A970-573DFE329214}"/>
     <hyperlink ref="E18" r:id="rId89" xr:uid="{4ED008F2-0E13-470C-A6A9-E49EFFD50876}"/>
-    <hyperlink ref="E54" r:id="rId90" xr:uid="{A2CEA0A1-A124-499F-9172-F119EB66ACD1}"/>
+    <hyperlink ref="E55" r:id="rId90" xr:uid="{A2CEA0A1-A124-499F-9172-F119EB66ACD1}"/>
+    <hyperlink ref="E42" r:id="rId91" xr:uid="{2C43AAEE-E335-4116-9A57-77B33884D6E4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId91"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId92"/>
 </worksheet>
 </file>
--- a/_site/data/methods.xlsx
+++ b/_site/data/methods.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My_R\overview_megadatabase\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28DD84E2-E12D-4B9A-A274-9B26C666AA85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B289553-9025-4E76-889B-79D5CB18B52F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D142A978-9658-4202-BF77-FF6002D5B3D1}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Φύλλο1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Φύλλο1!$A$1:$E$91</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Φύλλο1!$A$1:$E$95</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="292">
   <si>
     <t>first author</t>
   </si>
@@ -889,6 +889,36 @@
   </si>
   <si>
     <t>https://doi.org/10.1002/jrsm.1658</t>
+  </si>
+  <si>
+    <t>Clinical utility of overviews on adverse events of pharmacological interventions</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1186/s13643-023-02289-z</t>
+  </si>
+  <si>
+    <t>Comparison of Reporting and Transparency in Published Protocols and Publications in Umbrella Reviews: Scoping Review</t>
+  </si>
+  <si>
+    <t>Zhao L.</t>
+  </si>
+  <si>
+    <t>Journal of Medical Internet Research</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.2196/43299</t>
+  </si>
+  <si>
+    <t>Neuroscience and Biobehavioral Reviews</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.neubiorev.2023.105089</t>
+  </si>
+  <si>
+    <t>COMMENTARY-Arbitrary, inappropriate grading criteria distort the evaluation of evidence: A comment on Kim et al.’s (2022) umbrella review</t>
+  </si>
+  <si>
+    <t>Del Giudice M.</t>
   </si>
 </sst>
 </file>
@@ -956,7 +986,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -977,7 +1007,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1293,9 +1322,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3C04B9F-2B89-4EC8-954F-BE264C2F59A5}">
-  <dimension ref="A1:E92"/>
+  <dimension ref="A1:E95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B96" sqref="B96"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1665,19 +1696,19 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>103</v>
+        <v>291</v>
       </c>
       <c r="B22" t="s">
-        <v>101</v>
+        <v>290</v>
       </c>
       <c r="C22" s="3">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="D22" t="s">
-        <v>24</v>
+        <v>288</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>102</v>
+        <v>289</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -1685,186 +1716,186 @@
         <v>103</v>
       </c>
       <c r="B23" t="s">
-        <v>268</v>
+        <v>101</v>
       </c>
       <c r="C23" s="3">
-        <v>2023</v>
+        <v>2019</v>
       </c>
       <c r="D23" t="s">
         <v>24</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>269</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>227</v>
+        <v>103</v>
       </c>
       <c r="B24" t="s">
-        <v>228</v>
+        <v>268</v>
       </c>
       <c r="C24" s="3">
-        <v>2022</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>229</v>
+        <v>2023</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>230</v>
+        <v>269</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B25" t="s">
+        <v>228</v>
+      </c>
+      <c r="C25" s="3">
+        <v>2022</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>104</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C26" s="3">
         <v>2018</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D26" t="s">
         <v>106</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>8</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" t="s">
         <v>5</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C27" s="3">
         <v>2020</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D27" t="s">
         <v>7</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B27" t="s">
-        <v>224</v>
-      </c>
-      <c r="C27" s="3">
-        <v>2022</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>108</v>
+        <v>8</v>
       </c>
       <c r="B28" t="s">
-        <v>107</v>
+        <v>224</v>
       </c>
       <c r="C28" s="3">
-        <v>2020</v>
-      </c>
-      <c r="D28" t="s">
-        <v>35</v>
+        <v>2022</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>226</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>109</v>
+        <v>225</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B29" t="s">
+        <v>107</v>
+      </c>
+      <c r="C29" s="3">
+        <v>2020</v>
+      </c>
+      <c r="D29" t="s">
+        <v>35</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B30" t="s">
         <v>253</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C30" s="3">
         <v>2023</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D30" t="s">
         <v>254</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>12</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B31" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C31" s="3">
         <v>2012</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D31" t="s">
         <v>11</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B31" t="s">
-        <v>110</v>
-      </c>
-      <c r="C31" s="3">
-        <v>2014</v>
-      </c>
-      <c r="D31" t="s">
-        <v>82</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C32" s="3">
+        <v>2014</v>
+      </c>
+      <c r="D32" t="s">
+        <v>82</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B33" t="s">
         <v>111</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C33" s="3">
         <v>2012</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D33" t="s">
         <v>112</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E33" s="1" t="s">
         <v>146</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>16</v>
-      </c>
-      <c r="B33" t="s">
-        <v>13</v>
-      </c>
-      <c r="C33" s="3">
-        <v>2019</v>
-      </c>
-      <c r="D33" t="s">
-        <v>14</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -1872,50 +1903,50 @@
         <v>16</v>
       </c>
       <c r="B34" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C34" s="3">
         <v>2019</v>
       </c>
       <c r="D34" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
+        <v>16</v>
+      </c>
+      <c r="B35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" s="3">
+        <v>2019</v>
+      </c>
+      <c r="D35" t="s">
+        <v>19</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>22</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B36" t="s">
         <v>20</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C36" s="3">
         <v>2018</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D36" t="s">
         <v>7</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E36" s="1" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B36" t="s">
-        <v>114</v>
-      </c>
-      <c r="C36" s="3">
-        <v>2009</v>
-      </c>
-      <c r="D36" t="s">
-        <v>116</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -1923,186 +1954,186 @@
         <v>115</v>
       </c>
       <c r="B37" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C37" s="3">
-        <v>2017</v>
+        <v>2009</v>
       </c>
       <c r="D37" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>247</v>
+        <v>115</v>
       </c>
       <c r="B38" t="s">
-        <v>245</v>
+        <v>117</v>
       </c>
       <c r="C38" s="3">
-        <v>2022</v>
+        <v>2017</v>
       </c>
       <c r="D38" t="s">
-        <v>7</v>
+        <v>118</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>246</v>
+        <v>148</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>120</v>
+        <v>247</v>
       </c>
       <c r="B39" t="s">
-        <v>119</v>
+        <v>245</v>
       </c>
       <c r="C39" s="3">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="D39" t="s">
-        <v>123</v>
+        <v>7</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>149</v>
+        <v>246</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
-        <v>231</v>
+        <v>120</v>
       </c>
       <c r="B40" t="s">
-        <v>233</v>
+        <v>119</v>
       </c>
       <c r="C40" s="3">
-        <v>2022</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>7</v>
+        <v>2020</v>
+      </c>
+      <c r="D40" t="s">
+        <v>123</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>232</v>
+        <v>149</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>166</v>
+        <v>231</v>
       </c>
       <c r="B41" t="s">
-        <v>165</v>
+        <v>233</v>
       </c>
       <c r="C41" s="3">
         <v>2022</v>
       </c>
-      <c r="D41" t="s">
-        <v>167</v>
+      <c r="D41" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>168</v>
+        <v>232</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>279</v>
+        <v>166</v>
+      </c>
+      <c r="B42" t="s">
+        <v>165</v>
       </c>
       <c r="C42" s="3">
-        <v>2023</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>19</v>
+        <v>2022</v>
+      </c>
+      <c r="D42" t="s">
+        <v>167</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>281</v>
+        <v>168</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>170</v>
+        <v>280</v>
       </c>
       <c r="B43" t="s">
-        <v>171</v>
+        <v>279</v>
       </c>
       <c r="C43" s="3">
-        <v>2019</v>
-      </c>
-      <c r="D43" t="s">
-        <v>7</v>
+        <v>2023</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>169</v>
+        <v>281</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="B44" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C44" s="3">
-        <v>2012</v>
+        <v>2019</v>
       </c>
       <c r="D44" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B45" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C45" s="3">
         <v>2012</v>
       </c>
       <c r="D45" t="s">
+        <v>49</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B46" t="s">
+        <v>182</v>
+      </c>
+      <c r="C46" s="3">
+        <v>2012</v>
+      </c>
+      <c r="D46" t="s">
         <v>184</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="E46" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
         <v>25</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B47" t="s">
         <v>23</v>
       </c>
-      <c r="C46" s="3">
+      <c r="C47" s="3">
         <v>2016</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D47" t="s">
         <v>24</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="E47" s="1" t="s">
         <v>125</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B47" t="s">
-        <v>26</v>
-      </c>
-      <c r="C47" s="3">
-        <v>2017</v>
-      </c>
-      <c r="D47" t="s">
-        <v>7</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
@@ -2110,16 +2141,16 @@
         <v>25</v>
       </c>
       <c r="B48" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C48" s="3">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D48" t="s">
         <v>7</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
@@ -2127,16 +2158,16 @@
         <v>25</v>
       </c>
       <c r="B49" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C49" s="3">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D49" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
@@ -2144,16 +2175,16 @@
         <v>25</v>
       </c>
       <c r="B50" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C50" s="3">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D50" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
@@ -2161,16 +2192,16 @@
         <v>25</v>
       </c>
       <c r="B51" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C51" s="3">
         <v>2021</v>
       </c>
       <c r="D51" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
@@ -2178,186 +2209,186 @@
         <v>25</v>
       </c>
       <c r="B52" t="s">
-        <v>235</v>
+        <v>34</v>
       </c>
       <c r="C52" s="3">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D52" t="s">
         <v>35</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>236</v>
+        <v>36</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="B53" t="s">
-        <v>54</v>
+        <v>235</v>
       </c>
       <c r="C53" s="3">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="D53" t="s">
         <v>35</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>37</v>
+        <v>236</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
-        <v>122</v>
+        <v>38</v>
       </c>
       <c r="B54" t="s">
-        <v>121</v>
+        <v>54</v>
       </c>
       <c r="C54" s="3">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="D54" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>124</v>
+        <v>37</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
-        <v>278</v>
+        <v>122</v>
       </c>
       <c r="B55" t="s">
-        <v>276</v>
+        <v>121</v>
       </c>
       <c r="C55" s="3">
-        <v>2023</v>
+        <v>2017</v>
       </c>
       <c r="D55" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>277</v>
+        <v>124</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="B56" t="s">
+        <v>276</v>
+      </c>
+      <c r="C56" s="3">
+        <v>2023</v>
+      </c>
+      <c r="D56" t="s">
+        <v>24</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B57" t="s">
         <v>186</v>
       </c>
-      <c r="C56" s="3">
+      <c r="C57" s="3">
         <v>2019</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D57" t="s">
         <v>68</v>
       </c>
-      <c r="E56" s="1" t="s">
+      <c r="E57" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="6" t="s">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="B57" s="6" t="s">
+      <c r="B58" s="6" t="s">
         <v>213</v>
-      </c>
-      <c r="C57" s="3">
-        <v>2022</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E57" s="7" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="B58" t="s">
-        <v>251</v>
       </c>
       <c r="C58" s="3">
         <v>2022</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E58" s="1" t="s">
-        <v>252</v>
+      <c r="E58" s="7" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="B59" t="s">
-        <v>192</v>
+        <v>251</v>
       </c>
       <c r="C59" s="3">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D59" t="s">
-        <v>194</v>
+        <v>19</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>195</v>
+        <v>252</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="B60" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C60" s="3">
         <v>2021</v>
       </c>
       <c r="D60" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B61" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C61" s="3">
-        <v>2014</v>
+        <v>2021</v>
       </c>
       <c r="D61" t="s">
-        <v>19</v>
+        <v>197</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
-        <v>40</v>
+        <v>203</v>
       </c>
       <c r="B62" t="s">
-        <v>39</v>
+        <v>199</v>
       </c>
       <c r="C62" s="3">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="D62" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>126</v>
+        <v>200</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
@@ -2365,16 +2396,16 @@
         <v>40</v>
       </c>
       <c r="B63" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C63" s="3">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D63" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>42</v>
+        <v>126</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
@@ -2382,16 +2413,16 @@
         <v>40</v>
       </c>
       <c r="B64" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C64" s="3">
         <v>2014</v>
       </c>
       <c r="D64" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>127</v>
+        <v>42</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
@@ -2399,7 +2430,7 @@
         <v>40</v>
       </c>
       <c r="B65" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C65" s="3">
         <v>2014</v>
@@ -2408,7 +2439,7 @@
         <v>24</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
@@ -2416,16 +2447,16 @@
         <v>40</v>
       </c>
       <c r="B66" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C66" s="3">
         <v>2014</v>
       </c>
       <c r="D66" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>48</v>
+        <v>128</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
@@ -2433,16 +2464,16 @@
         <v>40</v>
       </c>
       <c r="B67" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C67" s="3">
-        <v>2021</v>
+        <v>2014</v>
       </c>
       <c r="D67" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
@@ -2450,67 +2481,67 @@
         <v>40</v>
       </c>
       <c r="B68" t="s">
-        <v>266</v>
+        <v>50</v>
       </c>
       <c r="C68" s="3">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="D68" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>267</v>
+        <v>51</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
-        <v>258</v>
+        <v>40</v>
       </c>
       <c r="B69" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="C69" s="3">
-        <v>2023</v>
+        <v>2018</v>
       </c>
       <c r="D69" t="s">
-        <v>260</v>
+        <v>7</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
     </row>
     <row r="70" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
-        <v>190</v>
+        <v>258</v>
       </c>
       <c r="B70" t="s">
-        <v>188</v>
-      </c>
-      <c r="C70" s="5">
-        <v>2014</v>
+        <v>257</v>
+      </c>
+      <c r="C70" s="3">
+        <v>2023</v>
       </c>
       <c r="D70" t="s">
-        <v>68</v>
+        <v>260</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>191</v>
+        <v>259</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
-        <v>53</v>
+        <v>190</v>
       </c>
       <c r="B71" t="s">
-        <v>52</v>
-      </c>
-      <c r="C71" s="3">
-        <v>2016</v>
+        <v>188</v>
+      </c>
+      <c r="C71" s="5">
+        <v>2014</v>
       </c>
       <c r="D71" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>130</v>
+        <v>191</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
@@ -2518,16 +2549,16 @@
         <v>53</v>
       </c>
       <c r="B72" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C72" s="3">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D72" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
@@ -2535,33 +2566,33 @@
         <v>53</v>
       </c>
       <c r="B73" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C73" s="3">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="D73" t="s">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B74" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C74" s="3">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="D74" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
@@ -2569,16 +2600,16 @@
         <v>59</v>
       </c>
       <c r="B75" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C75" s="3">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D75" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
@@ -2586,16 +2617,16 @@
         <v>59</v>
       </c>
       <c r="B76" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C76" s="3">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="D76" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>62</v>
+        <v>134</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
@@ -2603,7 +2634,7 @@
         <v>59</v>
       </c>
       <c r="B77" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C77" s="3">
         <v>2019</v>
@@ -2612,7 +2643,7 @@
         <v>7</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
@@ -2620,7 +2651,7 @@
         <v>59</v>
       </c>
       <c r="B78" t="s">
-        <v>160</v>
+        <v>63</v>
       </c>
       <c r="C78" s="3">
         <v>2019</v>
@@ -2629,281 +2660,332 @@
         <v>7</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>161</v>
+        <v>64</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
-        <v>211</v>
+        <v>59</v>
       </c>
       <c r="B79" t="s">
-        <v>210</v>
+        <v>160</v>
       </c>
       <c r="C79" s="3">
-        <v>2020</v>
-      </c>
-      <c r="D79" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E79" s="7" t="s">
-        <v>212</v>
+        <v>2019</v>
+      </c>
+      <c r="D79" t="s">
+        <v>7</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
-        <v>162</v>
+        <v>211</v>
       </c>
       <c r="B80" t="s">
-        <v>163</v>
+        <v>210</v>
       </c>
       <c r="C80" s="3">
-        <v>2014</v>
-      </c>
-      <c r="D80" t="s">
-        <v>7</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>164</v>
+        <v>2020</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E80" s="7" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
-        <v>206</v>
+        <v>162</v>
       </c>
       <c r="B81" t="s">
-        <v>204</v>
+        <v>163</v>
       </c>
       <c r="C81" s="3">
-        <v>2021</v>
+        <v>2014</v>
       </c>
       <c r="D81" t="s">
-        <v>201</v>
+        <v>7</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>205</v>
+        <v>164</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
-        <v>234</v>
+        <v>206</v>
       </c>
       <c r="B82" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="C82" s="3">
-        <v>2022</v>
-      </c>
-      <c r="D82" s="6" t="s">
-        <v>24</v>
+        <v>2021</v>
+      </c>
+      <c r="D82" t="s">
+        <v>201</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
-        <v>207</v>
+        <v>234</v>
       </c>
       <c r="B83" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="C83" s="3">
         <v>2022</v>
       </c>
-      <c r="D83" t="s">
-        <v>11</v>
+      <c r="D83" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
-        <v>67</v>
+        <v>234</v>
       </c>
       <c r="B84" t="s">
-        <v>65</v>
+        <v>282</v>
       </c>
       <c r="C84" s="3">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="D84" t="s">
-        <v>68</v>
+        <v>7</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>66</v>
+        <v>283</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="B85" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="C85" s="3">
         <v>2022</v>
       </c>
-      <c r="D85" s="6" t="s">
-        <v>226</v>
+      <c r="D85" t="s">
+        <v>11</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B86" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C86" s="3">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="D86" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
-        <v>74</v>
+        <v>223</v>
       </c>
       <c r="B87" t="s">
-        <v>73</v>
+        <v>221</v>
       </c>
       <c r="C87" s="3">
-        <v>2011</v>
-      </c>
-      <c r="D87" t="s">
-        <v>35</v>
+        <v>2022</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>226</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>150</v>
+        <v>222</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B88" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C88" s="3">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="D88" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A89" s="6" t="s">
-        <v>218</v>
+      <c r="A89" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="B89" t="s">
-        <v>217</v>
+        <v>73</v>
       </c>
       <c r="C89" s="3">
-        <v>2022</v>
-      </c>
-      <c r="D89" s="6" t="s">
-        <v>19</v>
+        <v>2011</v>
+      </c>
+      <c r="D89" t="s">
+        <v>35</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>216</v>
+        <v>150</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B90" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C90" s="3">
-        <v>2011</v>
+        <v>2018</v>
       </c>
       <c r="D90" t="s">
+        <v>77</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="B91" t="s">
+        <v>217</v>
+      </c>
+      <c r="C91" s="3">
+        <v>2022</v>
+      </c>
+      <c r="D91" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E90" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A91" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B91" t="s">
-        <v>81</v>
-      </c>
-      <c r="C91" s="3">
-        <v>2013</v>
-      </c>
-      <c r="D91" t="s">
-        <v>82</v>
-      </c>
       <c r="E91" s="1" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B92" t="s">
+        <v>79</v>
+      </c>
+      <c r="C92" s="3">
+        <v>2011</v>
+      </c>
+      <c r="D92" t="s">
+        <v>19</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B93" t="s">
+        <v>81</v>
+      </c>
+      <c r="C93" s="3">
+        <v>2013</v>
+      </c>
+      <c r="D93" t="s">
+        <v>82</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B94" t="s">
         <v>262</v>
       </c>
-      <c r="C92" s="3">
+      <c r="C94" s="3">
         <v>2022</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D94" t="s">
         <v>265</v>
       </c>
-      <c r="E92" s="1" t="s">
+      <c r="E94" s="1" t="s">
         <v>264</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="B95" t="s">
+        <v>284</v>
+      </c>
+      <c r="C95" s="3">
+        <v>2023</v>
+      </c>
+      <c r="D95" t="s">
+        <v>286</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>287</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E26" r:id="rId1" xr:uid="{F6233517-0866-4B0A-B501-654979DF1645}"/>
-    <hyperlink ref="E30" r:id="rId2" xr:uid="{CBD7CBEE-D091-4342-A7E0-41DE558F1037}"/>
-    <hyperlink ref="E33" r:id="rId3" xr:uid="{225B3A1D-B3F0-4695-9FC4-4F153794A4FC}"/>
-    <hyperlink ref="E34" r:id="rId4" xr:uid="{7A1A6A3D-3414-4BF6-BEDD-0EE0347C319E}"/>
-    <hyperlink ref="E35" r:id="rId5" xr:uid="{4CEF4617-6BD3-44D3-8DC1-60D790061756}"/>
-    <hyperlink ref="E46" r:id="rId6" xr:uid="{7D05E552-8270-4F5D-AC46-1ED37444A309}"/>
-    <hyperlink ref="E47" r:id="rId7" xr:uid="{6C173CBA-3446-4E84-9A3E-965DF6C6C088}"/>
-    <hyperlink ref="E48" r:id="rId8" xr:uid="{1846651B-6412-4AFB-AFB8-F96A2B371A6C}"/>
-    <hyperlink ref="E49" r:id="rId9" xr:uid="{C7270FA0-2830-4BB7-B110-850D8F971AEE}"/>
-    <hyperlink ref="E50" r:id="rId10" xr:uid="{D8221DFD-AF62-413A-9472-7B2D09F8AB38}"/>
-    <hyperlink ref="E51" r:id="rId11" xr:uid="{92989DC9-D56C-47D5-BFEE-71F6C0F3A548}"/>
-    <hyperlink ref="E53" r:id="rId12" xr:uid="{5B9642B1-4705-45AB-89BE-F072B333EBB6}"/>
-    <hyperlink ref="E62" r:id="rId13" xr:uid="{F05B4BA6-E510-400E-8A22-DBADEF073FBF}"/>
-    <hyperlink ref="E63" r:id="rId14" xr:uid="{3BF46FAB-1246-4475-A357-107735FE4BDF}"/>
-    <hyperlink ref="E64" r:id="rId15" xr:uid="{D048DBA0-6B3B-4476-A0C3-4EB3819321C8}"/>
-    <hyperlink ref="E65" r:id="rId16" xr:uid="{1437ABFF-76B7-4768-9BD6-04546FB41212}"/>
+    <hyperlink ref="E27" r:id="rId1" xr:uid="{F6233517-0866-4B0A-B501-654979DF1645}"/>
+    <hyperlink ref="E31" r:id="rId2" xr:uid="{CBD7CBEE-D091-4342-A7E0-41DE558F1037}"/>
+    <hyperlink ref="E34" r:id="rId3" xr:uid="{225B3A1D-B3F0-4695-9FC4-4F153794A4FC}"/>
+    <hyperlink ref="E35" r:id="rId4" xr:uid="{7A1A6A3D-3414-4BF6-BEDD-0EE0347C319E}"/>
+    <hyperlink ref="E36" r:id="rId5" xr:uid="{4CEF4617-6BD3-44D3-8DC1-60D790061756}"/>
+    <hyperlink ref="E47" r:id="rId6" xr:uid="{7D05E552-8270-4F5D-AC46-1ED37444A309}"/>
+    <hyperlink ref="E48" r:id="rId7" xr:uid="{6C173CBA-3446-4E84-9A3E-965DF6C6C088}"/>
+    <hyperlink ref="E49" r:id="rId8" xr:uid="{1846651B-6412-4AFB-AFB8-F96A2B371A6C}"/>
+    <hyperlink ref="E50" r:id="rId9" xr:uid="{C7270FA0-2830-4BB7-B110-850D8F971AEE}"/>
+    <hyperlink ref="E51" r:id="rId10" xr:uid="{D8221DFD-AF62-413A-9472-7B2D09F8AB38}"/>
+    <hyperlink ref="E52" r:id="rId11" xr:uid="{92989DC9-D56C-47D5-BFEE-71F6C0F3A548}"/>
+    <hyperlink ref="E54" r:id="rId12" xr:uid="{5B9642B1-4705-45AB-89BE-F072B333EBB6}"/>
+    <hyperlink ref="E63" r:id="rId13" xr:uid="{F05B4BA6-E510-400E-8A22-DBADEF073FBF}"/>
+    <hyperlink ref="E64" r:id="rId14" xr:uid="{3BF46FAB-1246-4475-A357-107735FE4BDF}"/>
+    <hyperlink ref="E65" r:id="rId15" xr:uid="{D048DBA0-6B3B-4476-A0C3-4EB3819321C8}"/>
+    <hyperlink ref="E66" r:id="rId16" xr:uid="{1437ABFF-76B7-4768-9BD6-04546FB41212}"/>
     <hyperlink ref="E14" r:id="rId17" xr:uid="{DF9385FD-36DB-4A19-8CBC-22A0966BA589}"/>
-    <hyperlink ref="E66" r:id="rId18" xr:uid="{A49C63A5-4761-4004-903F-BDC70A97AEB9}"/>
-    <hyperlink ref="E67" r:id="rId19" xr:uid="{475B209A-E520-460B-B1CA-985518CA6942}"/>
-    <hyperlink ref="E71" r:id="rId20" xr:uid="{365A4CF1-32B5-4CD5-8ACD-8871125C9A40}"/>
-    <hyperlink ref="E72" r:id="rId21" xr:uid="{F2B048DB-66F1-433F-824F-55CCC95C49F5}"/>
-    <hyperlink ref="E73" r:id="rId22" xr:uid="{B72A565C-741D-4F46-9AF2-3331FE245855}"/>
-    <hyperlink ref="E74" r:id="rId23" xr:uid="{81A40882-ACC5-427E-BC31-0390936D9ADA}"/>
-    <hyperlink ref="E75" r:id="rId24" xr:uid="{BAC61EA9-3ABF-4FBA-AB98-603E87B01642}"/>
-    <hyperlink ref="E76" r:id="rId25" xr:uid="{F311DB40-30CB-49FF-89EB-8929E8CC149D}"/>
-    <hyperlink ref="E77" r:id="rId26" xr:uid="{B1672B26-3311-4AB8-8DB8-10AB5E887662}"/>
-    <hyperlink ref="E84" r:id="rId27" xr:uid="{E1CC58C1-4BAD-4445-B722-3DC7F9057180}"/>
-    <hyperlink ref="E86" r:id="rId28" xr:uid="{AF7EF548-2486-4D16-93AD-8972177ECDC3}"/>
-    <hyperlink ref="E87" r:id="rId29" xr:uid="{24D15E37-D60C-432F-9CED-DCB5F84A8EA1}"/>
-    <hyperlink ref="E88" r:id="rId30" xr:uid="{E65E5986-C0ED-4D73-B262-03C37CE34824}"/>
-    <hyperlink ref="E90" r:id="rId31" xr:uid="{48A3DD7D-15A4-49DF-9BB8-0BF37E9BA8BF}"/>
-    <hyperlink ref="E91" r:id="rId32" xr:uid="{EB968D9A-2B1C-4356-8976-E3B995613790}"/>
+    <hyperlink ref="E67" r:id="rId18" xr:uid="{A49C63A5-4761-4004-903F-BDC70A97AEB9}"/>
+    <hyperlink ref="E68" r:id="rId19" xr:uid="{475B209A-E520-460B-B1CA-985518CA6942}"/>
+    <hyperlink ref="E72" r:id="rId20" xr:uid="{365A4CF1-32B5-4CD5-8ACD-8871125C9A40}"/>
+    <hyperlink ref="E73" r:id="rId21" xr:uid="{F2B048DB-66F1-433F-824F-55CCC95C49F5}"/>
+    <hyperlink ref="E74" r:id="rId22" xr:uid="{B72A565C-741D-4F46-9AF2-3331FE245855}"/>
+    <hyperlink ref="E75" r:id="rId23" xr:uid="{81A40882-ACC5-427E-BC31-0390936D9ADA}"/>
+    <hyperlink ref="E76" r:id="rId24" xr:uid="{BAC61EA9-3ABF-4FBA-AB98-603E87B01642}"/>
+    <hyperlink ref="E77" r:id="rId25" xr:uid="{F311DB40-30CB-49FF-89EB-8929E8CC149D}"/>
+    <hyperlink ref="E78" r:id="rId26" xr:uid="{B1672B26-3311-4AB8-8DB8-10AB5E887662}"/>
+    <hyperlink ref="E86" r:id="rId27" xr:uid="{E1CC58C1-4BAD-4445-B722-3DC7F9057180}"/>
+    <hyperlink ref="E88" r:id="rId28" xr:uid="{AF7EF548-2486-4D16-93AD-8972177ECDC3}"/>
+    <hyperlink ref="E89" r:id="rId29" xr:uid="{24D15E37-D60C-432F-9CED-DCB5F84A8EA1}"/>
+    <hyperlink ref="E90" r:id="rId30" xr:uid="{E65E5986-C0ED-4D73-B262-03C37CE34824}"/>
+    <hyperlink ref="E92" r:id="rId31" xr:uid="{48A3DD7D-15A4-49DF-9BB8-0BF37E9BA8BF}"/>
+    <hyperlink ref="E93" r:id="rId32" xr:uid="{EB968D9A-2B1C-4356-8976-E3B995613790}"/>
     <hyperlink ref="E3" r:id="rId33" xr:uid="{B8FCB838-5B1C-4D4C-B527-4AB9924EB2D3}"/>
     <hyperlink ref="E4" r:id="rId34" xr:uid="{025C23AA-1E34-4632-B635-9FA1B738A3E9}"/>
     <hyperlink ref="E5" r:id="rId35" xr:uid="{C7F936C0-3049-4E9A-8E0A-D27C6AB16FBC}"/>
@@ -2911,60 +2993,63 @@
     <hyperlink ref="E16" r:id="rId37" xr:uid="{66FE564C-E3E8-4D41-8387-922E5C4C1218}"/>
     <hyperlink ref="E19" r:id="rId38" xr:uid="{4692811E-5658-4F6D-888F-1FA57CB69055}"/>
     <hyperlink ref="E21" r:id="rId39" xr:uid="{77B6D308-44FF-4E92-BBFB-EF9AD6EA9A68}"/>
-    <hyperlink ref="E22" r:id="rId40" xr:uid="{7AFECFFC-8ADB-41C7-841B-216E556AAA4F}"/>
-    <hyperlink ref="E25" r:id="rId41" xr:uid="{DB25165C-39D2-4A45-B455-85A8EEDFE6B6}"/>
-    <hyperlink ref="E28" r:id="rId42" xr:uid="{458C6FF6-3543-45CE-9606-8A3082F62F0A}"/>
-    <hyperlink ref="E31" r:id="rId43" xr:uid="{94EFA63E-CE0C-4475-A396-18D53D8A6EC4}"/>
-    <hyperlink ref="E32" r:id="rId44" xr:uid="{92D4FFEE-7B65-4017-A716-809C7F8B0E04}"/>
-    <hyperlink ref="E36" r:id="rId45" xr:uid="{0B76847B-6C94-4E2D-A094-FCE72CC29EBF}"/>
-    <hyperlink ref="E37" r:id="rId46" xr:uid="{81C1C27A-8200-4CB8-8CA5-E4B85D519FDA}"/>
-    <hyperlink ref="E39" r:id="rId47" xr:uid="{B80CDD91-38DA-4375-88A0-B543FE2A3CCB}"/>
-    <hyperlink ref="E54" r:id="rId48" xr:uid="{085EF44D-1625-46A8-B320-B4D73C2793C3}"/>
+    <hyperlink ref="E23" r:id="rId40" xr:uid="{7AFECFFC-8ADB-41C7-841B-216E556AAA4F}"/>
+    <hyperlink ref="E26" r:id="rId41" xr:uid="{DB25165C-39D2-4A45-B455-85A8EEDFE6B6}"/>
+    <hyperlink ref="E29" r:id="rId42" xr:uid="{458C6FF6-3543-45CE-9606-8A3082F62F0A}"/>
+    <hyperlink ref="E32" r:id="rId43" xr:uid="{94EFA63E-CE0C-4475-A396-18D53D8A6EC4}"/>
+    <hyperlink ref="E33" r:id="rId44" xr:uid="{92D4FFEE-7B65-4017-A716-809C7F8B0E04}"/>
+    <hyperlink ref="E37" r:id="rId45" xr:uid="{0B76847B-6C94-4E2D-A094-FCE72CC29EBF}"/>
+    <hyperlink ref="E38" r:id="rId46" xr:uid="{81C1C27A-8200-4CB8-8CA5-E4B85D519FDA}"/>
+    <hyperlink ref="E40" r:id="rId47" xr:uid="{B80CDD91-38DA-4375-88A0-B543FE2A3CCB}"/>
+    <hyperlink ref="E55" r:id="rId48" xr:uid="{085EF44D-1625-46A8-B320-B4D73C2793C3}"/>
     <hyperlink ref="E7" r:id="rId49" xr:uid="{9050D2E2-A996-4813-BDAB-90A6E969B393}"/>
     <hyperlink ref="E8" r:id="rId50" xr:uid="{3FB58120-E5D0-4688-A553-FA719EE8AF86}"/>
     <hyperlink ref="E9" r:id="rId51" xr:uid="{27E6CD87-1D85-4CFF-82C0-B75E68882093}"/>
     <hyperlink ref="E10" r:id="rId52" xr:uid="{5726F0E2-EBA2-49FB-B482-C266FBD309BF}"/>
-    <hyperlink ref="E78" r:id="rId53" xr:uid="{34EFA9BA-9C8C-4881-A64C-2F70C6927793}"/>
-    <hyperlink ref="E80" r:id="rId54" xr:uid="{FE82914B-DA2F-43D9-856E-F8B21C1D980D}"/>
-    <hyperlink ref="E41" r:id="rId55" xr:uid="{49BBE16D-F3C9-4615-B1B4-B8FA17A26DD4}"/>
-    <hyperlink ref="E43" r:id="rId56" xr:uid="{1A356FB0-7765-46F0-BC27-98202B7BF4A6}"/>
+    <hyperlink ref="E79" r:id="rId53" xr:uid="{34EFA9BA-9C8C-4881-A64C-2F70C6927793}"/>
+    <hyperlink ref="E81" r:id="rId54" xr:uid="{FE82914B-DA2F-43D9-856E-F8B21C1D980D}"/>
+    <hyperlink ref="E42" r:id="rId55" xr:uid="{49BBE16D-F3C9-4615-B1B4-B8FA17A26DD4}"/>
+    <hyperlink ref="E44" r:id="rId56" xr:uid="{1A356FB0-7765-46F0-BC27-98202B7BF4A6}"/>
     <hyperlink ref="E2" r:id="rId57" xr:uid="{3BAF40B7-94EB-4B77-B83C-2E2E101DCD73}"/>
     <hyperlink ref="E20" r:id="rId58" xr:uid="{5012CD22-B9C1-451C-B278-3127E823477E}"/>
-    <hyperlink ref="E44" r:id="rId59" xr:uid="{B44F470F-A038-4D03-B4FC-3A710C4A1E53}"/>
-    <hyperlink ref="E45" r:id="rId60" xr:uid="{1B9F5F78-B40E-4B01-BBE4-7D5D05B0494D}"/>
-    <hyperlink ref="E56" r:id="rId61" xr:uid="{C51AD600-C6A8-4CD8-A6ED-A309C6A9E5FF}"/>
-    <hyperlink ref="E70" r:id="rId62" xr:uid="{35E24552-4BD2-4643-8BC5-2933C5863306}"/>
-    <hyperlink ref="E59" r:id="rId63" xr:uid="{59C100E4-5D91-46FA-A9CF-7FC950AC6162}"/>
-    <hyperlink ref="E60" r:id="rId64" xr:uid="{27B81F4A-B5A2-4B95-B182-8E237716E03C}"/>
-    <hyperlink ref="E61" r:id="rId65" xr:uid="{BBBA124A-D9A7-49CF-9B5E-6218C904469C}"/>
-    <hyperlink ref="E81" r:id="rId66" xr:uid="{BC23E410-1E83-43B7-B83C-8F7E64BB9146}"/>
-    <hyperlink ref="E83" r:id="rId67" xr:uid="{F2AEE35C-42C1-4BFE-B760-AA86FE091591}"/>
-    <hyperlink ref="E79" r:id="rId68" xr:uid="{CBE85328-B553-4738-90B3-7F3A5579E07D}"/>
-    <hyperlink ref="E57" r:id="rId69" xr:uid="{5319E4AF-8DD0-4C01-A448-C6A50345BF6D}"/>
-    <hyperlink ref="E89" r:id="rId70" xr:uid="{105DD274-8872-41F3-9AEE-CB0929A91BD7}"/>
-    <hyperlink ref="E82" r:id="rId71" xr:uid="{E4C036B5-8E63-4154-81B7-386C17DE26F0}"/>
-    <hyperlink ref="E85" r:id="rId72" xr:uid="{EA050D64-47A3-4EF1-B293-1513E65F8A17}"/>
-    <hyperlink ref="E27" r:id="rId73" xr:uid="{FE69776B-DAB8-458E-A1CC-CC4D45FB990E}"/>
-    <hyperlink ref="E24" r:id="rId74" xr:uid="{B8709E17-82C3-4C15-AFCA-FDBC6C0E3742}"/>
-    <hyperlink ref="E40" r:id="rId75" xr:uid="{AD9E04E9-7330-4AEB-B1D5-0D658D10BE4C}"/>
-    <hyperlink ref="E52" r:id="rId76" xr:uid="{2D09DA48-0CC3-4E7B-88DF-4906ADFE3995}"/>
+    <hyperlink ref="E45" r:id="rId59" xr:uid="{B44F470F-A038-4D03-B4FC-3A710C4A1E53}"/>
+    <hyperlink ref="E46" r:id="rId60" xr:uid="{1B9F5F78-B40E-4B01-BBE4-7D5D05B0494D}"/>
+    <hyperlink ref="E57" r:id="rId61" xr:uid="{C51AD600-C6A8-4CD8-A6ED-A309C6A9E5FF}"/>
+    <hyperlink ref="E71" r:id="rId62" xr:uid="{35E24552-4BD2-4643-8BC5-2933C5863306}"/>
+    <hyperlink ref="E60" r:id="rId63" xr:uid="{59C100E4-5D91-46FA-A9CF-7FC950AC6162}"/>
+    <hyperlink ref="E61" r:id="rId64" xr:uid="{27B81F4A-B5A2-4B95-B182-8E237716E03C}"/>
+    <hyperlink ref="E62" r:id="rId65" xr:uid="{BBBA124A-D9A7-49CF-9B5E-6218C904469C}"/>
+    <hyperlink ref="E82" r:id="rId66" xr:uid="{BC23E410-1E83-43B7-B83C-8F7E64BB9146}"/>
+    <hyperlink ref="E85" r:id="rId67" xr:uid="{F2AEE35C-42C1-4BFE-B760-AA86FE091591}"/>
+    <hyperlink ref="E80" r:id="rId68" xr:uid="{CBE85328-B553-4738-90B3-7F3A5579E07D}"/>
+    <hyperlink ref="E58" r:id="rId69" xr:uid="{5319E4AF-8DD0-4C01-A448-C6A50345BF6D}"/>
+    <hyperlink ref="E91" r:id="rId70" xr:uid="{105DD274-8872-41F3-9AEE-CB0929A91BD7}"/>
+    <hyperlink ref="E83" r:id="rId71" xr:uid="{E4C036B5-8E63-4154-81B7-386C17DE26F0}"/>
+    <hyperlink ref="E87" r:id="rId72" xr:uid="{EA050D64-47A3-4EF1-B293-1513E65F8A17}"/>
+    <hyperlink ref="E28" r:id="rId73" xr:uid="{FE69776B-DAB8-458E-A1CC-CC4D45FB990E}"/>
+    <hyperlink ref="E25" r:id="rId74" xr:uid="{B8709E17-82C3-4C15-AFCA-FDBC6C0E3742}"/>
+    <hyperlink ref="E41" r:id="rId75" xr:uid="{AD9E04E9-7330-4AEB-B1D5-0D658D10BE4C}"/>
+    <hyperlink ref="E53" r:id="rId76" xr:uid="{2D09DA48-0CC3-4E7B-88DF-4906ADFE3995}"/>
     <hyperlink ref="E11" r:id="rId77" xr:uid="{B5D6E16B-F7EF-4C36-9A76-398183A004C2}"/>
     <hyperlink ref="E12" r:id="rId78" xr:uid="{8507CF97-BF71-48EE-BF72-FBA48E58E257}"/>
     <hyperlink ref="E6" r:id="rId79" xr:uid="{2AD287B9-A515-4B7A-9193-19E3FF1CE180}"/>
-    <hyperlink ref="E38" r:id="rId80" xr:uid="{BFE39045-5577-49A9-89A1-E0DB4996C6DA}"/>
-    <hyperlink ref="E58" r:id="rId81" xr:uid="{8B63BAC3-AAA6-455E-AE1C-8772DBB5A56E}"/>
-    <hyperlink ref="E29" r:id="rId82" xr:uid="{78C7F296-E3FD-48D3-BBE4-CD1D8A0AED49}"/>
-    <hyperlink ref="E69" r:id="rId83" xr:uid="{2C17C395-6C02-4456-85EF-9EAE2FEB6129}"/>
+    <hyperlink ref="E39" r:id="rId80" xr:uid="{BFE39045-5577-49A9-89A1-E0DB4996C6DA}"/>
+    <hyperlink ref="E59" r:id="rId81" xr:uid="{8B63BAC3-AAA6-455E-AE1C-8772DBB5A56E}"/>
+    <hyperlink ref="E30" r:id="rId82" xr:uid="{78C7F296-E3FD-48D3-BBE4-CD1D8A0AED49}"/>
+    <hyperlink ref="E70" r:id="rId83" xr:uid="{2C17C395-6C02-4456-85EF-9EAE2FEB6129}"/>
     <hyperlink ref="E17" r:id="rId84" xr:uid="{2CE98761-AD59-4695-BE00-67D2A022A16D}"/>
-    <hyperlink ref="E92" r:id="rId85" xr:uid="{0EA24F29-464E-438F-8449-57D70968DEB4}"/>
-    <hyperlink ref="E68" r:id="rId86" xr:uid="{7CA4D10A-241E-4304-AA2F-B33937FF70DE}"/>
-    <hyperlink ref="E23" r:id="rId87" xr:uid="{ADE8BB04-288B-41A9-945F-A11F2B5E5D98}"/>
+    <hyperlink ref="E94" r:id="rId85" xr:uid="{0EA24F29-464E-438F-8449-57D70968DEB4}"/>
+    <hyperlink ref="E69" r:id="rId86" xr:uid="{7CA4D10A-241E-4304-AA2F-B33937FF70DE}"/>
+    <hyperlink ref="E24" r:id="rId87" xr:uid="{ADE8BB04-288B-41A9-945F-A11F2B5E5D98}"/>
     <hyperlink ref="E13" r:id="rId88" xr:uid="{5ADC9042-7177-45C9-A970-573DFE329214}"/>
     <hyperlink ref="E18" r:id="rId89" xr:uid="{4ED008F2-0E13-470C-A6A9-E49EFFD50876}"/>
-    <hyperlink ref="E55" r:id="rId90" xr:uid="{A2CEA0A1-A124-499F-9172-F119EB66ACD1}"/>
-    <hyperlink ref="E42" r:id="rId91" xr:uid="{2C43AAEE-E335-4116-9A57-77B33884D6E4}"/>
+    <hyperlink ref="E56" r:id="rId90" xr:uid="{A2CEA0A1-A124-499F-9172-F119EB66ACD1}"/>
+    <hyperlink ref="E43" r:id="rId91" xr:uid="{2C43AAEE-E335-4116-9A57-77B33884D6E4}"/>
+    <hyperlink ref="E84" r:id="rId92" xr:uid="{8C60659F-0EBE-466B-AE61-A2136375A76E}"/>
+    <hyperlink ref="E95" r:id="rId93" xr:uid="{4CCDC52E-8C68-46CC-97DD-156508D16E0D}"/>
+    <hyperlink ref="E22" r:id="rId94" xr:uid="{70924660-2CAB-4300-92B3-34DAD6D06355}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId92"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId95"/>
 </worksheet>
 </file>